--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -4,23 +4,31 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Acknowledgement and Dedication" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chapter 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Chapter 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc71390804" localSheetId="0">'Acknowledgement and Dedication'!$A$2</definedName>
     <definedName name="_Toc71390808" localSheetId="1">'Chapter 1'!$A$2</definedName>
+    <definedName name="_Toc71392403" localSheetId="2">'Chapter 2'!$A$2</definedName>
+    <definedName name="_Toc71392404" localSheetId="3">'Chapter 3'!$A$2</definedName>
+    <definedName name="_Toc71397457" localSheetId="2">'Chapter 2'!$A$6</definedName>
+    <definedName name="_Toc71397458" localSheetId="2">'Chapter 2'!$A$14</definedName>
+    <definedName name="_Toc71397459" localSheetId="2">'Chapter 2'!$A$22</definedName>
+    <definedName name="_Toc71397460" localSheetId="2">'Chapter 2'!$A$28</definedName>
+    <definedName name="_Toc71397461" localSheetId="2">'Chapter 2'!$A$36</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="144">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -203,6 +211,255 @@
   </si>
   <si>
     <t xml:space="preserve">Paka dhopadhola fuod ongoye kod ndiiko mere m’otire miluwo (Standard Orthography), amomiyo wach madit manitye i kitawo me i bino nwaŋo ni ndiiko mere okidho ka wire wire.  </t>
+  </si>
+  <si>
+    <t>Wok ndir ma jo Padhola jo konyo iye Wakoli, jo Ngaya jo mako rijo nge madwoŋ swa, to jo mito bino chulo kwor bothi jo, ni rupir ama jo miyo Wakoli oturo jo.</t>
+  </si>
+  <si>
+    <t>LWENY PA JO PADHOLA</t>
+  </si>
+  <si>
+    <t>Indir ma Adhola donjo i piny me onwaŋo ngoye ji man to rumachien ma oro chiegin mia aryo tundo mia adek, nono meg to chako bino gi kwinyo jo to gime kelo lweny.</t>
+  </si>
+  <si>
+    <t>Mono meg me paka jo Sewe ndirino jo wok yo thenge ma jwom Malawa yo Kenya, aka nono meg jo wok yo telin ma Misowa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bedo pa lweny me rumachien tek tek ama, bende nyutho ni chango onwaŋo piny me ongoye ji man. </t>
+  </si>
+  <si>
+    <t>Bedi ka ameno di Adhola gin jo konyalo bedo iiye majo kokutho jo lwenyo; kendo di Owiny gin di jo konyalo woth tundo yo Kenya korogye mako lweny gijo gineko jo iyo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lweny ma dongo chango obedo awichiel ama: </t>
+  </si>
+  <si>
+    <t>lweny kod jo Sewe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lweny kod jo Misowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lweny pa Wakoli yo Busoga </t>
+  </si>
+  <si>
+    <t>lweny kod jo Ngaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kod lweny pa Kakunguru ama gike, to lweny me abino tito kwome i Siro 5. </t>
+  </si>
+  <si>
+    <t>lweny go Omwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo Sewe me jo nyalo bedo jo Masai mandirino jo wotho wok yo Kenya ka jo kwayo dhok pajo odoko ka jo mito mayo ji gigipiny pa jo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I woth pajo me ama jo chombo iye i piny me. Obedo wor achiel to jo tundo yo Matindi to jo chako neko ji munwaŋo jo nitye kenyo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka jino madit mere onwaŋo obedo nono jo Ramogi, amumiyo jo Ramogi jo wero kir pama ni “Sewe oneko yach ma Matindi kada g’operenje.”  </t>
+  </si>
+  <si>
+    <t>Sewe jowaŋo udi to jo neko ji madit kareno jo lwenyo g’asere kod tonge, to jo ay jo ringo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lweny me obwoka bwoka jo Padhola amumiyo jo konyalo yikirok gi lweny maber wori no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To wok indirino to jo Padhola jo chako yikirok ri lweny, jo kunyo wugo kweth mabin jo kano iye mon kod nyithindho ka lweny otundo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wugo me yado kis nono kunyo apa jo. </t>
+  </si>
+  <si>
+    <t>Kendo jo kunyo buche man thoko gine udi pajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To bin ka jo Sewe jo mwonjo jo i dye wor (jo Sewe yado jo kimit lweny odiochieŋ jo liwo jo wor ayino), to jo podho i buche me mu thoko udi, to jo Padhola jo bino nwoyo jo anwoya gi kenyo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To ndir man ka jo bino odiochieŋ ji gye jo donjo i wugo, to jo Sewe jo ngoye gi ji ma jo neki to jo waŋo udi to jo dok. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lweny pa jo Sewe ochando jo Padhola swa rupir ndirino nyaka jo chako lweny, aka fuod jo kotegino maber.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kada ameno, ri rieko ma kunyo buche thoko udi jo nyalo neko jo Sewe Maditi mere, aka nyaka manok mudoŋ ti riemo riema jo kalo jwom Malawa, ti mayo jo kir dhok pajo. </t>
+  </si>
+  <si>
+    <t>Wok ndirino jo Sewe jo kodok jo dwoko lweny.</t>
+  </si>
+  <si>
+    <t>Jo Misowa me a Wagisu.</t>
+  </si>
+  <si>
+    <t>Lweny me obedo ni jo Misowa ama jo pen kwinyo jo Padhola to jo Padhola, rupir jo Sewe ndirino jo tieko fuonjo jo lweny to jo neko jo Misowa to jo riemo jo kir witelin ma yopiny pajo.</t>
+  </si>
+  <si>
+    <t>Rumachien jo Padhola bende jo mito ni jo kidhi kwinyo jo Misowa yo witelin pajo koro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To kada jo Misowa ndirino jo nyapi gi lweny, jo Padhola ri wach ma jo kuya gine idho got gi woth iye jo ko nyalo lweny maber gi limo gigipiny munwaŋo jo kidho rigo paka chiemo, dhoki kod nyir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo temoye kadi kweth to jo dhiere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ri ameno to jo Padhola jo dhiro rijo Misowa wach ni jomak mere mungoye odoko lweny rupir jo dhiero jo turo jo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo Misowa bende jo yeyere gi wach me; to jo yiko romo ika bedo achiel giparo kwom gigipiny mu nwaŋo ramo jo thenge korin gi korin.  </t>
+  </si>
+  <si>
+    <t>I romo me jo Padhola kod jo Misowa gye jo tweyo kit chiemo gi riŋo to jo bino gine, to jo tedo to jo chiemo kanya achiel to jo mako mere kichutho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wok ndirino to jo Padhola jo chwoko ka bedo ma piny pajo machango jo romo iye gi jo Misowa, ni Mere-kit makir pama i lwoŋo ameno. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kareno jo wacho ni kenyo amuwok iye mere ma chale kod kit chiemo mandirino jo tero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To rwooth achiel ma Busoga chiegin ikew kod jo Padhola, mi lwoŋo ni Wakoli to lwoŋo jo Padhola konyo go gi lweny gi Baganda (Jomagara) mu nwaŋo jo mwonjo go lweny gine i piny pere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo Padhola bende jo kokwero rupir Wakoli owacho miyo jo nyir, chiemo kod ŋaŋo man mathindho thindho mandirino ongoye yo Padhola. </t>
+  </si>
+  <si>
+    <t>Kuma jo Padhola jo tundo, to jo lwenyo swa ri Wasoga to jo turo Jomagere ma ndirino jo Padhola jo chwoko jo ni jo Ngaya, to jo riemo jo wok i piny pa Wakoli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To jo Padhola jo dwoko i piny pajo gi kemba ma Wakoli omiyo jo.</t>
+  </si>
+  <si>
+    <t>To hongo kadho moro to jo Ngaya jo bino mwonjo jo Padhola.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nen tipo (map) ma Padhola. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To munyo Padhola gye jowinjo ni jo Ngaya jo bino lweny to jo kidho rijo kuma onwaŋo jo yuomere iye, kajo wacho ni, “Wirooko!  Wirooko!  Widooma!  Widooma konon!” to jo chako neko jo Ngaya pa nyithindho winyini dho jwom ma pama i lwoŋo ni Wadama.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gi mumiyo jo Padhola turo jo Ngaya ma piyo piyo, rupir ndirino jo Ngaya jo lwenyo gi tonge madongo kod kwoot mathindho thindho, aka tonge no ripek mere dhano chore achora chiegin aka chwowo gimoro.  </t>
+  </si>
+  <si>
+    <t>To jo Padhola ndirino tonge pa jo mathindho aka jo bola bola gi bor to chwowo gimoro kada kochore ka bothe chiegin, aka kwoot pajo ndirino dongo ma geŋo jo maber.</t>
+  </si>
+  <si>
+    <t>Wok ndirino to jo Ngaya jokodok jo dwoko kwinyo jo Padhola.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To kende jo Ngaya majo ringo, ama jo kowo ri Kakunguru miseni pajo Padhola kod paka joturo jo; amumiyo Kakunguru bende obino rumachien chulo kwor mere (nen Siro 5).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kir jwom mu lweny iiye ti lwoŋo ni Wadama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyole ama chango jo Padhola jo chwoko ni Omwa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo me ajoger pa jo Padhola machon kendo lweny kod jo yado bedo chiegin kis dwe kareno jo gye jo mwonjere amwonja.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lweny me chango oasa lwenyirok yo kew yo thenge ma Buwesa, ma jo Padhola jo lwoŋo ni Wesa, yo Senda kod yo Paya. </t>
+  </si>
+  <si>
+    <t>Yado ka jo Padhola jo neno ni dwe opor aka chingi dwe marachuch amuŋiyo malo to jo kidho mwonjo Omwa ni rupir ndirino silwany apa jo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lweny ma kite me otero hongo ma lach swa to kelo kwoor ma dwoŋ tek tek bothi jo Padhola kod Banyole. </t>
+  </si>
+  <si>
+    <t>Tundo pama, mere odoko dwoko bothi jo munyo jo nywomere kir gi nywomirok mungoye dhaw moro gye.</t>
+  </si>
+  <si>
+    <t>To ka dwe opor ma chinge maracham amutiŋere malo meno iwacho ni otiŋo chingi Omwa malo ko mwonji jo kosa kajo amajo mwonjo jo Padhola, jo amajo turo lweny no.</t>
+  </si>
+  <si>
+    <t>Kareno gima dwoŋ chango jo Padhola jo mito mayo jo chiemo pajo, rupir jo Padhola i hongo ma yochien munyo jo ŋiyo gi lweny tek tek jo kodok jo bedo jo fur madongo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To wok ibino pa Kakunguru chiegin yo oro 1890, lweny me kodok obedo kada dichiel.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To jo chwoko jo Padhola ni Badama, ka jo kwanyo kwom wach machango jo Padhola jo wacho rijo ni “Widoma”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutho jo Ngaya jo neko jo Padhola madit kod waŋo udi rupir jo liwo aliwa jo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indir ma jo Padhola jo tieko lwenyo lweny aryo madongo apa jo Sewe kod apa jo Misowa, to nyingi jo chako winjirok kir wiloka man. </t>
+  </si>
+  <si>
+    <t>OGUTI LOKERE JA PADHOLA</t>
+  </si>
+  <si>
+    <t>To tho i oro 1912.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ri kayo chinge machango wode okayo. </t>
+  </si>
+  <si>
+    <t>Ndir munyo Oguti oneno ni lim pere dit, aka iyadech ma Pokoŋo onyo diny rigo to kwayo jo dongo pere ti yeyogo chorirok yo Tororo kuma chango nitye jonono Bendo pere man madit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oguti chango obedo dhano munywol go yo thenge ma Kachumbala i Teso District; aka yo koro bende ama go owok iye aka owotho to donjo i Padhola. </t>
+  </si>
+  <si>
+    <t>Gimo oriemo Oguti yo thugin won kiŋeyere, to ginago ripo bedo gimadwoŋ swa mumiyo go okun kichutho wok bothi wade pere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ndirino Oguti onwaŋo fuod nyiyach muripo ripo.  Gime otimere yo Nagongera iyadech ma Pokoŋo.</t>
+  </si>
+  <si>
+    <t>Munyo onen ni Oguti nyath maber, ryeki aka odoko nitye kod men, to jo dongo jo chokere to jo penjo go kole ka mito lokirok ja Padhola kosa onyo mito dok yo thugin.</t>
+  </si>
+  <si>
+    <t>To go kwero ni kinyal odoko dok wok paka chango jo thugin jotieko riemo go.  Ri ameno titero Oguti i migam to kwoŋere iye ka wacho ni otieko lokirok ja Padhola kichutho, ti lamo go imigam no, ti gwero go kod yen malweny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milweni to nywomo ri Oguti mon adek: Abotha meno obedo nyaja Ramogi, kod Nyagoli gi Nyakuya nyir Morwa Sule. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo Padhola to jo mito Oguti swa riwach ma men pere yo lweny, mayado go asa lwenyo gi men pere gye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo ri kiyaka mayado iyaka gigipiny yo lweny, Oguti bende chango oyaka dhok madit yo lweny to kelo rigo ŋaŋo gi medo nywomo mon madit swa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wok ndirino to lokere nyath ma pecho kendo ma ja Padhola, to chako lwoŋo Owaro ni Omini aka Milweni kod mini Owaro to jo bedo baa mere kod mini.  </t>
+  </si>
+  <si>
+    <t>Rumachien munyo Oguti oŋaŋ to kwayo jo nono pere ni oyey go lwoŋo ye jo thugin man bende jo obin jo bed gine i Padhola.</t>
+  </si>
+  <si>
+    <t>Me achako bino pa ji mawok yo District ma Teso donjo i Padhola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ka, amunyo ji man majo wok thenge ma Kenya aka jo winjereye dhodhok kod ji ma chango Oguti oomo jo yo Teso, bende to jo chako bino pere pa jagin pere.</t>
+  </si>
+  <si>
+    <t>Ti yeyere gine to kelo jo thugin man to jono bende jo lokere jo Padhola ma nono jo pa Bendo. .</t>
+  </si>
+  <si>
+    <t>Ji me bende to jo Padhola yeyere gijo bedo, ti chwoko nyingi jo ni Omia rupir chango jo wok yo thenge ma Kenya milwoŋo ni Mumias.</t>
+  </si>
+  <si>
+    <t>To Oguti iloko go bedo ja dwoŋ pajo, kareno imito ni go amunyuth ji me kula kod tim ma Padhola.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ji me bende to jo lokere jo Padhola kichutho, to jo chako nywomo nyir jo Padhola gi donjo i nonin ma Padhola mu pokere opokere.</t>
+  </si>
+  <si>
+    <t>nen Siro 5</t>
+  </si>
+  <si>
+    <t>Ri ŋeyirok machango Oguti oŋeyere iye yo lweny, munyo Kakunguru otieko turo piny me aka onyo iketho rwodhe Oguti bende timiyo bedo rwoth .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ja Bendo milwoŋo ni Milwen omunwaŋo Ogut i ger dhoki wor wor to dimo go to tero go pecho pere, to ketho go i oti padhako pere milwoŋo ni min Owaro. </t>
   </si>
 </sst>
 </file>
@@ -251,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -268,6 +525,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,12 +1189,470 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="69.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30">
+      <c r="A17" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30">
+      <c r="A19" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="45">
+      <c r="A21" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30">
+      <c r="A23" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="30">
+      <c r="A24" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="45">
+      <c r="A25" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="45">
+      <c r="A28" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="30">
+      <c r="A29" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="45">
+      <c r="A30" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="30">
+      <c r="A31" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="30">
+      <c r="A33" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30">
+      <c r="A34" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30">
+      <c r="A35" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30">
+      <c r="A36" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30">
+      <c r="A37" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="45">
+      <c r="A38" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="30">
+      <c r="A39" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="45">
+      <c r="A41" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="45">
+      <c r="A42" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="30">
+      <c r="A46" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="45">
+      <c r="A48" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="60">
+      <c r="A49" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="45">
+      <c r="A51" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="45">
+      <c r="A52" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="30">
+      <c r="A54" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="30">
+      <c r="A55" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="45">
+      <c r="A56" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="30">
+      <c r="A57" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="45">
+      <c r="A58" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="30">
+      <c r="A59" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="30">
+      <c r="A60" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="30">
+      <c r="A61" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="68.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45">
+      <c r="A7" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60">
+      <c r="A10" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30">
+      <c r="A17" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30">
+      <c r="A18" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="45">
+      <c r="A20" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="45">
+      <c r="A22" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Acknowledgement and Dedication" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 1" sheetId="2" r:id="rId2"/>
     <sheet name="Chapter 2" sheetId="3" r:id="rId3"/>
     <sheet name="Chapter 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Chapter 4" sheetId="5" r:id="rId5"/>
+    <sheet name="The rest" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc71390804" localSheetId="0">'Acknowledgement and Dedication'!$A$2</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="166">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -460,6 +462,72 @@
   </si>
   <si>
     <t xml:space="preserve"> Ja Bendo milwoŋo ni Milwen omunwaŋo Ogut i ger dhoki wor wor to dimo go to tero go pecho pere, to ketho go i oti padhako pere milwoŋo ni min Owaro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paka ichowo Bura nen Adech III, Siro 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To chowo Bura gikenyo; to wok ndirino to Majanga bedo ja tel ma chowo Bura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bura bedo i tele man yo Nyawiyoga</t>
+  </si>
+  <si>
+    <t>Yado chon onwaŋo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kumo okel gigipiny me totero jo yo lul Tewo (Nyakiriga) towacho rijo ni me atele ma kabedo manyien pa Bura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To munyo onwaŋ, ti penjo kumago owok iye, to kwero wacho rijo kwanyo woko ni kajo kelo rigo koŋo kod wot gwendi</t>
+  </si>
+  <si>
+    <t>I wacho ni nitye ndir ma Majanga orwenyo makinen tieko ndelo maromo abiriyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ri ameno to ji gye chako lworo Majanga gi miyogo dwoŋ gi winjo wach pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I lweny bende yado kowacho ni kidh win kumanyo, ko kidh thenge no tituro lweny, to kowacho ni kononi kada wikidho i bino turo win, apaka bende bedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Odoko ruman owacho ri ji ni nitye ogwaŋ Kwach neko nyako moro ka moro, ka ni kidho kenyo onwaŋ nyako no otieko kir tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wadi jo ko yeyo; to rigiraura madwoŋ ka ni kidho poyo, Nyielo to neko ŋato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Obedo ndir moro kuma jo kidho dwar, Majanga owacho ni nyawoti gin achiel Nyielo ya neko</t>
+  </si>
+  <si>
+    <t>To wok chon chango Majanga oneno paka nitye kod gi moro iwiye pa jwok, ma kowacho ni gi moro ya timere to gino timere atima ameno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To rupir chango baa mere otii aka ja chandi, omin baa mere mi lwoŋo ni Akure amunywomo rigo; kareno kutho Majanga odongo pere kakwayo rigo dhoki aka omito go swa pa nyath pere won</t>
+  </si>
+  <si>
+    <t>Majanga chango baa mere i lwoŋo ni Kinara ja Nyapolo Ogule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kendo chango obedo ja lweny mamisen swa, ama bin telo kir ji yo lweny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kir Akisili gye (nen Adech III, Siro 8), to bedo jatel mere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kada ameno otemo wacho ri jii ni joyikere ri lweny no; to rupir jo nicha chango jo lwenyo gi mundu amumiyo otur jo ma piyo piyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rumachien pa bino pa Kakunguru, Majanga obedo hongo manok to tho i oro chiegin 1905</t>
+  </si>
+  <si>
+    <t>SIRO 5</t>
+  </si>
+  <si>
+    <t>Majanga to limo dwoŋ madit ri kwom gigipiny me gye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ndiri ma Kakunguru donjo i piny me gi turo, onwa?o Majanga onyo obedo jadwoŋ m'oti</t>
   </si>
 </sst>
 </file>
@@ -841,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1191,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1520,7 +1588,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1655,4 +1723,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="300">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -528,6 +528,408 @@
   </si>
   <si>
     <t xml:space="preserve"> Ndiri ma Kakunguru donjo i piny me gi turo, onwa?o Majanga onyo obedo jadwoŋ m'oti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To gavumenti paka tero gimoro moth, jo liŋa aliŋa gi ywak me tundo 14 September, 1936, ma Bwana District Commissioner, Budama, mandirino bedo Tororo ochoko jo Padhola to wacho rijo ni onyo pama joyeyere dimo dhano pajo won obedi ja Saza kandelo 23 September 1936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To jo chako kwayo gavumenti ni omiy jo ja Saza ma ja Padhola won</t>
+  </si>
+  <si>
+    <t>Wok i oro chiegin 1925 jo Padhola joneno ni jo oli dhumirok gi jowiloka paka Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Kiwanuka bedo ja dwoŋ adhum marapena bedo i tindi mar'adhum ma Kisoko</t>
+  </si>
+  <si>
+    <t>Wok i oro 1929-1930, jo dongo Adhum jo paro wiro tindi mar'adhum kwanyo Nagongera tero Robongi mu par ni adier piny, to rumachien ti dok i geto Kisoko ayino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To munyo okowi Kiwanuka yo Padhola to Ali Afende Awor to lunjo kabedo pere paka Agent ma Samia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ndiri munyo oketh Eria Nsubuga bedo Agent ma Padhola Rasito Mayanja bende oketh bedo Agent ma Bunyole, aka Mikairi Kiwanuka Agent ma Samia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo Eriya oweyo tich to ja Magara man mi lwoŋo ni Mikairi Kiwanuka to bino lunjo ka bedo pere yo Nagongera paka Agent ma Padhola ioro 1928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To tho i oro 25 May 1956; kareno go ja oro 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kenyo amu wok iye to dok yo piny pajo yo Pamagara i oro February 1952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kidho i oti pere machango ogeto Bira, rumachien to tuki i oti pere man yo Mulanda</t>
+  </si>
+  <si>
+    <t>I oro 1927, Eria okwayo ywomirok wok i tich maradhum; ndirino Wasungu weg jo tieko nia? ipiny me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka bin rwodhe jo Gombila i dimo jo tich paka ja Saza mathumo banjin dwe achiele chiele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To wok ndirino kodok oketh ja Saza, to bin Eria won bedo paka Agent ma Padhola aka odoko bedo paka ja Saza mere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jo Nyapolo to jo osa go both Eria, titweyo go yo lweny, to tho gi yo Kisumu i oro 1917</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mission pama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To gimo mieno go, to ere mito nyako ma nyamin Oloo Majanga milwoo ni Nyaruwa, munwaŋo fuonjere pa Perikeki ndir munyo nyaka jo tundo Nagongera kumanitye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To odoko Eria onwaŋo paro ketho ja pa Bendo mandirino ja Gombila ma Nagongera ma magere ndirino jo chwoko nyinge ni Sabakaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To jo Nyapolo jo ko yeyo, kajo wacho ni dwoŋ no apa jo kiripi nono man odoko obed iiye</t>
+  </si>
+  <si>
+    <t>Ndiri munyo oriem Oloo Majanga, onwaŋo Eria paro ketho Okech Okeya lunjo ka bedo no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Koro amudwoko iye to bedo nyaka math to tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To munyo oriem Oloo, to piny gye jo kwero winjo adhum, ri ameno ti mako go tikidho i tweyo go Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ri ameno to magere jo riemo go iyadhum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Omito ni ji pere jo obedi i siem manya chon, ma medho amedha kod kisangala</t>
+  </si>
+  <si>
+    <t>Oloo chango ger, aka komito kite adhum manyien me ma magere jo kelo</t>
+  </si>
+  <si>
+    <t>To, Oloo Majanga konyalo tiyirok kod Eria, ka wacho ni, "Wendo awenda kinyal dhuman, kosa oran ni maki ŋatin mungoye wach ma ŋato otimo; ni kole ka ja Magara no mito chiemo owach adhir rigo chiemo to ma kiwene dhuman pa jago pere!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Eria Nsubuga won kod Oloo Majanga ndiri no jo bedo Nagongera, amubedo, tindi maradhum madwoŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kendo kis rwoth me yado tiyo kod jo magere ma jo konyo go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jome ama jo bedo rwodhe marapena, to rumachien odoko okidhi ki baro dier Gombilin 1oko mathindo thindho ti medo ketho rwodhe man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Gombolin mere ti ketho ji me: Okech Okeya, Mulanda; Oloo Otaba, Nyawiyoga; Oguti, Tororo aka munyo otho to Samwiri Dinga lunjo, rwoth pere; Palinyaŋ Merikiti kod Molo, aka munyo onek go to Makode lunjo ka pere; Oluli; omin Palinyaŋ Kidoko, aka munyo otho tiketho ja Mugwere mi lwoŋo ni Mulyambuzi; Kayinja Majanga, Nagongera, kodi Kirewa; kod Owondo, Kwapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oloo Majanga mu bedo wod pa ŋata chango oŋeyere tek tek i gigipiny me gye, ti miyo go bedo paka ja Saza, matero rwodhe wad gye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Eria open tiyirok kod jo dongo Bura, jodongo Akisili kod jo dongo machango jo telo lweny, ama go okutho omiyo jo bedo jo radhum pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ketho jali milwoŋo ni Eria Nsubuga telo adhum maPadhola; ndirino i lwoŋo go ni Agent ma Padhola, to Kakunguru won dok yo Mbale</t>
+  </si>
+  <si>
+    <t>Munyo Kakunguru otieko turo Padhola to chako ketho adhum makite ma yo pajo yo Buganda, kareno yiko yo ri adhum pa Bungereza (British)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To jo chako kwoŋirok kod lweny gi Magere majo lwenyo kod mach!  Ndirino ja lweny machon madwoŋ, Majanga, onwaŋo fuod nitye to kareno go otii tek tek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jo Padhola ma chuka chiene onwaŋo fuod ko tur jo i lweny moro gye, rume ama otur atura jo kichutho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jo donjo i piny me chiegin i oro 1890, to jo Padhola jo Chwoko jo ni Magere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Go aja Waganda machango owotho gi wadi aka jo turo piny ma Eastern Province ri adhum pa jo makwar; ndirino jo lwenyo kod mundu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Me abino pa Semei Kakunguru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To rumachien ma oro kweth to wach winjere ni nitye kweth mudoko bino, aka jonago jo lwenyo gi gimaneko aneka dhano gi bor aka Odoko mor swa, ni jonago jowok yothenge ma Misowa kod Bugwere</t>
+  </si>
+  <si>
+    <t>Wok chuka tur lweny pa jo Ngaya jo Magere jo dok jo ko bino lweny kod jo Padhola</t>
+  </si>
+  <si>
+    <t>PADHOLA KOD ADHUM 1890-1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yo Samia tiketho ja Saza pajo marapena Samisoni Were mariwo Samia kod Bugwe, mu chwoki nyinge ni Samia-Bugwe</t>
+  </si>
+  <si>
+    <t>To i oro 1947, wach ma Sazin to odoko dwako</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I oro no won 1944, Ezekeri Kageni ma Bugwere Division to tich pere chungo; tiketho Danieri Mutaki i kabedo pere aka Paulo Sisye bedo Deputy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I oro 1944, Andereya Obeli ma Tororo Division to tich pere chungo; tiketho Eria Ochieno ikabedo pere aka Semei Obonyo bedo Deputy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To wok iiye chani man manyien</t>
+  </si>
+  <si>
+    <t>Pok adhum me okidho maber tundo i oro 1944, ama nywowirok madit dit odonjo iiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ti turo jo Sazin gye munwaŋo jo nitye i Tororo Division kod Bugwere Division, tiweyo jo Gombilin kod jo dongo me kende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka Danieri Mutaki ama luwo Ezekeri Kageni paka Deputy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bugwere kod Bunyole ti lwoŋoni Bugwere Division; aka rwoth matero jo gye tiketho Ezekeri Kageni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Eria Ochieno to bedo ŋata luwo Andereya Obeli paka Deputy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ti lwo?o Tororo ni Tororo Division; amanyo tero Budama kod Samia, aka rwoth matero jo gye tiketho Andereya Obeli</t>
+  </si>
+  <si>
+    <t>Ndir ma lweny ma 1939-1945, otundo gavumenti owiro adhumbe manitye iyadech mathurin: 1941 onwaŋ District machango i lwo?o ni Budama District, kareno tindi mere bedo Tororo, tiriwo kod Central District machango wok i oro 1937 oriwo Bugwere District kod Bugisu District; ti lwo?o jo ni Mbale District aka tindi mere to bedo Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ri ameno ka 17 December 1938, to jo oro jomikwenda pajo kidho nenirok kod Chief Secretary, yo Entebbe, ka jo piemo ri wach me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To jo Padhola jo guti swa riwach ma baro adhumi pajo, gi thenge man miyo wendo pajo tero Saza mere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gigipiny me otimere ka 23 November 1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka thenge man, ti lwoŋo ni East Budama tiketho Daudi Kakunguru bedo ja Saza mere</t>
+  </si>
+  <si>
+    <t>Ri ameno to gavumenti, baro adhum ma Padhola diryo, thenge man ti lwoŋo ni West Budama tiketho Andereya Obeli wod pa Majanga bedo ja Saza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wok i hongo no to wach me chungo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To jo Padhola jo koyeyere gine, kiri ndir munyo Provincial Commissioner ma Eastern Province obino Kisoko bino ketho Dinga i kom jo goyo motoka pano pajo kedho woko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To onwaŋo i ketho go bedo ja Saza ma Padhola i oro 1938</t>
+  </si>
+  <si>
+    <t>To gavumenti paro tek tek i kite ma turo teko me gye; ri ameno to idimo dhano ma kanywola ma Padhola to kareno otieko bedo i Padhola hongo malach wok thino pere gye aa, Samwiri Dinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka teko ma pokirok dini, to bende donjo iiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ji machango jo Padhola oyeyo jo bedo i Padhola paka wendo pajo, majo chwoko jo ni Omia (nen Siro 3), to jo bende jo chako piem ni dhano pajo amaripo tero Saza ma Padhola</t>
+  </si>
+  <si>
+    <t>Wooro pa rwodhe makis ja Gombila mito ni go ama wodim bedo ja Saza, to jo kelo nyuowo wiy ji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To teko mudoko bino ame, riwach ma pa ŋata odim tero Saza:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To indir ma Magere jo donjo to jo chako dhumo Padhola (nen Adech I, Siro 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jodongo ma kite me amayido jo choko ji pajo kosa jotito riji pajo ka lweny kosa dwar obino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kareno jadwoŋ ma oti man kidhum jadwoŋ ma oti man; kosa dhumo nono no gipi</t>
+  </si>
+  <si>
+    <t>Chango chon kis oti manono bedo kod jadwoŋ mere maneno gigi piny matimere i oti no</t>
+  </si>
+  <si>
+    <t>Me agigipiny madongo aryo machango asa poko nono ma kada onwaŋo obedo achiel to poko jange mumore to jo chako kir nywomirok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ra'meno konyo oti makoneko dhano no, kajo winjo ni joweg dhano jo liwo jo machulo kwor, to jo chako kwedirok kajo wacho ni, "Athu denge wikiri wichul kwor bothi wan ayino, kidha kidha win yo paŋadin won majo neko dhano mewin, ŋey win ni wakinono gi jono de be, wajo paŋadin riwan!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rupir chango manyachon ka nono man oneko dhano ma nono man, jowegi dhano monekino bende jobino to jo liwo dhano manono no kada ka moro to jo neko; meno achulo kwor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Mararyo, kwor, me chango wok ka oti man jo kwinyo aka joneko ji manono man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wangi bende kawaneko mawan wakiyaŋere gi jo de be!"</t>
+  </si>
+  <si>
+    <t>Ri ameno jomo thwonijo to jo mako nge to jo dhaw kajo wacho ni, "Aneni win jopaŋadin paka jodak wan aka onyo jo kwedo wan riwach riŋo ariŋa, onyo wok pama apee!  Wapokere apoka swa, wakinono gi jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Amawok iye oti man jochako thwono jowotigin riŋo kajowacho ni "Wajo pa ŋadin riwan lokere wanono giwin mawayaŋere riŋo?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Marapena, dhaw kod akwedi, me chango wok kwom poriŋiŋo kosa lee munyo ko nek, kipoko to kirom ka pecho kosa nono lach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gima chango kelo pokirok me obedo ama:</t>
+  </si>
+  <si>
+    <t>To kareno inonini madongo no nitye paka nono Amor kod wad man odoko jopokere kinde mumore to doko jo chako nywomirok kada chango onwaŋo jo nono achiel kende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Giranena, paka nonini me: Lemera, Nyangwe, Wi-kenge kod Wi-lego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Manyutho ni jobedo jangi nonini man madongo aka jopokere kwomijo ihongo mafuod kokadho malach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nitye nonini meg mathindho thindho mafuod kiŋeyere maber</t>
+  </si>
+  <si>
+    <t>I Padhola pama nitye nonini pyero aryo kod aryo madongo</t>
+  </si>
+  <si>
+    <t>To kiyot ŋeyo ni ji ma mon me jonywolo won ajomene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kiri pama nono meg paka Amor p'Olam, Amor Patikidiegi kod Amor Mugulu-Kasede, jopako nyingi mon me kajowacho ni, "Won piny Nyajurya kod Oryaŋ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mon me jo nyalo bedo ni chango jo bedo mon pa Adhola won, amumiyo nyingi jo oasa wok malo bende loyo mon wadi jo machango jonitye ikitipa no</t>
+  </si>
+  <si>
+    <t>Parere ni ikitipa pa Adhola chango nitye mon aryo madongo, Nyajura kod Oryaŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Amumiyo kisi nono no bende lwoŋo Adhola ni baa jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I ji me amowok iye nonini gye manitye Padhola pama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rupir go amubedo jadwoŋ pajo kendo ja tel pajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ji me meg chango nyithindho pere won monywolo, meg wutiminigo meg wade pere; to kareno jogye jo lwoŋo Adhola ni baa jo</t>
+  </si>
+  <si>
+    <t>Adhola paka atito iy'adech marapena, chango owotho kod ji pere</t>
+  </si>
+  <si>
+    <t>WACH MATITO ADECH MARARYO</t>
+  </si>
+  <si>
+    <t>ADECH II</t>
+  </si>
+  <si>
+    <t>MAPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ri ameno to gavumenti thwono jo gye to loko tindi Mbale bedo District machowere ka kende</t>
+  </si>
+  <si>
+    <t>Gimokelo poko tindi ma Mbale bedo paka District mu pokere ka kende aa rupir obedo piem i dier Bukedi kod Bugisu, kareno kis ŋata achiel kwom jo mitoni tindi ma Mbale odoki yo District pajo ayino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka adech matero tindi ma Mbale kende ti lwoŋo ni Mbale Township District ti ketho Mr  Lukyn-Williams bedo District Commissioner mere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Thenge man ti lwoŋo ni Bugisu District, matero Bugisu gipi kod Sebei, aka Sazin aŋwen manitye iye; tiketho Mr Lindsell bedo District Commissioner mere</t>
+  </si>
+  <si>
+    <t>District machango oriwi i oro 1941, ti chwoko ni Mbale District, odoko opok kadi dek ka ndelo 4 November 1954; thenge man tilwoŋo ni Bukedi District matero Sazin awichiel; Pallisa, Budaka-Bugwere, Bunyole, West-Budama, Tororo kod Samia-Bugwe; tiketho Mr Dallimore bedo District Commissioner mere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rumachien to John Kakoro tich pere chungo, tidimo Yonasani Okello bedo ja Saza malunjo ka bedo pa John Kakoro, ka 1 July 1957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To munyo owir Yakobo Munabi tero go yo Saza ma Budaka-Bugwere kareno Danieri Nyapidi bende ti loko go bedo Deputy Judge ma District Native Court Bukedi, tidimo John Kakoro bedo ja Saza ka 1 January 1956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To munyo owir Danieri Nyapidi ka 1 January 1954 bedo ja Saza ma Samia-Bugwe ti wiro Yakobo Munabi lunjo ka bedo pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yo Saza ma East Budama, mati i lwoŋo ni Tororo ka 1 January 1949 tiketho Danieri Nyapidi lunjo ka bedo pa Temusewo Mukasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ka 13 October 1953 tiketho Zefaniya Ochieŋ bedo ja Saza, ama fuod dhumo kiri pama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Saza ma West Budama Andereya Ofumbi odhumo tundo 30 May 1953, to tho, munyo fuod dhumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ka 3 January 1947 to doko i poko adhum ma Padhola diryo West Budama tiketho Andereya Ofumbi bedo ja Saza mere, kod East Budama tiketho Temusewo Mukasa bedo ja Saza mere, to kareno kezekiya Okowu amukutho kuro kabedo no paa Acting</t>
+  </si>
+  <si>
+    <t>Paka gigipiny makite me nyaka chako moth moth, fuod derino mere kidwoŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Konyo dhano pajo kopodho iteko moro paka ma twech aka ongoye gilipya ma chulo, kiti ŋato nono choko rigo lipya tojogonyo go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nono meg jotyeko paro geto udi miten ma nono, fur famba manono kod oro kis janono bedo kod chiemo maromo mungoye kisaka asaka kis ndelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Paro kwom gigipiny makis ndelo, mamitere inono, paka: ketho chik manono, paro paka jonyalo dongo nono ikite machoko lipya paka mafwonjo gine nyithindho majochand, i nono pajo</t>
+  </si>
+  <si>
+    <t>Kod banjin moro gye minyalo tero iwaŋ jadwoŋ nono, rupir nitye banjin makikuthi chak ikooti ma gavumenti kwanyo woko koluwo ikooti ma nono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Banjin ma kite me ilwoŋo ni banjin, malusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Joma kite me jo chulo dhiaŋ kod rombo ma luk; ruman odoko jo chulo kir lipya bende, gigipiny mi chulo no nono amachamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Thumo banjin banjin ma dudi ma nono, banjin mamako kwom pecho ma nitye iye dhaw dhaw kod kwerirok degi,  banjin ma pa jomo nywomere wat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To madwoŋ, jo temo tito swa gikikaŋasa gimo neko dhano pa jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jodimo ŋata olunji dhako kosa mon pa ŋato, ka dhako no kosa mon no bende jo yeyere gi jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jo chulo banjini munwaŋo ŋato nitye gine wok kwom pesa makaliel kosa gigipinyi pa ŋato, kendo jo pido banjin munwaŋo ŋato banja ji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Joketho misika pa ŋato, to ka misika no fuod thi jo dimo ŋata nyalo kuro pecho no milwoŋo ni Japith, makuro tundo kuma misika odongi iiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kendo kaŋata otho obedo jachwo majapecho, nono chokere to jo yiko pecho majalo oweyo</t>
+  </si>
+  <si>
+    <t>Kony kadhano pajo otho: Ka dhano otho nono kosa wati paŋato kod merin pere gye, choko pesa kosa lim man gye mayii ŋato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Riwo nono kanyachiel: Jadwŋ nono choko ji to jo paro wach paka jonyalo riwirok kanyachielod ŋeyirok wegi gi wegi rupir mati me nono oasa pokirok pokirok iyadech mumore omore, riwirok makite me konyo igeŋo ji nywomirok wati kendo miyo nono ŋeyo welo pajo kod ŋeyo ji pajo majo tho</t>
+  </si>
+  <si>
+    <t>Tich ma jodongo nono jotimo nitye ama:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka nitye bitawin bende ma Jadwoŋ nono kano, manono jondiiko iiye gigipiny majoparo kwome ka jochokere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kis Jadwoŋ nono nitye gi jandiiko kodi jakan lipya manono; ma nono dimo jo ni jokonyigo gitich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ka Jadwoŋ nono otho kosa nono oryiemo go bedo jadwoŋ, nono chokere to odoko jo dimo ŋatiman</t>
+  </si>
+  <si>
+    <t>Indir me, kis nono nitye kod jadwoŋ mere matero nono gipi meno ti jolwoŋo ni Jasaza ma nono aka nitye ma jolwoŋo ni Jagombila, Jamiluka kod Jakisoko mabende jokidho kajotero adech mathindho thindho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka nonini meg mudoŋ jo asa chako ketho jodongo pajo i oro 1945, indir ma gavumenti okwayo ni kis nono odhir jadwoŋ mere kidho i chokirok ma kansolo mar'adhum; kiri pama gavumenti fuod yeyere kod tich pa jodongo nonini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To wok oro 1935 nonini madit jo chako ketho jodongo makite no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Paka Jopadhola jo kimit mako kula pa joman majowiloka piyopiyo mafuod jo kokaŋasa kulano maber, bende jokorikin dimo jodongo nonini mapiyopiyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ra' meno to wabende wachako ketho jo dongo manono gipi ikabedo ma ketho jodongo udi kende paka nyachoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jotito riwan paka yo pajo koro kis nono nitye kod jadwoŋ mere kosa ja tel matero nono gipi</t>
   </si>
 </sst>
 </file>
@@ -576,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -613,6 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1741,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A23"/>
+  <dimension ref="A2:A157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1862,6 +2265,676 @@
         <v>163</v>
       </c>
     </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="486">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -930,6 +930,564 @@
   </si>
   <si>
     <t xml:space="preserve">  Jotito riwan paka yo pajo koro kis nono nitye kod jadwoŋ mere kosa ja tel matero nono gipi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Amor Kagulu Adundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ri ameno to jo chako kwedirok, joman jo wacho ni wan wa jo paŋadin riwan, wakiya?ere gi win, kada nono, wakinono giwin; aka joman bende jo wacho ameno; to wok ruwirok madwoŋ kod pokirok nono kad bich paka onyo nitye pama</t>
+  </si>
+  <si>
+    <t>Pokirok manitye pama obedo riwach madhaw dhaw, kendo riwach munyo ka jo neko lee madwo? kosa dhia? pok mere kirom jo gye</t>
+  </si>
+  <si>
+    <t>Nywolirok pa nono me obedo ama (boli mucher me nyutho paka nywolirok me obedo wok kwom Adhola tundo, kwom kis jang nono Amor):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka kada jo pokere, fuod nitye wer, kweer, kod nyingi jo madit muriwojo</t>
+  </si>
+  <si>
+    <t>Nono Amor kada ti jo pokere kad bich aka odoko jo nywomere, chango jo gye baa jo achiel kende</t>
+  </si>
+  <si>
+    <t>NONO AMOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka Jadwoŋ nono pajo marapena jodimo i Apuli 1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yikirok pajo joyikere wiyijo ŋiyo yo thenge ma yo Sudan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye yo Senda ilul milwo?o ni Pawamunju</t>
+  </si>
+  <si>
+    <t>Tich ma yado jo asa ŋeyirok iiye: lweny kod goyo fumbo ma kosio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To indir mati me jo wero iyawo rut kosa ikalima morogye kod ikaliel pa dhano pajo</t>
+  </si>
+  <si>
+    <t>Wer aryo me gye yado jo wero yo lweny kod yo dwar</t>
+  </si>
+  <si>
+    <t>Jo p'Agoya mamako mon yokulo</t>
+  </si>
+  <si>
+    <t>Wer me jowero ka jo nyutho ni kada nende jo nok, chango jo konyalo tho jo gye i lweny, ni yado kajokidho lweny jo gye jo dwoko riwach misen pajo</t>
+  </si>
+  <si>
+    <t>ŋanda wambwe jo p'Agoya nyaka dwoko</t>
+  </si>
+  <si>
+    <t>Nono me ongoye kod kweer moro gye, yawo rut, kod paka minyur pa jo wok, kod kula manywomirok machon gye jotimo paka jo Padhola gye jotimo (nen Adech III)</t>
+  </si>
+  <si>
+    <t>Nyakawenga, Juri, Wiye Owaŋ, Oriŋo, Mbedi, Odida</t>
+  </si>
+  <si>
+    <t>Agoya,	Okidi,	Ondaga,	Ochomi,	Osuya,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyingijo madongo, mati jo chwokere gine ame:</t>
+  </si>
+  <si>
+    <t>Jo p'Agoya jo dit iyadech milwoŋo ni Pagoya chiegin Nagongera, kodi yoloka pagoya man yo Kamuli, i Gombila ma Molo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yach me amabende jonywolo nono me paka onyo nitye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka Nyakigulu me gi dhako pere milwoŋo ni Abwor amajo nywolo yach aŋwen, Juri, Okidi, Mbedi kod Ondaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Agoya chango onywolo nyath achiel kende manyiyach milwoŋo ni Nyakigulu</t>
+  </si>
+  <si>
+    <t>Agoya chango obedo wod Adhola, aka go no am'onywolo nono me munyo lwoŋere ni jo p'Agoya</t>
+  </si>
+  <si>
+    <t>NONO JO P'AGOYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To parere ni tundo yomalo koro gigipiny me bino dongo malo swa rupir kis dhano mito kendo sangala ritim maber manono pere timo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka odoko nono meg amo ayi iiye malo loyo meg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jo nindo i boke pendi Nyarwanda ako odoko minyur no chiemo ikor pendi, kendo kiyik mach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo kited kod yath milwŋo ni Obolo</t>
+  </si>
+  <si>
+    <t>Jo kited kod yath milwoŋo ni Obolo</t>
+  </si>
+  <si>
+    <t>Kijwala,	Sanga,	Nyabel,	Miyali,	Kawudo,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyingi jo madongo mati jo chwoko ame:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wugo pajo nitye Mikwana, me nyutho ni indir ma lweny pa Josewe kareno jotyeko tundo i kabedo no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo chako bedo iyadech ma Mikwana, kod Nagongera, akanyaka jolak i Padhola gye</t>
+  </si>
+  <si>
+    <t>Nono me nyingi jo man jowacho ni, "Wa jo pa Kijwala wodi Akwoyo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Amor Kijwala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo achiel nitye Katajula itele milwoŋo ni Katajula, aka man nitye Maundo itele milwoŋo ni 'Tawo Jwok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka tich machango jo asa ŋeyirok iiye: lweny, timo riji yen (boke) matipo kod yen ma migimba koth, pach kod chuech</t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono me marapena odim go i oro 1945</t>
+  </si>
+  <si>
+    <t>Ajore Kagulu Adundo nyaka wabino</t>
+  </si>
+  <si>
+    <t>Ondhiri wajocham malo nok nok</t>
+  </si>
+  <si>
+    <t>Ee, Kagulu Adundo nyikway Njose Kayoro</t>
+  </si>
+  <si>
+    <t>Wer pajo majo wero:</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyijo ŋiyo yokuma waŋ chieŋ podho iy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kiyik mach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chiemo i kor pendi nyarwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jo nindo i boke pendi nyarwanda kanyath manyako, to ka majachwo jo nindo i boke nyameji</t>
+  </si>
+  <si>
+    <t>Jo kited kod yen aŋwen me: Kudho Alwi, Kagino, Obolo, kod Dukino Ath</t>
+  </si>
+  <si>
+    <t>Kweer pajo:</t>
+  </si>
+  <si>
+    <t>Njwaya,	Aaŋa,	Omunyi,	Sar,	Adusa</t>
+  </si>
+  <si>
+    <t>Okonye,	Masanja,	Otwepe,	Nyagota,	Nyanjoli,</t>
+  </si>
+  <si>
+    <t>Kitheŋi,	Misyoŋo,	Ogesi,	Otyemi,	Paliwo,</t>
+  </si>
+  <si>
+    <t>Kamunyi,	Oriono,	Moyi,	Oda,	Mweye,</t>
+  </si>
+  <si>
+    <t>Njose,	Luaŋole,	Ochido,	Alosi,	Wambiri,</t>
+  </si>
+  <si>
+    <t>Aka nyingi jo madongo mati jo chwoko ame:</t>
+  </si>
+  <si>
+    <t>Nono me jo chako bedo Katajula, chiegin Nagongera, akanyaka jo wok kenyo jolak i Padhola gipi, Nyingi jo man, jowacho ni "Wa jo kagulu Adundo wa nyikway Njose wa jo cham malomalo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chiemo imatigija pendi, kendo inywol makayo dhako kiyik mach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jo nindo iboke pendi Nyarwanda kanyath manyako, aka nyameji kanyath manyiyach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Milusa kod obolo jo kited gine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Rudina jo kicham, kada geyo pyen mere jo kigey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kweer madwo? Sulwe, ama jo chowo kendo joyiko ji wiyijo ?iyo yo Sulwe</t>
+  </si>
+  <si>
+    <t>Kweer pajo :</t>
+  </si>
+  <si>
+    <t>Langa,	Omolo,	Mawungwe,	Mumwara</t>
+  </si>
+  <si>
+    <t>Aliko, Magala, Kenga,Aryoŋa,Omo</t>
+  </si>
+  <si>
+    <t>Migwat,	Kidyewo,	Mugweno,	Kasinda,	Sulwe,</t>
+  </si>
+  <si>
+    <t>Adhola,	Okuna,	Obukumer,	Olebe,	Nyasulwe,</t>
+  </si>
+  <si>
+    <t>Asipa,	Mŋor,	Kisito,	Omoŋor,	Adusa,</t>
+  </si>
+  <si>
+    <t>Aka nyingijo madongo mati jo chwoko ame:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyingi jo man jowacho ni "Wan Amor Adhola pa Tikidiegi Sulwe"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chango jo chako bedo iyadech ma Nagongera kod yo Nyamalogo, rumachien to jo lak i Padhola gye</t>
+  </si>
+  <si>
+    <t>Jo pa Tikidiegi jo wacho ni jo ajo madwoŋ ajo ma telo Padhola gipi rupir nijo chowo kunu milwoŋo ni Adhola, kendo jowacho ni chango omiyijo Toŋ kod Buli p'Adhola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Amor pa Tikidiegi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye yo Simwengi, manago tele milwoŋo bende ni Simwengi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka tich machango jo asa ŋeyirok iiye: lweny, chuech kod pach</t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono me marapena chango odim go i oro 1938</t>
+  </si>
+  <si>
+    <t>Piny p'Olam, Oryaŋ, piny pa Dundo Oryaŋ, Oryaŋ</t>
+  </si>
+  <si>
+    <t>Won piny aŋ Oryaŋ, won piny ŋaŋ Oryaŋ, Oryaŋ</t>
+  </si>
+  <si>
+    <t>Nyajurirya oo, oo, Oryaŋ, Oryaŋ</t>
+  </si>
+  <si>
+    <t>Jamor kokidho lweny kidwok nono</t>
+  </si>
+  <si>
+    <t>Gero, Gero, wajo Simwengi wakilwor chwo,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiyijo neno kumwaŋ chieŋ odho iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jo nindo i boke pendi nyarwanda aka chiemo bende chiemo ikor pendi nyarwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kweer madoŋ Rudina, jo kicham, kada geyo pyen mere jo kigey</t>
+  </si>
+  <si>
+    <t>Mileke,	Orukan,	Ndelo,	Opusi,	Obilo</t>
+  </si>
+  <si>
+    <t>Aliŋa,	Olam,	Malawa,	Olyeka,	Adundo,</t>
+  </si>
+  <si>
+    <t>Aka nyingi jo madongo mati jochwoko ame:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyingijo man jo wacho ni "Wa jo p'Olam Nyajurirya Oryaŋ Oryaŋ weg piny</t>
+  </si>
+  <si>
+    <t>Jo p'Olam chango jo chako bedo iyadech milwoŋo Simwengi, i Gombila ma Nagongera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Amor p'Olam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye mikwana manago obedo lul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka tich machango jo asa ŋeyirok iiye ame: lweny kod goyo achiel kod tida</t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono pajo marapena oketh i oro 1947</t>
+  </si>
+  <si>
+    <t>Adech marapena mawer me jo tito ka jo poyo lweny machon, mayado kadhano ringo jokwor, ringo ŋiyo yoŋeye; kendo ni kadhano mito wacho nyingi nyawote okutho bolo waŋe yongeye onen ni ŋato ongoye kenyo akanyaka oluw</t>
+  </si>
+  <si>
+    <t>Kapanyi oywak wor wor ja Simba konwaŋ muthieno</t>
+  </si>
+  <si>
+    <t>Ee, Kijwala wod Akwoyo nen yoŋeyin</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyijo ŋiyo kuma waŋ chieŋ podho iy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bendo onywolo wode milwoŋo ni Sole, aka Sole onywolo Milwen, aka Milwen onywolo yach apar gabich, yach me ama jo nywolo nono Bendo gye manitye pama</t>
+  </si>
+  <si>
+    <t>Bendo munywolo nono jo pa Bendo, chango wod Adhola</t>
+  </si>
+  <si>
+    <t>NONO JO PA BENDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye Nyamalogo itele milwoŋo ni Mugulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tich machango jo asa ?eyirok iiye: lweny, dwaŋ  kod goyo Achie1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To chango chon oyido jo nitye kod jo dongo aryo, achieŋ mayo thenge pa Mugulu kende aka man mayo thenge pa Kasede bende kende</t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono me marapena mariwo jo gye oketh i oro 1954</t>
+  </si>
+  <si>
+    <t>Piny weg, Oryaŋ, piny Amor Oryaŋ, Oryaŋ</t>
+  </si>
+  <si>
+    <t>Piny Mugulu, Oryaŋ, piny Kasede Oryaŋ, Oryaŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oryaŋ, won piny ŋa? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Won piny ŋa?   </t>
+  </si>
+  <si>
+    <t>Nyajurya oo, oo, Oryaŋ Oryaŋ</t>
+  </si>
+  <si>
+    <t>Nyajurya oo, oo, Oryaŋ, Oryaŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiy jo ŋiyo kuma waŋ  chieŋ podho iye </t>
+  </si>
+  <si>
+    <t>Yen Ragadhiŋ, Akibuk kod Okwero, jo kited gine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chiemo ikor pendi, kiyik mach, kendo kikyeg thigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	Kweer madwoŋ Rudina, jo kicham kada geyo yer mere kosa pyen jo kigey</t>
+  </si>
+  <si>
+    <t>Kasede</t>
+  </si>
+  <si>
+    <t>Kayoro,	Obwaga,	Achiero,	Achiko,	Ochakazi,</t>
+  </si>
+  <si>
+    <t>Mikwaya,	Nyambiro,	Okeji,	Kamunyi,	Akanga,</t>
+  </si>
+  <si>
+    <t>Okonye, Mawuya, Ochor, Asyaŋa, Apuw</t>
+  </si>
+  <si>
+    <t>Nyingi jo man jowacho ni, "waŋ  Amor Mugulu-Kasede, Nyajurya Oryaŋ weg piny"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tundo ka ndelo 10 October 1954 aka jo chokere to jo ridho ni wangi olwoŋo jo ni Amor Mugulu-Kasede, indelo no bende amajo dimo iye Jadwoŋ achieŋ ma riwo jo gye</t>
+  </si>
+  <si>
+    <t>Nono me wok chon jotemo paka jowir nyingi jo obed achieŋ kende, ikabedo mawacho ni Amor Kasede, Amor Mugulu; to jo koyeyere rupir Kasede mito ni apere amuwinjere malo, aka Mugulu bende mito ni apere amonek apa Kasede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Kasede nyinge oasa winjirok ri waŋ  tek pere kendo ri ŋiyo pere; Mugulu chango obedo jagwondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kendo go ama Jadwoŋ pa Kasede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mugulu nyinge won chango ilwoŋo ni Kayoro to ri chowo mago chango chowo Kunu milwoŋo ni Mugulu yo Nyamalogo amuŋiyo owir nyinge ni Mugulu</t>
+  </si>
+  <si>
+    <t>Paka nende waneno ikachako ma Siro me, Mugulu kod Kasede jo wutimere, ma ich achiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Amor Mugulu-Kasede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mararyo nitye Nyamalogo manago tele majo lwoŋo ni Adhola nitye iwiyi got Nyamanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU, pajo nitye aryo madwoŋ mere Sulwe Manyichwo jo lwoŋo Rwoth Sulwe, aka dhako pere jo lwoŋo Michala Sulwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tich machango jo asa ŋeyirok iiye: lweny, kwoyo kwoot kod goyo Achiel</t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono me marapena chango oketh i oro 1936</t>
+  </si>
+  <si>
+    <t>Piny Adhola, Oryaŋ, piny Sulwe Oryaŋ, Oryaŋ</t>
+  </si>
+  <si>
+    <t>Won piny ŋaŋ  Oryaŋ, won piny ŋaŋ Oryaŋ, Oryaŋ</t>
+  </si>
+  <si>
+    <t>Won piny ŋaŋ  Oryaŋ, Oryaŋ</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyijo ŋiyo Sulwe yo thenge ma Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jo pa Bendo nyingi jo man ma jo pakere gine jowacho ni, "Wa jo Goryaŋ waŋ  Ogwaŋ  Ayese"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ka nyathi munywolino manyichwo bende iŋiyo pig sikondi manyichwo, ka ma nyako iŋiyo sikondi madhako</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Iŋiyo pig Sikondi inyuka paminyur akanyaka minyur madho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Dukino Athu amiguro gine nyuka pa minyur, kareno otwey sikondi yowiy alikino dukino no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nyuka maminyur madho, kitwaŋ  ikendo, amuŋiyo itedo nyakamathi kachiegin twaŋ  titiŋo woko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oti minyur kiywey tundo kuma minyur wok iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyuka kende amamadho aka nyuka no bende go won kimak gichinge kwanyo woko imiy'amiya go idhoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kadhako onywol kimadh pii tieko ndelo adek konywolo nyiyach aka ndelo aŋwen konywolo nyako</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Yath milwoŋo ni kikwala kited gine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyingi jo mati jochwoko ame:</t>
+  </si>
+  <si>
+    <t>Iyadech machango jo asa dit iye Maundo, Paya kod Kirewa akanyaka jolak i Padhola gye</t>
+  </si>
+  <si>
+    <t>Biranga me nyingi jo man majo pakere gine jowacho ni, "Wa jo p'Owiny kosa Wa jo p'Ariko, wakilwor Moryeko"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Biranga Owiny kod p'Ariko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kada nende pama jo pokere, kweer megi kodi nyingijo madit chale, meno nyutho ni nonin adek me chango achiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biranga Nyakaŋo kod'Abwor, kodi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> biranga Owinyi kod p'Ariko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyithindho me gye bende to jonyayi jangijo munyo jorwenyo swa kiri nywomirok gye jo nywomere, to doko bino riwirok moro ka jangijo madongo joriwere ka jolwoŋere ni wajo pa ŋadin akuma onyo owok iye jange adek madongo munyo pama nitye: </t>
+  </si>
+  <si>
+    <t>Nyithindho pa Masawa ame:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rumachieŋ towok iye nonin madongo aryo: Biranga kod Ragaŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Masawa obedo kod mon kweth yee to nywolo yach kweth swa aka yach me riwach madhaw dhaw paka asa bedo inyithindho ma jo poko minigin, ndir madit jo kimitere, amuŋiyo nyithindho pa Masawa jopokere tek tek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Masawa me onywol go rut kod Agak (nen Siro 5 Ragaŋ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tiend nonin me chango ochakere ama: Adhola amunywolo dhano milwoŋo ni Omolo aka Omolo kod dhako pere milwoŋo ni Luya, jonywolo nyiyach milwoŋo ni Masawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ŋeyo paka pokirok obedo maDwoŋ   neni kiri Biranga won odoko opokere ka di kweth</t>
+  </si>
+  <si>
+    <t>Nono Biranga kod nono Ragaŋ baa jo achieŋ to ri pokirok mubedo chon swa onyo pama nonin me jokiŋey ni chango jowutimere kada dichiel</t>
+  </si>
+  <si>
+    <t>NONO JO BIRANGA KOD JO PA RAGAŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JaDwoŋ   nono pajo marapena chango jo dimo i oro 1923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jo nitye kod KUNU adek, maDwoŋ   mere 'Okita' nitye Nagongera; man nitye Nyamalogo iwiy got milwoŋo ni Nyamanda; maradek nitye Maundo manago tele milwoŋo ni 'Wagitoko</t>
+  </si>
+  <si>
+    <t>Tich machango nono me oasa ŋeyere iiye: lweny, dwar, goyo fumbo, tongoli kod bunde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wer me iwero i lweny, ika liel, kod i rut</t>
+  </si>
+  <si>
+    <t>Me awer majo wero ka jopako misen pajo, jo p'Ogwaŋ  Ayese jo Bendo jo kilwor Jowi</t>
+  </si>
+  <si>
+    <t>Awuyo Ogwaŋ  Ayese kilwor Jowi</t>
+  </si>
+  <si>
+    <t>Awuyo wanyithindho awuyo Sambara</t>
+  </si>
+  <si>
+    <t>Wer pajo jo wero ni:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiyijo neno yokuma waŋ  chieŋ woki iye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dukino mu bokere bende ikelo boke mere adek kanyath no ma nyiyach kosa boke aŋwen ka ma nyako, tichomo inyim dhioti akanyaka dhako no chiemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kudho alwino minyur no kicham kwanyo woko chungo achunga kenyo ma kweer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ikelo kudho alwi tichomo inyuka maminyur yamadho kosa ikwon mayachamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kaminyur yawok, indir mitedo iye kwon apipili (nen Adech III, Siro 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Yen milwoŋo ni kudho Alwi, kod Ragadhiaŋ  kited gin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Manyutho ni chiemo marapena, kandelono orumo anyuka no ma sikondi bino thon iye</t>
+  </si>
+  <si>
+    <t>Ka dhako onywol tieko ndelo adek kanyath no ma nyiyach, aka ka ma nyako tieko ndelo aŋwen, mafuod kochiemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kakobedo ameno nyutho ni nyath no kobed gisilwany maber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ka dhako onywol sikondi bino abina to thono pige inyuka muted ri dhako maminyur, aka nyaka dhako no madho</t>
+  </si>
+  <si>
+    <t>Kweer pa nono Bendo madwoŋ  SIKONDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ndiri munyo Oguti odongo, Milwen onywomo rigo mon adek, Abotha nya ja Ramogi, Nyagol kod Nyakuya nyir Morwa Sule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Milwen chango oketho Oguti ioti pa dhako pere milwoŋo ni min Owaro, kenyo ama odongo iiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ja pa Bendo milwoŋo ni Milwen amonwaŋo Oguti iger dhok, ikabedo ma Pokoŋo Nagongera, tokelo go pecho pere toloko go panyath pere</t>
+  </si>
+  <si>
+    <t>I non Bendo me amachango jali milwoŋo ni Oguti odonjo iiye (nen Adech I, Siro 3)</t>
+  </si>
+  <si>
+    <t>Sole, Aŋwela, Oguti, Ogola, Ochol, Milwen, Owaro, Obyeto</t>
+  </si>
+  <si>
+    <t>To kareno onyo jolaki i Padhola gipi</t>
+  </si>
+  <si>
+    <t>Nono me ochako bedo iyadech ma Nagongera, Tororo kod Kwapa, kiripama akuma jo asa more iye tek tek</t>
+  </si>
+  <si>
+    <t>Dwoŋ  mere ni jo joger swa aka chango jo mako kir ogwange madongo, kokwinyo jo</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1016,6 +1574,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2144,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A157"/>
+  <dimension ref="A2:A343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2935,6 +3494,936 @@
         <v>275</v>
       </c>
     </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="743">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -1488,6 +1488,777 @@
   </si>
   <si>
     <t>Dwoŋ  mere ni jo joger swa aka chango jo mako kir ogwange madongo, kokwinyo jo</t>
+  </si>
+  <si>
+    <t>Jogye nyikwaŋ  Omolo wod Adhola</t>
+  </si>
+  <si>
+    <t>Nono Ragaŋ paka atito ichako ma siro marabich me, wati kod jo Biranga gye</t>
+  </si>
+  <si>
+    <t>Ragaŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye aryo, man yo Maundo aka man yo Nawire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tich machango jo osa ŋeyirok iiye: lweny, dwar, goyo achiel, kod chuech</t>
+  </si>
+  <si>
+    <t>Jadwoŋ  nono pajo marapena oketh i oro 1945</t>
+  </si>
+  <si>
+    <t>To rumachieŋ to lweny tundo ni opoy Osire odwoŋ  o kod dhiaŋ lando mumboo swa muhembira yo lweny</t>
+  </si>
+  <si>
+    <t>Toŋ miwero me chango obedo JaDwoŋ   milwoŋo ni Osire obedo kod bidhi pere, to ji chayo swa ni kada kidh gine, ilweny kinyali timo gimoro</t>
+  </si>
+  <si>
+    <t>Jochayo toŋ pa Osire wa nonen mo pa lando</t>
+  </si>
+  <si>
+    <t>Jochayo toŋ pa Osire/Oyire, Jochayo</t>
+  </si>
+  <si>
+    <t>Jachandi chamo nyaryeŋa to Owiny ni kere</t>
+  </si>
+  <si>
+    <t>Mama awuya Biranga owe</t>
+  </si>
+  <si>
+    <t>Mama awuya Biranga Luwo gijwom ee</t>
+  </si>
+  <si>
+    <t>Mama awuya Biranga owe,</t>
+  </si>
+  <si>
+    <t>Mama awuyo Biranga Luwo gisamba ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo yikere wiyij ŋiyo yo kuma waŋ  chieŋ wok iye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oti minyur kiywey tundo kuma wok iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	Minyur kiyik mach, kendo pii mamadho imiya miya idhoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ioti minyur bel kod mwenge kibed iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minyur kicham chiemo man gye kafuod kowok, kwanyowoko kwon kod nyuka</t>
+  </si>
+  <si>
+    <t>Minyur kachiemo aka diel kosa dhiaŋ ywaŋ  kidok chieŋ nindo aninda kech, amoŋiyo minyur chiemo diryo kende, ka diegi kod dhok otyek tero isa, chiemo inyango kod iwaŋ  chieŋ milwoŋo ni andela</t>
+  </si>
+  <si>
+    <t>Kwon mere iguro kod yath milwoŋo ni dukino athu; moko kodoŋ kidok tedi gine riminyur no, iregarega moko man</t>
+  </si>
+  <si>
+    <t>Ikal no bel kibed iye kada'chiel, kendo ŋata rego kiŋul chinge law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kadhako onywol kwon miyatedo riminyur kal mere kirego kidhir gi chingijo, idhiro gi ywech kende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jo nindo iboke nyarwanda</t>
+  </si>
+  <si>
+    <t>Yath milwoŋo ni Kikwala, kited gine kendo kadhako onwaŋo nitye kod iiye aka oŋeyo kikwala ni iiye no podho woko</t>
+  </si>
+  <si>
+    <t>Abwor,	Olop</t>
+  </si>
+  <si>
+    <t>Nyakaŋo,	Osire,	Aboŋo,	Akawi,	Ome,</t>
+  </si>
+  <si>
+    <t>Dibworo, Aroba,	Sipaŋa,	Okeya,</t>
+  </si>
+  <si>
+    <t>Okaŋo,	Olek,	Anaŋa,	Gundi,	Kalogo,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ikabedo pajo machon jochako Mikera, Maundo, Paya kod Kidoko akanyaka jolak i Padhola gye</t>
+  </si>
+  <si>
+    <t>Biranga me ama jowacho ni "Wajo pa Nyakaŋo kosa Wa jo p'Abwor" jonywomere kod Biranga Owiny kod p'Ariko</t>
+  </si>
+  <si>
+    <t>Biranga Nyakoŋo kod Abwor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye ikabedo milwoŋo ni Simwengi yo Katandi, kanyago nitye Lul kod tele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka tich machango jo asa ŋeyirok iiye: lweny, dwar, chuech degi, aditin kod dere, kod goyo tongol, fumbo gi bunde</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono pajo marapena chango oketh go i oro 1945</t>
+  </si>
+  <si>
+    <t>Dwoŋ  mere ni joripo pokirok wok bothi Biranga man</t>
+  </si>
+  <si>
+    <t>I wer me jowacho ni jo Biranga man jonek, jochale kod arara, amuŋiyo Biranga Owiny kod p'Ariko joripo ringo kuma jo ni iye</t>
+  </si>
+  <si>
+    <t>Jo gwe jochamiji Bino a, a, jo gwe ŋanda arara bino</t>
+  </si>
+  <si>
+    <t>Jo wero wer me ka jo kwedo jo Biranga man gye ni pama wa pokere kichutho oripo jamere ochamo gipere</t>
+  </si>
+  <si>
+    <t>Owinyi lando manjiwo ja mare ochamo, o, o o, lando manago gero</t>
+  </si>
+  <si>
+    <t>Jo wero wer me ni rupir munyo jopokere wok bothi biranga wadi, jo luwo gichieŋ  ŋiyo samba samba</t>
+  </si>
+  <si>
+    <t>ee mama awuya Biranga</t>
+  </si>
+  <si>
+    <t>Mama awuya Biranga Luwo gi samba</t>
+  </si>
+  <si>
+    <t>Jo yikere wiy jo ŋiyo yo kuma waŋ  chieŋ wok iye</t>
+  </si>
+  <si>
+    <t>Ka tekin dhako nywol iriwo dukino Athu idhiot aka munyo minyur yawok ithono pii i dukino no aka pii no thon both nyathi piny ka; meno onyo alwoŋo marapena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyathi jo nindo iboke pendi, kego piny, aka nyarwanda malo</t>
+  </si>
+  <si>
+    <t>Kiwach ni "Mwenge" ioti pa minyur, kend ŋata omedho kidonji ioti no</t>
+  </si>
+  <si>
+    <t>Minyur kiwachi ni "pii"</t>
+  </si>
+  <si>
+    <t>Minyur kiyik mach kos ŋeyo dhokasik</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye kadiryo, Igunda pa Omolo yo Molo aka man jowacho ni nitye yo tele ma Misowa ma Wasungu jo lwoŋo ni Elgon</t>
+  </si>
+  <si>
+    <t>Tich machango jo asa ŋeyere iiye: lweny, pach, kwoyo bunde kod goyo fumbo, tongol gi gwara</t>
+  </si>
+  <si>
+    <t>Jodwoŋ  nono pajo marapena oketh i oro 1945</t>
+  </si>
+  <si>
+    <t>Jowero wer me ka jo penjo nyawot jo, Biranga Owiny, ni aŋo muviyo jopokere nichango jolaro rwoth aŋo?</t>
+  </si>
+  <si>
+    <t>Owiny gi Ragaŋ wilaro ker aŋo?</t>
+  </si>
+  <si>
+    <t>Konee wanyikwaŋ  Omolo atimo madiwon iyan odaŋan!</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyijo ŋiyo yo kuma waŋ  chieŋ wok iy</t>
+  </si>
+  <si>
+    <t>Pii mitedo gine chiemo pa minyur kithon piny, kothon tiŋeyo pii no, tiŋiyo gi man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chiemo imatigija, kareno imatigija no ochom iye kudho alwi aryo ithenge kod thenge</t>
+  </si>
+  <si>
+    <t>Minyur kod nyath jo nindo iboke pendi nyarwanda adek kosa aŋwen, paka kweer nitye</t>
+  </si>
+  <si>
+    <t>Yath milwoŋo ni dukino Athu amitimo alikino miguro gine kwon ri minyur</t>
+  </si>
+  <si>
+    <t>Yath milwoŋo ni Kikwala kited gine</t>
+  </si>
+  <si>
+    <t>Aboŋ,	Okela,	Jamito,	Omolo,	Wanyaŋ</t>
+  </si>
+  <si>
+    <t>Anyuka,	Obela,	Atwomo,	Mupyana,	Orono,</t>
+  </si>
+  <si>
+    <t>Ragaŋ,	Banda,	Jamitero,	Okada,	Gundi,</t>
+  </si>
+  <si>
+    <t>Chango jo chwoko ka bedo no ni Omolo kajo poyo kwaŋ  jo, to romachieŋ tiwiro ni Molo</t>
+  </si>
+  <si>
+    <t>Kabedo machango jochako bedo iye a yo Molo yokew kod jo Misowa odoko kod yo Paya</t>
+  </si>
+  <si>
+    <t>Jo Ragaŋ jo pakere ni jo nono Agak, kajo poyo baa jo Masawa ma chango onywol go rut kod Agak</t>
+  </si>
+  <si>
+    <t>Jo nitye kod KUNU aryo, marapena goti manitye yo Paya milwoŋo ni Amele; aka mararyo nitye Sirongo chiegin kod jwom Wadama, manago tele bende ilwoŋo Sirongo</t>
+  </si>
+  <si>
+    <t>Tich machango jo asa ŋeyere iiye: lweny, goch fumbo kod tongol, kendo jotemo ye kitana jii gi joloka ma Busoga</t>
+  </si>
+  <si>
+    <t>Jadwoŋ  nono Jep-Odwi marapena oketh i oro 1945</t>
+  </si>
+  <si>
+    <t>ŋata okuro ogwaŋ  won ŋeyo</t>
+  </si>
+  <si>
+    <t>Keŋeyo alinda ngwe morika chiŋa</t>
+  </si>
+  <si>
+    <t>ŋanda adundo ŋata kuro ogwaŋ  won oŋey</t>
+  </si>
+  <si>
+    <t>ŋanda adundo ee, e, e, e Jep-Odwi kipoŋ ryete</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyigin neno yo Sudan</t>
+  </si>
+  <si>
+    <t>Gwara ywaŋ  thumi bende mor, aka imyelo kithoko oti kweer adek kosa aŋwen; aka boke ogel adek kosa aŋwen itwomo gine pii kosa koŋo akithono idhok mini nywol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ndiri maminyur wok, indelo mara Apipil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chiemo ikor pendi nyarwanda, kendo go kiyiki mach</t>
+  </si>
+  <si>
+    <t>Kunyo ithumo peendi nyath jomobedo kenyo gye jobuno pii idhokijo akajo ŋuri gi pii no idhokijo, didek kosa diŋwen paka kweer nitye; aka kotyek thumo, tojo gye joŋulo pii kiromo ni pwaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jonindo iboke pendi nyarwanda, kendo kunyo ithumo boke no mopodho piny kidim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Yath milwoŋo ni ogeli jokited gine</t>
+  </si>
+  <si>
+    <t>Mon jo pa Jep-Odwi jokicham diegi tundo kuma jo chok iye nywol, kendo kadhako nitye kod iye kikali kos ŋeyo omunye diel kosa lach mere</t>
+  </si>
+  <si>
+    <t>Misirwenyi,	Arojo,	Owinda,	Nyamuwere</t>
+  </si>
+  <si>
+    <t>Jep,	Opoto,	Aryonji,	Onderi,	Mayamba,</t>
+  </si>
+  <si>
+    <t>Odwi,	Asipa,	Olwalo,	Opuka,	Ofumula,</t>
+  </si>
+  <si>
+    <t>Achandere, Ochuna, Arwoŋ, Aryoŋa, Achera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyingi jo madongo mati jochwoko ame:</t>
+  </si>
+  <si>
+    <t>Jowacho ameno rupir ni chango welo pajo nok</t>
+  </si>
+  <si>
+    <t>Nono me nyingi jo man ma jopakere gine jowacho ni Wajo p'Odwi-Jep ŋanda Adundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chalo chango obedo dhaw moro muŋiyo nyikwayi Odwi joringo yo Mawele aka nyikwaŋ  Jep jodoŋ yo Lul, to kende kada ameno jo kopoko nono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyikwayi Jep jodit yo Paya kod Soni, aka nyikwaŋ  Odwi jodit yo Gombilaŋiyolwa kod Mulanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kabedo pawutimere me chango obedo wi got milwoŋo ni Amele yo Paya; kenyo ama Jep otho iye aka omini mere Odwi otho gi Soni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To nenere ni chango jobedo nyithindho majoluwere aka odoko jomitere tek tek, kir nyithindho pajo gye to jomitere to ŋiyo nono me bedo makopokere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ji aryo me Odwi kod Jep chango Adhola amonywolo jo</t>
+  </si>
+  <si>
+    <t>Nono me kadanende nyingi jo olwoowere ni Jep-Odwi kosa ni Odwi-Jep jo nono achieŋ kende</t>
+  </si>
+  <si>
+    <t>NONO JEP-ODWI</t>
+  </si>
+  <si>
+    <t>Koi me nyingijo man jowacho ni "waŋjo gwe ŋanda, arara bino"</t>
+  </si>
+  <si>
+    <t>Koi waŋgara</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye aryo marapena nitye Katandi wi tele milwoŋo ni Nyafumba aka mararyo nitye Nyamalogo wi tele Nyaŋanda</t>
+  </si>
+  <si>
+    <t>Tich machango jo asa ŋeyere iiye: lweny, dwaŋ  kod chuech</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono pajo marapena chango oketh i oro 1941</t>
+  </si>
+  <si>
+    <t>Chwo nindo woko e, e, e, e chwo nindo woko alimbaka</t>
+  </si>
+  <si>
+    <t>Alinda kachiŋa Alindangwe-Kwach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiyijo neno yo kuma waŋ  chieŋ podho iye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ka Sikondi obino olak ri minyur ichieŋo pere, meno nyutho silwaŋyi maber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nyathi kod minyur jonindo iboke pendi nyarwaŋda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chieŋo ikor pendi, aka ichodha chodha chieŋo no gi kor pendi bende, kendo kachieŋo obudho akapodh piny kidok chieŋ indelo no nindaninda kech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kimak agwaŋa akatwomi pii itwomatwoma rigo, kendo kiyik mach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kweer madwoŋ   "Kwach," jo kichami kada pyen mere jo kigey</t>
+  </si>
+  <si>
+    <t>Jadwoŋ  ,	Opyakoli,	Opilo,	Onapa,	Nyaŋonda</t>
+  </si>
+  <si>
+    <t>Moŋ,	Nyamwaŋa,	Mayingo,	Aŋura,	Mayeye,</t>
+  </si>
+  <si>
+    <t>Owaŋe,	Olele,	Onyama,	Tekere,	Malawaŋ</t>
+  </si>
+  <si>
+    <t>Osira,	Oyath,	Aabo,	Miron,	Kisalaka,</t>
+  </si>
+  <si>
+    <t>Katandi,	Okwaŋo,	Jasu,	Moŋonapa,	Obanja,</t>
+  </si>
+  <si>
+    <t>Mwera,	Ogŋeyo,	waŋaniaga,	Aule,	Kamira,</t>
+  </si>
+  <si>
+    <t>Nyingijo man jowacho ni "wa  jo Kwach"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Koi Katandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ra'meno to jo pOŋere to jo chako kir nywomirok onyo pama jotemo ye ni jo odoŋ joriwere to fuod konyalere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To romachieŋ jopOŋere rupir nyikwaŋ  Katandi onwaŋo joyiliyili jomito nekoji aka ichulo kwor mere ineko kir jo pa waŋgara (nen Adech II, Siro 1)</t>
+  </si>
+  <si>
+    <t>Wok chon nyikwaŋ  Katandi kod waŋgara onwaŋo nono achieŋ, Koi</t>
+  </si>
+  <si>
+    <t>Nono me chango jo chako bedo iyadech ma Nagongera kod yo Nyamalogo, akanyaka jolak i Padhola gipi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Katandi onywoligo ikabedo milwoŋo ni Katandi chieŋin Nagongera aka waŋgara onywoligo Maundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nywolirok pajo obedo ama, Adhola onywolo Koi aka Koi onywolo yach aryo Katandi kod waŋgara</t>
+  </si>
+  <si>
+    <t>Nono Koi gye chango baa jo achieŋ</t>
+  </si>
+  <si>
+    <t>NONO KOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tich machango jo asa ŋeyere iiye: lweny kod migimba koth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ra ameno tekin chamo rwoth to bedo bende jatel nono pajo gipi</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono pajo marapena chango odimi i oro 1908, gimo kelo dimirok me bedo chon ye ama rupir Jadwoŋ   no chango idimigo bende bedo Rwoth</t>
+  </si>
+  <si>
+    <t>Wer maradek me owok kwom moni pajo machango jo asa nywomo wok yo Busoga aka moni no amajo wiro wer kod Dhowaŋoga</t>
+  </si>
+  <si>
+    <t>Omwaŋa we Nkima wewule</t>
+  </si>
+  <si>
+    <t>Jochayo ŋanda waŋbwe, jochayo, ropir kama chango Oŋer oringo ilul Mawuya odoŋ kende</t>
+  </si>
+  <si>
+    <t>Kitye eee, e, Kitye won pech owaŋ</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyijo ŋiyo yo Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kiyik mach kafuod kweer mawok korumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chieŋo kosa naŋo nyuka ikor pendi nyarwaŋda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Japidi nyath kigey odi nyiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nyiger akweer maluwo Oŋer idwoŋ , aka kiri iwer bende jOŋero gigipiny aryo me kende</t>
+  </si>
+  <si>
+    <t>Kiryem Oŋer indelo</t>
+  </si>
+  <si>
+    <t>Kituch Oŋer both nyath maŋich, kendo kadhako nitye kod iye aka onwaŋo kidho woth kamoro kosa onwaŋo kidho thugin, aka neni kosa romi kod Oŋer, togik agika, kidok kidh yowoth no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kweer pajo madwoŋ  , Oŋer ni meno ominijo</t>
+  </si>
+  <si>
+    <t>Pero,	Jakondo,	Kibisa,	Aute</t>
+  </si>
+  <si>
+    <t>Kadowaŋ	 Mbulante,	Damba,	Onyanya,	Okeya,</t>
+  </si>
+  <si>
+    <t>Mawuya,	Jawuŋanda,	Olando,	waŋugoya,	Jabbo,</t>
+  </si>
+  <si>
+    <t>Aka nyingijo madongo mati jochwoko ame:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nyingi jo man jowacho ni "wa jo koch wa jo Oŋer"</t>
+  </si>
+  <si>
+    <t>Mawuya chango otho gigunda pere yo Maundo, to romachieŋ to nyithindho pere jotuk Poyemi kamilwoŋo ni Uŋanda, kod Nyamalogo akuma nitye iye kir KUNU pajo witele milwoŋo ni Nyaŋanda, to ti jolak Padhola gye gipi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mawuya to nywolo Kadowaŋ  Kadowaŋto nywolo Mbulante, aka Mbulante onywolo yach me, Okeya, Jakondo, Olando kod Obongiti</t>
+  </si>
+  <si>
+    <t>Tiend nywolirok obedo ama, Adhola onywolo Rut, Mawuya kod Oŋer</t>
+  </si>
+  <si>
+    <t>Akuma owok iye agecha mawaŋho ni lithirok oŋiyo Oŋer otwi yiwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To gimoŋiyo jo kOŋero nyingi jo ni waŋono Mawuya, jowacho ni chango onywol jo wuti mere kod Oŋer; to munyo jokidho fur to koth ero chwe to Oŋer rilithirok pere to ringo ilul ŋeyo waŋ  furo; amuŋiyo waŋ  mudoŋ imuga me, jo chwOŋere ni waŋo "Koch, waŋoch wok both Oŋer</t>
+  </si>
+  <si>
+    <t>Nono koch chango Adhola amunywolo baa jo milwoŋo ni Mawuya</t>
+  </si>
+  <si>
+    <t>NONO JO KOCH</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye yo Senda i tele milwoŋo ni Pasakula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tich machango jo asa ŋeyere iiye: lweny, dwaŋ  kod chŋeyo chipi</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono Kathowaŋmarapena oketh i oro 1945</t>
+  </si>
+  <si>
+    <t>Muga nyakawaŋwaŋeko sagata amele</t>
+  </si>
+  <si>
+    <t>Alijegeje chieŋi yengo kondo waŋo Kathowaŋngira busa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiyijo neno yokuma waŋ  chieŋ podho iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chieŋo i kor pendi kareno ochom kudho alwi itheng kor pendi no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jonindo iboke pendi nyarwaŋda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kudho Alwi jo kited gine kada kolo gine tiendijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Paka jowacho ni nono pajo nono chieŋi amuŋiyo jo kigeyi kosa chamo ogwaŋ  chieŋi meno akweer madwoŋ  </t>
+  </si>
+  <si>
+    <t>Aliŋa, Mbele, Kathowa</t>
+  </si>
+  <si>
+    <t>Alemi, Nyasyaŋa, Okuna, Obiro, Asuru</t>
+  </si>
+  <si>
+    <t>Nyingi jo madongo mati jochwoko ame:</t>
+  </si>
+  <si>
+    <t>Nyingi jo man ma jo pakere gine jowaŋ ho ni waŋ jo Kathowaŋchieŋi yengo kondo</t>
+  </si>
+  <si>
+    <t>Nono me jo more yo loka milwoŋo ni Kathowaŋiyadech ma Mbula</t>
+  </si>
+  <si>
+    <t>Nono Kathowaŋnitye achieŋ kende ma kopOŋere, aka jal milwoŋo ni Kathowaŋwod pa Adhola amonywolo jo</t>
+  </si>
+  <si>
+    <t>NONO KATHOWA</t>
+  </si>
+  <si>
+    <t>Muma,	Munje</t>
+  </si>
+  <si>
+    <t>Migewo, Akweromon, Sera, Kipoŋ, Jawaŋe</t>
+  </si>
+  <si>
+    <t>Nyijulu, Jasa, Wedi, Akol, Nalwoŋo,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oŋere, Aŋopa, Kamuge, Okado Sigoli </t>
+  </si>
+  <si>
+    <t>Maseye, Ogwiko, Oworo, waŋembisa, Ogola</t>
+  </si>
+  <si>
+    <t>Aboŋo, Kisuwa, Mukede, Ayaro, Okenye</t>
+  </si>
+  <si>
+    <t>Wire, Nyalulu, Awaŋo, Abu, Opamere</t>
+  </si>
+  <si>
+    <t>Musiguya, waŋera, Katoŋo, Jachune, A?iro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loli, Musonjo, Jamon, Ondyeta, Asoŋiyo </t>
+  </si>
+  <si>
+    <t>Nyingi jo madongo mati jo chwoko ame:</t>
+  </si>
+  <si>
+    <t>Nyingi jo man majo pakere gine jo waŋho ni "wa jo Loli Musiguya wa jo Buli Oyaliŋoma"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nono me chango jochako bedo Nyamalogo rumachieŋ to Loli tuk yo Korobudi, kuma nitye tele majo chwoko ni Oyali?oma ma pama KUNU pajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Musiguya wod Lol me amobedo nyathi mueyere swaŋloyo waŋ  gye, amuŋiyo  kiri pama Jololi jowacho ni jo "Musiguya jowacho ameno kajo poŋo wod pa Loli no makŋwene ni kosa jopOŋere aka jomani jo Loli Musiguya aka jomani jo Loli makite mupOŋere"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyathi pa Loli makayo milwoŋo ni Musiguya chango ja Misowaŋmilwoŋo ni Musiguya amonwaŋo ka dhako pa Loli nywolo, tichwoko nyingi nyath no ginyingi jalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Loli chango onywolo yach abich: Musiguya, Wire, Aboŋo, Maseye kod Oŋere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jadwoŋ   milwoŋo ni Loli wod p'Adhola amunywolo nono me</t>
+  </si>
+  <si>
+    <t>Nono jo Loli nitye achieŋ kende, ma kopOŋere</t>
+  </si>
+  <si>
+    <t>NONO LOLI</t>
+  </si>
+  <si>
+    <t>Aka tich machango jo asa ŋeyere iye: ŋweny, dwaŋ, chuech aditini gi goyo dere</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono Lakwaŋ  marapena oketh ioro 1953</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye Mwelo iwiy tele milwoŋo ni Kalanga</t>
+  </si>
+  <si>
+    <t>Kijo waŋyiri Kalanga waŋicham diel kere ti waŋhamo</t>
+  </si>
+  <si>
+    <t>Se, se Nyilando onwaŋo awaŋho gine oŋeyo</t>
+  </si>
+  <si>
+    <t>Banja makorum a, a, waŋo Kalanga nyaka dwoŋ  o waŋipoŋ laro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere Wiyijo ŋiyo  kuma waŋ  chieŋ woki iye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chieŋo ikor pendi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyathi jonindo i boke nyarwaŋda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka, konywol diel kibedi chieŋin kendo dhano kipima ywaŋ  pa diel ni mee i oti no</t>
+  </si>
+  <si>
+    <t>Ka, jo chale kod Jep-Odwi, nen Siro 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Mon pa jo Lakwaŋ  kafuodi jonywol jokichami diegi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Yath milwoŋo ni kikwaŋa kitedi gine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nono me jochale kod nono jo Nam ri kweer ma Nyilando, nen Siro 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kweer madwoŋ   Nyilando, jowaŋho-nijo nono Nyilando</t>
+  </si>
+  <si>
+    <t>Yecha,	Oko?o,	Obuya</t>
+  </si>
+  <si>
+    <t>Janonga,	Alia?a,	Obala,	Lakwaŋ,	Fumbi,</t>
+  </si>
+  <si>
+    <t>Nanga,	Mugaroya,	Mikew,	Achok,	Okalo-Dhia?,</t>
+  </si>
+  <si>
+    <t>Nyingi jo man jowacho ni "waŋjo Lakwaŋ  waŋjo pa Nyilando waŋjo Kalanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wok Mwelo jokidho Soni kuma ochwok ni Soni Lakwaŋ  aka jomegi jolaro yo Nyaŋiyo ga; iyadech aryo me ama fuod jo diti ye tek tek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kabedo pajo marapena obedo Paracham, Mwelo, kwo? tele milwoŋo ni Kalanga; pama tele no a Kunu pajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chango Jadwoŋ   milwoŋo ni Lakwaŋ, wod pa Adhola amunywo1o nono me</t>
+  </si>
+  <si>
+    <t>Nono Lakwaŋ  nitye achieŋ kende ma kopOŋere diryo</t>
+  </si>
+  <si>
+    <t>NONO LAKwaŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye witele Mikiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka tich ma yado jo asa timo: ŋweny kod dwaŋ</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono me marapena chango oketh i oro 1939</t>
+  </si>
+  <si>
+    <t>waŋŋanda waŋbwe, waŋipoŋ, ryete, waŋdala jo Miliro</t>
+  </si>
+  <si>
+    <t>Oo Ee e Joge-Dala jo Koyo, dala jo Koyo dala jo Miliro,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiy jo ŋiyo  kuma waŋ  chieŋ poŋho iye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ka dhano tero nyako, ka opoŋ gine aka ogwaŋ  koyo ywaŋi, idwoŋ  o adwoŋ  a nyano kidok ter, rupir meno nyutho silwaŋy marach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Dhokasiki akweer mararyo i dwoŋ   ka dhako onywo1 kigey dhokasiki kosa mach kosa tedo</t>
+  </si>
+  <si>
+    <t>Jo waŋho ni chango chon, kadhako onywol ogwaŋ  me yado kelo akela ri minyur no riŋo lee kis ndir wok idudi</t>
+  </si>
+  <si>
+    <t>Kendo dhako ja Koyo ka nitye gi iye aka tuch nyinge ka bothe to iyeno poŋhowoko, ka minyur to nyathi no tho kosa two tektek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kweer madwoŋ   aa Ogwaŋ  Koyo; jo kinek kendo jo kituch nyinge won ni "Ondiek" i oti paja Koyo</t>
+  </si>
+  <si>
+    <t>Dibworo,	Asiep,	Osew,	Dul,	waŋdya</t>
+  </si>
+  <si>
+    <t>Rombo,	Obela,	Mugumele,	Misir,	Pola,</t>
+  </si>
+  <si>
+    <t>Ligeyi,	Alecho,	Apuwaŋ	Akany,	Nima,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ti jo asa nwaŋere yo Sukuru, Tororo, Kidera, Osia, Okwira, Omede kod iyadech madit i Padhola gipi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chango jo chako bedo iyadech milwoŋo ni Mifumi aka nyaka jo kOŋere yo Mikiya kuma nitye tele ma Kunu pajo pama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka yach me bende amunywolo nono me gipi munyo pama nitye</t>
+  </si>
+  <si>
+    <t>Ligey won chango onywolo wode achieŋ milwoŋo ni Misir aka wode me amunywolo yach aboro: Othieno, Asiep, Pola, Dul, Nima, waŋdya, Rombo kod Dibworo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ri ameno chango jo nono mani jolwoŋo nono Koyo swaŋkidho gi jo dwaŋo obwol, menyo ŋwen, kosa dimo yen</t>
+  </si>
+  <si>
+    <t>Ndir machon chango nono Koyo jolOŋere Ogwaŋ  Koyo won maka jowacho rin ni luw ŋet ryete kacha aka abende aluw gikorin, to kati wiromo gi yo ?ete cha iromo aroma kod go munyo otyeko lOŋere ogwaŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ligeyi me chango onywol go rut kod Ogwaŋ  milwoŋo ni Koyo (Ondiek) ameno amuŋiyo  nono me ochamo nyingijo ni Koyo, kendo kweer pajo madwoŋ   kendo majo lwo?o tek tek aa ogwaŋ  Koyo</t>
+  </si>
+  <si>
+    <t>Wod pa Adhola milwoŋo ni Ligeyi amachango onywolo nono me</t>
+  </si>
+  <si>
+    <t>NONO KOYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye Maundo witele milwoŋo ni Pasere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tich machango jo asa ?eyere iiye: ŋweny, dwaŋ, chuech, theth kod pach</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono marapena chango odimi i oro 1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jo waŋho ni kajomidho kosa mako gimoro jomako amaka kichutho kichutho, swaŋpaka arara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me a kirembe pajo madwoŋ  </t>
+  </si>
+  <si>
+    <t>waŋo gwe ŋanda arara bino</t>
+  </si>
+  <si>
+    <t>waŋo gwe waŋo pakirara waŋhamo malomalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiyijo ŋiyo  yo kuma waŋ  chieŋ wok iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Law Sikondi iŋiyo  ichieŋo pa minyur akachamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kwon kosa nyuka pa minyur iguro kod yath milwoŋo ni dukino Athu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jonindo iboke pendi nyameji adek, kanyath manyichwo to ka manyako jonindo iboke pendi nyarwaŋda aŋwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Itedo idegi manyien kende kende ka dhako onywol, kendo minyur no kiyik kosa ŋeyo mach</t>
+  </si>
+  <si>
+    <t>ŋata  omadho ŋwenge kidonji ioti maminyur nitye iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kithumo peendi nyath ikelo bel kod okoko riŋo amiketho ikor pendi maremo chuer iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kweer pajo madwoŋ   Simbwor, arara kanyaminyami madwoŋ  , machamo malomalo paka nono me chango</t>
+  </si>
+  <si>
+    <t>Omeja</t>
+  </si>
+  <si>
+    <t>Wenda,	Chwodho,	Kasala,	Oruk,	Onyemba,</t>
+  </si>
+  <si>
+    <t>Nyingara,	Sidyemi,	Abila,	Kapisi,	Awaŋho,</t>
+  </si>
+  <si>
+    <t>waŋgara,	Onder,	Otyaka,	Opyaŋi,	Adome,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nyingijo madongo mati jo chwoko ame:</t>
+  </si>
+  <si>
+    <t>Ni rupir chango jobedo ji mowor swaŋpaka arara</t>
+  </si>
+  <si>
+    <t>Nono Koyo nitye achieŋ kende ma kopOŋere, aka nyingi jo man jo waŋho ni "wa jo Koyo wa Joge"</t>
   </si>
 </sst>
 </file>
@@ -2703,10 +3474,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A343"/>
+  <dimension ref="A2:A600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="E328" sqref="E328"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="A587" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4424,6 +5195,1291 @@
         <v>435</v>
       </c>
     </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
+        <v>656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="864">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -2259,13 +2259,420 @@
   </si>
   <si>
     <t>Nono Koyo nitye achieŋ kende ma kopOŋere, aka nyingi jo man jo waŋho ni "wa jo Koyo wa Joge"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU ŋaŋo nitye yo Mikoma, kuma chango jo kunyo iye wugo</t>
+  </si>
+  <si>
+    <t>Aka tich machango jo asa ŋeyere iiye: lweny, pach bunde kod dwar</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono me marapena chango oketh i oro 1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I wer me Jomorwa jo ŋaŋo men kod gero ŋaŋo nike rom kod kongolo thwol ma kodoŋjo bur kidok luw, kada nende iŋat ger ned</t>
+  </si>
+  <si>
+    <t>Wer me achieŋ kod ma jo pa Guma bende jo wero</t>
+  </si>
+  <si>
+    <t>Wajo Morwa</t>
+  </si>
+  <si>
+    <t>E, e, Morwa Sule kongolo thwol kodonjo i bur kiluw</t>
+  </si>
+  <si>
+    <t>Wer ŋaŋo ŋaŋo wero :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiyi jo ŋiyo  kuma wa   chieŋ wok iye (east)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur chiemo i ŋaŋo manyien kende kende, kada chiemo pere itedo ateda i degi manyien kende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nyath kafuod minyur kowok kilwok, kada pii kigey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Riŋo, mwenge kosa beli Mwenge kidonji gine i oti minyur kafuod kowok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kudho Alwi kited gine</t>
+  </si>
+  <si>
+    <t>Nyanjew,	Oluka,	Atebo,	Ayila</t>
+  </si>
+  <si>
+    <t>Mongoriono,	Sule,	Rek,	Japala,	Ojony,</t>
+  </si>
+  <si>
+    <t>Napakere,	ŋweng,	Ojupa,	Dara,	Yoga,</t>
+  </si>
+  <si>
+    <t>Onŋaŋo,	Gwa agwa a,	Okuŋaŋole,	Ogŋaŋo,	wa enda,</t>
+  </si>
+  <si>
+    <t>Nyamwonda,	Pala,	Asoka,	Owa a,	Ochido,</t>
+  </si>
+  <si>
+    <t>Sule kod ji pere jochako bedo ikabedo milwoŋo ni Mikoma Nagongera, kenyo amanitye kiri wugo machango jokunyo riwach lweny pa Sewe</t>
+  </si>
+  <si>
+    <t>Jo Morwa Sule nyingi jo man jowacho ni "wa Kongolo thwol wa jo pa Sule"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morwa Sule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka tich machango jo asa ŋeyere iiye: ŋweny, dwa , chuech kod pach</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono me marapena chango odim i oro 1945</t>
+  </si>
+  <si>
+    <t>I wer me Jomorwa joŋaŋo men kod gero ŋaŋo nike rom kod kongolo thwol ma kodoŋjo i bur kidok luw kada nende iŋati ger ned</t>
+  </si>
+  <si>
+    <t>ŋaŋo Morwa Guma</t>
+  </si>
+  <si>
+    <t>E, e, Kongolo thwol kodoŋjo i bur kiluwi</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyi jo ŋiyo kuma waŋ chieŋ wok iye (east).</t>
+  </si>
+  <si>
+    <t>Ki ya chwoko nyingi nyath iguro dak kiwacho ni “Won oti ni nyingi nyath me ŋa?” Iwacho ameno kareno i thoko oti aka min nyath kod nyath won jonitye i oti.</t>
+  </si>
+  <si>
+    <t>Kaminyur yawok i boro remo dhiaŋ amilwoko gine nyath, kareno oketh nyath no i dhioti.</t>
+  </si>
+  <si>
+    <t>Riŋo kod Mwenge kidonji i oti minyur.</t>
+  </si>
+  <si>
+    <t>Pecho maminyur ni iye itedo i degi manyien kende kende, to minyur won kigey kosa yiko mach</t>
+  </si>
+  <si>
+    <t>Minyur kicham chiemo mu podho piny kada pii kothon piny kidok madh, kendo kicham fufa ma kado, chamo ma pii kende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nyath manyaŋaŋonywol kilwok kafuodi min kowok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jo nindo iboke pendi nyarwa da</t>
+  </si>
+  <si>
+    <t>Obolo, Koli kod kudho Alwi kited gine</t>
+  </si>
+  <si>
+    <t>Oluk,Otaw,Apuwa, Abweyere</t>
+  </si>
+  <si>
+    <t>Alemo,Nyarusa, Okimbala,Opa</t>
+  </si>
+  <si>
+    <t>Kwach, Aŋor,Achuna, Pate, wadoyo</t>
+  </si>
+  <si>
+    <t>Osolo,Mer,Okidupa, Oduŋa,Obuja</t>
+  </si>
+  <si>
+    <t>Aka nyingi jo ŋaŋongo mati jocŋaŋo ame:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyingi jo man jowacho ni "wa jo Morwa Guma wakongolo Thwol"</t>
+  </si>
+  <si>
+    <t>Jo Morwa Guma chango jocŋaŋo bedo iyadech ma Matindi, akuma jowok iye toŋjo wotho i Padhola paŋaŋom</t>
+  </si>
+  <si>
+    <t>Morwa Guma</t>
+  </si>
+  <si>
+    <t>Nywolirok ŋaŋo obedo ama: Adhoŋaŋonywolo jal milwoŋo ni Nŋaŋo (nyinge man Morwa  aka Naŋo onywolo Napakere, aka jame amunywolo yach aryo Guma kod Sule munyo pama jonywolo nonin me aryo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kada ameno kula madit fuod riŋojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka Guma bende jo wa ho ni Sule chango osenga senga jo!  Akwed makite me toŋkelo riŋo poŋirok swa   gicŋaŋo nywomirok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Giŋaŋokelo riŋo poŋirok, aa ya? riŋo, munyo jodit aka riŋo kirom jo, toŋjo cŋaŋo akwed ŋaŋowacho ni jo pa Guma jo kinono kod jo pa Sule, ni rupir ni chango Guŋaŋosenga senga Sule</t>
+  </si>
+  <si>
+    <t>Nono Morwa kada ti jo pOŋere kadiryo Guma kod Sule, baa jo chango achieŋ</t>
+  </si>
+  <si>
+    <t>NONO MORWA</t>
+  </si>
+  <si>
+    <t>KUNU ŋaŋo achieŋ nitye Korobudi itele milwoŋo ni Oyaliŋoma aka mani nitye ŋwenge, maŋaŋo olwa aŋaŋoriwere kod telin</t>
+  </si>
+  <si>
+    <t>Chango joŋaŋo mere gi ŋaŋoga ŋaŋo kelo riŋo ji aŋaŋo tana yo Padhola</t>
+  </si>
+  <si>
+    <t>Me atich ŋaŋoŋiyo  swa   loyo kiko mere, chango joŋeyo tek tek amuŋiyo  ochwok ja Loli achieŋ ni Jamayuli rupir chango mayul amachŋeyo gine onyoro makiko gine degi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tich machango jo asa ŋeyirok iiye: ŋweny, kitana ji , kod Chuech degi </t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono Loli marapena chango oketh i oro 1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka me awer muweri ilyende</t>
+  </si>
+  <si>
+    <t>Chango araŋaŋoneko ja Loli milwoŋo ni Nyalwoŋo giwode yo Nyaŋaŋogo</t>
+  </si>
+  <si>
+    <t>Ee - wi ŋata  onek oraŋaŋoneko nyalwoŋo giwode, ŋata  onek'arara</t>
+  </si>
+  <si>
+    <t>Ee ndelo pa Maseye misen kokwa yo kwoti kilwor nŋaŋote, Akwa yo toŋ maliend baba akilwor nŋaŋotan chieŋ chwo orom maŋaŋo gero</t>
+  </si>
+  <si>
+    <t>Oyaliŋoma nyasigende wa ira ŋombe</t>
+  </si>
+  <si>
+    <t>Oyaŋomaŋiyo ŋiyo  Oyaliŋomaŋiyo ,</t>
+  </si>
+  <si>
+    <t>Wer ŋaŋo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiyijo ŋiyo  kuma wa   chieŋ poŋho iye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	I ndir ma minyur wok iye (ndelo mara Apipili nen Adech III, Siro 4) ndelo no, minyur chiemo ikor pendi karemo alithikwon manende ogurigine kwon kanyachieŋ kod dukino Athu, o?aw dhioti</t>
+  </si>
+  <si>
+    <t>Nyithindho ŋaŋokwa h ka joneno dŋaŋo ma ja gwondo onywol, jokuro ndir munyo itoŋo iye chiemo ri dŋaŋo no toŋjo konjo diegi pecho, toŋdiegi cŋaŋo ywa   toŋdŋaŋo no nindo kech ni meno agirachula mabedo ja gwondo!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kadŋaŋo onywol i kwa yo dhok kod diegi gye pecho itero gichieŋi aka dŋaŋono chiemo rupir kadiel oywa   munyo go chiemo ŋeyo chiemo no kidok chieŋ tundo yawere mere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyathi jonindo iboke pendi Nyarwa da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Dukino Athu kited gine</t>
+  </si>
+  <si>
+    <t>Ni dhano ŋaŋo milwoŋo ni Maseye chango Were oŋiyo go Dhiaŋ ŋata r magumo kod diel ŋata r magumo aka gigipiny me okelo riŋo ŋaŋo maditi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kweer ŋaŋo madwoŋ  , Jow kod Dhiaŋ ni rupir chango Were open ŋiyo jo dhiaŋ</t>
+  </si>
+  <si>
+    <t>Aka go won bende to wad chwoko rigo nyinge ni Nyakeno ni rupir omaro akendini kod kooy makeno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wok ndiri no to keno bedo ri Simwenji kweer madwoŋ.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nywoliroki pajo: Adhola onywolo wode milwoŋo ni Simwenji, aka Simwenji chango Were omiyogo akendo makeno mombo swa, to timo kooy chak dhok pere machango go kwayo. </t>
+  </si>
+  <si>
+    <t>Nono Nyakeno nitye achiel kende</t>
+  </si>
+  <si>
+    <t>NONO JO NYAKENO</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye ikabedo milwoŋo ni Kisenge yo Paya, maŋaŋo tele milwoŋo ni Nyakidugiya</t>
+  </si>
+  <si>
+    <t>Aka tich machango jo asa ŋeyirok iiye: ŋweny, chuech aditin, dere kod degi</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono me marapeŋaŋoketh i oro 1947</t>
+  </si>
+  <si>
+    <t>wa yithindho nyameji, Arungasa, Arungasa</t>
+  </si>
+  <si>
+    <t>Oget bino Arungasa, Arungasa,</t>
+  </si>
+  <si>
+    <t>Oremo bino Arungasa, Arungasa,</t>
+  </si>
+  <si>
+    <t>Milandi ŋanda achieŋ Arungasa, Arungasa,</t>
+  </si>
+  <si>
+    <t>Milandi kiwor wa   Arungasa, Arungasa,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiy jo ŋiyo  yo kuma wa   chieŋ wok iye (east)</t>
+  </si>
+  <si>
+    <t>Minyur kod nyath jonindo i boke pendi kego ka nyathi manyako, boke mbiye ka nyathi manyiyach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kasegere adita kosa adher, kirwa   imach ni matedo</t>
+  </si>
+  <si>
+    <t>Obolo, Kudho Alwi, Kweer gwendi kod Awayo, yen aŋwen me jo kited  gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kweer madwoŋ  , Nyilando, kigey kosa neko</t>
+  </si>
+  <si>
+    <t>Mugu1e,	Oligo,	Ongoye</t>
+  </si>
+  <si>
+    <t>Migola,	Osudo,	Orach,	Okola,	Ogwet,</t>
+  </si>
+  <si>
+    <t>Othome,	Olo,	Awa a,	Chwa a,	Oŋero,</t>
+  </si>
+  <si>
+    <t>Aminda,	Otaba,	Gawa 	Gembi,	Oremo,</t>
+  </si>
+  <si>
+    <t>Jo wok Kisege akanyaka jowotho i Padhola iye gye</t>
+  </si>
+  <si>
+    <t>Ikabedo ma jocŋaŋo bedo iye, ilwoŋo ni Kisege yo Paya chieŋin kew kod Bunyole</t>
+  </si>
+  <si>
+    <t>Nywolirok ŋaŋo, Adhola amunywolo Nam, aka Nam onywolo yach aŋwen: Othome, Orach, Migole kod Mugule akanyaka yach me jonywolo nono jo Nam gipi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyingi jo man jowacho ni "wa jo Nam wa jo pa Nyilando"</t>
+  </si>
+  <si>
+    <t>Nono Nam nitye achieŋ kende ma kopOŋere</t>
+  </si>
+  <si>
+    <t>NONO JO NAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To munyo yach nyikway Nyapolo jo more aka pok riŋo kirom jo to jochako akwed, to Ogule pokere to chako nono pere ni Nyapolo Ogule.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.Nyapolo wod pa Adhola onywolo yach aŋwen, nyathi makayo pere ochwoko go ni Ranga (Rwoth), nyath mararyo Ogule (chango omiyogo migosi madwoŋ to chako noro kod gulirok gye to wad Chwoko ni Ogule), maradek Oligo, aka maraŋwen Nyafuondo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Onyo ka wayaneno paka Nyapolo Nono gipi nitye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nywolirok pa Nyapolo kod raŋo chango olwoŋ go ni Nyapolo nitye iy’ Adech I, Siro 1. </t>
+  </si>
+  <si>
+    <t>NONO JO NYAPOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye Katajula kod Lwala, manago Olwa majo lwoŋo ni Simwenji.</t>
+  </si>
+  <si>
+    <t>Aka tich machango jo asa ŋeyere iiye: lweny, dwar kod kwath.</t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono me marapeŋaŋoketh i oro 1953</t>
+  </si>
+  <si>
+    <t>Ominiyo dwoŋ mere ni mini-win amina jo kwor no tek tek</t>
+  </si>
+  <si>
+    <t>Ominiyo, Simwenji, jo pa Nyakeno jo kilwor wad.</t>
+  </si>
+  <si>
+    <t>Akyam dhano wajo pa Nyakeno wajo cham ji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo yikere wiy jo ŋiyo  kuma wa   chieŋ wok iye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Milusa kod Akibuk kited gine</t>
+  </si>
+  <si>
+    <t>Kweer madwoŋ Akendo keno, me ama kadhako onywol ifwono boke mere amipyelo iye nyath; kendo kadhako nitye kod iye kikal akendo kosa donjo kuma akendo otwi iye.</t>
+  </si>
+  <si>
+    <t>Nyakeno,	Oligo,	Kifa,	Nyachodha,	Orono</t>
+  </si>
+  <si>
+    <t>Siŋwenji,	Minyaw,	Nyagwa ja,	Ojoŋ ,	Moti,</t>
+  </si>
+  <si>
+    <t>Misinde, Osia,Oliŋa, Oyo, Athondhe,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka nyingi jo mati jo chwoko ame:</t>
+  </si>
+  <si>
+    <t>Nyingijo man jo wacho ni “Wa jo Simwenji wa jo pa Nyakeno wakilwor chwo kada oriwo.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chango jo chako bedo Katandi akanyaka jo wotho i Padhola gye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka yach me aŋaŋo nywolo Nono Nyakeno paka pama nitye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simwenji nyinge man munyo ilwoŋo “Nyakeno” onywolo yach aŋwen: Nyagwanja, Oliŋa, Orono kod Moti.  </t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pajo nitye Maundo wi tele milwoŋo ni “Tawo Jwok.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yach me gye kutho marapeno jo bedo inono</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> achiel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nyapolo, munyo jo kinywomere.  </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2276,6 +2683,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2307,7 +2728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2344,8 +2765,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3474,3010 +3899,3615 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A600"/>
+  <dimension ref="A2:A721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="A587" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
+      <selection activeCell="B688" sqref="B688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="A16" s="14" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="A22" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="A23" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="A27" s="14" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="A28" s="14" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="A29" s="14" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="A30" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="A31" s="14" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="A32" s="14" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="A33" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="A34" s="14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="A35" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="A37" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="A38" s="14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="A39" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="A40" s="14" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="A41" s="14" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="A42" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="A43" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="A44" s="14" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="A45" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="A46" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="A47" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="A48" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="A49" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="A50" s="14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="A51" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="A52" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="A53" s="14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="A54" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="A55" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="A56" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="A57" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="A58" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="A59" s="14" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="A60" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="A61" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="A62" s="14" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="A63" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="A64" s="14" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="A66" s="14" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="A67" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="A68" s="14" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="A69" s="14" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="A70" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="A71" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="A72" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="A73" s="14" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="A74" s="14" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="A75" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="A76" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="A77" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="A78" s="14" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="15" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="A80" s="14" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="A81" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="A82" s="14" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="A83" s="14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="A84" s="14" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="A85" s="14" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="A86" s="14" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="A87" s="14" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="A88" s="14" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="A89" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="A90" s="14" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="A91" s="14" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="A92" s="14" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="A93" s="14" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="A94" s="14" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="A95" s="14" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="A96" s="14" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="A97" s="14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="A98" s="14" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="A99" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="A100" s="14" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="A101" s="14" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="A102" s="14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="A103" s="14" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="A104" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="A105" s="14" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="A106" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="A107" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="A108" s="14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="A109" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="A110" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="A111" s="14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="A112" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="A113" s="14" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="A114" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="A115" s="14" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="A116" s="14" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="A117" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="A118" s="14" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="A119" s="14" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="A120" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="A121" s="14" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="A122" s="14" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="A123" s="14" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="A124" s="14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="A125" s="14" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="A126" s="14" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="15" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="A128" s="14" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="A129" s="14" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="A130" s="14" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="A131" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="A132" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="A133" s="14" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="A134" s="14" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="A135" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="A136" s="14" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="A137" s="14" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="A138" s="14" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="A139" s="14" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="A140" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="A141" s="14" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="A142" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="15" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="A144" s="14" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="A145" s="14" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="A146" s="14" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="A147" s="14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="A148" s="14" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="A149" s="14" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="A150" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="A151" s="14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="A152" s="14" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="A153" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="A154" s="14" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="A155" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="A156" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="A157" s="14" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="A158" s="14" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="A159" s="14" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="A160" s="14" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="A161" s="14" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="A162" s="14" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="A163" s="14" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="A164" s="14" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="A165" s="14" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="A166" s="14" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="A167" s="14" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="A168" s="14" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="A169" s="14" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="A170" s="14" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="A171" s="14" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="A172" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="A173" s="14" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="A174" s="14" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="A175" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="A176" s="14" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="A177" s="14" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="A178" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="A179" s="14" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="A180" s="14" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="A181" s="14" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="A182" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="A183" s="14" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="A184" s="14" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="A185" s="14" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="A186" s="14" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="A187" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="A188" s="14" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="A189" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="A190" s="14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="A191" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="A192" s="14" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="A193" s="14" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" t="s">
+      <c r="A194" s="14" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" t="s">
+      <c r="A195" s="14" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="A196" s="14" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="A197" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" t="s">
+      <c r="A198" s="14" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="A199" s="14" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" t="s">
+      <c r="A200" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" t="s">
+      <c r="A201" s="14" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" t="s">
+      <c r="A202" s="14" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" t="s">
+      <c r="A203" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" t="s">
+      <c r="A204" s="14" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" t="s">
+      <c r="A205" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" t="s">
+      <c r="A206" s="14" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" t="s">
+      <c r="A207" s="14" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" t="s">
+      <c r="A208" s="14" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" t="s">
+      <c r="A209" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" t="s">
+      <c r="A210" s="14" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" t="s">
+      <c r="A211" s="14" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" t="s">
+      <c r="A212" s="14" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" t="s">
+      <c r="A213" s="14" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" t="s">
+      <c r="A214" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" t="s">
+      <c r="A215" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" t="s">
+      <c r="A216" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" t="s">
+      <c r="A217" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" t="s">
+      <c r="A218" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" t="s">
+      <c r="A219" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" t="s">
+      <c r="A220" s="14" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" t="s">
+      <c r="A221" s="14" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" t="s">
+      <c r="A222" s="14" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" t="s">
+      <c r="A223" s="14" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" t="s">
+      <c r="A224" s="14" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" t="s">
+      <c r="A225" s="14" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" t="s">
+      <c r="A226" s="14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" t="s">
+      <c r="A227" s="14" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" t="s">
+      <c r="A228" s="14" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" t="s">
+      <c r="A229" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" t="s">
+      <c r="A230" s="14" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" t="s">
+      <c r="A231" s="14" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" t="s">
+      <c r="A232" s="14" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" t="s">
+      <c r="A233" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" t="s">
+      <c r="A234" s="14" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" t="s">
+      <c r="A235" s="14" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" t="s">
+      <c r="A236" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" t="s">
+      <c r="A237" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" t="s">
+      <c r="A238" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" t="s">
+      <c r="A239" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" t="s">
+      <c r="A240" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" t="s">
+      <c r="A241" s="14" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" t="s">
+      <c r="A242" s="14" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" t="s">
+      <c r="A243" s="14" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" t="s">
+      <c r="A244" s="14" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" t="s">
+      <c r="A245" s="14" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" t="s">
+      <c r="A246" s="14" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" t="s">
+      <c r="A247" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" t="s">
+      <c r="A248" s="14" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" t="s">
+      <c r="A249" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" t="s">
+      <c r="A250" s="14" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" t="s">
+      <c r="A251" s="14" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" t="s">
+      <c r="A252" s="14" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" t="s">
+      <c r="A253" s="14" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" t="s">
+      <c r="A254" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" t="s">
+      <c r="A255" s="14" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" t="s">
+      <c r="A256" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" t="s">
+      <c r="A257" s="14" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" t="s">
+      <c r="A258" s="14" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" t="s">
+      <c r="A259" s="14" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" t="s">
+      <c r="A260" s="14" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" t="s">
+      <c r="A261" s="14" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" t="s">
+      <c r="A262" s="14" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" t="s">
+      <c r="A263" s="14" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" t="s">
+      <c r="A264" s="14" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" t="s">
+      <c r="A265" s="14" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" t="s">
+      <c r="A266" s="14" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" t="s">
+      <c r="A267" s="14" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" t="s">
+      <c r="A268" s="14" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" t="s">
+      <c r="A269" s="14" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" t="s">
+      <c r="A270" s="14" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" t="s">
+      <c r="A271" s="14" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" t="s">
+      <c r="A272" s="14" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" t="s">
+      <c r="A273" s="14" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" t="s">
+      <c r="A274" s="14" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" t="s">
+      <c r="A275" s="14" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" t="s">
+      <c r="A276" s="14" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" t="s">
+      <c r="A277" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" t="s">
+      <c r="A278" s="14" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" t="s">
+      <c r="A279" s="14" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" t="s">
+      <c r="A280" s="14" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" t="s">
+      <c r="A281" s="14" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" t="s">
+      <c r="A282" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" t="s">
+      <c r="A283" s="14" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" t="s">
+      <c r="A284" s="14" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" t="s">
+      <c r="A285" s="14" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" t="s">
+      <c r="A286" s="14" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" t="s">
+      <c r="A287" s="14" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" t="s">
+      <c r="A288" s="14" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" t="s">
+      <c r="A289" s="14" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" t="s">
+      <c r="A290" s="14" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" t="s">
+      <c r="A291" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" t="s">
+      <c r="A292" s="14" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" t="s">
+      <c r="A293" s="14" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" t="s">
+      <c r="A294" s="14" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" t="s">
+      <c r="A295" s="14" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" t="s">
+      <c r="A296" s="14" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" t="s">
+      <c r="A297" s="14" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" t="s">
+      <c r="A298" s="14" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" t="s">
+      <c r="A299" s="14" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" t="s">
+      <c r="A300" s="14" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" t="s">
+      <c r="A301" s="14" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" t="s">
+      <c r="A302" s="14" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" t="s">
+      <c r="A303" s="14" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" t="s">
+      <c r="A304" s="14" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" t="s">
+      <c r="A305" s="14" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" t="s">
+      <c r="A306" s="14" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" t="s">
+      <c r="A307" s="14" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" t="s">
+      <c r="A308" s="14" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" t="s">
+      <c r="A309" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" t="s">
+      <c r="A310" s="14" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" t="s">
+      <c r="A311" s="14" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" t="s">
+      <c r="A312" s="14" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" t="s">
+      <c r="A313" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" t="s">
+      <c r="A314" s="14" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" t="s">
+      <c r="A315" s="14" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" t="s">
+      <c r="A316" s="14" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" t="s">
+      <c r="A317" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" t="s">
+      <c r="A318" s="14" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="15" t="s">
+      <c r="A319" s="16" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" t="s">
+      <c r="A320" s="14" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" t="s">
+      <c r="A321" s="14" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" t="s">
+      <c r="A322" s="14" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" t="s">
+      <c r="A323" s="14" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" t="s">
+      <c r="A324" s="14" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" t="s">
+      <c r="A325" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" t="s">
+      <c r="A326" s="14" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" t="s">
+      <c r="A327" s="14" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="14" t="s">
+      <c r="A328" s="15" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="14" t="s">
+      <c r="A329" s="15" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="14" t="s">
+      <c r="A330" s="15" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" t="s">
+      <c r="A331" s="14" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" t="s">
+      <c r="A332" s="14" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" t="s">
+      <c r="A333" s="14" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" t="s">
+      <c r="A334" s="14" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" t="s">
+      <c r="A335" s="14" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" t="s">
+      <c r="A336" s="14" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" t="s">
+      <c r="A337" s="14" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" t="s">
+      <c r="A338" s="14" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" t="s">
+      <c r="A339" s="14" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" t="s">
+      <c r="A340" s="14" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" t="s">
+      <c r="A341" s="14" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" t="s">
+      <c r="A342" s="14" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" t="s">
+      <c r="A343" s="14" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" t="s">
+      <c r="A344" s="14" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" t="s">
+      <c r="A345" s="14" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" t="s">
+      <c r="A346" s="14" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" t="s">
+      <c r="A347" s="14" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" t="s">
+      <c r="A348" s="14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" t="s">
+      <c r="A349" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" t="s">
+      <c r="A350" s="14" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" t="s">
+      <c r="A351" s="14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" t="s">
+      <c r="A352" s="14" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" t="s">
+      <c r="A353" s="14" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" t="s">
+      <c r="A354" s="14" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" t="s">
+      <c r="A355" s="14" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" t="s">
+      <c r="A356" s="14" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" t="s">
+      <c r="A357" s="14" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" t="s">
+      <c r="A358" s="14" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" t="s">
+      <c r="A359" s="14" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" t="s">
+      <c r="A360" s="14" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" t="s">
+      <c r="A361" s="14" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" t="s">
+      <c r="A362" s="14" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" t="s">
+      <c r="A363" s="14" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" t="s">
+      <c r="A364" s="14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" t="s">
+      <c r="A365" s="14" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" t="s">
+      <c r="A366" s="14" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" t="s">
+      <c r="A367" s="14" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" t="s">
+      <c r="A368" s="14" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" t="s">
+      <c r="A369" s="14" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" t="s">
+      <c r="A370" s="14" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" t="s">
+      <c r="A371" s="14" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" t="s">
+      <c r="A372" s="14" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" t="s">
+      <c r="A373" s="14" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" t="s">
+      <c r="A374" s="14" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" t="s">
+      <c r="A375" s="14" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" t="s">
+      <c r="A376" s="14" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" t="s">
+      <c r="A377" s="14" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" t="s">
+      <c r="A378" s="14" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" t="s">
+      <c r="A379" s="14" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" t="s">
+      <c r="A380" s="14" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" t="s">
+      <c r="A381" s="14" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" t="s">
+      <c r="A382" s="14" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" t="s">
+      <c r="A383" s="14" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" t="s">
+      <c r="A384" s="14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" t="s">
+      <c r="A385" s="14" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" t="s">
+      <c r="A386" s="14" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" t="s">
+      <c r="A387" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" t="s">
+      <c r="A388" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" t="s">
+      <c r="A389" s="14" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" t="s">
+      <c r="A390" s="14" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" t="s">
+      <c r="A391" s="14" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" t="s">
+      <c r="A392" s="14" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" t="s">
+      <c r="A393" s="14" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" t="s">
+      <c r="A394" s="14" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" t="s">
+      <c r="A395" s="14" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" t="s">
+      <c r="A396" s="14" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" t="s">
+      <c r="A397" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" t="s">
+      <c r="A398" s="14" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" t="s">
+      <c r="A399" s="14" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" t="s">
+      <c r="A400" s="14" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" t="s">
+      <c r="A401" s="14" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" t="s">
+      <c r="A402" s="14" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" t="s">
+      <c r="A403" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" t="s">
+      <c r="A404" s="14" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" t="s">
+      <c r="A405" s="14" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" t="s">
+      <c r="A406" s="14" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" t="s">
+      <c r="A407" s="14" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" t="s">
+      <c r="A408" s="14" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" t="s">
+      <c r="A409" s="14" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" t="s">
+      <c r="A410" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" t="s">
+      <c r="A411" s="14" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" t="s">
+      <c r="A412" s="14" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" t="s">
+      <c r="A413" s="14" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" t="s">
+      <c r="A414" s="14" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" t="s">
+      <c r="A415" s="14" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" t="s">
+      <c r="A416" s="14" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" t="s">
+      <c r="A417" s="14" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" t="s">
+      <c r="A418" s="14" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" t="s">
+      <c r="A419" s="14" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" t="s">
+      <c r="A420" s="14" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" t="s">
+      <c r="A421" s="14" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" t="s">
+      <c r="A422" s="14" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" t="s">
+      <c r="A423" s="14" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" t="s">
+      <c r="A424" s="14" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" t="s">
+      <c r="A425" s="14" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" t="s">
+      <c r="A426" s="14" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" t="s">
+      <c r="A427" s="14" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" t="s">
+      <c r="A428" s="14" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" t="s">
+      <c r="A429" s="14" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" t="s">
+      <c r="A430" s="14" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" t="s">
+      <c r="A431" s="14" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" t="s">
+      <c r="A432" s="14" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" t="s">
+      <c r="A433" s="14" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" t="s">
+      <c r="A434" s="14" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" t="s">
+      <c r="A435" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" t="s">
+      <c r="A436" s="14" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" t="s">
+      <c r="A437" s="14" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" t="s">
+      <c r="A438" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" t="s">
+      <c r="A439" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" t="s">
+      <c r="A440" s="14" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" t="s">
+      <c r="A441" s="14" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" t="s">
+      <c r="A442" s="14" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" t="s">
+      <c r="A443" s="14" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" t="s">
+      <c r="A444" s="14" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" t="s">
+      <c r="A445" s="14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" t="s">
+      <c r="A446" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" t="s">
+      <c r="A447" s="14" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" t="s">
+      <c r="A448" s="14" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" t="s">
+      <c r="A449" s="14" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" t="s">
+      <c r="A450" s="14" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" t="s">
+      <c r="A451" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" t="s">
+      <c r="A452" s="14" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" t="s">
+      <c r="A453" s="14" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" t="s">
+      <c r="A454" s="14" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" t="s">
+      <c r="A455" s="14" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" t="s">
+      <c r="A456" s="14" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" t="s">
+      <c r="A457" s="14" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" t="s">
+      <c r="A458" s="14" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" t="s">
+      <c r="A459" s="14" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="14" t="s">
+      <c r="A460" s="15" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" t="s">
+      <c r="A461" s="14" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" t="s">
+      <c r="A462" s="14" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" t="s">
+      <c r="A463" s="14" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" t="s">
+      <c r="A464" s="14" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" t="s">
+      <c r="A465" s="14" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" t="s">
+      <c r="A466" s="14" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" t="s">
+      <c r="A467" s="14" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" t="s">
+      <c r="A468" s="14" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" t="s">
+      <c r="A469" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" t="s">
+      <c r="A470" s="14" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" t="s">
+      <c r="A471" s="14" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" t="s">
+      <c r="A472" s="14" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" t="s">
+      <c r="A473" s="14" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" t="s">
+      <c r="A474" s="14" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" t="s">
+      <c r="A475" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" t="s">
+      <c r="A476" s="14" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" t="s">
+      <c r="A477" s="14" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" t="s">
+      <c r="A478" s="14" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" t="s">
+      <c r="A479" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" t="s">
+      <c r="A480" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" t="s">
+      <c r="A481" s="14" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" t="s">
+      <c r="A482" s="14" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" t="s">
+      <c r="A483" s="14" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" t="s">
+      <c r="A484" s="14" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" t="s">
+      <c r="A485" s="14" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" t="s">
+      <c r="A486" s="14" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" t="s">
+      <c r="A487" s="14" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" t="s">
+      <c r="A488" s="14" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" t="s">
+      <c r="A489" s="14" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" t="s">
+      <c r="A490" s="14" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" t="s">
+      <c r="A491" s="14" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" t="s">
+      <c r="A492" s="14" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" t="s">
+      <c r="A493" s="14" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" t="s">
+      <c r="A494" s="14" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" t="s">
+      <c r="A495" s="14" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" t="s">
+      <c r="A496" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" t="s">
+      <c r="A497" s="14" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" t="s">
+      <c r="A498" s="14" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" t="s">
+      <c r="A499" s="14" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" t="s">
+      <c r="A500" s="14" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" t="s">
+      <c r="A501" s="14" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" t="s">
+      <c r="A502" s="14" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" t="s">
+      <c r="A503" s="14" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" t="s">
+      <c r="A504" s="14" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" t="s">
+      <c r="A505" s="14" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" t="s">
+      <c r="A506" s="14" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" t="s">
+      <c r="A507" s="14" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" t="s">
+      <c r="A508" s="14" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" t="s">
+      <c r="A509" s="14" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" t="s">
+      <c r="A510" s="14" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" t="s">
+      <c r="A511" s="14" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" t="s">
+      <c r="A512" s="14" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" t="s">
+      <c r="A513" s="14" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" t="s">
+      <c r="A514" s="14" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" t="s">
+      <c r="A515" s="14" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" t="s">
+      <c r="A516" s="14" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" t="s">
+      <c r="A517" s="14" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" t="s">
+      <c r="A518" s="14" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" t="s">
+      <c r="A519" s="14" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" t="s">
+      <c r="A520" s="14" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" t="s">
+      <c r="A521" s="14" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" t="s">
+      <c r="A522" s="14" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" t="s">
+      <c r="A523" s="14" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" t="s">
+      <c r="A524" s="14" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" t="s">
+      <c r="A525" s="14" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" t="s">
+      <c r="A526" s="14" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" t="s">
+      <c r="A527" s="14" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" t="s">
+      <c r="A528" s="14" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" t="s">
+      <c r="A529" s="14" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" t="s">
+      <c r="A530" s="14" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" t="s">
+      <c r="A531" s="14" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" t="s">
+      <c r="A532" s="14" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" t="s">
+      <c r="A533" s="14" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" t="s">
+      <c r="A534" s="14" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" t="s">
+      <c r="A535" s="14" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" t="s">
+      <c r="A536" s="14" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" t="s">
+      <c r="A537" s="14" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" t="s">
+      <c r="A538" s="14" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" t="s">
+      <c r="A539" s="14" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" t="s">
+      <c r="A540" s="14" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" t="s">
+      <c r="A541" s="14" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" t="s">
+      <c r="A542" s="14" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" t="s">
+      <c r="A543" s="14" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" t="s">
+      <c r="A544" s="14" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" t="s">
+      <c r="A545" s="14" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" t="s">
+      <c r="A546" s="14" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" t="s">
+      <c r="A547" s="14" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" t="s">
+      <c r="A548" s="14" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" t="s">
+      <c r="A549" s="14" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" t="s">
+      <c r="A550" s="14" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" t="s">
+      <c r="A551" s="14" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" t="s">
+      <c r="A552" s="14" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" t="s">
+      <c r="A553" s="14" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" t="s">
+      <c r="A554" s="14" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" t="s">
+      <c r="A555" s="14" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" t="s">
+      <c r="A556" s="14" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" t="s">
+      <c r="A557" s="14" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" t="s">
+      <c r="A558" s="14" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" t="s">
+      <c r="A559" s="14" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" t="s">
+      <c r="A560" s="14" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" t="s">
+      <c r="A561" s="14" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" t="s">
+      <c r="A562" s="14" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" t="s">
+      <c r="A563" s="14" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" t="s">
+      <c r="A564" s="14" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" t="s">
+      <c r="A565" s="14" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" t="s">
+      <c r="A566" s="14" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" t="s">
+      <c r="A567" s="14" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" t="s">
+      <c r="A568" s="14" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" t="s">
+      <c r="A569" s="14" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" t="s">
+      <c r="A570" s="14" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" t="s">
+      <c r="A571" s="14" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" t="s">
+      <c r="A572" s="14" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" t="s">
+      <c r="A573" s="14" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" t="s">
+      <c r="A574" s="14" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" t="s">
+      <c r="A575" s="14" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" t="s">
+      <c r="A576" s="14" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" t="s">
+      <c r="A577" s="14" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" t="s">
+      <c r="A578" s="14" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" t="s">
+      <c r="A579" s="14" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" t="s">
+      <c r="A580" s="14" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" t="s">
+      <c r="A581" s="14" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" t="s">
+      <c r="A582" s="14" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" t="s">
+      <c r="A583" s="14" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" t="s">
+      <c r="A584" s="14" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" t="s">
+      <c r="A585" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" t="s">
+      <c r="A586" s="14" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" t="s">
+      <c r="A587" s="14" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" t="s">
+      <c r="A588" s="14" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" t="s">
+      <c r="A589" s="14" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" t="s">
+      <c r="A590" s="14" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="591" spans="1:1">
-      <c r="A591" t="s">
+      <c r="A591" s="14" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" t="s">
+      <c r="A592" s="14" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="593" spans="1:1">
-      <c r="A593" t="s">
+      <c r="A593" s="14" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" t="s">
+      <c r="A594" s="14" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" t="s">
+      <c r="A595" s="14" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" t="s">
+      <c r="A596" s="14" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" t="s">
+      <c r="A597" s="14" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" t="s">
+      <c r="A598" s="14" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" t="s">
+      <c r="A599" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" t="s">
+      <c r="A600" s="14" t="s">
         <v>656</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="14" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="14" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="14" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="14" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="14" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="14" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="14" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="14" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="14" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="14" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="14" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="14" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="15" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="15" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="15" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="14" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="14" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="14" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="14" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="14" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="14" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="14" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="14" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="14" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="14" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="17" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" ht="30">
+      <c r="A641" s="17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" ht="45">
+      <c r="A642" s="17" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="17" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="14" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="14" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="14" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="14" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="17" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="14" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="14" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="14" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="14" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="14" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="14" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="14" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="14" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="14" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="14" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="14" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="14" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="14" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="14" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="14" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="14" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="14" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="14" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" s="14" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="14" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="14" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="14" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="14" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="14" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="14" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="14" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" ht="30">
+      <c r="A684" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="14" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="14" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="14" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="14" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="14" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="14" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="14" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="14" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="14" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="14" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="14" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="14" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="14" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="14" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="14" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="14" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="17" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="14" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="14" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="14" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="14" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="14" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="14" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" s="17" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="17" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="14" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="14" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="14" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" s="14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="14" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="14" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="994">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -2553,9 +2553,6 @@
   </si>
   <si>
     <t xml:space="preserve">To munyo yach nyikway Nyapolo jo more aka pok riŋo kirom jo to jochako akwed, to Ogule pokere to chako nono pere ni Nyapolo Ogule.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.Nyapolo wod pa Adhola onywolo yach aŋwen, nyathi makayo pere ochwoko go ni Ranga (Rwoth), nyath mararyo Ogule (chango omiyogo migosi madwoŋ to chako noro kod gulirok gye to wad Chwoko ni Ogule), maradek Oligo, aka maraŋwen Nyafuondo.  </t>
   </si>
   <si>
     <t xml:space="preserve"> Onyo ka wayaneno paka Nyapolo Nono gipi nitye.</t>
@@ -2667,12 +2664,417 @@
       <t xml:space="preserve"> Nyapolo, munyo jo kinywomere.  </t>
     </r>
   </si>
+  <si>
+    <t>Aka jo Nyapolo madit man jo nitye yo Gombila ma Kwapa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To wok indirino nyikway jalo pama ilwoŋo jo ni jo pa Masar, to kareno jo kinono man kendo fuod jo kolimo pokirok apoka swa malimo chako nono man ni wajo “Nyapolo pa Masar.”  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To go pokere to kun, to kidho yo Nyawiyoga.  </t>
+  </si>
+  <si>
+    <t>Jo pa Masar me jo nono Nyapolo Ogule aka baa jo machango ilwoŋo ni Masar, olimo dhaw moro kod wutumin go jo pa Ogule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To riwach dhaw dhaw amumiyo jo chako tuk joman jo kun wiloka paka jomiwacho jo ni jo pa Masar, me kinono anona man manyikway Adhola.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyapolo gye chango jo chako bedo Katandi kuma chango onywol iye kwar jo, kod yo Senda. </t>
+  </si>
+  <si>
+    <t>To ja dek me jo Ranga, Oligo, Nyafuondo jo kinywomere kendo jo nono achiel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo pa Ogule jo nywomo jo pa Ranga, Oligo kod Nyafuondo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nywomirok ochako i ndir ma Oloo Majanga dhumo (nen Adech I, Siro 5), tundo kiri pama.   </t>
+  </si>
+  <si>
+    <t>Kada jo pokere jo konywomere piyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyapolo wod pa Adhola onywolo yach aŋwen, nyathi makayo pere ochwoko go ni Ranga (Rwoth), nyath mararyo Ogule (chango omiyogo migosi madwoŋ to chako noro kod gulirok gye to wad Chwoko ni Ogule), maradek Oligo, aka maraŋwen Nyafuondo.  </t>
+  </si>
+  <si>
+    <t>Aka nyingi jo mati jo chwoko ame:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo wacho ameno ka jopoyo gine Luli tworo machango diti yo Katandi machango onywolijo iiye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nono me nyingi jo man jo wacho ni “Wa jo Nyapolo wa jo Luli tworo.”  </t>
+  </si>
+  <si>
+    <t>Nyapolo Orangi, Oligo kod Nyafuondo</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyi jo ŋiyo kuma waŋ chieŋ podho iye .</t>
+  </si>
+  <si>
+    <t>Minyur kiyik mach, kendo go kod nyath jonindo iboke pendi nyarwanda.</t>
+  </si>
+  <si>
+    <t>Ŋata Bura omako kicham rombo i oti Nyapolo gye.</t>
+  </si>
+  <si>
+    <t>Kweer pajo (nono Nyapolo jonok kod kweer):</t>
+  </si>
+  <si>
+    <t>Ranga,	Nyafuondo,	Jabuka,	Aripa,	Nyakur</t>
+  </si>
+  <si>
+    <t>Adhola,	Oligo,	Oywelowo,	Jewo,	Keta,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ti chako wer Aremo.</t>
+  </si>
+  <si>
+    <t>To mon chako ywak, ni opoy Nyapolo won otundo, to Nyapolo gut swa riwach pa Aremo.</t>
+  </si>
+  <si>
+    <t>Wer me ochako ama: Chango munyo okidh lweny to jalimoro milwoŋo ni Aremo olworo lweny to ringo dwoko wacho rijo pecho ni oweyo igoyo Nyapolo swa miti ti kodwok</t>
+  </si>
+  <si>
+    <t>Diyoŋeye halo magambala.</t>
+  </si>
+  <si>
+    <t>Chieŋ olyel ri Aremo Diyoŋeye</t>
+  </si>
+  <si>
+    <t>Nyapolo Nyaka dwoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyapolo Dwok mogut </t>
+  </si>
+  <si>
+    <t>Jalul Tworo ti kodwok</t>
+  </si>
+  <si>
+    <t>Oŋolan ga dita kodhi</t>
+  </si>
+  <si>
+    <t>Oŋolan indelo Nyapolo</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye yo Katandi milwoŋ ni “ODI MIEL,” manago lul kod telin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tich machango jo asa ŋeyere iiye: lweny, dwar kod goyo bunde.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena chango oketh i oro 1945.  </t>
+  </si>
+  <si>
+    <t>Olinda ngwe e e e Lweny Kanyinga waneko wadwoko wajo Nyapolo wak poti wakilwor, wajo Nyapolo kichim wan, kichimijo.</t>
+  </si>
+  <si>
+    <t>Jo Nyapolo kabul oywak ŋata oyworin nyath achiel.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E e e Kabul oywak tinditindi </t>
+  </si>
+  <si>
+    <t>Nyath achiel kidhano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E e e nyath achiel kidhano andha.  </t>
+  </si>
+  <si>
+    <t>O o o mon nywolo jogero, mon nywolo jokisinye</t>
+  </si>
+  <si>
+    <t>E e e waliŋaliŋa ri banja, Nyapolo ni banja,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyapolo kipenji ti nwaŋo. </t>
+  </si>
+  <si>
+    <t>Eee wajo Nyapolo wak ran.</t>
+  </si>
+  <si>
+    <t>KUNU pajo achiel kod ma pa jo Nyapolo man, nitye yo Katandi ilwoŋo ni “ODI MIEL” manago lul kod telin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka tich machango jo asa ŋeyirok iiye: lweny, dwar, chowo Bura kod migimba koth.  </t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono marapena chango oketh i oro 1941</t>
+  </si>
+  <si>
+    <t>Alinda ngwe kachiŋa.</t>
+  </si>
+  <si>
+    <t>Banja mawan no Koran.</t>
+  </si>
+  <si>
+    <t>E e e Wajo Nyapolo wakiran</t>
+  </si>
+  <si>
+    <t>Jo yikere wiy jo ŋiyo kuma waŋ chieŋ podho iye (west).</t>
+  </si>
+  <si>
+    <t>Minyur kiyik mach, kendo go kod nyath jonindo i boke pendi nyarwanda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo pakere ni “Wa jo Nyapolo wa jo po Ogule.”  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I nono Nyapolo, Ogule nitye kende, aka jo nywomere kod Nyapolo man. </t>
+  </si>
+  <si>
+    <t>Nyapolo Ogule</t>
+  </si>
+  <si>
+    <t>NONO J'ODE</t>
+  </si>
+  <si>
+    <t>KUNU pajo, man nitye Maundo, aka man nitye Nyamalogo witele milwoŋo ni Wiyadundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tich machango jo asa ŋeyere iiye: lweny, goyo tongol gi fumbo kod ndijo ma theth atego kod tonge!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena odimi i oro Novemba 26, 1933.  </t>
+  </si>
+  <si>
+    <t>Wok ndirino to gime lokere wer nono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obedo ndir achiel jo Sewe jobino to jo yaka dhiaŋ pa japa Nyirenja yo Maundo to romachien to dhako mawon pecho no dwoko to uro ni “I i i, a a a! anen! anen win jo Paliwa, jo Maundo me paka jo weyo dhiaŋ osira malo okadho gi chak makonyiedh kada anyiedha, pa chwo ongoye pecho me manende jo ki lweny ye kada alwenya!”  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer me obedo ‘abwon’; </t>
+  </si>
+  <si>
+    <t>dhiaŋ osira malo pa chwo ongoye!</t>
+  </si>
+  <si>
+    <t>E e e chak chiewo, wajo Maundo muweyo</t>
+  </si>
+  <si>
+    <t>Jo yikere wiy jo ŋiyo kuma waŋ chieŋ podho iiye (west).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo ka ja Paliwa otho kinyiedh dhok mapecho no kafuod koyik ŋato iweyo dhok dhothadhotha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ka dhako onywol ikuth ikiro chak ma chiewo i kanindo kod bothi minyur ginyathi akanyaka jo nindo i ka nindo no kosa nyathi no dhoth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To pama chak ma chiewo bedo kweer madwoŋ swa ri jo Paliwa.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To dhiaŋ pa baa mere milwoŋo ni “Oliwa” amopidho go gichak ma chiewo tundo kuma Kasewe opoŋ to bende nywomo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gime obino ama, Nyirenja kod dhako pere gye jotho joweyo Kasewe ikich madwoŋ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jopaliwa jongoye gi kweer man gye kwanyowoko “chak ma chiewo.” </t>
+  </si>
+  <si>
+    <t>Onoŋor,Ojaga.</t>
+  </si>
+  <si>
+    <t>Sikola,Omwona,Omana,Sele,Aluka,</t>
+  </si>
+  <si>
+    <t>Alyew,Oguwa,Nyonyi,Jambaka,Ogweyo,</t>
+  </si>
+  <si>
+    <t>Kole,Oda,Olando,Opiti,Ombigo,</t>
+  </si>
+  <si>
+    <t>Olero,Idoli,Asii,Obuŋa,Ngira,</t>
+  </si>
+  <si>
+    <t>Jadyewa,Manyinge,Aŋopa,Ote,Ofumbi,</t>
+  </si>
+  <si>
+    <t>Malilo,Omubala,Ogen,Machar,Okimen,</t>
+  </si>
+  <si>
+    <t>Wesen,Obedo,Jachieni,Malala,Okwer,</t>
+  </si>
+  <si>
+    <t>Onyay,Odugo,Otwey,Adito,Siya,</t>
+  </si>
+  <si>
+    <t>Orupe,Kedi,Onwaŋo,Oyeyo,Oguŋ,</t>
+  </si>
+  <si>
+    <t>Omuya,Alecho,(Olengo),Olenge,Didworo,</t>
+  </si>
+  <si>
+    <t>Adipa,Kaburu,Kalengere,Ono,Wagondi,</t>
+  </si>
+  <si>
+    <t>Arucha,Laro,Otiti,Osyaga,Ondowa,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To pama jonwaŋere ikis adech ma Padhola. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabedo pajo marapena obedo Maundo kod Nyamalogo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka yach me amunywolo nono Nyirenja ma pama nitye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Aka Nyirenja onywolo wode milwoŋo ni Kasewe, to Kasewe kod dhako pere milwoŋo ni Nyamichala to jo nywolo yach abiriyo me: Waseni, Arucha, Adipa, Omuya, Orupe, Onyay kod Onoŋor.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nywolirok pajo achako kwoŋ Adhola, munywolo nyath pere milwoŋo ni Nyirenja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo nitye nono achiel kende ma kopokere diere.  </t>
+  </si>
+  <si>
+    <t>Jo pa Nyirenja nyingi jo man jowacho ni "wa jo Paliwa Chak chiemo"</t>
+  </si>
+  <si>
+    <t>NONO NYIRENJA</t>
+  </si>
+  <si>
+    <t>Nono Ojilai opokere kad ryo: Ojilai Dibworo p'Arak kod Ojilai Dibworo pa Kwom</t>
+  </si>
+  <si>
+    <t>NONO OJILAI</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye wi tele ma Mwelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tich machango jo asa ŋeyere iiye: lweny, kwath, miel kod dwar.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena chango odini ioro 1953.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dwoŋ mere ni jo ripo tho rigin jo eye i piny me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo wacho ni bedo i piny Padhola tek, nen paka lyech onekojo, ni jo ripo dok Ode pajo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer me gye jo chwoko munyo lyech otyeko neko jo.  </t>
+  </si>
+  <si>
+    <t>Chuka chiene waji, Chuka chiene waji.</t>
+  </si>
+  <si>
+    <t>Mbuluku Omwa Mwelo.”</t>
+  </si>
+  <si>
+    <t>Bedo i piny Padhola tek wanodok Ode wan,</t>
+  </si>
+  <si>
+    <t>Mbuluku Omwa Mwelo.</t>
+  </si>
+  <si>
+    <t>Mbuluku, Mbuluku Omwa Mwelo</t>
+  </si>
+  <si>
+    <t>Wer pa jo majo wero:</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyi jo ŋiyo kuma waŋ chieŋ podho iye (west).</t>
+  </si>
+  <si>
+    <t>Minyur kod nyathi jonindo i boke pendi nyarwanda.</t>
+  </si>
+  <si>
+    <t>Minyur chiemo ikor pendi kendo kwon kosa nyuka iguro gi yath makudho Alwi.</t>
+  </si>
+  <si>
+    <t>Minyur kicham kwon kal muchiel, tundo kuma wok iiye.</t>
+  </si>
+  <si>
+    <t>Jo kited kod Akibuk, kigo dhok, asati mar’adita kosa asati mar’odher kosa kasegere dero.</t>
+  </si>
+  <si>
+    <t>Kweer pa jo madwoŋ, Mbuluku kod lyech, ka j’Ade twoo kosa otho Mbuluku bina bina pecho no to bende chako ywak.</t>
+  </si>
+  <si>
+    <t>wa golo,	Onyoko,	Oriŋo,	Oluki</t>
+  </si>
+  <si>
+    <t>Ogwa ,	Owora,	Omonya,	Kamura,	Obedo,</t>
+  </si>
+  <si>
+    <t>Ogol,	Ndira,	wa ya,	Ogola,	Kayala,</t>
+  </si>
+  <si>
+    <t>Maala,	odoŋ,	Mbedi,	Omŋeyo,	Opilo,</t>
+  </si>
+  <si>
+    <t>Omwolo,	Oyo,	Sekiro,	Anial,	Oŋaŋo,</t>
+  </si>
+  <si>
+    <t>Luge,	Kaunye,	Anieye,	Akanyi,	Obanja,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno joŋeyo ni ji kende ama jonyalo bedo mager; nikere manago nende omini jo amonwaŋo joyaneko ni lee.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To jo modoŋ to jo loko lyech kweer pa jo; kajo wacho ni kere lyeech bende chuka chiene ji aka lworo tich amumiyo jo lokere lyeech.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wok ndirino to lyech koch kichutho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ape! kere jo kwinyo kuma pino ogeto iye: to lyech ere gi jo to neko jo pa nyithindi gwendi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amumiyo ndir achiel to jo chokere ni jo onek thwon ma nono.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo lyech opoŋ to lokere mager ka mito ni onek jo, kendo won bin chodo uno to kidho chiemo kende. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ka akuma jo nwaŋo iiye nyathi lyech to jo lwoŋo ni nyathi dhiaŋ, to jo mako jo pidho.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J’Ode j’ochako bedo yo Nagongera bothi Adhola to munyo joneno ni joromo aka onyo dudi nok ma fur to jo tuk yo Mwelo, i tyend tele ma Mwelo. </t>
+  </si>
+  <si>
+    <t>Nyingi jo man jowacho ni “Wa j’Ode wa jo Mbuluku.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ode chango wod p’Adhola, aka go onywolo yach aŋwen: Luge, Wangolo, Owora kod Warya; aka yach me ama jonywolo nono Ode ma pama nitye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olwoŋ jo ni J’Ode rukwom baa jo manywolo jo chango ilwoŋo ni Ode.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J’Ode jonitye nono achiel kende jo kopokere. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">halo magambala </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PUKU PUKU AREMO</t>
+    </r>
+  </si>
+  <si>
+    <t>Chuka chiene waji walworo tich walokere lyeech.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2697,6 +3099,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2765,11 +3174,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3899,10 +4314,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A721"/>
+  <dimension ref="A2:A851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
-      <selection activeCell="B688" sqref="B688"/>
+    <sheetView tabSelected="1" topLeftCell="A842" workbookViewId="0">
+      <selection activeCell="A842" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7101,22 +7516,22 @@
       </c>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="17" t="s">
+      <c r="A640" s="14" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="641" spans="1:1" ht="30">
-      <c r="A641" s="17" t="s">
+    <row r="641" spans="1:1">
+      <c r="A641" s="14" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="642" spans="1:1" ht="45">
-      <c r="A642" s="17" t="s">
+    <row r="642" spans="1:1">
+      <c r="A642" s="14" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="17" t="s">
+      <c r="A643" s="14" t="s">
         <v>769</v>
       </c>
     </row>
@@ -7146,8 +7561,8 @@
       </c>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="17" t="s">
-        <v>862</v>
+      <c r="A649" s="14" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="650" spans="1:1">
@@ -7320,8 +7735,8 @@
         <v>827</v>
       </c>
     </row>
-    <row r="684" spans="1:1" ht="30">
-      <c r="A684" s="17" t="s">
+    <row r="684" spans="1:1">
+      <c r="A684" s="14" t="s">
         <v>826</v>
       </c>
     </row>
@@ -7397,117 +7812,767 @@
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="14" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="14" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="17" t="s">
-        <v>856</v>
+      <c r="A704" s="14" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="14" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="17" t="s">
-        <v>849</v>
+      <c r="A711" s="14" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="17" t="s">
-        <v>848</v>
+      <c r="A712" s="14" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="17" t="s">
-        <v>846</v>
+      <c r="A714" s="14" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="14" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="14" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="14" t="s">
         <v>840</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="14" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="14" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="14" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="14" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="15" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="15" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" s="14" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="14" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="14" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="14" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="14" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="14" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" s="14" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" s="14" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="14" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" s="14" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" s="14" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="14" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" s="14" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="14" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" s="14" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" s="14" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" s="14" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" s="14" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="14" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="14" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" s="14" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" s="14" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="14" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="14" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="14" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="14" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" s="14" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" s="14" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="14" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" s="14" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" s="14" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="14" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" s="14" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" s="14" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="14" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" s="14" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" s="14" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="14" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" s="14" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" s="14" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="14" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" s="14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" s="14" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" s="14" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" s="14" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" s="14" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="14" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="15" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="14" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="14" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" s="14" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" s="14" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="14" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" s="14" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" s="14" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="14" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" s="14" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" s="14" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" s="14" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" s="14" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" s="14" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" s="14" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" s="14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" s="14" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="14" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="14" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" s="15" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="15" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" s="15" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" s="14" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" s="14" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" s="14" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" s="14" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" s="14" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" s="14" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" s="15" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" s="14" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" s="14" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" s="14" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" s="14" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" s="14" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" s="14" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" s="14" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" s="14" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" s="14" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" s="14" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" s="15" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" s="14" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" s="14" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" s="14" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" s="14" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" s="15" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" s="14" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" s="14" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" s="14" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" s="14" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="14" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="14" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="14" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" s="14" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" s="14" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" s="14" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" s="14" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" s="14" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" s="14" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" s="14" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="14" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" s="14" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" s="14" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" s="14" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" s="14" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" s="17" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" s="14" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" s="14" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" s="14" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" s="14" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" s="14" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" s="14" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" s="14" t="s">
+        <v>954</v>
       </c>
     </row>
   </sheetData>

--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1129">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -3069,12 +3069,437 @@
   <si>
     <t>Chuka chiene waji walworo tich walokere lyeech.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Ojilai Dibworo pa Kwom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo, madwoŋ mere nitye Nyamalogo wi tele milwoŋo ni Mawele, aka mathi mere nitye Migana, manago obedo lul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tich machango jo asa ŋeyere iiye: lweny, dwar kod goyo bunde.  </t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono marapena chango oketh i oro 1933</t>
+  </si>
+  <si>
+    <t>Wajo p’Arak wajo cham ji nyaka wadwoko.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo cham ji bino wajo p’Ocham dhano </t>
+  </si>
+  <si>
+    <t>Cham dhano wajo pa Dibworo wachamo moro,</t>
+  </si>
+  <si>
+    <t>dwar kosa timo gimoro gye ma nyutho misen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer me a wer ma Kirembe madwoŋ swa i p’Adhola; amumiyo kis nono wero ka jowok lweny, kosa </t>
+  </si>
+  <si>
+    <t>Wanonen chwo ago.</t>
+  </si>
+  <si>
+    <t>Dibworo dwoko e e Dibworo bino e e e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanonen chwo ago </t>
+  </si>
+  <si>
+    <t>Wanonen chwo ago e e e</t>
+  </si>
+  <si>
+    <t>“Dibworo wanamyero</t>
+  </si>
+  <si>
+    <t>Minyur chiemo i kor pendi, kendo go kiyik mach.</t>
+  </si>
+  <si>
+    <t>Ogel kod Akibuk jo kited gine.</t>
+  </si>
+  <si>
+    <t>Kweer madwoŋ Simbwor (Dibworo).</t>
+  </si>
+  <si>
+    <t>Olum,Yunju.</t>
+  </si>
+  <si>
+    <t>Maruk,Mwera,Akenya,Kasimo,Iŋula,</t>
+  </si>
+  <si>
+    <t>Arak,Awira,Nyayole,Adita,Adara,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojilai me nyingi jo man jo wacho ni “Wa jo pa cham dhano wa jo p’Arak pa Dibworo.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ojilai Dibworo p'Arak</t>
+  </si>
+  <si>
+    <t>Nono me chango jo chako bedo yo Nyamalogo to pama jo lak i p’Adhola gipi paka rom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibworo (Ojilai) me amonywolo yach aryo, Arak kod Akwom, aka yach me amunyo nywolo nono Ojilai aryo me. </t>
+  </si>
+  <si>
+    <t>Nywolirok pa nono me obedo, ama, Adhola onywolo jali milwoŋo ni Ojilai to Ojilai me chango nyinge man i lwoŋo ni Dibworo rupir chango onywol go rut kod Simbwor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inywolirok pajo jobedo wutimere, to riwach ma pok ma riŋo kod ma chulirok kwor, amumiyo oti pa Arak kod oti pa Kwom jo pokere, to jo chako nywomirok.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kada ameno kula pajo kod wer gye achiel. </t>
+  </si>
+  <si>
+    <t>NONO OLOMOLE</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye Nyamalogo wi tele milwoŋo ni Mawele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena chango oketh i oro 1933.  </t>
+  </si>
+  <si>
+    <t>Dibworo to ŋiyo aŋo?”</t>
+  </si>
+  <si>
+    <t>Ja cham ji bino to Dibworo kiŋiy malo</t>
+  </si>
+  <si>
+    <t>Cham dhano wajo pa Dibworo wachamo moro</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyi jo ŋiyo kum waŋ chieŋ wok iye (east).</t>
+  </si>
+  <si>
+    <t>Minyur chiemo i kor pendi kendo go kiyik mach.</t>
+  </si>
+  <si>
+    <t>Obungila,Odumu,Omuge,Japyan,Mageli, Kiryama.</t>
+  </si>
+  <si>
+    <t>Mirima,Orere,Madile,Odero,Owona,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojilai me nyingi jo man jo wacho ni “Wa jo cham dhano wa jo pa Kwom pa Dibworo.”  </t>
+  </si>
+  <si>
+    <t>NONO ORUWA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UNU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pajo nitye Soni manago waŋ pii milwoŋo ni Pore.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tich pajo machango jo ŋeyere iiye: lweny, kod chiko.</t>
+  </si>
+  <si>
+    <t>Waki poŋ ryete wa j’Olomole manyandeta.</t>
+  </si>
+  <si>
+    <t>Watho warumo wa j’Olomole manyandeta,</t>
+  </si>
+  <si>
+    <t>Ee wa j’Olomole watiend toko manyandeta,</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyijo ŋiyo kuma waŋ chieŋ wok iiye (east).</t>
+  </si>
+  <si>
+    <t>Jo kicham Nyiger, kendo jokited kod yath milwoŋo ni Akibuk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo jowotho no, onwaŋo waŋ jo ŋiyo yo por loka Wisoga to kuma jo tyeko tho meg i Nyandeta to jo modoŋ jowire jo wotho dwoko yochien de tundo yo Pubwok Pasindi, akuma fuod jo nitye iiye madit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Nyandeta neko jopakidho tyeko woko jo</t>
+  </si>
+  <si>
+    <t>Chakirok bedo pajo jo chako Matindi, to jo kidho Soni i jwom milwoŋo ni Pore, me pama KUNU pajo, to joluwo Nyamalogo tojo kadha kadha joluwo Chawolo tundo i jwom milwoŋo ni Nyandeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nywolirok pajo obedo ama, Adhola onywolo jali milwoŋo ni Odudi nyinge man ni Olomole, aka Olomole me onywolo yach awichiel: Mijoŋo, Tiyo, Wandera, Orach, Omoŋo kod Otiyo, aka yach me amunyo nywolo nono Olomole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyingi jo man jo wacho ni “Wa j’Olomole waji ma jwom.” </t>
+  </si>
+  <si>
+    <t>Nono Olomole nitye achiel, to kende jonok, rupir ni yado kajoyanja joromoye nyakamath to jo ere to jo tho pajo rumo, kiri i wer pajo jo wacho ni “Watho warumo wajo Olomole.”</t>
+  </si>
+  <si>
+    <t>Achamo Dhano nyaka wa dwoko.”</t>
+  </si>
+  <si>
+    <t>Jo pa dibworo wajo cham malo wagoyo aryo</t>
+  </si>
+  <si>
+    <t>“Jo pa dibworo wajo cham malo wagoyo aryo</t>
+  </si>
+  <si>
+    <t>Ka minyur yawok i chwado tiende kod powo wok i dhioti pere tundo iya p’Adhamere kareno iwacho ni wakidho i dwol dhok, i timo ameno didek kosa diŋwen.</t>
+  </si>
+  <si>
+    <t>Minyur kod nyathi jo nindo i boke pendi nyarwanda.</t>
+  </si>
+  <si>
+    <t>Keno lyech adek kosa aŋwen i omo isa am’itheno gine chiemo pa minyur tundo kum’owok iye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo kicham riŋo tundo kuma jo thugin jo kel rigo riŋo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhako k’onywol i ketho chooko i fufa (ma pii makiwene ma kado) magochamo tundo wok. </t>
+  </si>
+  <si>
+    <t>Minyur chiemo i kor pendi aka chiemo no bende imiyo amiya i dhoke, ka chiemo opodho kosa pii othon piny, ndirino kodok’ochiem kosa madho pii tundo yawere mere.</t>
+  </si>
+  <si>
+    <t>Obolo kod kasegere moro gye kited gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To jochamo rigin riŋo dhok, kwanyo woko yen ma chiel dhok jo kited gine.</t>
+  </si>
+  <si>
+    <t>Kweer madwoŋ dhiaŋ; ni rupir chango ka jotho iyiko jo i chiel dhok.</t>
+  </si>
+  <si>
+    <t>Chiko</t>
+  </si>
+  <si>
+    <t>Owa da,	Osama,	Ojaga,	Aroba,	Olude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kabedo majo chako bedo iye a Nyamalogo to pama jonwaŋere i kis adech ma Padhola. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wagoyo aryo, dwoŋ mere ni jo nywolo rut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oruwa me nyingi jo man jo wacho ni “Wan wa jo waŋ chieŋ wa jo cham malo, wa goyo aryo.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oruwa Demba</t>
+  </si>
+  <si>
+    <t>Gima dwoŋ kwom Oruwa gye a Kweer.  Oruwa ni gi Kweer mager swa, ma kituki gine, makir okewo pa jo gye kweer no megi tundo kwom jo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gima dwo?   kwom Oruwa gye a Kweer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Riwirok ma udi adek me joridho aridha swa i oro 1942, ama jo dimo iye jadwoŋ achiel ni ama obedi ŋata achiel mariwo jo gye</t>
+  </si>
+  <si>
+    <t>Oti pa Demba to doŋ kende</t>
+  </si>
+  <si>
+    <t>To chiegin oro 1918 to jo udi adek, Lapa, Lusi kod Menya to jo riwere to joweyo nywomirok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka nyithindh yach me ama jokelo ruwirok to jo pokere nono ka diŋwen; to jo chako nywomirok Oruwa gye aŋwen.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ Oruwa chango onywolo yach aŋwen: Lapa, Demba, Lusi kod Menya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pama dhano nyalo paro ni ruwirok marumachien me amumiyo ochwok jo ni Oruwa to kere be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jali me chango ochamo nyinge rundiri ni Oruwa, rupir nyithindho pere kod nyikwaye, jo bedo kod ruwirok madit; jo chako nywomirok, jonekere, jochulere kwor, to nono bedo abeda mu ruwere swa kichutho kichutho won, paka nyingi jalicha. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wod pa Adhola machango ilwoŋo ni Oruwa amunywolo nono Oruwa gye paka nitye pama. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jo nindo i boke pendi kego nyarwa da</t>
+  </si>
+  <si>
+    <t>Dhako manitye kod nyathi kigey boke akendo ma keno, kada dhako manitye kod iye bende kigey; kendo ka minyur yawok indirino i fuono boke akendo ma keno amigoyo gine tiende kareno i lamo go ni wakidho i dwol dhok, i timo ameno didek kosa diŋwen, paka kweer nyath nitye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ka riŋo ongoye angoya swa woki yo thugin chooko am’itedo amiyoko go gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minyur kicham riŋo tundo kuma jo thugin jo kelo riŋo. </t>
+  </si>
+  <si>
+    <t>Minyur chiemo i kor pendi, aka chiemo no bende imiyo amiya i dhoke; ka chiemo opodho kosa pii othon piny, ndirino kodok’ochiem kosa madho pii tundo yawere mere.</t>
+  </si>
+  <si>
+    <t>Minyur kiyik mach ka go fuod k’owok.</t>
+  </si>
+  <si>
+    <t>Akibuk kod Matakela, kited gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo wok kwom minyur tundo kwom dhako manitye kod nyathi ma fuod kiwothi, jo ki gey woyo dhiaŋ.</t>
+  </si>
+  <si>
+    <t>To jo chamo rigin riŋo dhok kwanyo woko yen ma chiel dhok jo kited gine.</t>
+  </si>
+  <si>
+    <t>Kweer madwoŋ dhiaŋ, ni rupir chango kajo tho iyiko jo i chiel dhok.</t>
+  </si>
+  <si>
+    <t>Menya,Majiji.</t>
+  </si>
+  <si>
+    <t>Lusi,Anyamo,Ochier,Onyo,Angel,</t>
+  </si>
+  <si>
+    <t>Lapa,Obiro,Akwaŋ,Odel,Opusa,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo both jochale kod Ojilai, nen Siro 19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibworo, ka nyutho gero pajo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oruwa adek me Lapa, Lusi kod Menya, joriwere pama; jo lwoŋere ni “Wa jo pa Dibworo wa jo cham malo.”  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oruwa Lapa, Lusi kod Menya</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye Nyamalogo aka man nitye yo Kiyeyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tich machango jo asa ŋeyirok iiye: lweny, kwath kod dwar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena oketh i oro 1932. </t>
+  </si>
+  <si>
+    <t>NONO JO PA GEMBE</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye Matindi ilul machiegin gi wugo pajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka tich machango jo asa ŋeyirok iiye: lweny, dwar, miel kod goyo bunde. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena oketh i oro 1940. </t>
+  </si>
+  <si>
+    <t>Jo Ramogi modakana omwa ma kombe jo lwoŋo nyir ni Katalaŋ!</t>
+  </si>
+  <si>
+    <t>Lando pa Kasaŋ mada omiyi jogero jo chamo e, e, Lando.</t>
+  </si>
+  <si>
+    <t>Pawangolo Matindi kipoti/kiran e, e, e, Matindi, Sewe otyeko yach ma Matindi kada go perenje.</t>
+  </si>
+  <si>
+    <t>Joyikere wiyijo ŋiyo yo kuma waŋ chieng podho iye (west).</t>
+  </si>
+  <si>
+    <t>Indir mar’Apipili iriwo dukino Athu idhioti aka itimo (nen Adech III, Siro 4).</t>
+  </si>
+  <si>
+    <t>Minyur kodi nyathi jo nindo i boke pendi nyarwanda, kendo minyur kitedi kosa geyo mach ka fuod kowok.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo kited kod yath ogeli</t>
+  </si>
+  <si>
+    <t>Laro,Goŋo,Ndiwo,Magara.</t>
+  </si>
+  <si>
+    <t>Aroda,Kitewe,Owondo,Agumbi,Okode,</t>
+  </si>
+  <si>
+    <t>Osilo,Dewo,Owolo,Odero,Okolo,</t>
+  </si>
+  <si>
+    <t>Nyadoŋa,Maseye,Oliŋo,Kadondoli,Ikuya,</t>
+  </si>
+  <si>
+    <t>Aliwa,Aŋura,Palinyaŋa,Lach,Opali,</t>
+  </si>
+  <si>
+    <t>Japath,Ryama,Lando,Oŋaŋo,Obuya,</t>
+  </si>
+  <si>
+    <t>Wangolo,Opany,Kasaŋ,Opata,Saja,</t>
+  </si>
+  <si>
+    <t>Nyingi jo man, jo wacho ni “Wa jo Ramogi ma Matindi” dwoŋ mere ni me Jo Ramogi ma Padhola monywolijo Matindi, makiwene jo Ramogi ma Nyanza kosa ma Kitgum.</t>
+  </si>
+  <si>
+    <t>Bedo pa nono me, jo pen bedo iyadech ma Matindi, kenyo ama lweny pa Sewe amumiyo jo pokere to jo laki i Padhola gipi loyo madit jo nwaŋere yo Gombila Molo, Tororo, Kisoko kod Nagongera.</t>
+  </si>
+  <si>
+    <t>Nyathi Ramogi me amunyo nywolo nono Ramogi gye manitye Padhola ka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wod p’Adhola milwoŋo ni Wangolo amunywolo wode bende to chwoko ni Ramogi, ri nyingi kwarijo kosa wutumin Adhola gin machango jo weyo jo chien kuma jowoki iye. </t>
+  </si>
+  <si>
+    <t>Ramogi obedo nyithindho Adhola won aka jo kowok Busoga kada di chiel, rupir nen, Ramogi nyingi moŋeyere tek tek swa i nonini ma Lwo gipi; giranena Ramogi nitye p’ Owiny (Kenya), Acoli kod Laŋo.</t>
+  </si>
+  <si>
+    <t>Nono me kada jo weg meg kod joman gye jowacho ni chango jowok yo Busoga i piny milwoŋo ni Bulamogi ni rupir Bulamogi chale kod Ramogi; meno ka paka nitye</t>
+  </si>
+  <si>
+    <t>NONO RAMOGI</t>
+  </si>
+  <si>
+    <t>KUNU pajo man nitye Nyamalogo witele milwoŋo ni Nyamanda aka man nitye Kiyeyi.</t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono marapena chango oketh i oro 1942.</t>
+  </si>
+  <si>
+    <t>Munyo jo tieko jo Kiyeyi aka waryemo jo.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wajo Ruwa omwa olwoŋo ni wanok kere nyaka watundo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omwa otieko jo Kiyeyi. </t>
+  </si>
+  <si>
+    <t>E, e, e Omwa walangel olwoŋo wan ni ‘Wadama’</t>
+  </si>
+  <si>
+    <t>I wer me jowero kajo pakere ni jo chingi jo lach chango jo mako ji ma nono man jorwako i nono pajo.</t>
+  </si>
+  <si>
+    <t>Jopa Dibworo nyaka wabino.</t>
+  </si>
+  <si>
+    <t>Wanwaŋo dhano moro waloko go Oruwa mawan</t>
+  </si>
+  <si>
+    <t>Wa jopa Dibworo wajo cham malo,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3110,6 +3535,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3137,7 +3574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3186,6 +3623,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4314,10 +4755,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A851"/>
+  <dimension ref="A2:A989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A842" workbookViewId="0">
-      <selection activeCell="A842" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A948" workbookViewId="0">
+      <selection activeCell="A952" sqref="A952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8575,6 +9016,696 @@
         <v>954</v>
       </c>
     </row>
+    <row r="852" spans="1:1">
+      <c r="A852" s="7" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" ht="45">
+      <c r="A853" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" ht="45">
+      <c r="A854" s="7" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" ht="30">
+      <c r="A855" s="7" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" ht="30">
+      <c r="A856" s="7" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" s="7" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" ht="30">
+      <c r="A858" s="7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" s="7" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" s="7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" s="18" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" s="18" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="18" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="18" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" s="18" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" s="18" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="18" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" ht="26.25">
+      <c r="A870" s="18" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" s="18" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="18" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="18" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" s="18" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="7" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" s="7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" ht="30">
+      <c r="A877" s="7" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" ht="30">
+      <c r="A879" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" s="7" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" s="18" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" s="18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" s="18" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" s="18" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886" s="18" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" s="18" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888" s="7" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889" s="7" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" ht="45">
+      <c r="A890" s="7" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" s="7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" ht="60">
+      <c r="A892" s="7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" ht="45">
+      <c r="A893" s="7" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" s="7" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" ht="60">
+      <c r="A895" s="7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896" s="18" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897" s="18" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898" s="18" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" s="18" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" s="18" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" s="7" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" s="18" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" s="7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" ht="30">
+      <c r="A904" s="7" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" ht="60">
+      <c r="A905" s="7" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" ht="26.25">
+      <c r="A906" s="18" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" ht="30">
+      <c r="A907" s="7" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" ht="30">
+      <c r="A908" s="7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" ht="30">
+      <c r="A909" s="7" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" s="7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" ht="30">
+      <c r="A911" s="7" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" s="7" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" ht="45">
+      <c r="A913" s="7" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" s="7" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" ht="30">
+      <c r="A915" s="7" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916" s="7" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" s="7" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919" s="7" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" s="7" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921" s="18" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922" s="18" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" ht="39">
+      <c r="A923" s="18" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" ht="26.25">
+      <c r="A924" s="18" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925" s="7" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" ht="26.25">
+      <c r="A926" s="18" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" s="18" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" ht="39">
+      <c r="A928" s="18" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929" s="18" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930" s="18" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931" s="18" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932" s="18" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933" s="7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934" s="7" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" s="7" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936" s="7" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937" s="19" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938" s="19" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939" s="7" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940" s="18" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941" s="18" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942" s="18" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943" s="18" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" s="7" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" ht="30">
+      <c r="A945" s="7" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" ht="30">
+      <c r="A946" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947" s="18" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948" s="18" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" ht="39">
+      <c r="A949" s="18" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950" s="7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951" s="18" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" ht="51.75">
+      <c r="A952" s="18" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" s="7" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954" s="18" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" s="18" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" s="18" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" s="18" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" ht="26.25">
+      <c r="A958" s="18" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" s="7" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" s="7" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961" s="18" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" s="18" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963" s="7" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" ht="30">
+      <c r="A964" s="7" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965" s="7" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" ht="45">
+      <c r="A966" s="7" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" ht="45">
+      <c r="A967" s="7" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" ht="45">
+      <c r="A968" s="7" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" ht="30">
+      <c r="A969" s="7" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" ht="45">
+      <c r="A970" s="7" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" ht="45">
+      <c r="A971" s="7" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972" s="18" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" s="18" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" s="18" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" s="18" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" s="18" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977" s="18" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" s="18" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" ht="30">
+      <c r="A980" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" s="18" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" s="18" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" ht="26.25">
+      <c r="A983" s="18" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" s="18" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" s="18" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" s="7" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" ht="30">
+      <c r="A987" s="7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" s="7" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" s="7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1254">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -3494,12 +3494,387 @@
   <si>
     <t>Wa jopa Dibworo wajo cham malo,</t>
   </si>
+  <si>
+    <t>KUNU pajo ilwoŋo ni Nyasirenge, nitye witele milwoŋo bende ni Nyasirenge.</t>
+  </si>
+  <si>
+    <t>Tich machango jo asa ŋeyere iiye: lweny, dwar kod chuech bwo.</t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono marapena oketh i oro 1945</t>
+  </si>
+  <si>
+    <t>Dwoŋ mere ni jo pako gero pajo marom kod gero pa kwach.</t>
+  </si>
+  <si>
+    <t>Nyamondo yiwi kwach, kigey, owire rin inonen.</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyijo ŋiyo kuma waŋ chieng podho iye (west).</t>
+  </si>
+  <si>
+    <t>Minyur kiyik mach kendo chiemo pere itedo i degi manyien, kod achiero machiemo iye bedo manyien kende kende.</t>
+  </si>
+  <si>
+    <t>Minyur kod nyathi jo nindo i bokependi nyarwanda.</t>
+  </si>
+  <si>
+    <t>Kadhako pa Jopagembe ochielo kal aka kal no nindi makoregi, kal no kidok cham kada dichiel, ikonja konja woko.</t>
+  </si>
+  <si>
+    <t>Kweer madwoŋ bel winyo, jo kigey kada ageya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ogembe kod wote awichiel, Kungu, Nyamisio, Dumbarya, Kiwene, Opio kod Misana, jochako bedo Maundo; aka jo kowere Katajula yo bothi jo Amor Kagulu Adundo, aka nyaka jowok kenyo to jo man jo oole yo loka Pagembe, aka jo man jo kidho iyadech ma Padhola mopokere opokere</t>
+  </si>
+  <si>
+    <t>Baa nono me nyinge chango ilwoŋo ni Ogembe, Ogembe me bedo Nyakwar Adhola, to baa mere won nyinge koŋeyere maber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nono jo Pagembe nitye achiel kende ma kopokere aka madit mere jo nitye yo loka pa Gembe, i Gombila ma Paya. </t>
+  </si>
+  <si>
+    <t>KULA MA CHOWO</t>
+  </si>
+  <si>
+    <t>Kendo piny kadongo dongo riwegi piny; ikula pajo machon kod i kite majo tero iye kula manyien ma jo limo bothi jo man.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kwanyo woko adech me kidho rinyutho adier machon, aka nyaka ji joŋey maber adier manyien, ma pama. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ra ameno akwayo jo dongo ma dini gye kod jo dongo fuonjiroki gye jo okir jo ter ni adech me kidho ri nywowo tich pajo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kole kula majo timo gye jo limo bothi jo wiloka ayino.”</t>
+  </si>
+  <si>
+    <t>Makiwene jo wacho ni “Alacha gin me chango jo ŋeyo aŋo?</t>
+  </si>
+  <si>
+    <t>Odoko jo wiloka bende jo oŋey ni jo Padhola bende chango ji ma jo tiekere i kula makite gye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kendo nyithindho mayowaŋe bende jo oŋey kula ma tiend nono pajo, paka chango nitye chon mafuod wasungu jo kobino i piny me. </t>
+  </si>
+  <si>
+    <t>Andiko adech me g’atoŋa ni kis dhano ma ja Padhola kada onyo nitye kod kula man mago luwo, oŋey kula ma kwar wan chango jo timo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meno ka paka nitye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kada ameno iyadech me akikidho riwacho ri ji ni jowey kula manyien jodoki imachon; kosa wiro chuny jo ni kere dini kosa kula mati me rach, mawan machon amachango ber amachango miyo wan siem madit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kula me megi machon swa munyo pama owey kir timo, paka ma lweny, akisili kod ma nywomirok; aka megi paka ma chowo, ji manok swa mafuodi jo timo rupir ji madit ti jo fuonjere dini ma nyien mupokere opokere to jo weyo kula ma chon.  </t>
+  </si>
+  <si>
+    <t>Iyadech me atito kula megi ma dongo ma jo Padhola jotimo.</t>
+  </si>
+  <si>
+    <t>WACH MA TITO ADECH MARADEK</t>
+  </si>
+  <si>
+    <t>I ndir ma lamo me mon jo chiemo gi riŋo gi nyim.</t>
+  </si>
+  <si>
+    <t>Aka kiwodho kwon no i oti kuma oted iye i wotha wotha agumba tundo kuma oketh iye yo ŋey waŋ kach chiegin kod apa chwore</t>
+  </si>
+  <si>
+    <t>Nyalike, chipa Were Othim bende i tedo rigo kwon nyaka math, bende nyakare kod nyim.</t>
+  </si>
+  <si>
+    <t>Apa Were ma Diodipo amipen lamo, aka kowey nyithindho chamo aka i kidho i lamo ri Were Othim bende apere dho waŋ kach aka kenyo bende amichamo iye.</t>
+  </si>
+  <si>
+    <t>Ka chiemo ochiek i kutho i lamo aki chako chiemo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gwendi mineko gye bedo ma wote kende kende, aka kineko kithum athuma ŋute, i goya goya wich mere piny kareno i luwere i lamo, chuka tho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyutho ni waŋ kach a kew pa Were ma Diodipo kod Were Othim.  </t>
+  </si>
+  <si>
+    <t>Aka wot gwendi man i neko dho waŋ kach kod kwon mere bende i ketho kenyo ri Were Othim, ni ka obino ocham apere gi dho waŋ kach kun okir odonji olar kod Were ma Diodipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I ndelo no i neko wot gwendi i diodipo ti tedo kod kwon, meno apa Were ma Diodipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dwoŋ mere ni i hongo no amiketho Were walwa gi miyo jo chiemo manyien.</t>
+  </si>
+  <si>
+    <t>Were aryo me jo rom idwoŋ, aka bende i chowo jo kiromo, i ndir ma ka chiemo mandelo ochiek i kecho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Were Othim nitye kodi jago pere milwoŋo ni Mikowe, amamenyo rigo royo ka wotho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka Were Othim kod dhako pere milwoŋo ni Nyalike, ama jo kuro gigipiny mawok pecho no gye, paka dhano ma pecho no kakidho lweny, fur, kulo dwar kosa woth moro gye; kod dhok, diegi, roombo, ma pecho no ka jo kidho isa chiemo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Were ma diodipo meno makuro pecho, ji ma iye kod lim gye ma pecho no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowo were ma diodipo kod were othim, me a Were madongo i kis pecho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka gigipiny ma jo chowo bende yado opokere ama: (i) chowo Were Madiodipo kod Were Othim, (ii) chowo Jwogi, (iii) chowo Kunu, kod (iv) chowo Jwok Bura yo Nyakiriga.</t>
+  </si>
+  <si>
+    <t>Jo Padhola chango jo nitye gi kula ma chowo i kite mupokere opokere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chowo Jwok Bura, me i chowo yo Nyakiriga, aka jwok me Majanga amachango osukina gine (nen Adech I, Siro 4)</t>
+  </si>
+  <si>
+    <t>Kareno yo pecho korin bende onek diegi kod gwendi ti tedo gi kwon; aka k’otiek chiemo ti madho koŋo manende odoŋ pecho.</t>
+  </si>
+  <si>
+    <t>To diel kod gweno i neko ti bulo ti chamo achama ma piyo piyo swa, aka koŋo bende i madho wiyoto ti ay i jowere i dwoko.</t>
+  </si>
+  <si>
+    <t>Ko tundi koro ti lamo rigo gigipiny no gye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hongo no, i dwoyo koŋo pecho ti tiŋo koŋo gi wod diel gi wod gweno ti tero ri Kunu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka jadwoŋ achiel ma nono no amakidho chowo ri nono no gipi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go aja tel ma pa kis nono i gigipiny gye ma jo timo, aka kis nono bedo kod apa jo ku pokere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowo Kunu, me i lwoŋo ni kiluw, amumiyo ochwok ni kunu; ni kada kidh iya jwoka Were amaluwo rigo. </t>
+  </si>
+  <si>
+    <t>I hongo ma chowo, mon jo chamo nyim kod riŋo aka chwo jo chamo gwendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitye udi mathindho thindo migeto ri jwogi me, ilwoŋo ni “Migam”, aka kenyo bende amilamo ye gwendi no.  </t>
+  </si>
+  <si>
+    <t>Rumachien ma ndelo adek ti neko gwendi, gweno achiel bedo apa kwar jo ma dwoŋ ma pecho no, aka man bedo apa kwar jo kosa baa jo kod nyithindho gye majo tho pecho no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I chowo ama: ka oro orumo, i dwoyo koŋo, ti madho, aka koŋo no ilwoŋo ni “ma yer gwendi.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dwoŋ mere ni jwogi pa ji madongo kod mathindho mutho pecho no. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowo Jwogi, me ilwoŋo ni chowo jwogi ma pecho. </t>
+  </si>
+  <si>
+    <t>To kareno diegi kodi dhok ki neko, i neko kis oro adek kosa aŋwen aka gwendi amineko kis i chowo ma kis oro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To ka ŋata oŋaŋ tek tek neko thwon ri Were ma Diodipo aka ri Were Othim neko bende nyathi thwon yo sa.</t>
+  </si>
+  <si>
+    <t>Ri Were Othim bende i tero wod diel ti neko isa wiryete, makiwene gi yo waŋ kach, ti bulo abula ti chamo gikoro</t>
+  </si>
+  <si>
+    <t>To ŋata nitye kod lim madit neko wod diel ri Were ma Diodipo kod gwendi matheno wiy diel no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ja chandi neko gwendi kende kende</t>
+  </si>
+  <si>
+    <t>I chowo me gye gigipipy mineko wok rolim pa dhano paka nitye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I kwanyo kwon gi gweno ma kwo ti tero ri Mikowe ti lamo rigo, ti neko, tibulo abula ti chamo gi koro ma kotedi.</t>
+  </si>
+  <si>
+    <t>To ka chiemo mandelo ochiek ki kecho, i ndelo ma chowo Were ma Diodipo kod Were Othim, chiemo pa Mikowe itero wiryete no isa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meno nyutho ni ochak chwoyo, kendo i kwayo Were Othim okur chiemo mandelo maber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanyaka oro chako ki chwoyo kali, itero tongi gweno kende wiryete no dho oti pa Mikowe. </t>
+  </si>
+  <si>
+    <t>Aka wiryete no bende amigeto iye oti ri Mikowe jago pa Were no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowo pa Were Othim ma dwoŋ mere i chowo go isa yo thim wiryete.  </t>
+  </si>
+  <si>
+    <t>KULA MA NYWOMIROK</t>
+  </si>
+  <si>
+    <t>Yo Tewo Nyakiriga kis nono jo geto iye oti Bura pa jo, maka nono no okidho chowo, jo lamo iiye.</t>
+  </si>
+  <si>
+    <t>Aka toŋi man madwoŋ mi lwoŋo ni toŋi Bura bedo i oti minindo iiye, aka kiwodhi woko kichar</t>
+  </si>
+  <si>
+    <t>Ko tieko mako dhano, to jo Bura wad jo bino jo lamo rigo Bura; tigeto oti mere i diodipo, aka i oti no i ketho iiye toŋ bidhi kod ayiga midwoyo iiye koŋo mitero yo Nyakiriga.</t>
+  </si>
+  <si>
+    <t>Bura me mako amaka dhano pa twoo, ka wok kwom kwar mere kosa baa mere kachango bende chowo Bura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Rupir ni Bura me wendo aka konek rigo kende, Were ma pecho kod jwogi mere jo dhaw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kende yo pecho korin kineko gwendi ma Bura i neko kir ri Were ma Diodipo, Were Othim kod Jwogi gye ma pecho.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko dwok yo Nyakiriga aka nyaka yo pecho korin bende i neko gwendi ki lamo dho kwom oti Bura manitye pecho, aka koŋo bende ti madho.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mon kiyey jo donjo i Nyakiriga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwendi kosa gimoro muter i bula bula yo koro tichamo.  Mon kiyey jo donjo i Nyakiriga. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko tundi yo Nyakiriga i lunyere gi woko aki donjo i iye kinyoro aki chowo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Koŋo no itero kod wot gwendi, diegi kosa dhok, wok ti lim pa dhano; to kwon kosa mwenge pendi kosa kwete kiter, aka thach matiŋo koŋo kitim ma makola kwanyo woko ma lumi. </t>
+  </si>
+  <si>
+    <t>Indir ma chowo Bura, I dwoyo koŋo pecho, to miyatero yo Nyakiriga i dwoyo paka konon to dikin i tero rupir ni Bura kimadh koŋo ma kech madho ki bunde ayino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oti makite me bedo thenge man, aka Migami ma jwogi ma pecho bende bedo thenge man.</t>
+  </si>
+  <si>
+    <t>Pecho ma Bura ni iye i geto rigo oti milwoŋo ni oti Bura.</t>
+  </si>
+  <si>
+    <t>Nywomirok machon ma jodongo, chango nyiyach won kod Nyako jo kiwech ma nywomirok kwanyo woko bachere pa jo ama jo mako mere aka nyaka nyithindho pajo nywomere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwoŋ mere ni, yado ka dhano onywolo nyiyach dwaro ŋata bende nitye kod nyako to mako gine mere to jo chako wendirok madwoŋ ma chiemo, koŋo, mwenge kod gigipiny gye michamo. </t>
+  </si>
+  <si>
+    <t>Kajo yeyere to baa nyiyach tweyo i chingi nyako no atego, manyutho ni nyako no otiek mako.</t>
+  </si>
+  <si>
+    <t>Kendo ka baa nyiyach no nitye kod dhiaŋ to tero kano ri baa nyako.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka dhiaŋ no ko nywol yo koro amachomoro ti loko manywomo nyano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ka ongoye gi dhiaŋ to otieko mako mere oripo, to chako rango dhok, manywom gine ri wode.</t>
+  </si>
+  <si>
+    <t>Gigipiny me gye timere ka nyithindho fuod jothindho.</t>
+  </si>
+  <si>
+    <t>To ka nyiyach otieko dongo, ka romo oro apar ga boro kenyo aka nyako bende romo oro apar ga wichiel kadho malo; to baa nyiyach nyaka oro go ni kidh i wech kod nyar ŋadin ama wadimo rin.</t>
+  </si>
+  <si>
+    <t>Wok ndirino to nyiyach chako choko yach wad makidho konyo go gi kiyo nyako no yo kulo, kosa yo dimo yen kosa yo miel gimako tero pecho</t>
+  </si>
+  <si>
+    <t>To indir majo ŋolo iye nyako no aka jomaki, aka jobed gi silwany marach ma wutimin nyako no jo bed chiegin, gorok bedo madwoŋ tek tek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ka jo pa nyako jo kiyey ni oter nyamin jo.</t>
+  </si>
+  <si>
+    <t>To kada ameno nyiyach jo temo atema chuka jo limi nyako jo dok gine kosa jo lweny gi wutimin nyano to jo turo jo, to jo yombo jo gi nyako no</t>
+  </si>
+  <si>
+    <t>Ka nyako otiek dwoko gine, aka nyaka wach wok ni wod pa ŋatin “orendho nya pa ŋatin.”</t>
+  </si>
+  <si>
+    <t>To nyako no kichiem yo pa nyiyach no i hongo no kwanyo woko chiemo wok awoka yo thugin kosa yo pa wat pajo machiegin kod kenyo</t>
+  </si>
+  <si>
+    <t>To ndir megi nyako mamisen tieko kada ndelo kweth mako chiemo, ka chiemo kokel rigo wok thugin.</t>
+  </si>
+  <si>
+    <t>Meno bende apaka chango iŋeyo gine nyako m’owoor kosa ma k’owoor.</t>
+  </si>
+  <si>
+    <t>To rumachien mandelo adek kosa aryo tiketho nyako no i dho oti pa adhamere (me min nyiyach pere mu kelogo), ti tweyo rigo chip kod chieno ti wirogo kod mo ti kethogo i pyen dhiaŋ kosa pyen diel.</t>
+  </si>
+  <si>
+    <t>Kenyo to jo pa ywoche jo lielo wiye, ti ŋado lweti chinge kod lweti tiende.</t>
+  </si>
+  <si>
+    <t>Aka gigipiny no adhamere kano kuma diny swa.</t>
+  </si>
+  <si>
+    <t>Rumachien ma gigipiny me, yado bedo gi kula ni nyako kwale dok thugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To kareno gigipiny manywom bende jo dongo jo tieko yiko, gitero.  </t>
+  </si>
+  <si>
+    <t>Yado inywomo dhok abuŋwen kosa apar, diegi, toŋ, ŋet kwe, atego obad kod ganga adeya.</t>
+  </si>
+  <si>
+    <t>Rumachien kanyako otieko kwale odok, to nyiyach odoko kidho to jo liwo ma diryo gi mako dwoko gine</t>
+  </si>
+  <si>
+    <t>I hongo me aka nyaka nyamin nyako kod omin to jo bino</t>
+  </si>
+  <si>
+    <t>Aka nyaka adhamere tedo kafuta aka nyako no jo chiemo kod nyamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me amilwoŋo ni Nyutho nyako chiemo. </t>
+  </si>
+  <si>
+    <t>To ka fuod jo kochiemo nyamin no imiyogo diel aka omin imiyogo toŋ, aka nyako won imiyo atego ni malogo kod mayawo dhoke.</t>
+  </si>
+  <si>
+    <t>Wok ndirino to nyako chako chiemo yo pa chwoge no.</t>
+  </si>
+  <si>
+    <t>Ka gi me orumo, aka nyaka jo thugi nyako jo kelo chiemo iya tawo ga dita.</t>
+  </si>
+  <si>
+    <t>Chiemo me amilwoŋo ni “Dhoki Nyako.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To atawo kod adita no kidok gine i weyo ri adha nyako to kano kanyachiel gi ye wiye machango oliel kod lwete machango oŋad. </t>
+  </si>
+  <si>
+    <t>Gigipiny me ikano kuma diny tek tek, rupir ni ka chomoro nyako no omit eye pecho no, to adhamere moro gye mubed, to lamo nyako no gi gigipiny no; to nyako no bedo kod silwany marach kumu kidho iye, kosa dwoka adwoka ma kogalo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tedo Abor:  rumachien ma nywomirok me, baa nyiyach kidho to penjo baa nyako ni mito chiemo maluwo gine tiend dhok. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To baa nyako kwayo baa nyiyach dhiaŋ, to tero rigo.  </t>
+  </si>
+  <si>
+    <t>To baa nyako kwanyo dhiaŋ pere man to neko titedo chiemo madit swa, ti tiŋo iya agonini kweth ti tero yo pa nyiyach gin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwendi mere ki thum wich kosa tiende, itedo ateda ameno. </t>
+  </si>
+  <si>
+    <t>To ŋata otedo abor aka oŋondo lwet gwendi, odoko ripo aripa neko gweno man rumachien ma kwaŋo lwet gwendi no gi tero yo kuma chango oter ye abor no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhiaŋ no bende kiyaŋ yo eme i tweyo atweya gi wich kanya chiel titero, me aa atedo Abor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka jomo tiŋo chiemo abor ka jo tero jo wero ni, “Yido wiyuma Abor, Abor ti Orumo.”</t>
+  </si>
+  <si>
+    <t>KULA MA MINYUR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3547,6 +3922,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3574,7 +3962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3627,6 +4015,13 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4755,10 +5150,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A989"/>
+  <dimension ref="A2:A1111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A948" workbookViewId="0">
-      <selection activeCell="A952" sqref="A952"/>
+    <sheetView tabSelected="1" topLeftCell="A1067" workbookViewId="0">
+      <selection activeCell="A1067" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9403,307 +9798,917 @@
     </row>
     <row r="929" spans="1:1">
       <c r="A929" s="18" t="s">
-        <v>769</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" s="18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931" s="18" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="932" spans="1:1">
-      <c r="A932" s="18" t="s">
-        <v>1046</v>
+      <c r="A932" s="7" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="936" spans="1:1">
-      <c r="A936" s="7" t="s">
-        <v>1090</v>
+      <c r="A936" s="19" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="938" spans="1:1">
-      <c r="A938" s="19" t="s">
-        <v>1088</v>
+      <c r="A938" s="7" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="939" spans="1:1">
-      <c r="A939" s="7" t="s">
-        <v>1087</v>
+      <c r="A939" s="18" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" s="18" t="s">
-        <v>665</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941" s="18" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="942" spans="1:1">
-      <c r="A942" s="18" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="943" spans="1:1">
-      <c r="A943" s="18" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="944" spans="1:1">
+      <c r="A942" s="7" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" ht="30">
+      <c r="A943" s="7" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" ht="30">
       <c r="A944" s="7" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="945" spans="1:1" ht="30">
-      <c r="A945" s="7" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1" ht="30">
-      <c r="A946" s="7" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="947" spans="1:1">
+    <row r="945" spans="1:1">
+      <c r="A945" s="18" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" s="18" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" ht="39">
       <c r="A947" s="18" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="948" spans="1:1">
-      <c r="A948" s="18" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="949" spans="1:1" ht="39">
+      <c r="A948" s="7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
       <c r="A949" s="18" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="950" spans="1:1">
-      <c r="A950" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" ht="51.75">
+      <c r="A950" s="18" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="951" spans="1:1">
-      <c r="A951" s="18" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="952" spans="1:1" ht="51.75">
+      <c r="A951" s="7" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
       <c r="A952" s="18" t="s">
-        <v>1075</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="953" spans="1:1">
-      <c r="A953" s="7" t="s">
-        <v>1074</v>
+      <c r="A953" s="18" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" s="18" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="955" spans="1:1">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" ht="26.25">
       <c r="A955" s="18" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="956" spans="1:1">
-      <c r="A956" s="18" t="s">
-        <v>1127</v>
+      <c r="A956" s="7" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="957" spans="1:1">
-      <c r="A957" s="18" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="958" spans="1:1" ht="26.25">
+      <c r="A957" s="7" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
       <c r="A958" s="18" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="959" spans="1:1">
-      <c r="A959" s="7" t="s">
-        <v>1124</v>
+      <c r="A959" s="18" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" s="7" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="961" spans="1:1">
-      <c r="A961" s="18" t="s">
-        <v>1122</v>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" ht="30">
+      <c r="A961" s="7" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="962" spans="1:1">
-      <c r="A962" s="18" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1">
+      <c r="A962" s="7" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" ht="45">
       <c r="A963" s="7" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1" ht="30">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" ht="45">
       <c r="A964" s="7" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="965" spans="1:1">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" ht="45">
       <c r="A965" s="7" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="966" spans="1:1" ht="45">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" ht="30">
       <c r="A966" s="7" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="967" spans="1:1" ht="45">
       <c r="A967" s="7" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="968" spans="1:1" ht="45">
       <c r="A968" s="7" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1" ht="30">
-      <c r="A969" s="7" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1" ht="45">
-      <c r="A970" s="7" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="971" spans="1:1" ht="45">
-      <c r="A971" s="7" t="s">
         <v>1112</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" s="18" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="18" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" s="18" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" s="18" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973" s="18" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" s="18" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" s="18" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="976" spans="1:1">
-      <c r="A976" s="18" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="977" spans="1:1">
-      <c r="A977" s="18" t="s">
-        <v>1106</v>
+      <c r="A976" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" ht="30">
+      <c r="A977" s="7" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" s="18" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="979" spans="1:1">
-      <c r="A979" s="7" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="980" spans="1:1" ht="30">
-      <c r="A980" s="7" t="s">
-        <v>1103</v>
+      <c r="A979" s="18" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" ht="26.25">
+      <c r="A980" s="18" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" s="18" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982" s="18" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1" ht="26.25">
-      <c r="A983" s="18" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="984" spans="1:1">
-      <c r="A984" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" s="7" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" ht="30">
+      <c r="A984" s="7" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="985" spans="1:1">
-      <c r="A985" s="18" t="s">
-        <v>1098</v>
+      <c r="A985" s="7" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986" s="7" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="987" spans="1:1" ht="30">
       <c r="A987" s="7" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="988" spans="1:1">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" ht="30">
       <c r="A988" s="7" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1">
-      <c r="A989" s="7" t="s">
-        <v>1094</v>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" ht="75">
+      <c r="A989" s="20" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990" s="18" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" ht="26.25">
+      <c r="A991" s="18" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" s="18" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" ht="26.25">
+      <c r="A993" s="18" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" s="18" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" s="7" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" s="19" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997" s="19" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" s="7" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" ht="30">
+      <c r="A999" s="7" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" ht="15.75">
+      <c r="A1000" s="21" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" s="7" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" ht="60">
+      <c r="A1002" s="7" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" ht="60">
+      <c r="A1003" s="7" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004" s="7" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" ht="30">
+      <c r="A1005" s="7" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" ht="30">
+      <c r="A1006" s="7" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" ht="30">
+      <c r="A1007" s="7" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008" s="7" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" s="7" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" ht="30">
+      <c r="A1010" s="7" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" ht="30">
+      <c r="A1011" s="7" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" ht="30">
+      <c r="A1012" s="7" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013" s="7" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" ht="30">
+      <c r="A1014" s="7" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" ht="39">
+      <c r="A1015" s="18" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" ht="30">
+      <c r="A1016" s="7" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" ht="30">
+      <c r="A1017" s="7" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" ht="60">
+      <c r="A1018" s="7" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019" s="19" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" ht="30">
+      <c r="A1020" s="7" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" ht="30">
+      <c r="A1021" s="7" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" ht="30">
+      <c r="A1022" s="7" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" ht="45">
+      <c r="A1023" s="7" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024" s="7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" ht="45">
+      <c r="A1025" s="7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026" s="7" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" ht="45">
+      <c r="A1027" s="7" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" ht="30">
+      <c r="A1028" s="7" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" ht="30">
+      <c r="A1029" s="7" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1">
+      <c r="A1030" s="7" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" ht="30">
+      <c r="A1031" s="7" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032" s="7" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" ht="30">
+      <c r="A1033" s="7" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" ht="30">
+      <c r="A1034" s="7" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" ht="30">
+      <c r="A1035" s="7" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" ht="26.25">
+      <c r="A1036" s="18" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1">
+      <c r="A1037" s="7" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038" s="7" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" ht="30">
+      <c r="A1039" s="7" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" ht="30">
+      <c r="A1040" s="7" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" ht="30">
+      <c r="A1041" s="7" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" ht="30">
+      <c r="A1042" s="7" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043" s="7" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044" s="7" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" ht="30">
+      <c r="A1045" s="7" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" ht="45">
+      <c r="A1046" s="7" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" ht="30">
+      <c r="A1047" s="7" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048" s="22" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" ht="30">
+      <c r="A1049" s="7" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" ht="30">
+      <c r="A1050" s="7" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051" s="7" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" ht="30">
+      <c r="A1052" s="7" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1">
+      <c r="A1053" s="7" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" ht="30">
+      <c r="A1054" s="7" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" ht="30">
+      <c r="A1055" s="7" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" ht="30">
+      <c r="A1056" s="7" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1">
+      <c r="A1057" s="7" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1">
+      <c r="A1058" s="19" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" ht="45">
+      <c r="A1059" s="7" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" ht="45">
+      <c r="A1060" s="7" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" ht="30">
+      <c r="A1061" s="7" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" ht="30">
+      <c r="A1062" s="7" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1">
+      <c r="A1063" s="7" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" ht="45">
+      <c r="A1064" s="7" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" ht="30">
+      <c r="A1065" s="7" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" ht="26.25">
+      <c r="A1066" s="18" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" ht="30">
+      <c r="A1067" s="7" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" ht="45">
+      <c r="A1068" s="7" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" ht="30">
+      <c r="A1069" s="7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" ht="30">
+      <c r="A1070" s="7" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1">
+      <c r="A1071" s="7" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" ht="45">
+      <c r="A1072" s="7" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" ht="45">
+      <c r="A1073" s="7" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" ht="30">
+      <c r="A1074" s="7" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1">
+      <c r="A1075" s="7" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" ht="30">
+      <c r="A1076" s="7" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" ht="26.25">
+      <c r="A1077" s="18" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1">
+      <c r="A1078" s="7" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" ht="45">
+      <c r="A1079" s="7" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" ht="45">
+      <c r="A1080" s="7" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" ht="45">
+      <c r="A1081" s="7" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1">
+      <c r="A1082" s="7" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" ht="45">
+      <c r="A1083" s="7" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" ht="30">
+      <c r="A1084" s="7" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" ht="45">
+      <c r="A1085" s="7" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" ht="30">
+      <c r="A1086" s="7" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" ht="30">
+      <c r="A1087" s="7" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" ht="45">
+      <c r="A1088" s="7" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" ht="30">
+      <c r="A1089" s="7" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1">
+      <c r="A1090" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" ht="30">
+      <c r="A1091" s="7" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1">
+      <c r="A1092" s="7" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" ht="30">
+      <c r="A1093" s="7" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1">
+      <c r="A1094" s="19" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1">
+      <c r="A1095" s="7" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1">
+      <c r="A1096" s="7" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1">
+      <c r="A1097" s="7" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" ht="30">
+      <c r="A1098" s="7" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1">
+      <c r="A1099" s="7" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" ht="30">
+      <c r="A1100" s="7" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1">
+      <c r="A1101" s="7" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" ht="30">
+      <c r="A1102" s="7" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" ht="60">
+      <c r="A1103" s="7" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" ht="30">
+      <c r="A1104" s="7" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1">
+      <c r="A1105" s="7" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" ht="30">
+      <c r="A1106" s="7" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1">
+      <c r="A1107" s="7" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" ht="45">
+      <c r="A1108" s="7" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" ht="30">
+      <c r="A1109" s="7" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" ht="26.25">
+      <c r="A1110" s="18" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1">
+      <c r="A1111" s="7" t="s">
+        <v>1253</v>
       </c>
     </row>
   </sheetData>

--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="1466">
   <si>
     <t xml:space="preserve">WACH MA CHAKO </t>
   </si>
@@ -2615,29 +2615,1830 @@
     <t xml:space="preserve">Simwenji nyinge man munyo ilwoŋo “Nyakeno” onywolo yach aŋwen: Nyagwanja, Oliŋa, Orono kod Moti.  </t>
   </si>
   <si>
+    <t>Aka jo Nyapolo madit man jo nitye yo Gombila ma Kwapa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To wok indirino nyikway jalo pama ilwoŋo jo ni jo pa Masar, to kareno jo kinono man kendo fuod jo kolimo pokirok apoka swa malimo chako nono man ni wajo “Nyapolo pa Masar.”  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To go pokere to kun, to kidho yo Nyawiyoga.  </t>
+  </si>
+  <si>
+    <t>Jo pa Masar me jo nono Nyapolo Ogule aka baa jo machango ilwoŋo ni Masar, olimo dhaw moro kod wutumin go jo pa Ogule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To riwach dhaw dhaw amumiyo jo chako tuk joman jo kun wiloka paka jomiwacho jo ni jo pa Masar, me kinono anona man manyikway Adhola.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyapolo gye chango jo chako bedo Katandi kuma chango onywol iye kwar jo, kod yo Senda. </t>
+  </si>
+  <si>
+    <t>To ja dek me jo Ranga, Oligo, Nyafuondo jo kinywomere kendo jo nono achiel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo pa Ogule jo nywomo jo pa Ranga, Oligo kod Nyafuondo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nywomirok ochako i ndir ma Oloo Majanga dhumo (nen Adech I, Siro 5), tundo kiri pama.   </t>
+  </si>
+  <si>
+    <t>Kada jo pokere jo konywomere piyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyapolo wod pa Adhola onywolo yach aŋwen, nyathi makayo pere ochwoko go ni Ranga (Rwoth), nyath mararyo Ogule (chango omiyogo migosi madwoŋ to chako noro kod gulirok gye to wad Chwoko ni Ogule), maradek Oligo, aka maraŋwen Nyafuondo.  </t>
+  </si>
+  <si>
+    <t>Aka nyingi jo mati jo chwoko ame:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo wacho ameno ka jopoyo gine Luli tworo machango diti yo Katandi machango onywolijo iiye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nono me nyingi jo man jo wacho ni “Wa jo Nyapolo wa jo Luli tworo.”  </t>
+  </si>
+  <si>
+    <t>Nyapolo Orangi, Oligo kod Nyafuondo</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyi jo ŋiyo kuma waŋ chieŋ podho iye .</t>
+  </si>
+  <si>
+    <t>Minyur kiyik mach, kendo go kod nyath jonindo iboke pendi nyarwanda.</t>
+  </si>
+  <si>
+    <t>Ŋata Bura omako kicham rombo i oti Nyapolo gye.</t>
+  </si>
+  <si>
+    <t>Kweer pajo (nono Nyapolo jonok kod kweer):</t>
+  </si>
+  <si>
+    <t>Ranga,	Nyafuondo,	Jabuka,	Aripa,	Nyakur</t>
+  </si>
+  <si>
+    <t>Adhola,	Oligo,	Oywelowo,	Jewo,	Keta,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ti chako wer Aremo.</t>
+  </si>
+  <si>
+    <t>To mon chako ywak, ni opoy Nyapolo won otundo, to Nyapolo gut swa riwach pa Aremo.</t>
+  </si>
+  <si>
+    <t>Wer me ochako ama: Chango munyo okidh lweny to jalimoro milwoŋo ni Aremo olworo lweny to ringo dwoko wacho rijo pecho ni oweyo igoyo Nyapolo swa miti ti kodwok</t>
+  </si>
+  <si>
+    <t>Diyoŋeye halo magambala.</t>
+  </si>
+  <si>
+    <t>Chieŋ olyel ri Aremo Diyoŋeye</t>
+  </si>
+  <si>
+    <t>Nyapolo Nyaka dwoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyapolo Dwok mogut </t>
+  </si>
+  <si>
+    <t>Jalul Tworo ti kodwok</t>
+  </si>
+  <si>
+    <t>Oŋolan ga dita kodhi</t>
+  </si>
+  <si>
+    <t>Oŋolan indelo Nyapolo</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye yo Katandi milwoŋ ni “ODI MIEL,” manago lul kod telin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tich machango jo asa ŋeyere iiye: lweny, dwar kod goyo bunde.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena chango oketh i oro 1945.  </t>
+  </si>
+  <si>
+    <t>Olinda ngwe e e e Lweny Kanyinga waneko wadwoko wajo Nyapolo wak poti wakilwor, wajo Nyapolo kichim wan, kichimijo.</t>
+  </si>
+  <si>
+    <t>Jo Nyapolo kabul oywak ŋata oyworin nyath achiel.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E e e Kabul oywak tinditindi </t>
+  </si>
+  <si>
+    <t>Nyath achiel kidhano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E e e nyath achiel kidhano andha.  </t>
+  </si>
+  <si>
+    <t>O o o mon nywolo jogero, mon nywolo jokisinye</t>
+  </si>
+  <si>
+    <t>E e e waliŋaliŋa ri banja, Nyapolo ni banja,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyapolo kipenji ti nwaŋo. </t>
+  </si>
+  <si>
+    <t>Eee wajo Nyapolo wak ran.</t>
+  </si>
+  <si>
+    <t>KUNU pajo achiel kod ma pa jo Nyapolo man, nitye yo Katandi ilwoŋo ni “ODI MIEL” manago lul kod telin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka tich machango jo asa ŋeyirok iiye: lweny, dwar, chowo Bura kod migimba koth.  </t>
+  </si>
+  <si>
+    <t>Jadwoŋ   nono marapena chango oketh i oro 1941</t>
+  </si>
+  <si>
+    <t>Alinda ngwe kachiŋa.</t>
+  </si>
+  <si>
+    <t>Banja mawan no Koran.</t>
+  </si>
+  <si>
+    <t>E e e Wajo Nyapolo wakiran</t>
+  </si>
+  <si>
+    <t>Jo yikere wiy jo ŋiyo kuma waŋ chieŋ podho iye (west).</t>
+  </si>
+  <si>
+    <t>Minyur kiyik mach, kendo go kod nyath jonindo i boke pendi nyarwanda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo pakere ni “Wa jo Nyapolo wa jo po Ogule.”  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I nono Nyapolo, Ogule nitye kende, aka jo nywomere kod Nyapolo man. </t>
+  </si>
+  <si>
+    <t>Nyapolo Ogule</t>
+  </si>
+  <si>
+    <t>NONO J'ODE</t>
+  </si>
+  <si>
+    <t>KUNU pajo, man nitye Maundo, aka man nitye Nyamalogo witele milwoŋo ni Wiyadundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tich machango jo asa ŋeyere iiye: lweny, goyo tongol gi fumbo kod ndijo ma theth atego kod tonge!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena odimi i oro Novemba 26, 1933.  </t>
+  </si>
+  <si>
+    <t>Wok ndirino to gime lokere wer nono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obedo ndir achiel jo Sewe jobino to jo yaka dhiaŋ pa japa Nyirenja yo Maundo to romachien to dhako mawon pecho no dwoko to uro ni “I i i, a a a! anen! anen win jo Paliwa, jo Maundo me paka jo weyo dhiaŋ osira malo okadho gi chak makonyiedh kada anyiedha, pa chwo ongoye pecho me manende jo ki lweny ye kada alwenya!”  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer me obedo ‘abwon’; </t>
+  </si>
+  <si>
+    <t>dhiaŋ osira malo pa chwo ongoye!</t>
+  </si>
+  <si>
+    <t>E e e chak chiewo, wajo Maundo muweyo</t>
+  </si>
+  <si>
+    <t>Jo yikere wiy jo ŋiyo kuma waŋ chieŋ podho iiye (west).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo ka ja Paliwa otho kinyiedh dhok mapecho no kafuod koyik ŋato iweyo dhok dhothadhotha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ka dhako onywol ikuth ikiro chak ma chiewo i kanindo kod bothi minyur ginyathi akanyaka jo nindo i ka nindo no kosa nyathi no dhoth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To pama chak ma chiewo bedo kweer madwoŋ swa ri jo Paliwa.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To dhiaŋ pa baa mere milwoŋo ni “Oliwa” amopidho go gichak ma chiewo tundo kuma Kasewe opoŋ to bende nywomo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gime obino ama, Nyirenja kod dhako pere gye jotho joweyo Kasewe ikich madwoŋ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jopaliwa jongoye gi kweer man gye kwanyowoko “chak ma chiewo.” </t>
+  </si>
+  <si>
+    <t>Onoŋor,Ojaga.</t>
+  </si>
+  <si>
+    <t>Sikola,Omwona,Omana,Sele,Aluka,</t>
+  </si>
+  <si>
+    <t>Alyew,Oguwa,Nyonyi,Jambaka,Ogweyo,</t>
+  </si>
+  <si>
+    <t>Kole,Oda,Olando,Opiti,Ombigo,</t>
+  </si>
+  <si>
+    <t>Olero,Idoli,Asii,Obuŋa,Ngira,</t>
+  </si>
+  <si>
+    <t>Jadyewa,Manyinge,Aŋopa,Ote,Ofumbi,</t>
+  </si>
+  <si>
+    <t>Malilo,Omubala,Ogen,Machar,Okimen,</t>
+  </si>
+  <si>
+    <t>Wesen,Obedo,Jachieni,Malala,Okwer,</t>
+  </si>
+  <si>
+    <t>Onyay,Odugo,Otwey,Adito,Siya,</t>
+  </si>
+  <si>
+    <t>Orupe,Kedi,Onwaŋo,Oyeyo,Oguŋ,</t>
+  </si>
+  <si>
+    <t>Omuya,Alecho,(Olengo),Olenge,Didworo,</t>
+  </si>
+  <si>
+    <t>Adipa,Kaburu,Kalengere,Ono,Wagondi,</t>
+  </si>
+  <si>
+    <t>Arucha,Laro,Otiti,Osyaga,Ondowa,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To pama jonwaŋere ikis adech ma Padhola. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabedo pajo marapena obedo Maundo kod Nyamalogo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka yach me amunywolo nono Nyirenja ma pama nitye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Aka Nyirenja onywolo wode milwoŋo ni Kasewe, to Kasewe kod dhako pere milwoŋo ni Nyamichala to jo nywolo yach abiriyo me: Waseni, Arucha, Adipa, Omuya, Orupe, Onyay kod Onoŋor.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nywolirok pajo achako kwoŋ Adhola, munywolo nyath pere milwoŋo ni Nyirenja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo nitye nono achiel kende ma kopokere diere.  </t>
+  </si>
+  <si>
+    <t>Jo pa Nyirenja nyingi jo man jowacho ni "wa jo Paliwa Chak chiemo"</t>
+  </si>
+  <si>
+    <t>NONO NYIRENJA</t>
+  </si>
+  <si>
+    <t>Nono Ojilai opokere kad ryo: Ojilai Dibworo p'Arak kod Ojilai Dibworo pa Kwom</t>
+  </si>
+  <si>
+    <t>NONO OJILAI</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye wi tele ma Mwelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tich machango jo asa ŋeyere iiye: lweny, kwath, miel kod dwar.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena chango odini ioro 1953.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dwoŋ mere ni jo ripo tho rigin jo eye i piny me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo wacho ni bedo i piny Padhola tek, nen paka lyech onekojo, ni jo ripo dok Ode pajo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer me gye jo chwoko munyo lyech otyeko neko jo.  </t>
+  </si>
+  <si>
+    <t>Chuka chiene waji, Chuka chiene waji.</t>
+  </si>
+  <si>
+    <t>Mbuluku Omwa Mwelo.”</t>
+  </si>
+  <si>
+    <t>Bedo i piny Padhola tek wanodok Ode wan,</t>
+  </si>
+  <si>
+    <t>Mbuluku Omwa Mwelo.</t>
+  </si>
+  <si>
+    <t>Mbuluku, Mbuluku Omwa Mwelo</t>
+  </si>
+  <si>
+    <t>Wer pa jo majo wero:</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyi jo ŋiyo kuma waŋ chieŋ podho iye (west).</t>
+  </si>
+  <si>
+    <t>Minyur kod nyathi jonindo i boke pendi nyarwanda.</t>
+  </si>
+  <si>
+    <t>Minyur chiemo ikor pendi kendo kwon kosa nyuka iguro gi yath makudho Alwi.</t>
+  </si>
+  <si>
+    <t>Minyur kicham kwon kal muchiel, tundo kuma wok iiye.</t>
+  </si>
+  <si>
+    <t>Jo kited kod Akibuk, kigo dhok, asati mar’adita kosa asati mar’odher kosa kasegere dero.</t>
+  </si>
+  <si>
+    <t>Kweer pa jo madwoŋ, Mbuluku kod lyech, ka j’Ade twoo kosa otho Mbuluku bina bina pecho no to bende chako ywak.</t>
+  </si>
+  <si>
+    <t>wa golo,	Onyoko,	Oriŋo,	Oluki</t>
+  </si>
+  <si>
+    <t>Ogwa ,	Owora,	Omonya,	Kamura,	Obedo,</t>
+  </si>
+  <si>
+    <t>Ogol,	Ndira,	wa ya,	Ogola,	Kayala,</t>
+  </si>
+  <si>
+    <t>Maala,	odoŋ,	Mbedi,	Omŋeyo,	Opilo,</t>
+  </si>
+  <si>
+    <t>Omwolo,	Oyo,	Sekiro,	Anial,	Oŋaŋo,</t>
+  </si>
+  <si>
+    <t>Luge,	Kaunye,	Anieye,	Akanyi,	Obanja,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno joŋeyo ni ji kende ama jonyalo bedo mager; nikere manago nende omini jo amonwaŋo joyaneko ni lee.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To jo modoŋ to jo loko lyech kweer pa jo; kajo wacho ni kere lyeech bende chuka chiene ji aka lworo tich amumiyo jo lokere lyeech.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wok ndirino to lyech koch kichutho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ape! kere jo kwinyo kuma pino ogeto iye: to lyech ere gi jo to neko jo pa nyithindi gwendi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amumiyo ndir achiel to jo chokere ni jo onek thwon ma nono.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo lyech opoŋ to lokere mager ka mito ni onek jo, kendo won bin chodo uno to kidho chiemo kende. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ka akuma jo nwaŋo iiye nyathi lyech to jo lwoŋo ni nyathi dhiaŋ, to jo mako jo pidho.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J’Ode j’ochako bedo yo Nagongera bothi Adhola to munyo joneno ni joromo aka onyo dudi nok ma fur to jo tuk yo Mwelo, i tyend tele ma Mwelo. </t>
+  </si>
+  <si>
+    <t>Nyingi jo man jowacho ni “Wa j’Ode wa jo Mbuluku.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ode chango wod p’Adhola, aka go onywolo yach aŋwen: Luge, Wangolo, Owora kod Warya; aka yach me ama jonywolo nono Ode ma pama nitye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olwoŋ jo ni J’Ode rukwom baa jo manywolo jo chango ilwoŋo ni Ode.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J’Ode jonitye nono achiel kende jo kopokere. </t>
+  </si>
+  <si>
+    <t>Chuka chiene waji walworo tich walokere lyeech.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ojilai Dibworo pa Kwom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo, madwoŋ mere nitye Nyamalogo wi tele milwoŋo ni Mawele, aka mathi mere nitye Migana, manago obedo lul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tich machango jo asa ŋeyere iiye: lweny, dwar kod goyo bunde.  </t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono marapena chango oketh i oro 1933</t>
+  </si>
+  <si>
+    <t>Wajo p’Arak wajo cham ji nyaka wadwoko.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo cham ji bino wajo p’Ocham dhano </t>
+  </si>
+  <si>
+    <t>Cham dhano wajo pa Dibworo wachamo moro,</t>
+  </si>
+  <si>
+    <t>dwar kosa timo gimoro gye ma nyutho misen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer me a wer ma Kirembe madwoŋ swa i p’Adhola; amumiyo kis nono wero ka jowok lweny, kosa </t>
+  </si>
+  <si>
+    <t>Wanonen chwo ago.</t>
+  </si>
+  <si>
+    <t>Dibworo dwoko e e Dibworo bino e e e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanonen chwo ago </t>
+  </si>
+  <si>
+    <t>Wanonen chwo ago e e e</t>
+  </si>
+  <si>
+    <t>“Dibworo wanamyero</t>
+  </si>
+  <si>
+    <t>Minyur chiemo i kor pendi, kendo go kiyik mach.</t>
+  </si>
+  <si>
+    <t>Ogel kod Akibuk jo kited gine.</t>
+  </si>
+  <si>
+    <t>Kweer madwoŋ Simbwor (Dibworo).</t>
+  </si>
+  <si>
+    <t>Olum,Yunju.</t>
+  </si>
+  <si>
+    <t>Maruk,Mwera,Akenya,Kasimo,Iŋula,</t>
+  </si>
+  <si>
+    <t>Arak,Awira,Nyayole,Adita,Adara,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojilai me nyingi jo man jo wacho ni “Wa jo pa cham dhano wa jo p’Arak pa Dibworo.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ojilai Dibworo p'Arak</t>
+  </si>
+  <si>
+    <t>Nono me chango jo chako bedo yo Nyamalogo to pama jo lak i p’Adhola gipi paka rom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibworo (Ojilai) me amonywolo yach aryo, Arak kod Akwom, aka yach me amunyo nywolo nono Ojilai aryo me. </t>
+  </si>
+  <si>
+    <t>Nywolirok pa nono me obedo, ama, Adhola onywolo jali milwoŋo ni Ojilai to Ojilai me chango nyinge man i lwoŋo ni Dibworo rupir chango onywol go rut kod Simbwor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inywolirok pajo jobedo wutimere, to riwach ma pok ma riŋo kod ma chulirok kwor, amumiyo oti pa Arak kod oti pa Kwom jo pokere, to jo chako nywomirok.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kada ameno kula pajo kod wer gye achiel. </t>
+  </si>
+  <si>
+    <t>NONO OLOMOLE</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye Nyamalogo wi tele milwoŋo ni Mawele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena chango oketh i oro 1933.  </t>
+  </si>
+  <si>
+    <t>Dibworo to ŋiyo aŋo?”</t>
+  </si>
+  <si>
+    <t>Ja cham ji bino to Dibworo kiŋiy malo</t>
+  </si>
+  <si>
+    <t>Cham dhano wajo pa Dibworo wachamo moro</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyi jo ŋiyo kum waŋ chieŋ wok iye (east).</t>
+  </si>
+  <si>
+    <t>Minyur chiemo i kor pendi kendo go kiyik mach.</t>
+  </si>
+  <si>
+    <t>Obungila,Odumu,Omuge,Japyan,Mageli, Kiryama.</t>
+  </si>
+  <si>
+    <t>Mirima,Orere,Madile,Odero,Owona,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojilai me nyingi jo man jo wacho ni “Wa jo cham dhano wa jo pa Kwom pa Dibworo.”  </t>
+  </si>
+  <si>
+    <t>NONO ORUWA</t>
+  </si>
+  <si>
+    <t>Tich pajo machango jo ŋeyere iiye: lweny, kod chiko.</t>
+  </si>
+  <si>
+    <t>Waki poŋ ryete wa j’Olomole manyandeta.</t>
+  </si>
+  <si>
+    <t>Watho warumo wa j’Olomole manyandeta,</t>
+  </si>
+  <si>
+    <t>Ee wa j’Olomole watiend toko manyandeta,</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyijo ŋiyo kuma waŋ chieŋ wok iiye (east).</t>
+  </si>
+  <si>
+    <t>Jo kicham Nyiger, kendo jokited kod yath milwoŋo ni Akibuk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo jowotho no, onwaŋo waŋ jo ŋiyo yo por loka Wisoga to kuma jo tyeko tho meg i Nyandeta to jo modoŋ jowire jo wotho dwoko yochien de tundo yo Pubwok Pasindi, akuma fuod jo nitye iiye madit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Nyandeta neko jopakidho tyeko woko jo</t>
+  </si>
+  <si>
+    <t>Chakirok bedo pajo jo chako Matindi, to jo kidho Soni i jwom milwoŋo ni Pore, me pama KUNU pajo, to joluwo Nyamalogo tojo kadha kadha joluwo Chawolo tundo i jwom milwoŋo ni Nyandeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nywolirok pajo obedo ama, Adhola onywolo jali milwoŋo ni Odudi nyinge man ni Olomole, aka Olomole me onywolo yach awichiel: Mijoŋo, Tiyo, Wandera, Orach, Omoŋo kod Otiyo, aka yach me amunyo nywolo nono Olomole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyingi jo man jo wacho ni “Wa j’Olomole waji ma jwom.” </t>
+  </si>
+  <si>
+    <t>Nono Olomole nitye achiel, to kende jonok, rupir ni yado kajoyanja joromoye nyakamath to jo ere to jo tho pajo rumo, kiri i wer pajo jo wacho ni “Watho warumo wajo Olomole.”</t>
+  </si>
+  <si>
+    <t>Achamo Dhano nyaka wa dwoko.”</t>
+  </si>
+  <si>
+    <t>Jo pa dibworo wajo cham malo wagoyo aryo</t>
+  </si>
+  <si>
+    <t>“Jo pa dibworo wajo cham malo wagoyo aryo</t>
+  </si>
+  <si>
+    <t>Ka minyur yawok i chwado tiende kod powo wok i dhioti pere tundo iya p’Adhamere kareno iwacho ni wakidho i dwol dhok, i timo ameno didek kosa diŋwen.</t>
+  </si>
+  <si>
+    <t>Minyur kod nyathi jo nindo i boke pendi nyarwanda.</t>
+  </si>
+  <si>
+    <t>Keno lyech adek kosa aŋwen i omo isa am’itheno gine chiemo pa minyur tundo kum’owok iye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo kicham riŋo tundo kuma jo thugin jo kel rigo riŋo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhako k’onywol i ketho chooko i fufa (ma pii makiwene ma kado) magochamo tundo wok. </t>
+  </si>
+  <si>
+    <t>Minyur chiemo i kor pendi aka chiemo no bende imiyo amiya i dhoke, ka chiemo opodho kosa pii othon piny, ndirino kodok’ochiem kosa madho pii tundo yawere mere.</t>
+  </si>
+  <si>
+    <t>Obolo kod kasegere moro gye kited gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To jochamo rigin riŋo dhok, kwanyo woko yen ma chiel dhok jo kited gine.</t>
+  </si>
+  <si>
+    <t>Kweer madwoŋ dhiaŋ; ni rupir chango ka jotho iyiko jo i chiel dhok.</t>
+  </si>
+  <si>
+    <t>Chiko</t>
+  </si>
+  <si>
+    <t>Owa da,	Osama,	Ojaga,	Aroba,	Olude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kabedo majo chako bedo iye a Nyamalogo to pama jonwaŋere i kis adech ma Padhola. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wagoyo aryo, dwoŋ mere ni jo nywolo rut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oruwa me nyingi jo man jo wacho ni “Wan wa jo waŋ chieŋ wa jo cham malo, wa goyo aryo.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oruwa Demba</t>
+  </si>
+  <si>
+    <t>Gima dwoŋ kwom Oruwa gye a Kweer.  Oruwa ni gi Kweer mager swa, ma kituki gine, makir okewo pa jo gye kweer no megi tundo kwom jo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gima dwo?   kwom Oruwa gye a Kweer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Riwirok ma udi adek me joridho aridha swa i oro 1942, ama jo dimo iye jadwoŋ achiel ni ama obedi ŋata achiel mariwo jo gye</t>
+  </si>
+  <si>
+    <t>Oti pa Demba to doŋ kende</t>
+  </si>
+  <si>
+    <t>To chiegin oro 1918 to jo udi adek, Lapa, Lusi kod Menya to jo riwere to joweyo nywomirok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka nyithindh yach me ama jokelo ruwirok to jo pokere nono ka diŋwen; to jo chako nywomirok Oruwa gye aŋwen.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ Oruwa chango onywolo yach aŋwen: Lapa, Demba, Lusi kod Menya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pama dhano nyalo paro ni ruwirok marumachien me amumiyo ochwok jo ni Oruwa to kere be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jali me chango ochamo nyinge rundiri ni Oruwa, rupir nyithindho pere kod nyikwaye, jo bedo kod ruwirok madit; jo chako nywomirok, jonekere, jochulere kwor, to nono bedo abeda mu ruwere swa kichutho kichutho won, paka nyingi jalicha. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wod pa Adhola machango ilwoŋo ni Oruwa amunywolo nono Oruwa gye paka nitye pama. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Minyur kod nyath jo nindo i boke pendi kego nyarwa da</t>
+  </si>
+  <si>
+    <t>Dhako manitye kod nyathi kigey boke akendo ma keno, kada dhako manitye kod iye bende kigey; kendo ka minyur yawok indirino i fuono boke akendo ma keno amigoyo gine tiende kareno i lamo go ni wakidho i dwol dhok, i timo ameno didek kosa diŋwen, paka kweer nyath nitye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ka riŋo ongoye angoya swa woki yo thugin chooko am’itedo amiyoko go gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minyur kicham riŋo tundo kuma jo thugin jo kelo riŋo. </t>
+  </si>
+  <si>
+    <t>Minyur chiemo i kor pendi, aka chiemo no bende imiyo amiya i dhoke; ka chiemo opodho kosa pii othon piny, ndirino kodok’ochiem kosa madho pii tundo yawere mere.</t>
+  </si>
+  <si>
+    <t>Minyur kiyik mach ka go fuod k’owok.</t>
+  </si>
+  <si>
+    <t>Akibuk kod Matakela, kited gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo wok kwom minyur tundo kwom dhako manitye kod nyathi ma fuod kiwothi, jo ki gey woyo dhiaŋ.</t>
+  </si>
+  <si>
+    <t>To jo chamo rigin riŋo dhok kwanyo woko yen ma chiel dhok jo kited gine.</t>
+  </si>
+  <si>
+    <t>Kweer madwoŋ dhiaŋ, ni rupir chango kajo tho iyiko jo i chiel dhok.</t>
+  </si>
+  <si>
+    <t>Menya,Majiji.</t>
+  </si>
+  <si>
+    <t>Lusi,Anyamo,Ochier,Onyo,Angel,</t>
+  </si>
+  <si>
+    <t>Lapa,Obiro,Akwaŋ,Odel,Opusa,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo both jochale kod Ojilai, nen Siro 19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibworo, ka nyutho gero pajo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oruwa adek me Lapa, Lusi kod Menya, joriwere pama; jo lwoŋere ni “Wa jo pa Dibworo wa jo cham malo.”  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oruwa Lapa, Lusi kod Menya</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye Nyamalogo aka man nitye yo Kiyeyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tich machango jo asa ŋeyirok iiye: lweny, kwath kod dwar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena oketh i oro 1932. </t>
+  </si>
+  <si>
+    <t>NONO JO PA GEMBE</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye Matindi ilul machiegin gi wugo pajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka tich machango jo asa ŋeyirok iiye: lweny, dwar, miel kod goyo bunde. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ nono marapena oketh i oro 1940. </t>
+  </si>
+  <si>
+    <t>Jo Ramogi modakana omwa ma kombe jo lwoŋo nyir ni Katalaŋ!</t>
+  </si>
+  <si>
+    <t>Lando pa Kasaŋ mada omiyi jogero jo chamo e, e, Lando.</t>
+  </si>
+  <si>
+    <t>Pawangolo Matindi kipoti/kiran e, e, e, Matindi, Sewe otyeko yach ma Matindi kada go perenje.</t>
+  </si>
+  <si>
+    <t>Joyikere wiyijo ŋiyo yo kuma waŋ chieng podho iye (west).</t>
+  </si>
+  <si>
+    <t>Indir mar’Apipili iriwo dukino Athu idhioti aka itimo (nen Adech III, Siro 4).</t>
+  </si>
+  <si>
+    <t>Minyur kodi nyathi jo nindo i boke pendi nyarwanda, kendo minyur kitedi kosa geyo mach ka fuod kowok.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jo kited kod yath ogeli</t>
+  </si>
+  <si>
+    <t>Laro,Goŋo,Ndiwo,Magara.</t>
+  </si>
+  <si>
+    <t>Aroda,Kitewe,Owondo,Agumbi,Okode,</t>
+  </si>
+  <si>
+    <t>Osilo,Dewo,Owolo,Odero,Okolo,</t>
+  </si>
+  <si>
+    <t>Nyadoŋa,Maseye,Oliŋo,Kadondoli,Ikuya,</t>
+  </si>
+  <si>
+    <t>Aliwa,Aŋura,Palinyaŋa,Lach,Opali,</t>
+  </si>
+  <si>
+    <t>Japath,Ryama,Lando,Oŋaŋo,Obuya,</t>
+  </si>
+  <si>
+    <t>Wangolo,Opany,Kasaŋ,Opata,Saja,</t>
+  </si>
+  <si>
+    <t>Nyingi jo man, jo wacho ni “Wa jo Ramogi ma Matindi” dwoŋ mere ni me Jo Ramogi ma Padhola monywolijo Matindi, makiwene jo Ramogi ma Nyanza kosa ma Kitgum.</t>
+  </si>
+  <si>
+    <t>Bedo pa nono me, jo pen bedo iyadech ma Matindi, kenyo ama lweny pa Sewe amumiyo jo pokere to jo laki i Padhola gipi loyo madit jo nwaŋere yo Gombila Molo, Tororo, Kisoko kod Nagongera.</t>
+  </si>
+  <si>
+    <t>Nyathi Ramogi me amunyo nywolo nono Ramogi gye manitye Padhola ka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wod p’Adhola milwoŋo ni Wangolo amunywolo wode bende to chwoko ni Ramogi, ri nyingi kwarijo kosa wutumin Adhola gin machango jo weyo jo chien kuma jowoki iye. </t>
+  </si>
+  <si>
+    <t>Ramogi obedo nyithindho Adhola won aka jo kowok Busoga kada di chiel, rupir nen, Ramogi nyingi moŋeyere tek tek swa i nonini ma Lwo gipi; giranena Ramogi nitye p’ Owiny (Kenya), Acoli kod Laŋo.</t>
+  </si>
+  <si>
+    <t>Nono me kada jo weg meg kod joman gye jowacho ni chango jowok yo Busoga i piny milwoŋo ni Bulamogi ni rupir Bulamogi chale kod Ramogi; meno ka paka nitye</t>
+  </si>
+  <si>
+    <t>NONO RAMOGI</t>
+  </si>
+  <si>
+    <t>KUNU pajo man nitye Nyamalogo witele milwoŋo ni Nyamanda aka man nitye Kiyeyi.</t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono marapena chango oketh i oro 1942.</t>
+  </si>
+  <si>
+    <t>Munyo jo tieko jo Kiyeyi aka waryemo jo.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wajo Ruwa omwa olwoŋo ni wanok kere nyaka watundo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omwa otieko jo Kiyeyi. </t>
+  </si>
+  <si>
+    <t>E, e, e Omwa walangel olwoŋo wan ni ‘Wadama’</t>
+  </si>
+  <si>
+    <t>I wer me jowero kajo pakere ni jo chingi jo lach chango jo mako ji ma nono man jorwako i nono pajo.</t>
+  </si>
+  <si>
+    <t>Jopa Dibworo nyaka wabino.</t>
+  </si>
+  <si>
+    <t>Wanwaŋo dhano moro waloko go Oruwa mawan</t>
+  </si>
+  <si>
+    <t>Wa jopa Dibworo wajo cham malo,</t>
+  </si>
+  <si>
+    <t>KUNU pajo ilwoŋo ni Nyasirenge, nitye witele milwoŋo bende ni Nyasirenge.</t>
+  </si>
+  <si>
+    <t>Tich machango jo asa ŋeyere iiye: lweny, dwar kod chuech bwo.</t>
+  </si>
+  <si>
+    <t>Jadwoŋ nono marapena oketh i oro 1945</t>
+  </si>
+  <si>
+    <t>Dwoŋ mere ni jo pako gero pajo marom kod gero pa kwach.</t>
+  </si>
+  <si>
+    <t>Nyamondo yiwi kwach, kigey, owire rin inonen.</t>
+  </si>
+  <si>
+    <t>Jo yikere wiyijo ŋiyo kuma waŋ chieng podho iye (west).</t>
+  </si>
+  <si>
+    <t>Minyur kiyik mach kendo chiemo pere itedo i degi manyien, kod achiero machiemo iye bedo manyien kende kende.</t>
+  </si>
+  <si>
+    <t>Minyur kod nyathi jo nindo i bokependi nyarwanda.</t>
+  </si>
+  <si>
+    <t>Kadhako pa Jopagembe ochielo kal aka kal no nindi makoregi, kal no kidok cham kada dichiel, ikonja konja woko.</t>
+  </si>
+  <si>
+    <t>Kweer madwoŋ bel winyo, jo kigey kada ageya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ogembe kod wote awichiel, Kungu, Nyamisio, Dumbarya, Kiwene, Opio kod Misana, jochako bedo Maundo; aka jo kowere Katajula yo bothi jo Amor Kagulu Adundo, aka nyaka jowok kenyo to jo man jo oole yo loka Pagembe, aka jo man jo kidho iyadech ma Padhola mopokere opokere</t>
+  </si>
+  <si>
+    <t>Baa nono me nyinge chango ilwoŋo ni Ogembe, Ogembe me bedo Nyakwar Adhola, to baa mere won nyinge koŋeyere maber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nono jo Pagembe nitye achiel kende ma kopokere aka madit mere jo nitye yo loka pa Gembe, i Gombila ma Paya. </t>
+  </si>
+  <si>
+    <t>KULA MA CHOWO</t>
+  </si>
+  <si>
+    <t>Kendo piny kadongo dongo riwegi piny; ikula pajo machon kod i kite majo tero iye kula manyien ma jo limo bothi jo man.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kwanyo woko adech me kidho rinyutho adier machon, aka nyaka ji joŋey maber adier manyien, ma pama. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ra ameno akwayo jo dongo ma dini gye kod jo dongo fuonjiroki gye jo okir jo ter ni adech me kidho ri nywowo tich pajo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kole kula majo timo gye jo limo bothi jo wiloka ayino.”</t>
+  </si>
+  <si>
+    <t>Makiwene jo wacho ni “Alacha gin me chango jo ŋeyo aŋo?</t>
+  </si>
+  <si>
+    <t>Odoko jo wiloka bende jo oŋey ni jo Padhola bende chango ji ma jo tiekere i kula makite gye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kendo nyithindho mayowaŋe bende jo oŋey kula ma tiend nono pajo, paka chango nitye chon mafuod wasungu jo kobino i piny me. </t>
+  </si>
+  <si>
+    <t>Andiko adech me g’atoŋa ni kis dhano ma ja Padhola kada onyo nitye kod kula man mago luwo, oŋey kula ma kwar wan chango jo timo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meno ka paka nitye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kada ameno iyadech me akikidho riwacho ri ji ni jowey kula manyien jodoki imachon; kosa wiro chuny jo ni kere dini kosa kula mati me rach, mawan machon amachango ber amachango miyo wan siem madit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kula me megi machon swa munyo pama owey kir timo, paka ma lweny, akisili kod ma nywomirok; aka megi paka ma chowo, ji manok swa mafuodi jo timo rupir ji madit ti jo fuonjere dini ma nyien mupokere opokere to jo weyo kula ma chon.  </t>
+  </si>
+  <si>
+    <t>Iyadech me atito kula megi ma dongo ma jo Padhola jotimo.</t>
+  </si>
+  <si>
+    <t>WACH MA TITO ADECH MARADEK</t>
+  </si>
+  <si>
+    <t>I ndir ma lamo me mon jo chiemo gi riŋo gi nyim.</t>
+  </si>
+  <si>
+    <t>Aka kiwodho kwon no i oti kuma oted iye i wotha wotha agumba tundo kuma oketh iye yo ŋey waŋ kach chiegin kod apa chwore</t>
+  </si>
+  <si>
+    <t>Nyalike, chipa Were Othim bende i tedo rigo kwon nyaka math, bende nyakare kod nyim.</t>
+  </si>
+  <si>
+    <t>Apa Were ma Diodipo amipen lamo, aka kowey nyithindho chamo aka i kidho i lamo ri Were Othim bende apere dho waŋ kach aka kenyo bende amichamo iye.</t>
+  </si>
+  <si>
+    <t>Ka chiemo ochiek i kutho i lamo aki chako chiemo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gwendi mineko gye bedo ma wote kende kende, aka kineko kithum athuma ŋute, i goya goya wich mere piny kareno i luwere i lamo, chuka tho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyutho ni waŋ kach a kew pa Were ma Diodipo kod Were Othim.  </t>
+  </si>
+  <si>
+    <t>Aka wot gwendi man i neko dho waŋ kach kod kwon mere bende i ketho kenyo ri Were Othim, ni ka obino ocham apere gi dho waŋ kach kun okir odonji olar kod Were ma Diodipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I ndelo no i neko wot gwendi i diodipo ti tedo kod kwon, meno apa Were ma Diodipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dwoŋ mere ni i hongo no amiketho Were walwa gi miyo jo chiemo manyien.</t>
+  </si>
+  <si>
+    <t>Were aryo me jo rom idwoŋ, aka bende i chowo jo kiromo, i ndir ma ka chiemo mandelo ochiek i kecho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Were Othim nitye kodi jago pere milwoŋo ni Mikowe, amamenyo rigo royo ka wotho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka Were Othim kod dhako pere milwoŋo ni Nyalike, ama jo kuro gigipiny mawok pecho no gye, paka dhano ma pecho no kakidho lweny, fur, kulo dwar kosa woth moro gye; kod dhok, diegi, roombo, ma pecho no ka jo kidho isa chiemo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Were ma diodipo meno makuro pecho, ji ma iye kod lim gye ma pecho no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowo were ma diodipo kod were othim, me a Were madongo i kis pecho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka gigipiny ma jo chowo bende yado opokere ama: (i) chowo Were Madiodipo kod Were Othim, (ii) chowo Jwogi, (iii) chowo Kunu, kod (iv) chowo Jwok Bura yo Nyakiriga.</t>
+  </si>
+  <si>
+    <t>Jo Padhola chango jo nitye gi kula ma chowo i kite mupokere opokere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chowo Jwok Bura, me i chowo yo Nyakiriga, aka jwok me Majanga amachango osukina gine (nen Adech I, Siro 4)</t>
+  </si>
+  <si>
+    <t>Kareno yo pecho korin bende onek diegi kod gwendi ti tedo gi kwon; aka k’otiek chiemo ti madho koŋo manende odoŋ pecho.</t>
+  </si>
+  <si>
+    <t>To diel kod gweno i neko ti bulo ti chamo achama ma piyo piyo swa, aka koŋo bende i madho wiyoto ti ay i jowere i dwoko.</t>
+  </si>
+  <si>
+    <t>Ko tundi koro ti lamo rigo gigipiny no gye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hongo no, i dwoyo koŋo pecho ti tiŋo koŋo gi wod diel gi wod gweno ti tero ri Kunu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka jadwoŋ achiel ma nono no amakidho chowo ri nono no gipi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go aja tel ma pa kis nono i gigipiny gye ma jo timo, aka kis nono bedo kod apa jo ku pokere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowo Kunu, me i lwoŋo ni kiluw, amumiyo ochwok ni kunu; ni kada kidh iya jwoka Were amaluwo rigo. </t>
+  </si>
+  <si>
+    <t>I hongo ma chowo, mon jo chamo nyim kod riŋo aka chwo jo chamo gwendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitye udi mathindho thindo migeto ri jwogi me, ilwoŋo ni “Migam”, aka kenyo bende amilamo ye gwendi no.  </t>
+  </si>
+  <si>
+    <t>Rumachien ma ndelo adek ti neko gwendi, gweno achiel bedo apa kwar jo ma dwoŋ ma pecho no, aka man bedo apa kwar jo kosa baa jo kod nyithindho gye majo tho pecho no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I chowo ama: ka oro orumo, i dwoyo koŋo, ti madho, aka koŋo no ilwoŋo ni “ma yer gwendi.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dwoŋ mere ni jwogi pa ji madongo kod mathindho mutho pecho no. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowo Jwogi, me ilwoŋo ni chowo jwogi ma pecho. </t>
+  </si>
+  <si>
+    <t>To kareno diegi kodi dhok ki neko, i neko kis oro adek kosa aŋwen aka gwendi amineko kis i chowo ma kis oro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To ka ŋata oŋaŋ tek tek neko thwon ri Were ma Diodipo aka ri Were Othim neko bende nyathi thwon yo sa.</t>
+  </si>
+  <si>
+    <t>Ri Were Othim bende i tero wod diel ti neko isa wiryete, makiwene gi yo waŋ kach, ti bulo abula ti chamo gikoro</t>
+  </si>
+  <si>
+    <t>To ŋata nitye kod lim madit neko wod diel ri Were ma Diodipo kod gwendi matheno wiy diel no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ja chandi neko gwendi kende kende</t>
+  </si>
+  <si>
+    <t>I chowo me gye gigipipy mineko wok rolim pa dhano paka nitye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I kwanyo kwon gi gweno ma kwo ti tero ri Mikowe ti lamo rigo, ti neko, tibulo abula ti chamo gi koro ma kotedi.</t>
+  </si>
+  <si>
+    <t>To ka chiemo mandelo ochiek ki kecho, i ndelo ma chowo Were ma Diodipo kod Were Othim, chiemo pa Mikowe itero wiryete no isa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meno nyutho ni ochak chwoyo, kendo i kwayo Were Othim okur chiemo mandelo maber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanyaka oro chako ki chwoyo kali, itero tongi gweno kende wiryete no dho oti pa Mikowe. </t>
+  </si>
+  <si>
+    <t>Aka wiryete no bende amigeto iye oti ri Mikowe jago pa Were no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowo pa Were Othim ma dwoŋ mere i chowo go isa yo thim wiryete.  </t>
+  </si>
+  <si>
+    <t>KULA MA NYWOMIROK</t>
+  </si>
+  <si>
+    <t>Yo Tewo Nyakiriga kis nono jo geto iye oti Bura pa jo, maka nono no okidho chowo, jo lamo iiye.</t>
+  </si>
+  <si>
+    <t>Aka toŋi man madwoŋ mi lwoŋo ni toŋi Bura bedo i oti minindo iiye, aka kiwodhi woko kichar</t>
+  </si>
+  <si>
+    <t>Ko tieko mako dhano, to jo Bura wad jo bino jo lamo rigo Bura; tigeto oti mere i diodipo, aka i oti no i ketho iiye toŋ bidhi kod ayiga midwoyo iiye koŋo mitero yo Nyakiriga.</t>
+  </si>
+  <si>
+    <t>Bura me mako amaka dhano pa twoo, ka wok kwom kwar mere kosa baa mere kachango bende chowo Bura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Rupir ni Bura me wendo aka konek rigo kende, Were ma pecho kod jwogi mere jo dhaw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kende yo pecho korin kineko gwendi ma Bura i neko kir ri Were ma Diodipo, Were Othim kod Jwogi gye ma pecho.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko dwok yo Nyakiriga aka nyaka yo pecho korin bende i neko gwendi ki lamo dho kwom oti Bura manitye pecho, aka koŋo bende ti madho.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mon kiyey jo donjo i Nyakiriga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwendi kosa gimoro muter i bula bula yo koro tichamo.  Mon kiyey jo donjo i Nyakiriga. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko tundi yo Nyakiriga i lunyere gi woko aki donjo i iye kinyoro aki chowo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Koŋo no itero kod wot gwendi, diegi kosa dhok, wok ti lim pa dhano; to kwon kosa mwenge pendi kosa kwete kiter, aka thach matiŋo koŋo kitim ma makola kwanyo woko ma lumi. </t>
+  </si>
+  <si>
+    <t>Indir ma chowo Bura, I dwoyo koŋo pecho, to miyatero yo Nyakiriga i dwoyo paka konon to dikin i tero rupir ni Bura kimadh koŋo ma kech madho ki bunde ayino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oti makite me bedo thenge man, aka Migami ma jwogi ma pecho bende bedo thenge man.</t>
+  </si>
+  <si>
+    <t>Pecho ma Bura ni iye i geto rigo oti milwoŋo ni oti Bura.</t>
+  </si>
+  <si>
+    <t>Nywomirok machon ma jodongo, chango nyiyach won kod Nyako jo kiwech ma nywomirok kwanyo woko bachere pa jo ama jo mako mere aka nyaka nyithindho pajo nywomere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwoŋ mere ni, yado ka dhano onywolo nyiyach dwaro ŋata bende nitye kod nyako to mako gine mere to jo chako wendirok madwoŋ ma chiemo, koŋo, mwenge kod gigipiny gye michamo. </t>
+  </si>
+  <si>
+    <t>Kajo yeyere to baa nyiyach tweyo i chingi nyako no atego, manyutho ni nyako no otiek mako.</t>
+  </si>
+  <si>
+    <t>Kendo ka baa nyiyach no nitye kod dhiaŋ to tero kano ri baa nyako.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka dhiaŋ no ko nywol yo koro amachomoro ti loko manywomo nyano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ka ongoye gi dhiaŋ to otieko mako mere oripo, to chako rango dhok, manywom gine ri wode.</t>
+  </si>
+  <si>
+    <t>Gigipiny me gye timere ka nyithindho fuod jothindho.</t>
+  </si>
+  <si>
+    <t>To ka nyiyach otieko dongo, ka romo oro apar ga boro kenyo aka nyako bende romo oro apar ga wichiel kadho malo; to baa nyiyach nyaka oro go ni kidh i wech kod nyar ŋadin ama wadimo rin.</t>
+  </si>
+  <si>
+    <t>Wok ndirino to nyiyach chako choko yach wad makidho konyo go gi kiyo nyako no yo kulo, kosa yo dimo yen kosa yo miel gimako tero pecho</t>
+  </si>
+  <si>
+    <t>To indir majo ŋolo iye nyako no aka jomaki, aka jobed gi silwany marach ma wutimin nyako no jo bed chiegin, gorok bedo madwoŋ tek tek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ka jo pa nyako jo kiyey ni oter nyamin jo.</t>
+  </si>
+  <si>
+    <t>To kada ameno nyiyach jo temo atema chuka jo limi nyako jo dok gine kosa jo lweny gi wutimin nyano to jo turo jo, to jo yombo jo gi nyako no</t>
+  </si>
+  <si>
+    <t>Ka nyako otiek dwoko gine, aka nyaka wach wok ni wod pa ŋatin “orendho nya pa ŋatin.”</t>
+  </si>
+  <si>
+    <t>To nyako no kichiem yo pa nyiyach no i hongo no kwanyo woko chiemo wok awoka yo thugin kosa yo pa wat pajo machiegin kod kenyo</t>
+  </si>
+  <si>
+    <t>To ndir megi nyako mamisen tieko kada ndelo kweth mako chiemo, ka chiemo kokel rigo wok thugin.</t>
+  </si>
+  <si>
+    <t>Meno bende apaka chango iŋeyo gine nyako m’owoor kosa ma k’owoor.</t>
+  </si>
+  <si>
+    <t>To rumachien mandelo adek kosa aryo tiketho nyako no i dho oti pa adhamere (me min nyiyach pere mu kelogo), ti tweyo rigo chip kod chieno ti wirogo kod mo ti kethogo i pyen dhiaŋ kosa pyen diel.</t>
+  </si>
+  <si>
+    <t>Kenyo to jo pa ywoche jo lielo wiye, ti ŋado lweti chinge kod lweti tiende.</t>
+  </si>
+  <si>
+    <t>Aka gigipiny no adhamere kano kuma diny swa.</t>
+  </si>
+  <si>
+    <t>Rumachien ma gigipiny me, yado bedo gi kula ni nyako kwale dok thugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To kareno gigipiny manywom bende jo dongo jo tieko yiko, gitero.  </t>
+  </si>
+  <si>
+    <t>Yado inywomo dhok abuŋwen kosa apar, diegi, toŋ, ŋet kwe, atego obad kod ganga adeya.</t>
+  </si>
+  <si>
+    <t>Rumachien kanyako otieko kwale odok, to nyiyach odoko kidho to jo liwo ma diryo gi mako dwoko gine</t>
+  </si>
+  <si>
+    <t>I hongo me aka nyaka nyamin nyako kod omin to jo bino</t>
+  </si>
+  <si>
+    <t>Aka nyaka adhamere tedo kafuta aka nyako no jo chiemo kod nyamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me amilwoŋo ni Nyutho nyako chiemo. </t>
+  </si>
+  <si>
+    <t>To ka fuod jo kochiemo nyamin no imiyogo diel aka omin imiyogo toŋ, aka nyako won imiyo atego ni malogo kod mayawo dhoke.</t>
+  </si>
+  <si>
+    <t>Wok ndirino to nyako chako chiemo yo pa chwoge no.</t>
+  </si>
+  <si>
+    <t>Ka gi me orumo, aka nyaka jo thugi nyako jo kelo chiemo iya tawo ga dita.</t>
+  </si>
+  <si>
+    <t>Chiemo me amilwoŋo ni “Dhoki Nyako.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To atawo kod adita no kidok gine i weyo ri adha nyako to kano kanyachiel gi ye wiye machango oliel kod lwete machango oŋad. </t>
+  </si>
+  <si>
+    <t>Gigipiny me ikano kuma diny tek tek, rupir ni ka chomoro nyako no omit eye pecho no, to adhamere moro gye mubed, to lamo nyako no gi gigipiny no; to nyako no bedo kod silwany marach kumu kidho iye, kosa dwoka adwoka ma kogalo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tedo Abor:  rumachien ma nywomirok me, baa nyiyach kidho to penjo baa nyako ni mito chiemo maluwo gine tiend dhok. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To baa nyako kwayo baa nyiyach dhiaŋ, to tero rigo.  </t>
+  </si>
+  <si>
+    <t>To baa nyako kwanyo dhiaŋ pere man to neko titedo chiemo madit swa, ti tiŋo iya agonini kweth ti tero yo pa nyiyach gin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwendi mere ki thum wich kosa tiende, itedo ateda ameno. </t>
+  </si>
+  <si>
+    <t>To ŋata otedo abor aka oŋondo lwet gwendi, odoko ripo aripa neko gweno man rumachien ma kwaŋo lwet gwendi no gi tero yo kuma chango oter ye abor no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhiaŋ no bende kiyaŋ yo eme i tweyo atweya gi wich kanya chiel titero, me aa atedo Abor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka jomo tiŋo chiemo abor ka jo tero jo wero ni, “Yido wiyuma Abor, Abor ti Orumo.”</t>
+  </si>
+  <si>
+    <t>KULA MA MINYUR</t>
+  </si>
+  <si>
+    <t>Aka kokel moko aka aditin obedo ŋanda mamoko ko poŋ ka nyath ma nyako i lwoŋo ni Nyaŋanda.</t>
+  </si>
+  <si>
+    <t>To nyath mu nywol aka jo thugi mini jo kokelo moko makite me, i chwoko nyinge ni Ongoye, ka nyiyach, kosa ni Angoye kosa Olore ka nyako.</t>
+  </si>
+  <si>
+    <t>Me amilwo?o ni tedo Apipili</t>
+  </si>
+  <si>
+    <t>Timo ameno kad dek kosa diŋwen.  Me amilwoŋo ni tedo Apipili.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka kenyo milem minyur wok kuni ka sedela gi tiende achiel ka wero ni, “Achamo, kwon Apipili, Achamo kwon Apipili, Achamo kwon Apipili, Apipili, Apipili” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka kenyo milem minyur wok kuni ka sedela gi tiende achie? ka wero ni, "Ac?a?o, kwon Apipili, Ac?a?o kwon Apipili, Ac?a?o kwon Apipili, Apipili, Apipili"</t>
+  </si>
+  <si>
+    <t>Ka chiemo ochiek minyur kod nyath jo bedo idhioti aka i kwanyo kwon tiketho iiye magira, tiketho iya lithikwon, ti ŋawo inyim dhioti</t>
+  </si>
+  <si>
+    <t>Adita moko achiel kidho pa Adha minyur, man ma oti pa minyur won, aka man amitedo ndirino.</t>
+  </si>
+  <si>
+    <t>Rumachien jo thugi nyako bende jo kelo moko koŋo, ŋori moŋaki ma magira, kod aditin moko mupoŋ adek aka kareno i kis adita nitye iye muma riŋo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Me amilwoŋo ni tedo minyur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Aka ndir no amitedo iye magira gi kwon ti chiemo kanyachiel.</t>
+  </si>
+  <si>
+    <t>Me amilwoŋo ni minyur owok.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indelo ma wok no adha minyur fwono boke akendo adek kosa aŋwen paka kweer nitye to donjo i diyo oti maminyur nitye iye, kareno minyur otiŋo nyath i chinge aka ochungo, to goyo madeko minyur didek kosa diŋwen to wodho go gi nyath woko i diodipo.  </t>
+  </si>
+  <si>
+    <t>Ka dhako onywol tieko ndelo adek kanyathi manyichwo to ka nyako tieko ndelo aŋwen, aka nyaka nyathi no i wodho woko.</t>
+  </si>
+  <si>
+    <t>To kula ma andiko ka ama temo pa riwo kis nono gye i tim mere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kis nono nitye kod kweer mamako kwom minyur, mu pokere opokere, paka atito iy’ Adech II, kwom kis nono.  </t>
+  </si>
+  <si>
+    <t>Amumiyo kotundo pecho no, bola bola athero kamoro paka dho oti kosa kwom dero, to kotundo iyo kosa pa jager to oro dhano kidho wacho ri jo pecho no ni ŋatin obayo riwin athero pa ŋadin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To katero athero me ripo kurirok swa, rupir ka wegi pecho muter iye, jo ŋeyo ni go otero athero jo nyalo goyo go tek tek swa, ni rupir otero rijo kayongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko nywol rut i timo athero aryo, ti miyo nyath okewo tero achiel yo p’omin baa wengi ma nono, aka achiel tero yo p’omini miniwengi ma nono. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nyithindho rut kod maluwo jo, kichwok jo nyingi jo ma jwok, kwanyo woko i kero akera jo ni jaryo, kendo ka fuod jo thindho ki lwoŋ jo ni nyath kwanyo woko i lwoŋo jo ni nyithdho kada nende bedi achiel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kodoko oluwo rut maraŋwen, ndirino i chwoko nyingi jo ma kis ndelo makiwene ma rut. </t>
+  </si>
+  <si>
+    <t>Ka rut onywolere mu luwere aluwa aryo aryo, nyingi jo i chwoko ama: aryo mu telo i chwoko Opio kod Odongo kosa Apio kod Adongo; aryo mudoko luwo, i chwoko Okello kod Omali/Omala kosa Akello kod Amali; aryo mu doko luwo, i chwoko Osinde kod Omita kosa Asinde kod Amita</t>
+  </si>
+  <si>
+    <t>Nyir mere bende i wiro nyingi jo ama: Apio, Adongo, Akello, Amali, Asinde kod Amita.</t>
+  </si>
+  <si>
+    <t>Joma luwo rut bende nyingi jo luwere ama, Okello, Omali kosa Omala, Osinde kod Omita</t>
+  </si>
+  <si>
+    <t>Rut nyingi jo kidho ama: kamachwo, mutelo i lwoŋo ni Opio, aka ma luwo Odongo.</t>
+  </si>
+  <si>
+    <t>Nyithindho rut, kod jo maluwo jo bende i lworo jo kendo ki luw kwom jo kichar kichar pecho no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jachwo mere i lwoŋo ni baa wengi aka dhako i lwoŋo ni mini wengi. </t>
+  </si>
+  <si>
+    <t>Wok chon i Padhola ji mu nywolo rut, ilworo jo swa kendo i ketho kwom jo dwoŋ</t>
+  </si>
+  <si>
+    <t>KULA MA RUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka kopen nywolo rut, kweer makite me ki tim atima swa kwanyowoko i timo ma rut ayino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwoŋ mere ni ka dhano otieko limo nyath ma nyiyach kod manyako to kweer me rumo. </t>
+  </si>
+  <si>
+    <t>Tim me itimo ri kis nyath manyiyach marapena kod ma nyako marapena kende.</t>
+  </si>
+  <si>
+    <t>KULA MA YIKIROK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Indir mayiko i menya menya bur gi mach, pa chik mere, to kareno bende piny kidho ka chol amumiyo mach mitere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baa wengi kod mini wengi, ka jo tho i yiko jo othieno swa kareno otiek neko rombo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo ka jo dongo, aka man tho, nyawote kinen bur pere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ka rut achiel otho kiywak ka man fuod nitye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Tho pa Rut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Me amakuro baa wengi, mini wengi kod nyithindho rut gye, rupir ka jo tho nyath rombo amineko i liend jo akiyiko jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Rombo, i oti rut ki eye mini rombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo pecho no rupir jo lwokere gi yath amumiyo buru no kiyuy jo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo buru mere nike kadhano ogeyo kosa onyono to chinge kosa tiende yure doŋ mu bokere abooka.</t>
+  </si>
+  <si>
+    <t>To lul no wok ndirino bedo kweer, ma kidonji iye kosa fur iye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To hongo ko tundo jayath bino kelo yath ywoyo iye, to jowo to tero i lul moro</t>
+  </si>
+  <si>
+    <t>Oti munywol iye rut, buru mere kosa yuk kijow, iweya weya dhure kenyo kada mak wikisuli oti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Buru Rut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ki yakedho oti rut, ja yath amabino ko tieko ywoyo yath, gi neko rombo aka i kedho oti no.</t>
+  </si>
+  <si>
+    <t>Jayath me amatero mini wengi yo thugin ka hongo otundo, kendo amatero go timo gigipiny gye ka hongo ma minyur orumo; paka fur, ku1o, tedo, dimoyen, kod rego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indir ko tiek yawo rut, ja yath i dhiro go kod kiwulo kwon aŋwen, degi riŋo aryo, degi gwendi aryo kod dak koŋo achiel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayath, ndir madit bedo dhako, go ama bino aka thumo peendi nyithindho aka ywoyo yath to rwako jo i oti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Indir madok pere i dhiro go kod kiwulo kwon gi gweno, kiwulo kwon gi riŋo kod ayiga koŋo.</t>
+  </si>
+  <si>
+    <t>Okewo muketh tich i rut kidok pecho pere, bedo kenyo tundo kuma jo rathere jo bino jo yawo rut.</t>
+  </si>
+  <si>
+    <t>Gigipiny madongo i rut:</t>
+  </si>
+  <si>
+    <t>Jo rathere jo bino kod aditin mudil iye kwoyo, nyingi kali, ŋor, duma, gi kite chiemo gye aka gigipiny me i chwadere gine ki mielo aka aditin mere bende i wile akidok gine.</t>
+  </si>
+  <si>
+    <t>Aka ma ji man jo kelo amichano kenyo: Rumachien ti neko nyath gweno ti bulo to ji gye chokere to jo kayo choko gweno no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka chiemo manende jo rathero jo kelo jo wile awila, to jo dok gine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka jaromin kwanyo go to wodho woko, ti wero wer nono ki mielo i thoko go aka igalagasa; ja nyamin bende timo ameno. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obedo gi kula ni ka jo rathere jo tundo jo nwaŋo, okewo mu keth kuro kenyo otimo kudho oŋono ochulo gine dhioti pa rut aka jo turo kudhin no gi mbaka aka jo donjo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indelo ma yawo ko tundo jo rathero jo tedo chiemo madit swa kod gigipiny majo neko to jo bino gine; kendo kis dhano mawat kenyo kosa ma mere kenyo, aka chiegin, gye tedo chiemo kelo indelo no.</t>
+  </si>
+  <si>
+    <t>Jo pecho pa baa wengi kod jo pecho pa mini wengi bende jo penjere paka jo tedi ma yawo rut</t>
+  </si>
+  <si>
+    <t>To ji machango obay ri jo athero ja ryo no, jo penjere paka jo tedi, kosa jo nek dhok kosa diegi, to jo yiko ndelo majokidh yawo rut no.</t>
+  </si>
+  <si>
+    <t>Me amilwoŋo ni wodho rut woko.</t>
+  </si>
+  <si>
+    <t>Ndelo no i tedo chiemo, to kima diti, ri ji mubino</t>
+  </si>
+  <si>
+    <t>Omin miniwengi, bende timo ameno indirino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rumachien mandelo adek, omin baa wengi bino to wodho go woko to ywayo go tero isa kareno ji jo galagasa kod wer gye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To ma dwoŋ mere i lielo wiy jo ma kaliel; aka mati me bende andelo miketho iye Misika paŋato, kwano gigipiny pere, chulo banjin pere gi pido jo manitye gi banjin pere, ko nwaŋo ŋato ja chwo majapecho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka ndelo no ama ji pa ŋato jo chokere tito gimokelo tho no. </t>
+  </si>
+  <si>
+    <t>Ndirino yado chon nwaŋo ni otiek kidho iiya jwoka openji gi muneko ŋato</t>
+  </si>
+  <si>
+    <t>Nen Adech II, Siro 1, jo dongo nono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rumachien mandelo adek kanyichwo kosa ndelo aŋwen ka dhako, bedo gi milwoŋo ni liedo kosa pido. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ri ameno tichako nindo woko kuro kaliel tundo indir mu nen ni dhano otieko topi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gime chango obedo rupir chango nitye jo jwogi kosa ogwange ma yado bino golo ŋato’tho.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ko tiek yiko dhano, ji pere jo nindo i diodipo wor ka jo kuro kaliel.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ki ketho dhano i bur wiye ŋiyo thenge ma wiy nono pa jo ŋiyo (nen Adech II) to jachwo kod nyath manyichwo i ketho jo gi ŋet jo, ka jo nindo gi ching jo marachuch, aka dhako kosa nyath manyako i ketho jo giŋet jo, aka jo nindo gi ching jo maracham.</t>
+  </si>
+  <si>
+    <t>Yado ja chandi i yiko i boke aka ja ŋaŋo i yiko i pyen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyen dhiaŋ kosa diel no bende i liro ye ti ketho i pal chunyi ŋato’tho akiyiko gine.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ki kidho yiko, dhako dwoŋ muti ama lwoko ŋato kod misumiya pendi, aka dhako no tero kiladuk ma dhiaŋ kosa diel mu nek i liend ŋato.</t>
+  </si>
+  <si>
+    <t>Ka ŋata dwoŋ amutho, i lwoŋo ja fumbo, tongol gi teke to jo bino jo goyo ti mielo ka fuod ŋato nitye idioti</t>
+  </si>
+  <si>
+    <t>Ka dhano otho, okewo bino to choko kasiki i diodipo to mooko mach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ti kadhano otho ŋata onwaŋo ama kunyo bur gi yiko, mungoye tito ni ja nono manyo ama yiko nono manyo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To indir me kula me ti ongoye. </t>
+  </si>
+  <si>
+    <t>Nono ma jo yikere i kite me ma jo Chiembi, jo kilimere ka jo twoo kwanyo woko ka jo tho aka jo bino yikirok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo me chango bedo nono man majo mako gi jo mere, ma yikirok, ma ka jotho jo nono no ama jo bino jo kunyo bur kod yiko jo. </t>
+  </si>
+  <si>
+    <t>Chango chon kis nono nitye kod jo milwoŋo jo ni jo Chiembi.</t>
+  </si>
+  <si>
+    <t>KULA MA KERIROK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendo, Okelo, igoyo i liend jo dongo kende makiwene nyithindho bende.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kula me gye mamako kwom yikirok, nonini megi timo ikite mu pokere opokere ye nyakamath, to kareno me apaka gigipiny mere gye luwere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Aka yawere mere ti neko dhiaŋ ni ri ŋata opunya go no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meno agike miel, Okelo. </t>
+  </si>
+  <si>
+    <t>Aka kidwoko wok isa ki woth iyombera ayomba.</t>
+  </si>
+  <si>
+    <t>Rumachien ma miel tek tek yo saa, ti kedhere i waŋ chieŋ maromo apar gachiel</t>
+  </si>
+  <si>
+    <t>Yo saa no i kidho kod nyath gweno ti neko i tyendi Okelo no ti bulo tichamo; me i lwoŋo ni gweno matheno Okelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya were mere ti medho, medho ma dwoŋ tek tek; aka waŋ chieŋ maromo abuŋwen, ti tero Okelo isa amigoyo iiye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Me andelo migoye iiye Okelo kod fumbo nindo woko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Koŋo me i tero paka apa jodongo machango jo tho pecho no chon.  Me andelo migoye iiye Okelo kod fumbo nindo woko.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kotiek dhiŋo matoke ti lwoŋo ja fumbo kod ja goy Okelo, to nyaka i madho koŋo taangaa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ka ndelo okadho achiel nyaka i dwoyo koŋo mathoth mere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotiek yiko matoke ma mwenge mere, aka onindo ndelo aryo i bur aka nyaka i dwoyo koŋo milwoŋo ni, taangaa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKELO, me timere rumachien ma oro adek tundo apar. </t>
+  </si>
+  <si>
+    <t>Indir madit i hongo me, ama kaŋata otho obedo ja chwo ak’oweyo dhako kosa mon, dhako no dimo ywore mukur go; i lwoŋo ni mako chingi ŋata go okure gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medho me i chako medho othieno tinindo woko, yawere mere i dok madho mu diochieŋ, aka yawere man mere aka i mondo kedho oti, aka nyaka itedo chiemo gi neko gigipiny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me bedo pa kalima madwoŋ swa; inyalo neko dhiaŋ kosa diel ti dwooyo medho madit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ka oro okadho achiel tundo iyadek, i chieko medho man milwoŋo ni ma kedho oti. </t>
+  </si>
+  <si>
+    <t>Ndirino kotiek math no ti chwinyo masanja machango inindo iiye woko, kareno ochok gye kanyachiel.</t>
+  </si>
+  <si>
+    <t>Ka ndelo odoko oromo pieraryo ga chiel, chuka ŋato tho i dok chieko medho man mi lwoŋo ni ma masanja</t>
+  </si>
+  <si>
+    <t>Aka kotiek madho, tineko mach ma diodipo makidok mok.</t>
+  </si>
+  <si>
+    <t>Ka ndelo okadho maromo apar gaŋwen i chieko mwenge kosa koŋo milwoŋo ni ma kasiki.</t>
+  </si>
+  <si>
+    <t>KULA M' AKISILI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ker pa Chwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ker pa mon</t>
+  </si>
+  <si>
+    <t>Dhako munywolo rut</t>
+  </si>
+  <si>
+    <t>Mini wengi kosa min jaryo</t>
+  </si>
+  <si>
+    <t>Nyichwo munywolo rut</t>
+  </si>
+  <si>
+    <t>Baa wengi kosa baa jaryo</t>
+  </si>
+  <si>
+    <t>Ri nyingi rut nen adech III</t>
+  </si>
+  <si>
+    <t>Me apaka ikero rut machwo kod mamoni  gye kod ji maluwo rut gye.</t>
+  </si>
+  <si>
+    <t>Wengi kosa jaryo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ker ma rut</t>
+  </si>
+  <si>
+    <t>Kendo nyingijo megi bende ongoye kod ker, aka ker megi riwo nyingijo mu more omore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyingijo megi ma nya nono kosa ma jwok ma pecho ongoye kod ker mere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranyuth ma kerirok manitye ka oruwere aruwa mungoye tito ni me ma yo Mawele kosa me ma yo Luli. </t>
+  </si>
+  <si>
+    <t>Ker ma pa jo Luli kod jo Mawele yado megi opokere to kareno pokirok mere bedo ri wach achiel achiel, kosa wiro nyingijo nwaŋo man mikero kite man aka man bende i kero i kite man.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gima dwoŋ, kerirok nyutho mitirok kod miyirok dwoŋ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka nyir kod yach bende jo kerere ka jo mitere.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka chwo jo asa kero gine mon pajo ma jo asa mito. </t>
+  </si>
+  <si>
+    <t>Moni ndirino jo asa kero gine ywoch jo</t>
+  </si>
+  <si>
+    <t>Jo Padhola yado jo nitye kod kula makero gine dhano; dwoŋ mere ni miyo dhano dwoŋ gi nyingi jo man weyo nyinge ma kis ndelo i lwoŋo gine.</t>
+  </si>
+  <si>
+    <t>To ŋata luth oniaŋ kwome i wiro go gi woyo dhiaŋ to chango achanga swa makudoko otwo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chwadirok me chako wok waŋ chieŋ maromo aboro kosa abuŋwen tundo apar kosa apar ga chiel; aka ka ji ooli ja dwoŋ achiel bino to poko jo ti, weyo chwadirok ti bolo powin no kanya chiel ti dok. </t>
+  </si>
+  <si>
+    <t>To konen dhano mulachere swa ka mon jo bino jo podho kwome ti weyo ŋato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ichwadere achwada swa, swa, ma ji man jo nyalo tho kir gi tho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kada nende i chwadere ameno ki dhaw kosa mako ŋonge. </t>
+  </si>
+  <si>
+    <t>To gima wok iye thenge aryo no gye to jo ay jo chako chwadirok gi powo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ka jo gye jo tieko chokirok kenyo, to dhano achiel wok yo thende pa jor’Akisili kidho omo iyi yach, aka thenge pa yach bende bino omo iyi jor’Akisili. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kada nende ameno yach me ki kwan jo ni bende jor’Akisili. </t>
+  </si>
+  <si>
+    <t>Iy’abaar no yach mamiworo bende to jo bino gi powin; aka jo no ama jo chwadere gi jor’Akisili.</t>
+  </si>
+  <si>
+    <t>I ndelo ma kisili kis ja kisili timo powin aryo aryo to jo kidho gine iy’abaar miya kisila iye gi mon pajo gi jagin pajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jago kosa jagin me jo nyalo bedo majo nono pere kosa majo nono man.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ndirino ŋato dimo jagin paka welo pa mon pere nitye aka jono ama jo tiyo rijo tich gye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ŋata odim kisila wok i hongo no, go gi dhako pere kosa moni pere jo kidok jo tiyi tich moro gye paka fur, tedo, kwath, kosa dwar, kwanyowoko ki waya awaya kod chiemo achiema kende. </t>
+  </si>
+  <si>
+    <t>Ka oro m’Akisili otundo jo dongo m’Akisili jo chokere to jo dimo miworo majo ya kisila; aka kis adech pinyi dimo ja dwoŋ ma yachoko wadi; to jo yiko ndelo kod ka bedo miya kisila iye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Akisili chango i tero pa gi madwoŋ swa kendo ŋata osila i lworo go tek tek kendo i ketho kwome dwoŋ kis kuma okidho iye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ŋata odim kisila ri nyawote i kite me amanyalo kisila diryo i kwo pere; i hongo pere won kod i hongo mu dim iye go kisila ri dhano mani no.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kwanyo woko ka dhano onwaŋo hongo pere otundo ma kisila to ŋato tho kosa twoo, kenyo jo dongo Akisili jo dimo wode kosa omin to sila rigo i kabedo pere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akisili yado bedo kis ka oro okadho aryo, aka ŋata otieko kisila kidok sila madiryo, dwoŋ mere ni dhano sila dichiel kende i kwo pere. </t>
+  </si>
+  <si>
+    <t>Akisili dwoŋ mere ni tuko gala makisangala mategino, mapa jo moneno nyikway jo; kendo manyutho ni jo no jo misen majo nyalo lweny ri piny pa jo mungoye lworo tho kada di chiel.</t>
+  </si>
+  <si>
+    <t>Yach ma jo nenere ni jo nyalo chielo ondega kod goyo abilo maber, meno amichako nyiewo rijo bidhi kod tonge ma lweny kosa ma dwar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedo jodongo ma jo kidho kod jo, ma jo fuonjo jo kod thumo piem no.  </t>
+  </si>
+  <si>
+    <t>Koro ama yach ma loka man jo romo iye kod yach ma loka man aka jo tuko i kite ma piem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka i tuko yo sa iya’baar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuko aryo me gye chango i timo rumachien ma fwono ŋor dwoŋ mere pama dinyo water ni idwe ma October tundo February ka piny othwo. </t>
+  </si>
+  <si>
+    <t>Chielo Ondega kod Goyo Abilo me chango obedo tuko ma fuonjo gine yach manyaka jo ayi, ndijo ma lweny, dwar kod kuro jo kwor.</t>
+  </si>
+  <si>
+    <t>KULA MA CHIELO ONDEGA KOD GOYO ABILO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka jumosila won bende jo bedo mere madwoŋ ma tundo tho; kis gimoro paka dwar kod lweny, gye jo bedo i kitipa achiel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendo jago kod rwoth pere jo kidhaw tundo tho, rupir ni ka ŋat man odhaw gi nyawote to ŋat man no tho. </t>
+  </si>
+  <si>
+    <t>Aka kada nende chango jago no ko bedo wat makenyo bedo abeda pa nyath ma oti, mudoko ki nywom nyako makenyo</t>
+  </si>
+  <si>
+    <t>To wok hongo no tundo tho jo bedo mere madwoŋ pecho no.</t>
+  </si>
+  <si>
+    <t>Bedo jago me rumo ka tich m’Akisili orumo</t>
+  </si>
+  <si>
+    <t>Kariŋo othwo aka jo kelo bothi rwoth pajo to nyaka miyo jo riŋo megi, to mudoŋ to won chamo.</t>
+  </si>
+  <si>
+    <t>Aka jago kosa jagin pere ama jo tero kidho tholo riŋo no gye, mu ngoye rwenyo kada muma achiel; ma korwenyo kada muma achiel jagin no jo chulo achula dhiaŋ.</t>
+  </si>
+  <si>
+    <t>To kis ŋata osila gye dok kod eme aryo ma dhiaŋ pere.</t>
+  </si>
+  <si>
+    <t>Dhok me i chielo achiela, aka nyaka i yaŋo, ti chamo gi sa koro, jo musila gye kanya chiel gi jo nonini pajo gi ji pajo.</t>
+  </si>
+  <si>
+    <t>dwoŋ mere ni ŋata osila won, ki wodh dhiaŋ pere won.</t>
+  </si>
+  <si>
+    <t>Aka kis ŋata osila tero thwon (mirikwa kiter), m’omin amuwodho rigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rumachien ma ndelo maromo apar ga ŋwen, ji musila gye odoko jo chokere isa iy’abaar machango jo chwadere iye gi powo. </t>
+  </si>
+  <si>
+    <t>Kis pala mathumo gi moro gye, kod tonge ma lweny kod ma dwar gye i pako i tele no.</t>
+  </si>
+  <si>
+    <t>Migami me bedo ma kis pecho aka i migami ma dwoŋ apa kwar jo ama bedo iye tele no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jadwoŋ no bedo kod gwara, aka kiya kidho lweny kosa dwar to goyo gwara, to mon ma iyadech no jo chako tedo piyo piyo ri chwogijo majo kidho lweny; aka jo lweny bende to jo wodho tonge to jo pako i witele miketho yo migami, (nen Adech III, Siro 2 (ii   </t>
+  </si>
+  <si>
+    <t>Lweny: Chango kis adech bedo kod jadwoŋ mere matelo jo i lweny.</t>
+  </si>
+  <si>
+    <t>KULA MA LWENY KOD DWAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuko me chale kod apa Wasungu milwoŋo ni, Hockey. </t>
+  </si>
+  <si>
+    <t>I tuko me jo loka man kod jo loka man jo laro abilo no ka jo goyo gi 1udhe, aka loka mu laro aka jo tero yo thenge ma pajo loka man, meno ama jo loyo.</t>
+  </si>
+  <si>
+    <t>I goyo kod yath bende ma bor ye mu pay moŋinere, ma chale kod luth abiro ma dwoŋ.</t>
+  </si>
+  <si>
+    <t>Abilo bedo yath matek, mu pay mu ŋini aka romi mere bedo mu ripo oripo ye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Goyo Abilo</t>
+  </si>
+  <si>
+    <t>Tuko me yado fuonjo jo chielo gimoro gi toŋ kosa bidhi kada gino onwaŋo nitye bor kosa onwaŋo ringo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo loka ma jo asa chielo ondega meno amajo loyo.</t>
+  </si>
+  <si>
+    <t>Aka jadwoŋ mu tiŋo ondega bedo yo waŋ jo bor bor ye to dwiro ondega; aka nyaka kis nyiyach i weso pere bayo thiri pere chielo ondega mu dwir no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yach ma jo kidho chielo jo chanere yo thenge achiel kareno kis ŋata chiel nitye kod thiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondega bedo yath mudoli aka omin pa thach malach paka ma chueyo gine peendi dero. </t>
+  </si>
+  <si>
+    <t>Chielo Ondega</t>
+  </si>
+  <si>
+    <t>Janek i dwar gye, kodok gi migewo pere, ka fuod kochamo thumo riŋo mathin to tero yo migam to lamo ri Were gi Jwogi gye mumiyo go silwany mago onyalo gine kelo Kirembe pecho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka konek ogwaŋ no i luwo aluwa gine go yo pecho pere akipoko; rupir ndirino bedo ogwaŋ pere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ka lee mukidh dwaro no obedo ma dwoŋ paka kwach kosa Jow, ŋata open chwowo doka doka pecho pere kidok bed kenyo. </t>
+  </si>
+  <si>
+    <t>To ka obedo nek ma bwo ongoye iiye, dwoŋ mere ni makochik bwo, ja pen chwowo milwoŋo ni janek tero eme aryo, pien gi wich aka ja chwowo mararyo milwoŋo ni ja nwoyo tero bati achiel aka bati man kod ŋet i poko jo man gye majo bino idwar no.</t>
+  </si>
+  <si>
+    <t>Ko nek lee no, jowaheyi jo tero bati gi ŋet; ja nwoch tero bat achiel kende; aka won bwo amatero i kabedo pa ja nek, tero eme aryo pien gi wich.</t>
+  </si>
+  <si>
+    <t>jo nwoyo rupir me i kwano paka nek pa bwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka jo man jo doŋ kuro bwo ma kati lee otund’iye to jo nwoyo , jo me i lwoŋo jo ni jo walindi.</t>
+  </si>
+  <si>
+    <t>Kotundi isa ti yaro kosa ichiko bwo, ti pokere kadiryo, jo man jo kidho teŋo ku manende lee no kosa ogwaŋ no ni iye gi leko obin i bwo jono ilwoŋo jo ni jowaheyi</t>
+  </si>
+  <si>
+    <t>To kis dwar gye i ripo woth kod tonge kwoot gi bwo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwara no kosa sosi bende kikidh gine yo dwar.  </t>
+  </si>
+  <si>
+    <t>Koyik kidho dwar ŋata chiel bende, maja tel milwoŋo ni ja Kituka dwar, amagoyo gwara kosa sosi; man manyutho pako tonge giketho dhomigam kod chiemo, aka man manyutho kadho kumikidho iye dwar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwar: kula ma dwar joboth jorom gi ku1a ma lweny. </t>
+  </si>
+  <si>
+    <t>Nyithindho yado kituk kwom jo; kendo jo kinen nyathi ma nyaka onywol, kajo neno to nyathi no tho kosa two tek tek.</t>
+  </si>
+  <si>
+    <t>Jomo gwere kosa jomo madho yath lweny yado i lworo jo swa, kendo i ketho kwom jo dwoŋ madit.</t>
+  </si>
+  <si>
+    <t>Rupir yado kadhano oneko ji yo lweny dwoko gwere gi yath, aka gwer madit ma kite no nyutho ni ŋato ti oneko ji madit swa yo lweny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ŋata olwenyo tek tek chango i neno ri gwer pere, i dioŋeye gipi i ŋete gipi, bade gye kod iiye.</t>
+  </si>
+  <si>
+    <t>Mararyo, chango wok kwom yen ma lweny machango jo gwere gine, jo kudhere gine, odoko jo madho.</t>
+  </si>
+  <si>
+    <t>Nenere ni miseni kod turo lweny me chango bino ri gigipiny aryo; marapena ri chowo were pajo, kis ka jo kidho lweny jo ripo chowo Were kod lamirok i migam, kendo kis ka jo turo lweny kosa jo yaka gi moro jo ripo chowo ki fuoyo Were, gi lamo gigipiny mu yaka no i migam ka fuod kocham gino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo Padhola chango jo misen tek tek i wach ma lweny, amumiyo lweny madit gye chango jo turo (nen Adech I, Siro 2). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka ŋata omak yo lweny i lwoŋo ni Otoŋ, dwoŋ mere ni tonge amo’kelo go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giranena, ŋata oyaka le i lwoŋo Ayepa, gweno i lwoŋo Ikoro, rombo i lwoŋo Adusa, dhiaŋ omuye ilwoŋo ni Imuye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yado ŋata oyaka gi moro yo lweny paka, dhiaŋ, diel, rombo, gwendi, i chwoko nyinge ma pako go ki chungo kwom gino kod chalirok ma del mere. </t>
+  </si>
+  <si>
+    <t>Ka jo turo lweny, aka jo yaka gigipiny koro, kis nono dwoko kawero wer kirembe pajo; to ka otur jo i dwoko adwoka aked aked mu liŋ aliŋa; aka ka ji pajo onek i dwoko mi wero wer tho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wok iy’abaar muchokere iye, jo lweny jo wok iye gi ŋwech kidho kuma lweny nitye iye, kareno ji jo tieko chokiroki madit, wok ithenge gye gye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka jadwoŋ lweny kotieko goyo gwara ma choko ji, to chulo dhok gwara no to bolo yo tie1o yo tiend kitanda; rupir gwara no kikidh gine yo lweny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gwara odoko ywak ma nyutho chokirok me. </t>
+  </si>
+  <si>
+    <t>Kowok chiemo ti kwanyo tonge gi kwoot ti kadho akadha yo iiy’abaar kuma jadwoŋ lweny oyiko chokirok iiye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotiek pako tonge tichomo romigam, tikidho chiemo.  </t>
+  </si>
+  <si>
     <r>
-      <t>K</t>
+      <t xml:space="preserve">Aka tuko me chale kod apa Wasungu milwoŋo ni, </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <i/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>UNU</t>
+      <t>Javelin</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> pajo nitye Maundo wi tele milwoŋo ni “Tawo Jwok.”</t>
+      <t>.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Aka ama yado fuonjo yach goyo ludhe.</t>
+  </si>
+  <si>
+    <t>KUNU pajo nitye Maundo wi tele milwoŋo ni “Tawo Jwok.”</t>
   </si>
   <si>
     <r>
@@ -2645,7 +4446,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -2655,7 +4456,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -2665,1216 +4466,20 @@
     </r>
   </si>
   <si>
-    <t>Aka jo Nyapolo madit man jo nitye yo Gombila ma Kwapa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To wok indirino nyikway jalo pama ilwoŋo jo ni jo pa Masar, to kareno jo kinono man kendo fuod jo kolimo pokirok apoka swa malimo chako nono man ni wajo “Nyapolo pa Masar.”  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  To go pokere to kun, to kidho yo Nyawiyoga.  </t>
-  </si>
-  <si>
-    <t>Jo pa Masar me jo nono Nyapolo Ogule aka baa jo machango ilwoŋo ni Masar, olimo dhaw moro kod wutumin go jo pa Ogule.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To riwach dhaw dhaw amumiyo jo chako tuk joman jo kun wiloka paka jomiwacho jo ni jo pa Masar, me kinono anona man manyikway Adhola.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyapolo gye chango jo chako bedo Katandi kuma chango onywol iye kwar jo, kod yo Senda. </t>
-  </si>
-  <si>
-    <t>To ja dek me jo Ranga, Oligo, Nyafuondo jo kinywomere kendo jo nono achiel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jo pa Ogule jo nywomo jo pa Ranga, Oligo kod Nyafuondo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nywomirok ochako i ndir ma Oloo Majanga dhumo (nen Adech I, Siro 5), tundo kiri pama.   </t>
-  </si>
-  <si>
-    <t>Kada jo pokere jo konywomere piyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyapolo wod pa Adhola onywolo yach aŋwen, nyathi makayo pere ochwoko go ni Ranga (Rwoth), nyath mararyo Ogule (chango omiyogo migosi madwoŋ to chako noro kod gulirok gye to wad Chwoko ni Ogule), maradek Oligo, aka maraŋwen Nyafuondo.  </t>
-  </si>
-  <si>
-    <t>Aka nyingi jo mati jo chwoko ame:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jo wacho ameno ka jopoyo gine Luli tworo machango diti yo Katandi machango onywolijo iiye.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nono me nyingi jo man jo wacho ni “Wa jo Nyapolo wa jo Luli tworo.”  </t>
-  </si>
-  <si>
-    <t>Nyapolo Orangi, Oligo kod Nyafuondo</t>
-  </si>
-  <si>
-    <t>Jo yikere wiyi jo ŋiyo kuma waŋ chieŋ podho iye .</t>
-  </si>
-  <si>
-    <t>Minyur kiyik mach, kendo go kod nyath jonindo iboke pendi nyarwanda.</t>
-  </si>
-  <si>
-    <t>Ŋata Bura omako kicham rombo i oti Nyapolo gye.</t>
-  </si>
-  <si>
-    <t>Kweer pajo (nono Nyapolo jonok kod kweer):</t>
-  </si>
-  <si>
-    <t>Ranga,	Nyafuondo,	Jabuka,	Aripa,	Nyakur</t>
-  </si>
-  <si>
-    <t>Adhola,	Oligo,	Oywelowo,	Jewo,	Keta,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ti chako wer Aremo.</t>
-  </si>
-  <si>
-    <t>To mon chako ywak, ni opoy Nyapolo won otundo, to Nyapolo gut swa riwach pa Aremo.</t>
-  </si>
-  <si>
-    <t>Wer me ochako ama: Chango munyo okidh lweny to jalimoro milwoŋo ni Aremo olworo lweny to ringo dwoko wacho rijo pecho ni oweyo igoyo Nyapolo swa miti ti kodwok</t>
-  </si>
-  <si>
-    <t>Diyoŋeye halo magambala.</t>
-  </si>
-  <si>
-    <t>Chieŋ olyel ri Aremo Diyoŋeye</t>
-  </si>
-  <si>
-    <t>Nyapolo Nyaka dwoko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyapolo Dwok mogut </t>
-  </si>
-  <si>
-    <t>Jalul Tworo ti kodwok</t>
-  </si>
-  <si>
-    <t>Oŋolan ga dita kodhi</t>
-  </si>
-  <si>
-    <t>Oŋolan indelo Nyapolo</t>
-  </si>
-  <si>
-    <t>KUNU pajo nitye yo Katandi milwoŋ ni “ODI MIEL,” manago lul kod telin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tich machango jo asa ŋeyere iiye: lweny, dwar kod goyo bunde.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadwoŋ nono marapena chango oketh i oro 1945.  </t>
-  </si>
-  <si>
-    <t>Olinda ngwe e e e Lweny Kanyinga waneko wadwoko wajo Nyapolo wak poti wakilwor, wajo Nyapolo kichim wan, kichimijo.</t>
-  </si>
-  <si>
-    <t>Jo Nyapolo kabul oywak ŋata oyworin nyath achiel.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E e e Kabul oywak tinditindi </t>
-  </si>
-  <si>
-    <t>Nyath achiel kidhano.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E e e nyath achiel kidhano andha.  </t>
-  </si>
-  <si>
-    <t>O o o mon nywolo jogero, mon nywolo jokisinye</t>
-  </si>
-  <si>
-    <t>E e e waliŋaliŋa ri banja, Nyapolo ni banja,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyapolo kipenji ti nwaŋo. </t>
-  </si>
-  <si>
-    <t>Eee wajo Nyapolo wak ran.</t>
-  </si>
-  <si>
-    <t>KUNU pajo achiel kod ma pa jo Nyapolo man, nitye yo Katandi ilwoŋo ni “ODI MIEL” manago lul kod telin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aka tich machango jo asa ŋeyirok iiye: lweny, dwar, chowo Bura kod migimba koth.  </t>
-  </si>
-  <si>
-    <t>Jadwoŋ   nono marapena chango oketh i oro 1941</t>
-  </si>
-  <si>
-    <t>Alinda ngwe kachiŋa.</t>
-  </si>
-  <si>
-    <t>Banja mawan no Koran.</t>
-  </si>
-  <si>
-    <t>E e e Wajo Nyapolo wakiran</t>
-  </si>
-  <si>
-    <t>Jo yikere wiy jo ŋiyo kuma waŋ chieŋ podho iye (west).</t>
-  </si>
-  <si>
-    <t>Minyur kiyik mach, kendo go kod nyath jonindo i boke pendi nyarwanda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jo pakere ni “Wa jo Nyapolo wa jo po Ogule.”  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I nono Nyapolo, Ogule nitye kende, aka jo nywomere kod Nyapolo man. </t>
-  </si>
-  <si>
-    <t>Nyapolo Ogule</t>
-  </si>
-  <si>
-    <t>NONO J'ODE</t>
-  </si>
-  <si>
-    <t>KUNU pajo, man nitye Maundo, aka man nitye Nyamalogo witele milwoŋo ni Wiyadundo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tich machango jo asa ŋeyere iiye: lweny, goyo tongol gi fumbo kod ndijo ma theth atego kod tonge!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadwoŋ nono marapena odimi i oro Novemba 26, 1933.  </t>
-  </si>
-  <si>
-    <t>Wok ndirino to gime lokere wer nono.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obedo ndir achiel jo Sewe jobino to jo yaka dhiaŋ pa japa Nyirenja yo Maundo to romachien to dhako mawon pecho no dwoko to uro ni “I i i, a a a! anen! anen win jo Paliwa, jo Maundo me paka jo weyo dhiaŋ osira malo okadho gi chak makonyiedh kada anyiedha, pa chwo ongoye pecho me manende jo ki lweny ye kada alwenya!”  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wer me obedo ‘abwon’; </t>
-  </si>
-  <si>
-    <t>dhiaŋ osira malo pa chwo ongoye!</t>
-  </si>
-  <si>
-    <t>E e e chak chiewo, wajo Maundo muweyo</t>
-  </si>
-  <si>
-    <t>Jo yikere wiy jo ŋiyo kuma waŋ chieŋ podho iiye (west).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kendo ka ja Paliwa otho kinyiedh dhok mapecho no kafuod koyik ŋato iweyo dhok dhothadhotha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ka dhako onywol ikuth ikiro chak ma chiewo i kanindo kod bothi minyur ginyathi akanyaka jo nindo i ka nindo no kosa nyathi no dhoth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To pama chak ma chiewo bedo kweer madwoŋ swa ri jo Paliwa.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To dhiaŋ pa baa mere milwoŋo ni “Oliwa” amopidho go gichak ma chiewo tundo kuma Kasewe opoŋ to bende nywomo.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gime obino ama, Nyirenja kod dhako pere gye jotho joweyo Kasewe ikich madwoŋ. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jopaliwa jongoye gi kweer man gye kwanyowoko “chak ma chiewo.” </t>
-  </si>
-  <si>
-    <t>Onoŋor,Ojaga.</t>
-  </si>
-  <si>
-    <t>Sikola,Omwona,Omana,Sele,Aluka,</t>
-  </si>
-  <si>
-    <t>Alyew,Oguwa,Nyonyi,Jambaka,Ogweyo,</t>
-  </si>
-  <si>
-    <t>Kole,Oda,Olando,Opiti,Ombigo,</t>
-  </si>
-  <si>
-    <t>Olero,Idoli,Asii,Obuŋa,Ngira,</t>
-  </si>
-  <si>
-    <t>Jadyewa,Manyinge,Aŋopa,Ote,Ofumbi,</t>
-  </si>
-  <si>
-    <t>Malilo,Omubala,Ogen,Machar,Okimen,</t>
-  </si>
-  <si>
-    <t>Wesen,Obedo,Jachieni,Malala,Okwer,</t>
-  </si>
-  <si>
-    <t>Onyay,Odugo,Otwey,Adito,Siya,</t>
-  </si>
-  <si>
-    <t>Orupe,Kedi,Onwaŋo,Oyeyo,Oguŋ,</t>
-  </si>
-  <si>
-    <t>Omuya,Alecho,(Olengo),Olenge,Didworo,</t>
-  </si>
-  <si>
-    <t>Adipa,Kaburu,Kalengere,Ono,Wagondi,</t>
-  </si>
-  <si>
-    <t>Arucha,Laro,Otiti,Osyaga,Ondowa,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To pama jonwaŋere ikis adech ma Padhola. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabedo pajo marapena obedo Maundo kod Nyamalogo.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aka yach me amunywolo nono Nyirenja ma pama nitye.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Aka Nyirenja onywolo wode milwoŋo ni Kasewe, to Kasewe kod dhako pere milwoŋo ni Nyamichala to jo nywolo yach abiriyo me: Waseni, Arucha, Adipa, Omuya, Orupe, Onyay kod Onoŋor.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nywolirok pajo achako kwoŋ Adhola, munywolo nyath pere milwoŋo ni Nyirenja. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jo nitye nono achiel kende ma kopokere diere.  </t>
-  </si>
-  <si>
-    <t>Jo pa Nyirenja nyingi jo man jowacho ni "wa jo Paliwa Chak chiemo"</t>
-  </si>
-  <si>
-    <t>NONO NYIRENJA</t>
-  </si>
-  <si>
-    <t>Nono Ojilai opokere kad ryo: Ojilai Dibworo p'Arak kod Ojilai Dibworo pa Kwom</t>
-  </si>
-  <si>
-    <t>NONO OJILAI</t>
-  </si>
-  <si>
-    <t>KUNU pajo nitye wi tele ma Mwelo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tich machango jo asa ŋeyere iiye: lweny, kwath, miel kod dwar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadwoŋ nono marapena chango odini ioro 1953.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dwoŋ mere ni jo ripo tho rigin jo eye i piny me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jo wacho ni bedo i piny Padhola tek, nen paka lyech onekojo, ni jo ripo dok Ode pajo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wer me gye jo chwoko munyo lyech otyeko neko jo.  </t>
-  </si>
-  <si>
-    <t>Chuka chiene waji, Chuka chiene waji.</t>
-  </si>
-  <si>
-    <t>Mbuluku Omwa Mwelo.”</t>
-  </si>
-  <si>
-    <t>Bedo i piny Padhola tek wanodok Ode wan,</t>
-  </si>
-  <si>
-    <t>Mbuluku Omwa Mwelo.</t>
-  </si>
-  <si>
-    <t>Mbuluku, Mbuluku Omwa Mwelo</t>
-  </si>
-  <si>
-    <t>Wer pa jo majo wero:</t>
-  </si>
-  <si>
-    <t>Jo yikere wiyi jo ŋiyo kuma waŋ chieŋ podho iye (west).</t>
-  </si>
-  <si>
-    <t>Minyur kod nyathi jonindo i boke pendi nyarwanda.</t>
-  </si>
-  <si>
-    <t>Minyur chiemo ikor pendi kendo kwon kosa nyuka iguro gi yath makudho Alwi.</t>
-  </si>
-  <si>
-    <t>Minyur kicham kwon kal muchiel, tundo kuma wok iiye.</t>
-  </si>
-  <si>
-    <t>Jo kited kod Akibuk, kigo dhok, asati mar’adita kosa asati mar’odher kosa kasegere dero.</t>
-  </si>
-  <si>
-    <t>Kweer pa jo madwoŋ, Mbuluku kod lyech, ka j’Ade twoo kosa otho Mbuluku bina bina pecho no to bende chako ywak.</t>
-  </si>
-  <si>
-    <t>wa golo,	Onyoko,	Oriŋo,	Oluki</t>
-  </si>
-  <si>
-    <t>Ogwa ,	Owora,	Omonya,	Kamura,	Obedo,</t>
-  </si>
-  <si>
-    <t>Ogol,	Ndira,	wa ya,	Ogola,	Kayala,</t>
-  </si>
-  <si>
-    <t>Maala,	odoŋ,	Mbedi,	Omŋeyo,	Opilo,</t>
-  </si>
-  <si>
-    <t>Omwolo,	Oyo,	Sekiro,	Anial,	Oŋaŋo,</t>
-  </si>
-  <si>
-    <t>Luge,	Kaunye,	Anieye,	Akanyi,	Obanja,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kareno joŋeyo ni ji kende ama jonyalo bedo mager; nikere manago nende omini jo amonwaŋo joyaneko ni lee.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To jo modoŋ to jo loko lyech kweer pa jo; kajo wacho ni kere lyeech bende chuka chiene ji aka lworo tich amumiyo jo lokere lyeech.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wok ndirino to lyech koch kichutho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ape! kere jo kwinyo kuma pino ogeto iye: to lyech ere gi jo to neko jo pa nyithindi gwendi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amumiyo ndir achiel to jo chokere ni jo onek thwon ma nono.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munyo lyech opoŋ to lokere mager ka mito ni onek jo, kendo won bin chodo uno to kidho chiemo kende. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ka akuma jo nwaŋo iiye nyathi lyech to jo lwoŋo ni nyathi dhiaŋ, to jo mako jo pidho.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">J’Ode j’ochako bedo yo Nagongera bothi Adhola to munyo joneno ni joromo aka onyo dudi nok ma fur to jo tuk yo Mwelo, i tyend tele ma Mwelo. </t>
-  </si>
-  <si>
-    <t>Nyingi jo man jowacho ni “Wa j’Ode wa jo Mbuluku.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ode chango wod p’Adhola, aka go onywolo yach aŋwen: Luge, Wangolo, Owora kod Warya; aka yach me ama jonywolo nono Ode ma pama nitye.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Olwoŋ jo ni J’Ode rukwom baa jo manywolo jo chango ilwoŋo ni Ode.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">J’Ode jonitye nono achiel kende jo kopokere. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">halo magambala </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PUKU PUKU AREMO</t>
-    </r>
-  </si>
-  <si>
-    <t>Chuka chiene waji walworo tich walokere lyeech.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ojilai Dibworo pa Kwom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  KUNU pajo, madwoŋ mere nitye Nyamalogo wi tele milwoŋo ni Mawele, aka mathi mere nitye Migana, manago obedo lul.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tich machango jo asa ŋeyere iiye: lweny, dwar kod goyo bunde.  </t>
-  </si>
-  <si>
-    <t>Jadwoŋ nono marapena chango oketh i oro 1933</t>
-  </si>
-  <si>
-    <t>Wajo p’Arak wajo cham ji nyaka wadwoko.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jo cham ji bino wajo p’Ocham dhano </t>
-  </si>
-  <si>
-    <t>Cham dhano wajo pa Dibworo wachamo moro,</t>
-  </si>
-  <si>
-    <t>dwar kosa timo gimoro gye ma nyutho misen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wer me a wer ma Kirembe madwoŋ swa i p’Adhola; amumiyo kis nono wero ka jowok lweny, kosa </t>
-  </si>
-  <si>
-    <t>Wanonen chwo ago.</t>
-  </si>
-  <si>
-    <t>Dibworo dwoko e e Dibworo bino e e e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanonen chwo ago </t>
-  </si>
-  <si>
-    <t>Wanonen chwo ago e e e</t>
-  </si>
-  <si>
-    <t>“Dibworo wanamyero</t>
-  </si>
-  <si>
-    <t>Minyur chiemo i kor pendi, kendo go kiyik mach.</t>
-  </si>
-  <si>
-    <t>Ogel kod Akibuk jo kited gine.</t>
-  </si>
-  <si>
-    <t>Kweer madwoŋ Simbwor (Dibworo).</t>
-  </si>
-  <si>
-    <t>Olum,Yunju.</t>
-  </si>
-  <si>
-    <t>Maruk,Mwera,Akenya,Kasimo,Iŋula,</t>
-  </si>
-  <si>
-    <t>Arak,Awira,Nyayole,Adita,Adara,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ojilai me nyingi jo man jo wacho ni “Wa jo pa cham dhano wa jo p’Arak pa Dibworo.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ojilai Dibworo p'Arak</t>
-  </si>
-  <si>
-    <t>Nono me chango jo chako bedo yo Nyamalogo to pama jo lak i p’Adhola gipi paka rom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dibworo (Ojilai) me amonywolo yach aryo, Arak kod Akwom, aka yach me amunyo nywolo nono Ojilai aryo me. </t>
-  </si>
-  <si>
-    <t>Nywolirok pa nono me obedo, ama, Adhola onywolo jali milwoŋo ni Ojilai to Ojilai me chango nyinge man i lwoŋo ni Dibworo rupir chango onywol go rut kod Simbwor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inywolirok pajo jobedo wutimere, to riwach ma pok ma riŋo kod ma chulirok kwor, amumiyo oti pa Arak kod oti pa Kwom jo pokere, to jo chako nywomirok.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To kada ameno kula pajo kod wer gye achiel. </t>
-  </si>
-  <si>
-    <t>NONO OLOMOLE</t>
-  </si>
-  <si>
-    <t>KUNU pajo nitye Nyamalogo wi tele milwoŋo ni Mawele.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadwoŋ nono marapena chango oketh i oro 1933.  </t>
-  </si>
-  <si>
-    <t>Dibworo to ŋiyo aŋo?”</t>
-  </si>
-  <si>
-    <t>Ja cham ji bino to Dibworo kiŋiy malo</t>
-  </si>
-  <si>
-    <t>Cham dhano wajo pa Dibworo wachamo moro</t>
-  </si>
-  <si>
-    <t>Jo yikere wiyi jo ŋiyo kum waŋ chieŋ wok iye (east).</t>
-  </si>
-  <si>
-    <t>Minyur chiemo i kor pendi kendo go kiyik mach.</t>
-  </si>
-  <si>
-    <t>Obungila,Odumu,Omuge,Japyan,Mageli, Kiryama.</t>
-  </si>
-  <si>
-    <t>Mirima,Orere,Madile,Odero,Owona,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ojilai me nyingi jo man jo wacho ni “Wa jo cham dhano wa jo pa Kwom pa Dibworo.”  </t>
-  </si>
-  <si>
-    <t>NONO ORUWA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UNU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> pajo nitye Soni manago waŋ pii milwoŋo ni Pore.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tich pajo machango jo ŋeyere iiye: lweny, kod chiko.</t>
-  </si>
-  <si>
-    <t>Waki poŋ ryete wa j’Olomole manyandeta.</t>
-  </si>
-  <si>
-    <t>Watho warumo wa j’Olomole manyandeta,</t>
-  </si>
-  <si>
-    <t>Ee wa j’Olomole watiend toko manyandeta,</t>
-  </si>
-  <si>
-    <t>Jo yikere wiyijo ŋiyo kuma waŋ chieŋ wok iiye (east).</t>
-  </si>
-  <si>
-    <t>Jo kicham Nyiger, kendo jokited kod yath milwoŋo ni Akibuk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munyo jowotho no, onwaŋo waŋ jo ŋiyo yo por loka Wisoga to kuma jo tyeko tho meg i Nyandeta to jo modoŋ jowire jo wotho dwoko yochien de tundo yo Pubwok Pasindi, akuma fuod jo nitye iiye madit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  To Nyandeta neko jopakidho tyeko woko jo</t>
-  </si>
-  <si>
-    <t>Chakirok bedo pajo jo chako Matindi, to jo kidho Soni i jwom milwoŋo ni Pore, me pama KUNU pajo, to joluwo Nyamalogo tojo kadha kadha joluwo Chawolo tundo i jwom milwoŋo ni Nyandeta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nywolirok pajo obedo ama, Adhola onywolo jali milwoŋo ni Odudi nyinge man ni Olomole, aka Olomole me onywolo yach awichiel: Mijoŋo, Tiyo, Wandera, Orach, Omoŋo kod Otiyo, aka yach me amunyo nywolo nono Olomole.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyingi jo man jo wacho ni “Wa j’Olomole waji ma jwom.” </t>
-  </si>
-  <si>
-    <t>Nono Olomole nitye achiel, to kende jonok, rupir ni yado kajoyanja joromoye nyakamath to jo ere to jo tho pajo rumo, kiri i wer pajo jo wacho ni “Watho warumo wajo Olomole.”</t>
-  </si>
-  <si>
-    <t>Achamo Dhano nyaka wa dwoko.”</t>
-  </si>
-  <si>
-    <t>Jo pa dibworo wajo cham malo wagoyo aryo</t>
-  </si>
-  <si>
-    <t>“Jo pa dibworo wajo cham malo wagoyo aryo</t>
-  </si>
-  <si>
-    <t>Ka minyur yawok i chwado tiende kod powo wok i dhioti pere tundo iya p’Adhamere kareno iwacho ni wakidho i dwol dhok, i timo ameno didek kosa diŋwen.</t>
-  </si>
-  <si>
-    <t>Minyur kod nyathi jo nindo i boke pendi nyarwanda.</t>
-  </si>
-  <si>
-    <t>Keno lyech adek kosa aŋwen i omo isa am’itheno gine chiemo pa minyur tundo kum’owok iye.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kendo kicham riŋo tundo kuma jo thugin jo kel rigo riŋo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhako k’onywol i ketho chooko i fufa (ma pii makiwene ma kado) magochamo tundo wok. </t>
-  </si>
-  <si>
-    <t>Minyur chiemo i kor pendi aka chiemo no bende imiyo amiya i dhoke, ka chiemo opodho kosa pii othon piny, ndirino kodok’ochiem kosa madho pii tundo yawere mere.</t>
-  </si>
-  <si>
-    <t>Obolo kod kasegere moro gye kited gine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  To jochamo rigin riŋo dhok, kwanyo woko yen ma chiel dhok jo kited gine.</t>
-  </si>
-  <si>
-    <t>Kweer madwoŋ dhiaŋ; ni rupir chango ka jotho iyiko jo i chiel dhok.</t>
-  </si>
-  <si>
-    <t>Chiko</t>
-  </si>
-  <si>
-    <t>Owa da,	Osama,	Ojaga,	Aroba,	Olude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kabedo majo chako bedo iye a Nyamalogo to pama jonwaŋere i kis adech ma Padhola. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wagoyo aryo, dwoŋ mere ni jo nywolo rut.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oruwa me nyingi jo man jo wacho ni “Wan wa jo waŋ chieŋ wa jo cham malo, wa goyo aryo.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oruwa Demba</t>
-  </si>
-  <si>
-    <t>Gima dwoŋ kwom Oruwa gye a Kweer.  Oruwa ni gi Kweer mager swa, ma kituki gine, makir okewo pa jo gye kweer no megi tundo kwom jo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gima dwo?   kwom Oruwa gye a Kweer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Riwirok ma udi adek me joridho aridha swa i oro 1942, ama jo dimo iye jadwoŋ achiel ni ama obedi ŋata achiel mariwo jo gye</t>
-  </si>
-  <si>
-    <t>Oti pa Demba to doŋ kende</t>
-  </si>
-  <si>
-    <t>To chiegin oro 1918 to jo udi adek, Lapa, Lusi kod Menya to jo riwere to joweyo nywomirok</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aka nyithindh yach me ama jokelo ruwirok to jo pokere nono ka diŋwen; to jo chako nywomirok Oruwa gye aŋwen.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadwoŋ Oruwa chango onywolo yach aŋwen: Lapa, Demba, Lusi kod Menya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pama dhano nyalo paro ni ruwirok marumachien me amumiyo ochwok jo ni Oruwa to kere be.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jali me chango ochamo nyinge rundiri ni Oruwa, rupir nyithindho pere kod nyikwaye, jo bedo kod ruwirok madit; jo chako nywomirok, jonekere, jochulere kwor, to nono bedo abeda mu ruwere swa kichutho kichutho won, paka nyingi jalicha. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wod pa Adhola machango ilwoŋo ni Oruwa amunywolo nono Oruwa gye paka nitye pama. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Minyur kod nyath jo nindo i boke pendi kego nyarwa da</t>
-  </si>
-  <si>
-    <t>Dhako manitye kod nyathi kigey boke akendo ma keno, kada dhako manitye kod iye bende kigey; kendo ka minyur yawok indirino i fuono boke akendo ma keno amigoyo gine tiende kareno i lamo go ni wakidho i dwol dhok, i timo ameno didek kosa diŋwen, paka kweer nyath nitye.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ka riŋo ongoye angoya swa woki yo thugin chooko am’itedo amiyoko go gine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minyur kicham riŋo tundo kuma jo thugin jo kelo riŋo. </t>
-  </si>
-  <si>
-    <t>Minyur chiemo i kor pendi, aka chiemo no bende imiyo amiya i dhoke; ka chiemo opodho kosa pii othon piny, ndirino kodok’ochiem kosa madho pii tundo yawere mere.</t>
-  </si>
-  <si>
-    <t>Minyur kiyik mach ka go fuod k’owok.</t>
-  </si>
-  <si>
-    <t>Akibuk kod Matakela, kited gine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kendo wok kwom minyur tundo kwom dhako manitye kod nyathi ma fuod kiwothi, jo ki gey woyo dhiaŋ.</t>
-  </si>
-  <si>
-    <t>To jo chamo rigin riŋo dhok kwanyo woko yen ma chiel dhok jo kited gine.</t>
-  </si>
-  <si>
-    <t>Kweer madwoŋ dhiaŋ, ni rupir chango kajo tho iyiko jo i chiel dhok.</t>
-  </si>
-  <si>
-    <t>Menya,Majiji.</t>
-  </si>
-  <si>
-    <t>Lusi,Anyamo,Ochier,Onyo,Angel,</t>
-  </si>
-  <si>
-    <t>Lapa,Obiro,Akwaŋ,Odel,Opusa,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jo both jochale kod Ojilai, nen Siro 19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dibworo, ka nyutho gero pajo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oruwa adek me Lapa, Lusi kod Menya, joriwere pama; jo lwoŋere ni “Wa jo pa Dibworo wa jo cham malo.”  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oruwa Lapa, Lusi kod Menya</t>
-  </si>
-  <si>
-    <t>KUNU pajo nitye Nyamalogo aka man nitye yo Kiyeyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tich machango jo asa ŋeyirok iiye: lweny, kwath kod dwar. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadwoŋ nono marapena oketh i oro 1932. </t>
-  </si>
-  <si>
-    <t>NONO JO PA GEMBE</t>
-  </si>
-  <si>
-    <t>KUNU pajo nitye Matindi ilul machiegin gi wugo pajo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aka tich machango jo asa ŋeyirok iiye: lweny, dwar, miel kod goyo bunde. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadwoŋ nono marapena oketh i oro 1940. </t>
-  </si>
-  <si>
-    <t>Jo Ramogi modakana omwa ma kombe jo lwoŋo nyir ni Katalaŋ!</t>
-  </si>
-  <si>
-    <t>Lando pa Kasaŋ mada omiyi jogero jo chamo e, e, Lando.</t>
-  </si>
-  <si>
-    <t>Pawangolo Matindi kipoti/kiran e, e, e, Matindi, Sewe otyeko yach ma Matindi kada go perenje.</t>
-  </si>
-  <si>
-    <t>Joyikere wiyijo ŋiyo yo kuma waŋ chieng podho iye (west).</t>
-  </si>
-  <si>
-    <t>Indir mar’Apipili iriwo dukino Athu idhioti aka itimo (nen Adech III, Siro 4).</t>
-  </si>
-  <si>
-    <t>Minyur kodi nyathi jo nindo i boke pendi nyarwanda, kendo minyur kitedi kosa geyo mach ka fuod kowok.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Jo kited kod yath ogeli</t>
-  </si>
-  <si>
-    <t>Laro,Goŋo,Ndiwo,Magara.</t>
-  </si>
-  <si>
-    <t>Aroda,Kitewe,Owondo,Agumbi,Okode,</t>
-  </si>
-  <si>
-    <t>Osilo,Dewo,Owolo,Odero,Okolo,</t>
-  </si>
-  <si>
-    <t>Nyadoŋa,Maseye,Oliŋo,Kadondoli,Ikuya,</t>
-  </si>
-  <si>
-    <t>Aliwa,Aŋura,Palinyaŋa,Lach,Opali,</t>
-  </si>
-  <si>
-    <t>Japath,Ryama,Lando,Oŋaŋo,Obuya,</t>
-  </si>
-  <si>
-    <t>Wangolo,Opany,Kasaŋ,Opata,Saja,</t>
-  </si>
-  <si>
-    <t>Nyingi jo man, jo wacho ni “Wa jo Ramogi ma Matindi” dwoŋ mere ni me Jo Ramogi ma Padhola monywolijo Matindi, makiwene jo Ramogi ma Nyanza kosa ma Kitgum.</t>
-  </si>
-  <si>
-    <t>Bedo pa nono me, jo pen bedo iyadech ma Matindi, kenyo ama lweny pa Sewe amumiyo jo pokere to jo laki i Padhola gipi loyo madit jo nwaŋere yo Gombila Molo, Tororo, Kisoko kod Nagongera.</t>
-  </si>
-  <si>
-    <t>Nyathi Ramogi me amunyo nywolo nono Ramogi gye manitye Padhola ka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wod p’Adhola milwoŋo ni Wangolo amunywolo wode bende to chwoko ni Ramogi, ri nyingi kwarijo kosa wutumin Adhola gin machango jo weyo jo chien kuma jowoki iye. </t>
-  </si>
-  <si>
-    <t>Ramogi obedo nyithindho Adhola won aka jo kowok Busoga kada di chiel, rupir nen, Ramogi nyingi moŋeyere tek tek swa i nonini ma Lwo gipi; giranena Ramogi nitye p’ Owiny (Kenya), Acoli kod Laŋo.</t>
-  </si>
-  <si>
-    <t>Nono me kada jo weg meg kod joman gye jowacho ni chango jowok yo Busoga i piny milwoŋo ni Bulamogi ni rupir Bulamogi chale kod Ramogi; meno ka paka nitye</t>
-  </si>
-  <si>
-    <t>NONO RAMOGI</t>
-  </si>
-  <si>
-    <t>KUNU pajo man nitye Nyamalogo witele milwoŋo ni Nyamanda aka man nitye Kiyeyi.</t>
-  </si>
-  <si>
-    <t>Jadwoŋ nono marapena chango oketh i oro 1942.</t>
-  </si>
-  <si>
-    <t>Munyo jo tieko jo Kiyeyi aka waryemo jo.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wajo Ruwa omwa olwoŋo ni wanok kere nyaka watundo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omwa otieko jo Kiyeyi. </t>
-  </si>
-  <si>
-    <t>E, e, e Omwa walangel olwoŋo wan ni ‘Wadama’</t>
-  </si>
-  <si>
-    <t>I wer me jowero kajo pakere ni jo chingi jo lach chango jo mako ji ma nono man jorwako i nono pajo.</t>
-  </si>
-  <si>
-    <t>Jopa Dibworo nyaka wabino.</t>
-  </si>
-  <si>
-    <t>Wanwaŋo dhano moro waloko go Oruwa mawan</t>
-  </si>
-  <si>
-    <t>Wa jopa Dibworo wajo cham malo,</t>
-  </si>
-  <si>
-    <t>KUNU pajo ilwoŋo ni Nyasirenge, nitye witele milwoŋo bende ni Nyasirenge.</t>
-  </si>
-  <si>
-    <t>Tich machango jo asa ŋeyere iiye: lweny, dwar kod chuech bwo.</t>
-  </si>
-  <si>
-    <t>Jadwoŋ nono marapena oketh i oro 1945</t>
-  </si>
-  <si>
-    <t>Dwoŋ mere ni jo pako gero pajo marom kod gero pa kwach.</t>
-  </si>
-  <si>
-    <t>Nyamondo yiwi kwach, kigey, owire rin inonen.</t>
-  </si>
-  <si>
-    <t>Jo yikere wiyijo ŋiyo kuma waŋ chieng podho iye (west).</t>
-  </si>
-  <si>
-    <t>Minyur kiyik mach kendo chiemo pere itedo i degi manyien, kod achiero machiemo iye bedo manyien kende kende.</t>
-  </si>
-  <si>
-    <t>Minyur kod nyathi jo nindo i bokependi nyarwanda.</t>
-  </si>
-  <si>
-    <t>Kadhako pa Jopagembe ochielo kal aka kal no nindi makoregi, kal no kidok cham kada dichiel, ikonja konja woko.</t>
-  </si>
-  <si>
-    <t>Kweer madwoŋ bel winyo, jo kigey kada ageya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ogembe kod wote awichiel, Kungu, Nyamisio, Dumbarya, Kiwene, Opio kod Misana, jochako bedo Maundo; aka jo kowere Katajula yo bothi jo Amor Kagulu Adundo, aka nyaka jowok kenyo to jo man jo oole yo loka Pagembe, aka jo man jo kidho iyadech ma Padhola mopokere opokere</t>
-  </si>
-  <si>
-    <t>Baa nono me nyinge chango ilwoŋo ni Ogembe, Ogembe me bedo Nyakwar Adhola, to baa mere won nyinge koŋeyere maber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nono jo Pagembe nitye achiel kende ma kopokere aka madit mere jo nitye yo loka pa Gembe, i Gombila ma Paya. </t>
-  </si>
-  <si>
-    <t>KULA MA CHOWO</t>
-  </si>
-  <si>
-    <t>Kendo piny kadongo dongo riwegi piny; ikula pajo machon kod i kite majo tero iye kula manyien ma jo limo bothi jo man.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kwanyo woko adech me kidho rinyutho adier machon, aka nyaka ji joŋey maber adier manyien, ma pama. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ra ameno akwayo jo dongo ma dini gye kod jo dongo fuonjiroki gye jo okir jo ter ni adech me kidho ri nywowo tich pajo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kole kula majo timo gye jo limo bothi jo wiloka ayino.”</t>
-  </si>
-  <si>
-    <t>Makiwene jo wacho ni “Alacha gin me chango jo ŋeyo aŋo?</t>
-  </si>
-  <si>
-    <t>Odoko jo wiloka bende jo oŋey ni jo Padhola bende chango ji ma jo tiekere i kula makite gye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kendo nyithindho mayowaŋe bende jo oŋey kula ma tiend nono pajo, paka chango nitye chon mafuod wasungu jo kobino i piny me. </t>
-  </si>
-  <si>
-    <t>Andiko adech me g’atoŋa ni kis dhano ma ja Padhola kada onyo nitye kod kula man mago luwo, oŋey kula ma kwar wan chango jo timo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Meno ka paka nitye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To kada ameno iyadech me akikidho riwacho ri ji ni jowey kula manyien jodoki imachon; kosa wiro chuny jo ni kere dini kosa kula mati me rach, mawan machon amachango ber amachango miyo wan siem madit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kula me megi machon swa munyo pama owey kir timo, paka ma lweny, akisili kod ma nywomirok; aka megi paka ma chowo, ji manok swa mafuodi jo timo rupir ji madit ti jo fuonjere dini ma nyien mupokere opokere to jo weyo kula ma chon.  </t>
-  </si>
-  <si>
-    <t>Iyadech me atito kula megi ma dongo ma jo Padhola jotimo.</t>
-  </si>
-  <si>
-    <t>WACH MA TITO ADECH MARADEK</t>
-  </si>
-  <si>
-    <t>I ndir ma lamo me mon jo chiemo gi riŋo gi nyim.</t>
-  </si>
-  <si>
-    <t>Aka kiwodho kwon no i oti kuma oted iye i wotha wotha agumba tundo kuma oketh iye yo ŋey waŋ kach chiegin kod apa chwore</t>
-  </si>
-  <si>
-    <t>Nyalike, chipa Were Othim bende i tedo rigo kwon nyaka math, bende nyakare kod nyim.</t>
-  </si>
-  <si>
-    <t>Apa Were ma Diodipo amipen lamo, aka kowey nyithindho chamo aka i kidho i lamo ri Were Othim bende apere dho waŋ kach aka kenyo bende amichamo iye.</t>
-  </si>
-  <si>
-    <t>Ka chiemo ochiek i kutho i lamo aki chako chiemo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gwendi mineko gye bedo ma wote kende kende, aka kineko kithum athuma ŋute, i goya goya wich mere piny kareno i luwere i lamo, chuka tho.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyutho ni waŋ kach a kew pa Were ma Diodipo kod Were Othim.  </t>
-  </si>
-  <si>
-    <t>Aka wot gwendi man i neko dho waŋ kach kod kwon mere bende i ketho kenyo ri Were Othim, ni ka obino ocham apere gi dho waŋ kach kun okir odonji olar kod Were ma Diodipo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  I ndelo no i neko wot gwendi i diodipo ti tedo kod kwon, meno apa Were ma Diodipo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Dwoŋ mere ni i hongo no amiketho Were walwa gi miyo jo chiemo manyien.</t>
-  </si>
-  <si>
-    <t>Were aryo me jo rom idwoŋ, aka bende i chowo jo kiromo, i ndir ma ka chiemo mandelo ochiek i kecho.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Were Othim nitye kodi jago pere milwoŋo ni Mikowe, amamenyo rigo royo ka wotho.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aka Were Othim kod dhako pere milwoŋo ni Nyalike, ama jo kuro gigipiny mawok pecho no gye, paka dhano ma pecho no kakidho lweny, fur, kulo dwar kosa woth moro gye; kod dhok, diegi, roombo, ma pecho no ka jo kidho isa chiemo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Were ma diodipo meno makuro pecho, ji ma iye kod lim gye ma pecho no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chowo were ma diodipo kod were othim, me a Were madongo i kis pecho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Aka gigipiny ma jo chowo bende yado opokere ama: (i) chowo Were Madiodipo kod Were Othim, (ii) chowo Jwogi, (iii) chowo Kunu, kod (iv) chowo Jwok Bura yo Nyakiriga.</t>
-  </si>
-  <si>
-    <t>Jo Padhola chango jo nitye gi kula ma chowo i kite mupokere opokere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chowo Jwok Bura, me i chowo yo Nyakiriga, aka jwok me Majanga amachango osukina gine (nen Adech I, Siro 4)</t>
-  </si>
-  <si>
-    <t>Kareno yo pecho korin bende onek diegi kod gwendi ti tedo gi kwon; aka k’otiek chiemo ti madho koŋo manende odoŋ pecho.</t>
-  </si>
-  <si>
-    <t>To diel kod gweno i neko ti bulo ti chamo achama ma piyo piyo swa, aka koŋo bende i madho wiyoto ti ay i jowere i dwoko.</t>
-  </si>
-  <si>
-    <t>Ko tundi koro ti lamo rigo gigipiny no gye.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I hongo no, i dwoyo koŋo pecho ti tiŋo koŋo gi wod diel gi wod gweno ti tero ri Kunu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aka jadwoŋ achiel ma nono no amakidho chowo ri nono no gipi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Go aja tel ma pa kis nono i gigipiny gye ma jo timo, aka kis nono bedo kod apa jo ku pokere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chowo Kunu, me i lwoŋo ni kiluw, amumiyo ochwok ni kunu; ni kada kidh iya jwoka Were amaluwo rigo. </t>
-  </si>
-  <si>
-    <t>I hongo ma chowo, mon jo chamo nyim kod riŋo aka chwo jo chamo gwendi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitye udi mathindho thindo migeto ri jwogi me, ilwoŋo ni “Migam”, aka kenyo bende amilamo ye gwendi no.  </t>
-  </si>
-  <si>
-    <t>Rumachien ma ndelo adek ti neko gwendi, gweno achiel bedo apa kwar jo ma dwoŋ ma pecho no, aka man bedo apa kwar jo kosa baa jo kod nyithindho gye majo tho pecho no</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I chowo ama: ka oro orumo, i dwoyo koŋo, ti madho, aka koŋo no ilwoŋo ni “ma yer gwendi.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dwoŋ mere ni jwogi pa ji madongo kod mathindho mutho pecho no. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chowo Jwogi, me ilwoŋo ni chowo jwogi ma pecho. </t>
-  </si>
-  <si>
-    <t>To kareno diegi kodi dhok ki neko, i neko kis oro adek kosa aŋwen aka gwendi amineko kis i chowo ma kis oro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To ka ŋata oŋaŋ tek tek neko thwon ri Were ma Diodipo aka ri Were Othim neko bende nyathi thwon yo sa.</t>
-  </si>
-  <si>
-    <t>Ri Were Othim bende i tero wod diel ti neko isa wiryete, makiwene gi yo waŋ kach, ti bulo abula ti chamo gikoro</t>
-  </si>
-  <si>
-    <t>To ŋata nitye kod lim madit neko wod diel ri Were ma Diodipo kod gwendi matheno wiy diel no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ja chandi neko gwendi kende kende</t>
-  </si>
-  <si>
-    <t>I chowo me gye gigipipy mineko wok rolim pa dhano paka nitye.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I kwanyo kwon gi gweno ma kwo ti tero ri Mikowe ti lamo rigo, ti neko, tibulo abula ti chamo gi koro ma kotedi.</t>
-  </si>
-  <si>
-    <t>To ka chiemo mandelo ochiek ki kecho, i ndelo ma chowo Were ma Diodipo kod Were Othim, chiemo pa Mikowe itero wiryete no isa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Meno nyutho ni ochak chwoyo, kendo i kwayo Were Othim okur chiemo mandelo maber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanyaka oro chako ki chwoyo kali, itero tongi gweno kende wiryete no dho oti pa Mikowe. </t>
-  </si>
-  <si>
-    <t>Aka wiryete no bende amigeto iye oti ri Mikowe jago pa Were no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chowo pa Were Othim ma dwoŋ mere i chowo go isa yo thim wiryete.  </t>
-  </si>
-  <si>
-    <t>KULA MA NYWOMIROK</t>
-  </si>
-  <si>
-    <t>Yo Tewo Nyakiriga kis nono jo geto iye oti Bura pa jo, maka nono no okidho chowo, jo lamo iiye.</t>
-  </si>
-  <si>
-    <t>Aka toŋi man madwoŋ mi lwoŋo ni toŋi Bura bedo i oti minindo iiye, aka kiwodhi woko kichar</t>
-  </si>
-  <si>
-    <t>Ko tieko mako dhano, to jo Bura wad jo bino jo lamo rigo Bura; tigeto oti mere i diodipo, aka i oti no i ketho iiye toŋ bidhi kod ayiga midwoyo iiye koŋo mitero yo Nyakiriga.</t>
-  </si>
-  <si>
-    <t>Bura me mako amaka dhano pa twoo, ka wok kwom kwar mere kosa baa mere kachango bende chowo Bura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Rupir ni Bura me wendo aka konek rigo kende, Were ma pecho kod jwogi mere jo dhaw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To kende yo pecho korin kineko gwendi ma Bura i neko kir ri Were ma Diodipo, Were Othim kod Jwogi gye ma pecho.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ko dwok yo Nyakiriga aka nyaka yo pecho korin bende i neko gwendi ki lamo dho kwom oti Bura manitye pecho, aka koŋo bende ti madho.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Mon kiyey jo donjo i Nyakiriga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gwendi kosa gimoro muter i bula bula yo koro tichamo.  Mon kiyey jo donjo i Nyakiriga. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ko tundi yo Nyakiriga i lunyere gi woko aki donjo i iye kinyoro aki chowo.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Koŋo no itero kod wot gwendi, diegi kosa dhok, wok ti lim pa dhano; to kwon kosa mwenge pendi kosa kwete kiter, aka thach matiŋo koŋo kitim ma makola kwanyo woko ma lumi. </t>
-  </si>
-  <si>
-    <t>Indir ma chowo Bura, I dwoyo koŋo pecho, to miyatero yo Nyakiriga i dwoyo paka konon to dikin i tero rupir ni Bura kimadh koŋo ma kech madho ki bunde ayino.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Oti makite me bedo thenge man, aka Migami ma jwogi ma pecho bende bedo thenge man.</t>
-  </si>
-  <si>
-    <t>Pecho ma Bura ni iye i geto rigo oti milwoŋo ni oti Bura.</t>
-  </si>
-  <si>
-    <t>Nywomirok machon ma jodongo, chango nyiyach won kod Nyako jo kiwech ma nywomirok kwanyo woko bachere pa jo ama jo mako mere aka nyaka nyithindho pajo nywomere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwoŋ mere ni, yado ka dhano onywolo nyiyach dwaro ŋata bende nitye kod nyako to mako gine mere to jo chako wendirok madwoŋ ma chiemo, koŋo, mwenge kod gigipiny gye michamo. </t>
-  </si>
-  <si>
-    <t>Kajo yeyere to baa nyiyach tweyo i chingi nyako no atego, manyutho ni nyako no otiek mako.</t>
-  </si>
-  <si>
-    <t>Kendo ka baa nyiyach no nitye kod dhiaŋ to tero kano ri baa nyako.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Aka dhiaŋ no ko nywol yo koro amachomoro ti loko manywomo nyano.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  To ka ongoye gi dhiaŋ to otieko mako mere oripo, to chako rango dhok, manywom gine ri wode.</t>
-  </si>
-  <si>
-    <t>Gigipiny me gye timere ka nyithindho fuod jothindho.</t>
-  </si>
-  <si>
-    <t>To ka nyiyach otieko dongo, ka romo oro apar ga boro kenyo aka nyako bende romo oro apar ga wichiel kadho malo; to baa nyiyach nyaka oro go ni kidh i wech kod nyar ŋadin ama wadimo rin.</t>
-  </si>
-  <si>
-    <t>Wok ndirino to nyiyach chako choko yach wad makidho konyo go gi kiyo nyako no yo kulo, kosa yo dimo yen kosa yo miel gimako tero pecho</t>
-  </si>
-  <si>
-    <t>To indir majo ŋolo iye nyako no aka jomaki, aka jobed gi silwany marach ma wutimin nyako no jo bed chiegin, gorok bedo madwoŋ tek tek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ka jo pa nyako jo kiyey ni oter nyamin jo.</t>
-  </si>
-  <si>
-    <t>To kada ameno nyiyach jo temo atema chuka jo limi nyako jo dok gine kosa jo lweny gi wutimin nyano to jo turo jo, to jo yombo jo gi nyako no</t>
-  </si>
-  <si>
-    <t>Ka nyako otiek dwoko gine, aka nyaka wach wok ni wod pa ŋatin “orendho nya pa ŋatin.”</t>
-  </si>
-  <si>
-    <t>To nyako no kichiem yo pa nyiyach no i hongo no kwanyo woko chiemo wok awoka yo thugin kosa yo pa wat pajo machiegin kod kenyo</t>
-  </si>
-  <si>
-    <t>To ndir megi nyako mamisen tieko kada ndelo kweth mako chiemo, ka chiemo kokel rigo wok thugin.</t>
-  </si>
-  <si>
-    <t>Meno bende apaka chango iŋeyo gine nyako m’owoor kosa ma k’owoor.</t>
-  </si>
-  <si>
-    <t>To rumachien mandelo adek kosa aryo tiketho nyako no i dho oti pa adhamere (me min nyiyach pere mu kelogo), ti tweyo rigo chip kod chieno ti wirogo kod mo ti kethogo i pyen dhiaŋ kosa pyen diel.</t>
-  </si>
-  <si>
-    <t>Kenyo to jo pa ywoche jo lielo wiye, ti ŋado lweti chinge kod lweti tiende.</t>
-  </si>
-  <si>
-    <t>Aka gigipiny no adhamere kano kuma diny swa.</t>
-  </si>
-  <si>
-    <t>Rumachien ma gigipiny me, yado bedo gi kula ni nyako kwale dok thugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To kareno gigipiny manywom bende jo dongo jo tieko yiko, gitero.  </t>
-  </si>
-  <si>
-    <t>Yado inywomo dhok abuŋwen kosa apar, diegi, toŋ, ŋet kwe, atego obad kod ganga adeya.</t>
-  </si>
-  <si>
-    <t>Rumachien kanyako otieko kwale odok, to nyiyach odoko kidho to jo liwo ma diryo gi mako dwoko gine</t>
-  </si>
-  <si>
-    <t>I hongo me aka nyaka nyamin nyako kod omin to jo bino</t>
-  </si>
-  <si>
-    <t>Aka nyaka adhamere tedo kafuta aka nyako no jo chiemo kod nyamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me amilwoŋo ni Nyutho nyako chiemo. </t>
-  </si>
-  <si>
-    <t>To ka fuod jo kochiemo nyamin no imiyogo diel aka omin imiyogo toŋ, aka nyako won imiyo atego ni malogo kod mayawo dhoke.</t>
-  </si>
-  <si>
-    <t>Wok ndirino to nyako chako chiemo yo pa chwoge no.</t>
-  </si>
-  <si>
-    <t>Ka gi me orumo, aka nyaka jo thugi nyako jo kelo chiemo iya tawo ga dita.</t>
-  </si>
-  <si>
-    <t>Chiemo me amilwoŋo ni “Dhoki Nyako.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To atawo kod adita no kidok gine i weyo ri adha nyako to kano kanyachiel gi ye wiye machango oliel kod lwete machango oŋad. </t>
-  </si>
-  <si>
-    <t>Gigipiny me ikano kuma diny tek tek, rupir ni ka chomoro nyako no omit eye pecho no, to adhamere moro gye mubed, to lamo nyako no gi gigipiny no; to nyako no bedo kod silwany marach kumu kidho iye, kosa dwoka adwoka ma kogalo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tedo Abor:  rumachien ma nywomirok me, baa nyiyach kidho to penjo baa nyako ni mito chiemo maluwo gine tiend dhok. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To baa nyako kwayo baa nyiyach dhiaŋ, to tero rigo.  </t>
-  </si>
-  <si>
-    <t>To baa nyako kwanyo dhiaŋ pere man to neko titedo chiemo madit swa, ti tiŋo iya agonini kweth ti tero yo pa nyiyach gin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gwendi mere ki thum wich kosa tiende, itedo ateda ameno. </t>
-  </si>
-  <si>
-    <t>To ŋata otedo abor aka oŋondo lwet gwendi, odoko ripo aripa neko gweno man rumachien ma kwaŋo lwet gwendi no gi tero yo kuma chango oter ye abor no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhiaŋ no bende kiyaŋ yo eme i tweyo atweya gi wich kanya chiel titero, me aa atedo Abor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aka jomo tiŋo chiemo abor ka jo tero jo wero ni, “Yido wiyuma Abor, Abor ti Orumo.”</t>
-  </si>
-  <si>
-    <t>KULA MA MINYUR</t>
+    <t>halo magambala PUKU PUKU AREMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KUNU pajo nitye Soni manago waŋ pii milwoŋo ni Pore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Mati me i kuro tundo chieko mwenge ma kasiki.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3890,21 +4495,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3912,28 +4519,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3962,7 +4551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3999,29 +4588,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5150,10 +5731,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A1111"/>
+  <dimension ref="A2:A1323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1067" workbookViewId="0">
-      <selection activeCell="A1067" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1287" workbookViewId="0">
+      <selection activeCell="E1293" sqref="E1293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5166,17 +5747,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="38.25">
       <c r="A3" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="25.5">
       <c r="A4" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="25.5">
       <c r="A5" s="14" t="s">
         <v>155</v>
       </c>
@@ -5186,12 +5767,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="25.5">
       <c r="A7" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="25.5">
       <c r="A8" s="14" t="s">
         <v>152</v>
       </c>
@@ -5201,17 +5782,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" ht="25.5">
       <c r="A10" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" ht="25.5">
       <c r="A11" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="25.5">
       <c r="A12" s="14" t="s">
         <v>148</v>
       </c>
@@ -5226,7 +5807,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="25.5">
       <c r="A15" s="14" t="s">
         <v>145</v>
       </c>
@@ -5251,17 +5832,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" ht="25.5">
       <c r="A20" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="25.5">
       <c r="A21" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" ht="25.5">
       <c r="A22" s="14" t="s">
         <v>162</v>
       </c>
@@ -5276,12 +5857,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" ht="25.5">
       <c r="A25" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" ht="38.25">
       <c r="A26" s="14" t="s">
         <v>205</v>
       </c>
@@ -5291,7 +5872,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" ht="25.5">
       <c r="A28" s="14" t="s">
         <v>203</v>
       </c>
@@ -5301,42 +5882,42 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" ht="25.5">
       <c r="A30" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" ht="38.25">
       <c r="A31" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" ht="25.5">
       <c r="A32" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" ht="25.5">
       <c r="A33" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" ht="25.5">
       <c r="A34" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" ht="25.5">
       <c r="A35" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" ht="76.5">
       <c r="A36" s="15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" ht="25.5">
       <c r="A37" s="14" t="s">
         <v>194</v>
       </c>
@@ -5346,12 +5927,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" ht="25.5">
       <c r="A39" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" ht="51">
       <c r="A40" s="14" t="s">
         <v>191</v>
       </c>
@@ -5361,7 +5942,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" ht="25.5">
       <c r="A42" s="14" t="s">
         <v>189</v>
       </c>
@@ -5371,7 +5952,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" ht="25.5">
       <c r="A44" s="14" t="s">
         <v>187</v>
       </c>
@@ -5381,22 +5962,22 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" ht="25.5">
       <c r="A46" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" ht="25.5">
       <c r="A47" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" ht="25.5">
       <c r="A48" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" ht="38.25">
       <c r="A49" s="14" t="s">
         <v>182</v>
       </c>
@@ -5406,27 +5987,27 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" ht="25.5">
       <c r="A51" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" ht="25.5">
       <c r="A52" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" ht="25.5">
       <c r="A53" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" ht="25.5">
       <c r="A54" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" ht="25.5">
       <c r="A55" s="14" t="s">
         <v>176</v>
       </c>
@@ -5441,32 +6022,32 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" ht="25.5">
       <c r="A58" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" ht="25.5">
       <c r="A59" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" ht="25.5">
       <c r="A60" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" ht="38.25">
       <c r="A61" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" ht="25.5">
       <c r="A62" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" ht="25.5">
       <c r="A63" s="14" t="s">
         <v>168</v>
       </c>
@@ -5476,7 +6057,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" ht="51">
       <c r="A65" s="15" t="s">
         <v>166</v>
       </c>
@@ -5486,12 +6067,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" ht="25.5">
       <c r="A67" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" ht="38.25">
       <c r="A68" s="14" t="s">
         <v>230</v>
       </c>
@@ -5501,7 +6082,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" ht="38.25">
       <c r="A70" s="14" t="s">
         <v>228</v>
       </c>
@@ -5511,7 +6092,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" ht="38.25">
       <c r="A72" s="14" t="s">
         <v>226</v>
       </c>
@@ -5521,12 +6102,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" ht="25.5">
       <c r="A74" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" ht="25.5">
       <c r="A75" s="14" t="s">
         <v>223</v>
       </c>
@@ -5536,22 +6117,22 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" ht="25.5">
       <c r="A77" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" ht="25.5">
       <c r="A78" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" ht="63.75">
       <c r="A79" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" ht="25.5">
       <c r="A80" s="14" t="s">
         <v>218</v>
       </c>
@@ -5561,7 +6142,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" ht="25.5">
       <c r="A82" s="14" t="s">
         <v>216</v>
       </c>
@@ -5571,12 +6152,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" ht="25.5">
       <c r="A84" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" ht="25.5">
       <c r="A85" s="14" t="s">
         <v>213</v>
       </c>
@@ -5586,12 +6167,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" ht="25.5">
       <c r="A87" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" ht="25.5">
       <c r="A88" s="14" t="s">
         <v>210</v>
       </c>
@@ -5601,67 +6182,67 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" ht="25.5">
       <c r="A90" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" ht="51">
       <c r="A91" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" ht="25.5">
       <c r="A92" s="14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" ht="25.5">
       <c r="A93" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" ht="25.5">
       <c r="A94" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" ht="25.5">
       <c r="A95" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" ht="38.25">
       <c r="A96" s="14" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" ht="25.5">
       <c r="A97" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" ht="63.75">
       <c r="A98" s="14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" ht="38.25">
       <c r="A99" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" ht="25.5">
       <c r="A100" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" ht="38.25">
       <c r="A101" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" ht="25.5">
       <c r="A102" s="14" t="s">
         <v>263</v>
       </c>
@@ -5686,7 +6267,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" ht="25.5">
       <c r="A107" s="14" t="s">
         <v>258</v>
       </c>
@@ -5706,17 +6287,17 @@
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" ht="25.5">
       <c r="A111" s="14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" ht="38.25">
       <c r="A112" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" ht="38.25">
       <c r="A113" s="14" t="s">
         <v>252</v>
       </c>
@@ -5736,7 +6317,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" ht="25.5">
       <c r="A117" s="14" t="s">
         <v>248</v>
       </c>
@@ -5746,7 +6327,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" ht="38.25">
       <c r="A119" s="14" t="s">
         <v>246</v>
       </c>
@@ -5756,17 +6337,17 @@
         <v>245</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" ht="25.5">
       <c r="A121" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" ht="25.5">
       <c r="A122" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" ht="38.25">
       <c r="A123" s="14" t="s">
         <v>242</v>
       </c>
@@ -5776,57 +6357,57 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" ht="25.5">
       <c r="A125" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" ht="38.25">
       <c r="A126" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" ht="51">
       <c r="A127" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" ht="25.5">
       <c r="A128" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" ht="25.5">
       <c r="A129" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" ht="25.5">
       <c r="A130" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" ht="25.5">
       <c r="A131" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" ht="25.5">
       <c r="A132" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" ht="25.5">
       <c r="A133" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" ht="25.5">
       <c r="A134" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" ht="25.5">
       <c r="A135" s="14" t="s">
         <v>297</v>
       </c>
@@ -5836,27 +6417,27 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" ht="51">
       <c r="A137" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" ht="38.25">
       <c r="A138" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" ht="25.5">
       <c r="A139" s="14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" ht="25.5">
       <c r="A140" s="14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" ht="25.5">
       <c r="A141" s="14" t="s">
         <v>291</v>
       </c>
@@ -5866,32 +6447,32 @@
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" ht="51">
       <c r="A143" s="15" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" ht="25.5">
       <c r="A144" s="14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" ht="25.5">
       <c r="A145" s="14" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" ht="25.5">
       <c r="A146" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" ht="25.5">
       <c r="A147" s="14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" ht="25.5">
       <c r="A148" s="14" t="s">
         <v>284</v>
       </c>
@@ -5901,12 +6482,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" ht="25.5">
       <c r="A150" s="14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" ht="25.5">
       <c r="A151" s="14" t="s">
         <v>281</v>
       </c>
@@ -5916,22 +6497,22 @@
         <v>280</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" ht="25.5">
       <c r="A153" s="14" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" ht="38.25">
       <c r="A154" s="14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" ht="25.5">
       <c r="A155" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" ht="25.5">
       <c r="A156" s="14" t="s">
         <v>276</v>
       </c>
@@ -5946,7 +6527,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" ht="25.5">
       <c r="A159" s="14" t="s">
         <v>326</v>
       </c>
@@ -5956,7 +6537,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" ht="25.5">
       <c r="A161" s="14" t="s">
         <v>324</v>
       </c>
@@ -5966,7 +6547,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" ht="25.5">
       <c r="A163" s="14" t="s">
         <v>322</v>
       </c>
@@ -5976,7 +6557,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" ht="25.5">
       <c r="A165" s="14" t="s">
         <v>320</v>
       </c>
@@ -5996,7 +6577,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" ht="38.25">
       <c r="A169" s="14" t="s">
         <v>316</v>
       </c>
@@ -6006,7 +6587,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" ht="25.5">
       <c r="A171" s="14" t="s">
         <v>314</v>
       </c>
@@ -6021,7 +6602,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" ht="25.5">
       <c r="A174" s="14" t="s">
         <v>311</v>
       </c>
@@ -6051,7 +6632,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" ht="25.5">
       <c r="A180" s="14" t="s">
         <v>305</v>
       </c>
@@ -6061,17 +6642,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" ht="25.5">
       <c r="A182" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" ht="25.5">
       <c r="A183" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" ht="51">
       <c r="A184" s="14" t="s">
         <v>301</v>
       </c>
@@ -6081,7 +6662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" ht="38.25">
       <c r="A186" s="14" t="s">
         <v>356</v>
       </c>
@@ -6126,7 +6707,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" ht="25.5">
       <c r="A195" s="14" t="s">
         <v>347</v>
       </c>
@@ -6171,12 +6752,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" ht="25.5">
       <c r="A204" s="14" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" ht="25.5">
       <c r="A205" s="14" t="s">
         <v>337</v>
       </c>
@@ -6191,12 +6772,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" ht="25.5">
       <c r="A208" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" ht="25.5">
       <c r="A209" s="14" t="s">
         <v>333</v>
       </c>
@@ -6221,7 +6802,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" ht="25.5">
       <c r="A214" s="14" t="s">
         <v>328</v>
       </c>
@@ -6241,7 +6822,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" ht="51">
       <c r="A218" s="14" t="s">
         <v>393</v>
       </c>
@@ -6266,7 +6847,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" ht="25.5">
       <c r="A223" s="14" t="s">
         <v>388</v>
       </c>
@@ -6296,7 +6877,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" ht="25.5">
       <c r="A229" s="14" t="s">
         <v>382</v>
       </c>
@@ -6351,12 +6932,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" ht="38.25">
       <c r="A240" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" ht="25.5">
       <c r="A241" s="14" t="s">
         <v>370</v>
       </c>
@@ -6416,7 +6997,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" ht="25.5">
       <c r="A253" s="14" t="s">
         <v>358</v>
       </c>
@@ -6456,12 +7037,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" ht="25.5">
       <c r="A261" s="14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" ht="25.5">
       <c r="A262" s="14" t="s">
         <v>426</v>
       </c>
@@ -6471,12 +7052,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" ht="25.5">
       <c r="A264" s="14" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" ht="38.25">
       <c r="A265" s="14" t="s">
         <v>423</v>
       </c>
@@ -6486,22 +7067,22 @@
         <v>422</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" ht="25.5">
       <c r="A267" s="14" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" ht="51">
       <c r="A268" s="14" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" ht="38.25">
       <c r="A269" s="14" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" ht="25.5">
       <c r="A270" s="14" t="s">
         <v>418</v>
       </c>
@@ -6581,7 +7162,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" ht="25.5">
       <c r="A286" s="14" t="s">
         <v>402</v>
       </c>
@@ -6606,22 +7187,22 @@
         <v>398</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" ht="38.25">
       <c r="A291" s="14" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" ht="25.5">
       <c r="A292" s="14" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" ht="25.5">
       <c r="A293" s="14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" ht="25.5">
       <c r="A294" s="14" t="s">
         <v>484</v>
       </c>
@@ -6636,22 +7217,22 @@
         <v>482</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" ht="25.5">
       <c r="A297" s="14" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" ht="25.5">
       <c r="A298" s="14" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" ht="25.5">
       <c r="A299" s="14" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" ht="25.5">
       <c r="A300" s="14" t="s">
         <v>478</v>
       </c>
@@ -6661,7 +7242,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" ht="25.5">
       <c r="A302" s="14" t="s">
         <v>476</v>
       </c>
@@ -6671,12 +7252,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" ht="25.5">
       <c r="A304" s="14" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" ht="25.5">
       <c r="A305" s="14" t="s">
         <v>473</v>
       </c>
@@ -6691,17 +7272,17 @@
         <v>471</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" ht="25.5">
       <c r="A308" s="14" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" ht="25.5">
       <c r="A309" s="14" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" ht="25.5">
       <c r="A310" s="14" t="s">
         <v>468</v>
       </c>
@@ -6726,7 +7307,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" ht="25.5">
       <c r="A315" s="14" t="s">
         <v>463</v>
       </c>
@@ -6736,12 +7317,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" ht="25.5">
       <c r="A317" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" ht="38.25">
       <c r="A318" s="14" t="s">
         <v>460</v>
       </c>
@@ -6756,17 +7337,17 @@
         <v>458</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" ht="25.5">
       <c r="A321" s="14" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" ht="25.5">
       <c r="A322" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" ht="38.25">
       <c r="A323" s="14" t="s">
         <v>455</v>
       </c>
@@ -6776,7 +7357,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" ht="38.25">
       <c r="A325" s="14" t="s">
         <v>453</v>
       </c>
@@ -6791,7 +7372,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" ht="51">
       <c r="A328" s="15" t="s">
         <v>450</v>
       </c>
@@ -6806,7 +7387,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" ht="25.5">
       <c r="A331" s="14" t="s">
         <v>447</v>
       </c>
@@ -6816,12 +7397,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" ht="25.5">
       <c r="A333" s="14" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" ht="25.5">
       <c r="A334" s="14" t="s">
         <v>444</v>
       </c>
@@ -6836,12 +7417,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" ht="25.5">
       <c r="A337" s="14" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" ht="25.5">
       <c r="A338" s="14" t="s">
         <v>440</v>
       </c>
@@ -6851,12 +7432,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" ht="25.5">
       <c r="A340" s="14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" ht="25.5">
       <c r="A341" s="14" t="s">
         <v>437</v>
       </c>
@@ -6866,7 +7447,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" ht="25.5">
       <c r="A343" s="14" t="s">
         <v>435</v>
       </c>
@@ -6891,7 +7472,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" ht="38.25">
       <c r="A348" s="14" t="s">
         <v>531</v>
       </c>
@@ -6911,7 +7492,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" ht="25.5">
       <c r="A352" s="14" t="s">
         <v>527</v>
       </c>
@@ -6921,7 +7502,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" ht="25.5">
       <c r="A354" s="14" t="s">
         <v>525</v>
       </c>
@@ -6931,7 +7512,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" ht="25.5">
       <c r="A356" s="14" t="s">
         <v>523</v>
       </c>
@@ -6946,12 +7527,12 @@
         <v>521</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" ht="25.5">
       <c r="A359" s="14" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" ht="25.5">
       <c r="A360" s="14" t="s">
         <v>519</v>
       </c>
@@ -6961,12 +7542,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" ht="25.5">
       <c r="A362" s="14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" ht="25.5">
       <c r="A363" s="14" t="s">
         <v>516</v>
       </c>
@@ -6991,7 +7572,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" ht="25.5">
       <c r="A368" s="14" t="s">
         <v>511</v>
       </c>
@@ -7001,7 +7582,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" ht="25.5">
       <c r="A370" s="14" t="s">
         <v>509</v>
       </c>
@@ -7011,12 +7592,12 @@
         <v>508</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" ht="25.5">
       <c r="A372" s="14" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" ht="38.25">
       <c r="A373" s="14" t="s">
         <v>506</v>
       </c>
@@ -7081,12 +7662,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" ht="25.5">
       <c r="A386" s="14" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" ht="25.5">
       <c r="A387" s="14" t="s">
         <v>492</v>
       </c>
@@ -7121,17 +7702,17 @@
         <v>486</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" ht="25.5">
       <c r="A394" s="14" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" ht="25.5">
       <c r="A395" s="14" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" ht="25.5">
       <c r="A396" s="14" t="s">
         <v>551</v>
       </c>
@@ -7161,17 +7742,17 @@
         <v>546</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" ht="25.5">
       <c r="A402" s="14" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" ht="25.5">
       <c r="A403" s="14" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" ht="25.5">
       <c r="A404" s="14" t="s">
         <v>543</v>
       </c>
@@ -7191,7 +7772,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" ht="25.5">
       <c r="A408" s="14" t="s">
         <v>539</v>
       </c>
@@ -7201,12 +7782,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" ht="25.5">
       <c r="A410" s="14" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" ht="25.5">
       <c r="A411" s="14" t="s">
         <v>536</v>
       </c>
@@ -7216,7 +7797,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" ht="25.5">
       <c r="A413" s="14" t="s">
         <v>581</v>
       </c>
@@ -7226,27 +7807,27 @@
         <v>580</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" ht="25.5">
       <c r="A415" s="14" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" ht="25.5">
       <c r="A416" s="14" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" ht="25.5">
       <c r="A417" s="14" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" ht="25.5">
       <c r="A418" s="14" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" ht="25.5">
       <c r="A419" s="14" t="s">
         <v>575</v>
       </c>
@@ -7281,7 +7862,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" ht="25.5">
       <c r="A426" s="14" t="s">
         <v>568</v>
       </c>
@@ -7291,12 +7872,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" ht="25.5">
       <c r="A428" s="14" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" ht="38.25">
       <c r="A429" s="14" t="s">
         <v>565</v>
       </c>
@@ -7311,7 +7892,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" ht="38.25">
       <c r="A432" s="14" t="s">
         <v>562</v>
       </c>
@@ -7346,12 +7927,12 @@
         <v>556</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" ht="25.5">
       <c r="A439" s="14" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" ht="38.25">
       <c r="A440" s="14" t="s">
         <v>554</v>
       </c>
@@ -7361,7 +7942,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" ht="25.5">
       <c r="A442" s="14" t="s">
         <v>654</v>
       </c>
@@ -7371,7 +7952,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" ht="25.5">
       <c r="A444" s="14" t="s">
         <v>652</v>
       </c>
@@ -7391,7 +7972,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" ht="25.5">
       <c r="A448" s="14" t="s">
         <v>648</v>
       </c>
@@ -7451,7 +8032,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" ht="51">
       <c r="A460" s="15" t="s">
         <v>636</v>
       </c>
@@ -7466,12 +8047,12 @@
         <v>634</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" ht="25.5">
       <c r="A463" s="14" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" ht="38.25">
       <c r="A464" s="14" t="s">
         <v>632</v>
       </c>
@@ -7506,7 +8087,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" ht="38.25">
       <c r="A471" s="14" t="s">
         <v>625</v>
       </c>
@@ -7516,7 +8097,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" ht="25.5">
       <c r="A473" s="14" t="s">
         <v>623</v>
       </c>
@@ -7546,7 +8127,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" ht="25.5">
       <c r="A479" s="14" t="s">
         <v>617</v>
       </c>
@@ -7556,12 +8137,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" ht="25.5">
       <c r="A481" s="14" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" ht="25.5">
       <c r="A482" s="14" t="s">
         <v>614</v>
       </c>
@@ -7586,17 +8167,17 @@
         <v>610</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" ht="25.5">
       <c r="A487" s="14" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" ht="25.5">
       <c r="A488" s="14" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" ht="25.5">
       <c r="A489" s="14" t="s">
         <v>607</v>
       </c>
@@ -7606,12 +8187,12 @@
         <v>606</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" ht="25.5">
       <c r="A491" s="14" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" ht="25.5">
       <c r="A492" s="14" t="s">
         <v>604</v>
       </c>
@@ -7666,7 +8247,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" ht="38.25">
       <c r="A503" s="14" t="s">
         <v>593</v>
       </c>
@@ -7706,7 +8287,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:1" ht="25.5">
       <c r="A511" s="14" t="s">
         <v>585</v>
       </c>
@@ -7751,12 +8332,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:1" ht="25.5">
       <c r="A520" s="14" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" spans="1:1" ht="25.5">
       <c r="A521" s="14" t="s">
         <v>734</v>
       </c>
@@ -7766,12 +8347,12 @@
         <v>733</v>
       </c>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" spans="1:1" ht="25.5">
       <c r="A523" s="14" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" spans="1:1" ht="25.5">
       <c r="A524" s="14" t="s">
         <v>731</v>
       </c>
@@ -7806,7 +8387,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" spans="1:1" ht="25.5">
       <c r="A531" s="14" t="s">
         <v>724</v>
       </c>
@@ -7831,7 +8412,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" spans="1:1" ht="25.5">
       <c r="A536" s="14" t="s">
         <v>742</v>
       </c>
@@ -7841,22 +8422,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" spans="1:1" ht="38.25">
       <c r="A538" s="14" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" spans="1:1" ht="38.25">
       <c r="A539" s="14" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" spans="1:1" ht="25.5">
       <c r="A540" s="14" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" spans="1:1" ht="38.25">
       <c r="A541" s="14" t="s">
         <v>715</v>
       </c>
@@ -7866,12 +8447,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" spans="1:1" ht="25.5">
       <c r="A543" s="14" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" spans="1:1" ht="25.5">
       <c r="A544" s="14" t="s">
         <v>712</v>
       </c>
@@ -7891,27 +8472,27 @@
         <v>709</v>
       </c>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" spans="1:1" ht="25.5">
       <c r="A548" s="14" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" spans="1:1" ht="25.5">
       <c r="A549" s="14" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" spans="1:1" ht="25.5">
       <c r="A550" s="14" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" spans="1:1" ht="25.5">
       <c r="A551" s="14" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" spans="1:1" ht="25.5">
       <c r="A552" s="14" t="s">
         <v>704</v>
       </c>
@@ -7961,12 +8542,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" spans="1:1" ht="25.5">
       <c r="A562" s="14" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" spans="1:1" ht="25.5">
       <c r="A563" s="14" t="s">
         <v>693</v>
       </c>
@@ -8016,7 +8597,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" spans="1:1" ht="25.5">
       <c r="A573" s="14" t="s">
         <v>683</v>
       </c>
@@ -8061,7 +8642,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" spans="1:1" ht="25.5">
       <c r="A582" s="14" t="s">
         <v>674</v>
       </c>
@@ -8086,22 +8667,22 @@
         <v>670</v>
       </c>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" spans="1:1" ht="38.25">
       <c r="A587" s="14" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" spans="1:1" ht="51">
       <c r="A588" s="14" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" spans="1:1" ht="25.5">
       <c r="A589" s="14" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" spans="1:1" ht="25.5">
       <c r="A590" s="14" t="s">
         <v>666</v>
       </c>
@@ -8156,12 +8737,12 @@
         <v>656</v>
       </c>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" spans="1:1" ht="25.5">
       <c r="A601" s="14" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" spans="1:1" ht="25.5">
       <c r="A602" s="14" t="s">
         <v>810</v>
       </c>
@@ -8176,17 +8757,17 @@
         <v>808</v>
       </c>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" spans="1:1" ht="38.25">
       <c r="A605" s="14" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" spans="1:1" ht="38.25">
       <c r="A606" s="14" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" spans="1:1" ht="38.25">
       <c r="A607" s="14" t="s">
         <v>805</v>
       </c>
@@ -8211,7 +8792,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" spans="1:1" ht="25.5">
       <c r="A612" s="14" t="s">
         <v>800</v>
       </c>
@@ -8241,7 +8822,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" spans="1:1" ht="38.25">
       <c r="A618" s="15" t="s">
         <v>794</v>
       </c>
@@ -8251,7 +8832,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" spans="1:1" ht="25.5">
       <c r="A620" s="14" t="s">
         <v>792</v>
       </c>
@@ -8266,12 +8847,12 @@
         <v>790</v>
       </c>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" spans="1:1" ht="38.25">
       <c r="A623" s="14" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" spans="1:1" ht="25.5">
       <c r="A624" s="14" t="s">
         <v>788</v>
       </c>
@@ -8281,7 +8862,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" spans="1:1" ht="38.25">
       <c r="A626" s="14" t="s">
         <v>786</v>
       </c>
@@ -8291,7 +8872,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" spans="1:1" ht="25.5">
       <c r="A628" s="14" t="s">
         <v>784</v>
       </c>
@@ -8341,12 +8922,12 @@
         <v>775</v>
       </c>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" spans="1:1" ht="25.5">
       <c r="A638" s="14" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" spans="1:1" ht="25.5">
       <c r="A639" s="14" t="s">
         <v>773</v>
       </c>
@@ -8356,12 +8937,12 @@
         <v>772</v>
       </c>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" spans="1:1" ht="25.5">
       <c r="A641" s="14" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" spans="1:1" ht="38.25">
       <c r="A642" s="14" t="s">
         <v>770</v>
       </c>
@@ -8381,7 +8962,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" spans="1:1" ht="25.5">
       <c r="A646" s="14" t="s">
         <v>766</v>
       </c>
@@ -8398,7 +8979,7 @@
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="14" t="s">
-        <v>861</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="650" spans="1:1">
@@ -8411,7 +8992,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" spans="1:1" ht="25.5">
       <c r="A652" s="14" t="s">
         <v>761</v>
       </c>
@@ -8456,7 +9037,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" spans="1:1" ht="25.5">
       <c r="A661" s="14" t="s">
         <v>752</v>
       </c>
@@ -8486,7 +9067,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" spans="1:1" ht="25.5">
       <c r="A667" s="14" t="s">
         <v>746</v>
       </c>
@@ -8521,12 +9102,12 @@
         <v>837</v>
       </c>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" spans="1:1" ht="38.25">
       <c r="A674" s="14" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" spans="1:1" ht="25.5">
       <c r="A675" s="14" t="s">
         <v>835</v>
       </c>
@@ -8571,7 +9152,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" spans="1:1" ht="25.5">
       <c r="A684" s="14" t="s">
         <v>826</v>
       </c>
@@ -8616,7 +9197,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" spans="1:1" ht="25.5">
       <c r="A693" s="14" t="s">
         <v>817</v>
       </c>
@@ -8631,7 +9212,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" spans="1:1" ht="38.25">
       <c r="A696" s="14" t="s">
         <v>814</v>
       </c>
@@ -8641,12 +9222,12 @@
         <v>813</v>
       </c>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" spans="1:1" ht="25.5">
       <c r="A698" s="14" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" spans="1:1" ht="25.5">
       <c r="A699" s="14" t="s">
         <v>860</v>
       </c>
@@ -8661,7 +9242,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" spans="1:1" ht="25.5">
       <c r="A702" s="14" t="s">
         <v>857</v>
       </c>
@@ -8686,7 +9267,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" spans="1:1" ht="38.25">
       <c r="A707" s="14" t="s">
         <v>852</v>
       </c>
@@ -8736,7 +9317,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" spans="1:1" ht="25.5">
       <c r="A717" s="14" t="s">
         <v>842</v>
       </c>
@@ -8746,1969 +9327,3029 @@
         <v>841</v>
       </c>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" spans="1:1" ht="51">
       <c r="A719" s="14" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" ht="25.5">
       <c r="A720" s="14" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" ht="25.5">
       <c r="A721" s="14" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="14" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" ht="25.5">
       <c r="A723" s="14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="14" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" ht="25.5">
       <c r="A725" s="14" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" ht="25.5">
       <c r="A726" s="14" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" ht="25.5">
       <c r="A727" s="15" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" ht="25.5">
       <c r="A728" s="15" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="15" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" ht="38.25">
       <c r="A730" s="14" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="14" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" s="14" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="14" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" ht="25.5">
       <c r="A734" s="14" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="14" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" s="14" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="14" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" s="14" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" s="14" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" s="14" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="14" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" s="14" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="14" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="14" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="14" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" s="14" t="s">
-        <v>992</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="14" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" ht="38.25">
       <c r="A750" s="14" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" ht="25.5">
       <c r="A751" s="14" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" s="14" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="14" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="14" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="14" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="14" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="14" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" s="14" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="14" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" s="14" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" ht="25.5">
       <c r="A761" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" s="14" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="14" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" s="14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="14" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" s="14" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="14" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" s="14" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="14" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" s="14" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="14" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="14" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" s="14" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="774" spans="1:1">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" ht="25.5">
       <c r="A774" s="14" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" ht="25.5">
       <c r="A775" s="14" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="14" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" s="14" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="14" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="779" spans="1:1">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" ht="25.5">
       <c r="A779" s="15" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" ht="38.25">
       <c r="A780" s="14" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" s="14" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="14" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" s="14" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="14" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" s="14" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="14" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" s="14" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="14" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="14" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="14" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" s="14" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="14" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" s="14" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="14" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" s="14" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="14" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" s="14" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" ht="25.5">
       <c r="A798" s="15" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="799" spans="1:1">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" ht="25.5">
       <c r="A799" s="15" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="15" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="801" spans="1:1">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" ht="25.5">
       <c r="A801" s="14" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="802" spans="1:1">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" ht="25.5">
       <c r="A802" s="14" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803" s="14" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="14" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="14" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="807" spans="1:1">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" ht="63.75">
       <c r="A807" s="15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="14" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809" s="14" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="810" spans="1:1">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" ht="25.5">
       <c r="A810" s="14" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="811" spans="1:1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" ht="25.5">
       <c r="A811" s="14" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="14" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="14" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="14" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="815" spans="1:1">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" ht="25.5">
       <c r="A815" s="14" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="14" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="817" spans="1:1">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" ht="25.5">
       <c r="A817" s="14" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="818" spans="1:1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" ht="25.5">
       <c r="A818" s="15" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="819" spans="1:1">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" ht="25.5">
       <c r="A819" s="14" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="821" spans="1:1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" ht="25.5">
       <c r="A821" s="14" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="14" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="823" spans="1:1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" ht="25.5">
       <c r="A823" s="15" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="824" spans="1:1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" ht="25.5">
       <c r="A824" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="14" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="14" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" s="14" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="14" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" s="14" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="14" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="831" spans="1:1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" ht="25.5">
       <c r="A831" s="14" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" ht="25.5">
       <c r="A832" s="14" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833" s="14" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="834" spans="1:1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" ht="25.5">
       <c r="A834" s="14" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835" s="14" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="14" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837" s="14" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="14" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" s="14" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="14" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841" s="14" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="14" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="843" spans="1:1">
-      <c r="A843" s="17" t="s">
-        <v>993</v>
+      <c r="A843" s="14" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="14" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" ht="25.5">
       <c r="A845" s="14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="14" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847" s="14" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="14" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849" s="14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="14" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="851" spans="1:1">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" ht="25.5">
       <c r="A851" s="14" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="852" spans="1:1">
-      <c r="A852" s="7" t="s">
+      <c r="A852" s="14" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" ht="38.25">
+      <c r="A853" s="14" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" ht="38.25">
+      <c r="A854" s="14" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" ht="25.5">
+      <c r="A855" s="14" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" ht="25.5">
+      <c r="A856" s="14" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" s="14" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" ht="25.5">
+      <c r="A858" s="14" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" s="14" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" s="14" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861" s="14" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" s="14" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" s="14" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" s="14" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="14" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="14" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" s="14" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" s="14" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="14" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" ht="25.5">
+      <c r="A870" s="14" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" s="14" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="14" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" s="14" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="14" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" s="14" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" ht="25.5">
+      <c r="A877" s="14" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" s="14" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" ht="25.5">
+      <c r="A879" s="14" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" s="14" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="14" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" s="14" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" s="14" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" s="14" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" s="14" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886" s="14" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" s="14" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="853" spans="1:1" ht="45">
-      <c r="A853" s="7" t="s">
+    <row r="888" spans="1:1">
+      <c r="A888" s="14" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="854" spans="1:1" ht="45">
-      <c r="A854" s="7" t="s">
+    <row r="889" spans="1:1">
+      <c r="A889" s="14" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="855" spans="1:1" ht="30">
-      <c r="A855" s="7" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="856" spans="1:1" ht="30">
-      <c r="A856" s="7" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="857" spans="1:1">
-      <c r="A857" s="7" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="858" spans="1:1" ht="30">
-      <c r="A858" s="7" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="859" spans="1:1">
-      <c r="A859" s="7" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="860" spans="1:1">
-      <c r="A860" s="7" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="861" spans="1:1">
-      <c r="A861" s="7" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="862" spans="1:1">
-      <c r="A862" s="18" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="863" spans="1:1">
-      <c r="A863" s="18" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="864" spans="1:1">
-      <c r="A864" s="18" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1">
-      <c r="A865" s="18" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="866" spans="1:1">
-      <c r="A866" s="18" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="867" spans="1:1">
-      <c r="A867" s="18" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="868" spans="1:1">
-      <c r="A868" s="18" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="869" spans="1:1">
-      <c r="A869" s="18" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="870" spans="1:1" ht="26.25">
-      <c r="A870" s="18" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="871" spans="1:1">
-      <c r="A871" s="18" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="872" spans="1:1">
-      <c r="A872" s="18" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="873" spans="1:1">
-      <c r="A873" s="18" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="874" spans="1:1">
-      <c r="A874" s="18" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="875" spans="1:1">
-      <c r="A875" s="7" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="876" spans="1:1">
-      <c r="A876" s="7" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="877" spans="1:1" ht="30">
-      <c r="A877" s="7" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="878" spans="1:1">
-      <c r="A878" s="7" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="879" spans="1:1" ht="30">
-      <c r="A879" s="7" t="s">
+    <row r="890" spans="1:1" ht="38.25">
+      <c r="A890" s="14" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" s="14" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" ht="51">
+      <c r="A892" s="14" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" ht="38.25">
+      <c r="A893" s="14" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" s="14" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" ht="38.25">
+      <c r="A895" s="14" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896" s="14" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897" s="14" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898" s="14" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" s="14" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" s="14" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="880" spans="1:1">
-      <c r="A880" s="7" t="s">
+    <row r="901" spans="1:1">
+      <c r="A901" s="14" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="881" spans="1:1">
-      <c r="A881" s="7" t="s">
+    <row r="902" spans="1:1">
+      <c r="A902" s="14" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" s="14" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="882" spans="1:1">
-      <c r="A882" s="18" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="883" spans="1:1">
-      <c r="A883" s="18" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="884" spans="1:1">
-      <c r="A884" s="18" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="885" spans="1:1">
-      <c r="A885" s="18" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="886" spans="1:1">
-      <c r="A886" s="18" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="887" spans="1:1">
-      <c r="A887" s="18" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="888" spans="1:1">
-      <c r="A888" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="889" spans="1:1">
-      <c r="A889" s="7" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="890" spans="1:1" ht="45">
-      <c r="A890" s="7" t="s">
+    <row r="904" spans="1:1" ht="25.5">
+      <c r="A904" s="14" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" ht="51">
+      <c r="A905" s="14" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" ht="25.5">
+      <c r="A906" s="14" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907" s="14" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" ht="25.5">
+      <c r="A908" s="14" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" ht="25.5">
+      <c r="A909" s="14" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" s="14" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" ht="25.5">
+      <c r="A911" s="14" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" s="14" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" ht="25.5">
+      <c r="A913" s="14" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" s="14" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" ht="25.5">
+      <c r="A915" s="14" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916" s="14" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" ht="25.5">
+      <c r="A917" s="14" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" s="14" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919" s="14" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" s="14" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921" s="14" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922" s="14" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" ht="38.25">
+      <c r="A923" s="14" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" ht="25.5">
+      <c r="A924" s="14" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925" s="14" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" ht="25.5">
+      <c r="A926" s="14" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" s="14" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" ht="38.25">
+      <c r="A928" s="14" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="891" spans="1:1">
-      <c r="A891" s="7" t="s">
+    <row r="929" spans="1:1">
+      <c r="A929" s="14" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="892" spans="1:1" ht="60">
-      <c r="A892" s="7" t="s">
+    <row r="930" spans="1:1">
+      <c r="A930" s="14" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="893" spans="1:1" ht="45">
-      <c r="A893" s="7" t="s">
+    <row r="931" spans="1:1">
+      <c r="A931" s="14" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="894" spans="1:1">
-      <c r="A894" s="7" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="895" spans="1:1" ht="60">
-      <c r="A895" s="7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="896" spans="1:1">
-      <c r="A896" s="18" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="897" spans="1:1">
-      <c r="A897" s="18" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="898" spans="1:1">
-      <c r="A898" s="18" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="899" spans="1:1">
-      <c r="A899" s="18" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="900" spans="1:1">
-      <c r="A900" s="18" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="901" spans="1:1">
-      <c r="A901" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="902" spans="1:1">
-      <c r="A902" s="18" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="903" spans="1:1">
-      <c r="A903" s="7" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="904" spans="1:1" ht="30">
-      <c r="A904" s="7" t="s">
+    <row r="932" spans="1:1">
+      <c r="A932" s="14" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933" s="14" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934" s="14" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" s="14" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" ht="25.5">
+      <c r="A936" s="14" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937" s="14" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938" s="14" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939" s="14" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940" s="14" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941" s="14" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942" s="14" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943" s="14" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" ht="25.5">
+      <c r="A944" s="14" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945" s="14" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" s="14" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" ht="38.25">
+      <c r="A947" s="14" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948" s="14" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="905" spans="1:1" ht="60">
-      <c r="A905" s="7" t="s">
+    <row r="949" spans="1:1" ht="25.5">
+      <c r="A949" s="14" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="906" spans="1:1" ht="26.25">
-      <c r="A906" s="18" t="s">
+    <row r="950" spans="1:1" ht="51">
+      <c r="A950" s="14" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="907" spans="1:1" ht="30">
-      <c r="A907" s="7" t="s">
+    <row r="951" spans="1:1">
+      <c r="A951" s="14" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="908" spans="1:1" ht="30">
-      <c r="A908" s="7" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="909" spans="1:1" ht="30">
-      <c r="A909" s="7" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="910" spans="1:1">
-      <c r="A910" s="7" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="911" spans="1:1" ht="30">
-      <c r="A911" s="7" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="912" spans="1:1">
-      <c r="A912" s="7" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="913" spans="1:1" ht="45">
-      <c r="A913" s="7" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="914" spans="1:1">
-      <c r="A914" s="7" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="915" spans="1:1" ht="30">
-      <c r="A915" s="7" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="916" spans="1:1">
-      <c r="A916" s="7" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="917" spans="1:1">
-      <c r="A917" s="19" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="918" spans="1:1">
-      <c r="A918" s="7" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="919" spans="1:1">
-      <c r="A919" s="7" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="920" spans="1:1">
-      <c r="A920" s="7" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="921" spans="1:1">
-      <c r="A921" s="18" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="922" spans="1:1">
-      <c r="A922" s="18" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="923" spans="1:1" ht="39">
-      <c r="A923" s="18" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="924" spans="1:1" ht="26.25">
-      <c r="A924" s="18" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="925" spans="1:1">
-      <c r="A925" s="7" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="926" spans="1:1" ht="26.25">
-      <c r="A926" s="18" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="927" spans="1:1">
-      <c r="A927" s="18" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1" ht="39">
-      <c r="A928" s="18" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="929" spans="1:1">
-      <c r="A929" s="18" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="930" spans="1:1">
-      <c r="A930" s="18" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="931" spans="1:1">
-      <c r="A931" s="18" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="932" spans="1:1">
-      <c r="A932" s="7" t="s">
+    <row r="952" spans="1:1">
+      <c r="A952" s="14" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" s="14" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954" s="14" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" ht="25.5">
+      <c r="A955" s="14" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" s="14" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" s="14" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958" s="14" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" s="14" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" s="14" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" ht="25.5">
+      <c r="A961" s="14" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" s="14" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" ht="38.25">
+      <c r="A963" s="14" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" ht="38.25">
+      <c r="A964" s="14" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" ht="38.25">
+      <c r="A965" s="14" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" ht="38.25">
+      <c r="A967" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" ht="38.25">
+      <c r="A968" s="14" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" s="14" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="14" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" s="14" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972" s="14" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" s="14" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" s="14" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" s="14" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" s="14" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" ht="25.5">
+      <c r="A977" s="14" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" s="14" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" s="14" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" ht="25.5">
+      <c r="A980" s="14" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" s="14" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" s="14" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" s="14" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="933" spans="1:1">
-      <c r="A933" s="7" t="s">
+    <row r="984" spans="1:1">
+      <c r="A984" s="14" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="934" spans="1:1">
-      <c r="A934" s="7" t="s">
+    <row r="985" spans="1:1">
+      <c r="A985" s="14" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="935" spans="1:1">
-      <c r="A935" s="7" t="s">
+    <row r="986" spans="1:1">
+      <c r="A986" s="14" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="936" spans="1:1">
-      <c r="A936" s="19" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1">
-      <c r="A937" s="19" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="938" spans="1:1">
-      <c r="A938" s="7" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="939" spans="1:1">
-      <c r="A939" s="18" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="940" spans="1:1">
-      <c r="A940" s="18" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="941" spans="1:1">
-      <c r="A941" s="18" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="942" spans="1:1">
-      <c r="A942" s="7" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="943" spans="1:1" ht="30">
-      <c r="A943" s="7" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="944" spans="1:1" ht="30">
-      <c r="A944" s="7" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="945" spans="1:1">
-      <c r="A945" s="18" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1">
-      <c r="A946" s="18" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="947" spans="1:1" ht="39">
-      <c r="A947" s="18" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="948" spans="1:1">
-      <c r="A948" s="7" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="949" spans="1:1">
-      <c r="A949" s="18" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="950" spans="1:1" ht="51.75">
-      <c r="A950" s="18" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="951" spans="1:1">
-      <c r="A951" s="7" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="952" spans="1:1">
-      <c r="A952" s="18" t="s">
+    <row r="987" spans="1:1" ht="25.5">
+      <c r="A987" s="14" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" ht="25.5">
+      <c r="A988" s="14" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" ht="51">
+      <c r="A989" s="15" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990" s="14" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" ht="25.5">
+      <c r="A991" s="14" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" s="14" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" ht="25.5">
+      <c r="A993" s="14" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" s="14" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" s="14" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" s="14" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="953" spans="1:1">
-      <c r="A953" s="18" t="s">
+    <row r="997" spans="1:1">
+      <c r="A997" s="14" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="954" spans="1:1">
-      <c r="A954" s="18" t="s">
+    <row r="998" spans="1:1">
+      <c r="A998" s="14" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="955" spans="1:1" ht="26.25">
-      <c r="A955" s="18" t="s">
+    <row r="999" spans="1:1">
+      <c r="A999" s="14" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="956" spans="1:1">
-      <c r="A956" s="7" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="957" spans="1:1">
-      <c r="A957" s="7" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="958" spans="1:1">
-      <c r="A958" s="18" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="959" spans="1:1">
-      <c r="A959" s="18" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="960" spans="1:1">
-      <c r="A960" s="7" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="961" spans="1:1" ht="30">
-      <c r="A961" s="7" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="962" spans="1:1">
-      <c r="A962" s="7" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1" ht="45">
-      <c r="A963" s="7" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1" ht="45">
-      <c r="A964" s="7" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="965" spans="1:1" ht="45">
-      <c r="A965" s="7" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="966" spans="1:1" ht="30">
-      <c r="A966" s="7" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="967" spans="1:1" ht="45">
-      <c r="A967" s="7" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="968" spans="1:1" ht="45">
-      <c r="A968" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1">
-      <c r="A969" s="18" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1">
-      <c r="A970" s="18" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="971" spans="1:1">
-      <c r="A971" s="18" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="972" spans="1:1">
-      <c r="A972" s="18" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="973" spans="1:1">
-      <c r="A973" s="18" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="974" spans="1:1">
-      <c r="A974" s="18" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="975" spans="1:1">
-      <c r="A975" s="18" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1">
-      <c r="A976" s="7" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="977" spans="1:1" ht="30">
-      <c r="A977" s="7" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="978" spans="1:1">
-      <c r="A978" s="18" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="979" spans="1:1">
-      <c r="A979" s="18" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="980" spans="1:1" ht="26.25">
-      <c r="A980" s="18" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="981" spans="1:1">
-      <c r="A981" s="18" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="982" spans="1:1">
-      <c r="A982" s="18" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1">
-      <c r="A983" s="7" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="984" spans="1:1" ht="30">
-      <c r="A984" s="7" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="985" spans="1:1">
-      <c r="A985" s="7" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="986" spans="1:1">
-      <c r="A986" s="7" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="987" spans="1:1" ht="30">
-      <c r="A987" s="7" t="s">
+    <row r="1000" spans="1:1">
+      <c r="A1000" s="14" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" s="14" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" ht="51">
+      <c r="A1002" s="14" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" ht="38.25">
+      <c r="A1003" s="14" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004" s="14" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" ht="25.5">
+      <c r="A1005" s="14" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" ht="25.5">
+      <c r="A1006" s="14" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" ht="25.5">
+      <c r="A1007" s="14" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008" s="14" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" s="14" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" ht="25.5">
+      <c r="A1010" s="14" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="988" spans="1:1" ht="30">
-      <c r="A988" s="7" t="s">
+    <row r="1011" spans="1:1" ht="25.5">
+      <c r="A1011" s="14" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="989" spans="1:1" ht="75">
-      <c r="A989" s="20" t="s">
+    <row r="1012" spans="1:1" ht="25.5">
+      <c r="A1012" s="14" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="990" spans="1:1">
-      <c r="A990" s="18" t="s">
+    <row r="1013" spans="1:1">
+      <c r="A1013" s="14" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="991" spans="1:1" ht="26.25">
-      <c r="A991" s="18" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1">
-      <c r="A992" s="18" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="993" spans="1:1" ht="26.25">
-      <c r="A993" s="18" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="994" spans="1:1">
-      <c r="A994" s="18" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1">
-      <c r="A995" s="7" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="996" spans="1:1">
-      <c r="A996" s="19" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="997" spans="1:1">
-      <c r="A997" s="19" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="998" spans="1:1">
-      <c r="A998" s="7" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1" ht="30">
-      <c r="A999" s="7" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:1" ht="15.75">
-      <c r="A1000" s="21" t="s">
+    <row r="1014" spans="1:1">
+      <c r="A1014" s="14" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" ht="38.25">
+      <c r="A1015" s="14" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016" s="14" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1">
+      <c r="A1017" s="14" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" ht="51">
+      <c r="A1018" s="14" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" ht="25.5">
+      <c r="A1019" s="14" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" ht="25.5">
+      <c r="A1020" s="14" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021" s="14" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" ht="25.5">
+      <c r="A1022" s="14" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" ht="38.25">
+      <c r="A1023" s="14" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024" s="14" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" ht="25.5">
+      <c r="A1025" s="14" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026" s="14" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" ht="38.25">
+      <c r="A1027" s="14" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="1001" spans="1:1">
-      <c r="A1001" s="7" t="s">
+    <row r="1028" spans="1:1" ht="25.5">
+      <c r="A1028" s="14" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" ht="60">
-      <c r="A1002" s="7" t="s">
+    <row r="1029" spans="1:1" ht="25.5">
+      <c r="A1029" s="14" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" ht="60">
-      <c r="A1003" s="7" t="s">
+    <row r="1030" spans="1:1">
+      <c r="A1030" s="14" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="1004" spans="1:1">
-      <c r="A1004" s="7" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1" ht="30">
-      <c r="A1005" s="7" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1" ht="30">
-      <c r="A1006" s="7" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1" ht="30">
-      <c r="A1007" s="7" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1">
-      <c r="A1008" s="7" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1">
-      <c r="A1009" s="7" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1" ht="30">
-      <c r="A1010" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:1" ht="30">
-      <c r="A1011" s="7" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:1" ht="30">
-      <c r="A1012" s="7" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:1">
-      <c r="A1013" s="7" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:1" ht="30">
-      <c r="A1014" s="7" t="s">
+    <row r="1031" spans="1:1">
+      <c r="A1031" s="14" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032" s="14" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" ht="25.5">
+      <c r="A1033" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" ht="25.5">
+      <c r="A1034" s="14" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" ht="25.5">
+      <c r="A1035" s="14" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" ht="25.5">
+      <c r="A1036" s="14" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1">
+      <c r="A1037" s="14" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038" s="14" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" ht="25.5">
+      <c r="A1039" s="14" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" ht="25.5">
+      <c r="A1040" s="14" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" ht="25.5">
+      <c r="A1041" s="14" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" ht="25.5">
+      <c r="A1042" s="14" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043" s="14" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044" s="14" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" ht="25.5">
+      <c r="A1045" s="14" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" ht="38.25">
+      <c r="A1046" s="14" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" ht="25.5">
+      <c r="A1047" s="14" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048" s="17" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" ht="25.5">
+      <c r="A1049" s="14" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" ht="25.5">
+      <c r="A1050" s="14" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051" s="14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" ht="25.5">
+      <c r="A1052" s="14" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1">
+      <c r="A1053" s="14" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" ht="39">
-      <c r="A1015" s="18" t="s">
+    <row r="1054" spans="1:1" ht="25.5">
+      <c r="A1054" s="14" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" ht="30">
-      <c r="A1016" s="7" t="s">
+    <row r="1055" spans="1:1" ht="25.5">
+      <c r="A1055" s="14" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" ht="30">
-      <c r="A1017" s="7" t="s">
+    <row r="1056" spans="1:1" ht="25.5">
+      <c r="A1056" s="14" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" ht="60">
-      <c r="A1018" s="7" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:1">
-      <c r="A1019" s="19" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:1" ht="30">
-      <c r="A1020" s="7" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:1" ht="30">
-      <c r="A1021" s="7" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:1" ht="30">
-      <c r="A1022" s="7" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:1" ht="45">
-      <c r="A1023" s="7" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:1">
-      <c r="A1024" s="7" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1" ht="45">
-      <c r="A1025" s="7" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:1">
-      <c r="A1026" s="7" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1" ht="45">
-      <c r="A1027" s="7" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:1" ht="30">
-      <c r="A1028" s="7" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:1" ht="30">
-      <c r="A1029" s="7" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:1">
-      <c r="A1030" s="7" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:1" ht="30">
-      <c r="A1031" s="7" t="s">
+    <row r="1057" spans="1:1">
+      <c r="A1057" s="14" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" ht="25.5">
+      <c r="A1058" s="14" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" ht="38.25">
+      <c r="A1059" s="14" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" ht="38.25">
+      <c r="A1060" s="14" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1">
+      <c r="A1061" s="14" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" ht="25.5">
+      <c r="A1062" s="14" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1">
+      <c r="A1063" s="14" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" ht="25.5">
+      <c r="A1064" s="14" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" ht="25.5">
+      <c r="A1065" s="14" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" ht="25.5">
+      <c r="A1066" s="14" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" ht="25.5">
+      <c r="A1067" s="14" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" ht="38.25">
+      <c r="A1068" s="14" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="1032" spans="1:1">
-      <c r="A1032" s="7" t="s">
+    <row r="1069" spans="1:1" ht="25.5">
+      <c r="A1069" s="14" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" ht="30">
-      <c r="A1033" s="7" t="s">
+    <row r="1070" spans="1:1" ht="25.5">
+      <c r="A1070" s="14" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" ht="30">
-      <c r="A1034" s="7" t="s">
+    <row r="1071" spans="1:1">
+      <c r="A1071" s="14" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" ht="30">
-      <c r="A1035" s="7" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:1" ht="26.25">
-      <c r="A1036" s="18" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:1">
-      <c r="A1037" s="7" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:1">
-      <c r="A1038" s="7" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:1" ht="30">
-      <c r="A1039" s="7" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1" ht="30">
-      <c r="A1040" s="7" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:1" ht="30">
-      <c r="A1041" s="7" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:1" ht="30">
-      <c r="A1042" s="7" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:1">
-      <c r="A1043" s="7" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:1">
-      <c r="A1044" s="7" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1" ht="30">
-      <c r="A1045" s="7" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:1" ht="45">
-      <c r="A1046" s="7" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:1" ht="30">
-      <c r="A1047" s="7" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:1">
-      <c r="A1048" s="22" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:1" ht="30">
-      <c r="A1049" s="7" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:1" ht="30">
-      <c r="A1050" s="7" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:1">
-      <c r="A1051" s="7" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:1" ht="30">
-      <c r="A1052" s="7" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:1">
-      <c r="A1053" s="7" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:1" ht="30">
-      <c r="A1054" s="7" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:1" ht="30">
-      <c r="A1055" s="7" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:1" ht="30">
-      <c r="A1056" s="7" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:1">
-      <c r="A1057" s="7" t="s">
+    <row r="1072" spans="1:1" ht="38.25">
+      <c r="A1072" s="14" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" ht="38.25">
+      <c r="A1073" s="14" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" ht="25.5">
+      <c r="A1074" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1">
+      <c r="A1075" s="14" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="1058" spans="1:1">
-      <c r="A1058" s="19" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:1" ht="45">
-      <c r="A1059" s="7" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:1" ht="45">
-      <c r="A1060" s="7" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:1" ht="30">
-      <c r="A1061" s="7" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:1" ht="30">
-      <c r="A1062" s="7" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:1">
-      <c r="A1063" s="7" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:1" ht="45">
-      <c r="A1064" s="7" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:1" ht="30">
-      <c r="A1065" s="7" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:1" ht="26.25">
-      <c r="A1066" s="18" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:1" ht="30">
-      <c r="A1067" s="7" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:1" ht="45">
-      <c r="A1068" s="7" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:1" ht="30">
-      <c r="A1069" s="7" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:1" ht="30">
-      <c r="A1070" s="7" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:1">
-      <c r="A1071" s="7" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:1" ht="45">
-      <c r="A1072" s="7" t="s">
+    <row r="1076" spans="1:1">
+      <c r="A1076" s="14" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="1073" spans="1:1" ht="45">
-      <c r="A1073" s="7" t="s">
+    <row r="1077" spans="1:1" ht="25.5">
+      <c r="A1077" s="14" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="1074" spans="1:1" ht="30">
-      <c r="A1074" s="7" t="s">
+    <row r="1078" spans="1:1">
+      <c r="A1078" s="14" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="1075" spans="1:1">
-      <c r="A1075" s="7" t="s">
+    <row r="1079" spans="1:1" ht="38.25">
+      <c r="A1079" s="14" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="1076" spans="1:1" ht="30">
-      <c r="A1076" s="7" t="s">
+    <row r="1080" spans="1:1" ht="25.5">
+      <c r="A1080" s="14" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" ht="26.25">
-      <c r="A1077" s="18" t="s">
+    <row r="1081" spans="1:1" ht="25.5">
+      <c r="A1081" s="14" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="1078" spans="1:1">
-      <c r="A1078" s="7" t="s">
+    <row r="1082" spans="1:1">
+      <c r="A1082" s="14" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="1079" spans="1:1" ht="45">
-      <c r="A1079" s="7" t="s">
+    <row r="1083" spans="1:1" ht="25.5">
+      <c r="A1083" s="14" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="1080" spans="1:1" ht="45">
-      <c r="A1080" s="7" t="s">
+    <row r="1084" spans="1:1" ht="25.5">
+      <c r="A1084" s="14" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="1081" spans="1:1" ht="45">
-      <c r="A1081" s="7" t="s">
+    <row r="1085" spans="1:1" ht="25.5">
+      <c r="A1085" s="14" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="1082" spans="1:1">
-      <c r="A1082" s="7" t="s">
+    <row r="1086" spans="1:1" ht="25.5">
+      <c r="A1086" s="14" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="1083" spans="1:1" ht="45">
-      <c r="A1083" s="7" t="s">
+    <row r="1087" spans="1:1">
+      <c r="A1087" s="14" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="1084" spans="1:1" ht="30">
-      <c r="A1084" s="7" t="s">
+    <row r="1088" spans="1:1" ht="38.25">
+      <c r="A1088" s="14" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="1085" spans="1:1" ht="45">
-      <c r="A1085" s="7" t="s">
+    <row r="1089" spans="1:1">
+      <c r="A1089" s="14" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="1086" spans="1:1" ht="30">
-      <c r="A1086" s="7" t="s">
+    <row r="1090" spans="1:1">
+      <c r="A1090" s="14" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="1087" spans="1:1" ht="30">
-      <c r="A1087" s="7" t="s">
+    <row r="1091" spans="1:1">
+      <c r="A1091" s="14" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="1088" spans="1:1" ht="45">
-      <c r="A1088" s="7" t="s">
+    <row r="1092" spans="1:1">
+      <c r="A1092" s="14" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="1089" spans="1:1" ht="30">
-      <c r="A1089" s="7" t="s">
+    <row r="1093" spans="1:1" ht="25.5">
+      <c r="A1093" s="14" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="1090" spans="1:1">
-      <c r="A1090" s="7" t="s">
+    <row r="1094" spans="1:1" ht="25.5">
+      <c r="A1094" s="14" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="1091" spans="1:1" ht="30">
-      <c r="A1091" s="7" t="s">
+    <row r="1095" spans="1:1">
+      <c r="A1095" s="14" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="1092" spans="1:1">
-      <c r="A1092" s="7" t="s">
+    <row r="1096" spans="1:1">
+      <c r="A1096" s="14" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="1093" spans="1:1" ht="30">
-      <c r="A1093" s="7" t="s">
+    <row r="1097" spans="1:1">
+      <c r="A1097" s="14" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="1094" spans="1:1">
-      <c r="A1094" s="19" t="s">
+    <row r="1098" spans="1:1" ht="25.5">
+      <c r="A1098" s="14" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="1095" spans="1:1">
-      <c r="A1095" s="7" t="s">
+    <row r="1099" spans="1:1">
+      <c r="A1099" s="14" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="1096" spans="1:1">
-      <c r="A1096" s="7" t="s">
+    <row r="1100" spans="1:1">
+      <c r="A1100" s="14" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="1097" spans="1:1">
-      <c r="A1097" s="7" t="s">
+    <row r="1101" spans="1:1">
+      <c r="A1101" s="14" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="1098" spans="1:1" ht="30">
-      <c r="A1098" s="7" t="s">
+    <row r="1102" spans="1:1" ht="25.5">
+      <c r="A1102" s="14" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="1099" spans="1:1">
-      <c r="A1099" s="7" t="s">
+    <row r="1103" spans="1:1" ht="51">
+      <c r="A1103" s="14" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="1100" spans="1:1" ht="30">
-      <c r="A1100" s="7" t="s">
+    <row r="1104" spans="1:1" ht="25.5">
+      <c r="A1104" s="14" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="1101" spans="1:1">
-      <c r="A1101" s="7" t="s">
+    <row r="1105" spans="1:1">
+      <c r="A1105" s="14" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" ht="30">
-      <c r="A1102" s="7" t="s">
+    <row r="1106" spans="1:1" ht="25.5">
+      <c r="A1106" s="14" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="1103" spans="1:1" ht="60">
-      <c r="A1103" s="7" t="s">
+    <row r="1107" spans="1:1">
+      <c r="A1107" s="14" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="1104" spans="1:1" ht="30">
-      <c r="A1104" s="7" t="s">
+    <row r="1108" spans="1:1" ht="38.25">
+      <c r="A1108" s="14" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="1105" spans="1:1">
-      <c r="A1105" s="7" t="s">
+    <row r="1109" spans="1:1" ht="25.5">
+      <c r="A1109" s="14" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="1106" spans="1:1" ht="30">
-      <c r="A1106" s="7" t="s">
+    <row r="1110" spans="1:1" ht="25.5">
+      <c r="A1110" s="14" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="1107" spans="1:1">
-      <c r="A1107" s="7" t="s">
+    <row r="1111" spans="1:1">
+      <c r="A1111" s="14" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" ht="45">
-      <c r="A1108" s="7" t="s">
+    <row r="1112" spans="1:1" ht="25.5">
+      <c r="A1112" s="14" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1">
+      <c r="A1113" s="14" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" ht="25.5">
+      <c r="A1114" s="14" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" ht="51">
+      <c r="A1115" s="15" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1">
+      <c r="A1116" s="14" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1">
+      <c r="A1117" s="14" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1">
+      <c r="A1118" s="14" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" ht="25.5">
+      <c r="A1119" s="14" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" ht="25.5">
+      <c r="A1120" s="14" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" ht="25.5">
+      <c r="A1121" s="14" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" ht="38.25">
+      <c r="A1122" s="14" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" ht="38.25">
+      <c r="A1123" s="14" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1">
+      <c r="A1124" s="14" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1">
+      <c r="A1125" s="14" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" ht="25.5">
+      <c r="A1126" s="14" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" ht="25.5">
+      <c r="A1127" s="14" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="1109" spans="1:1" ht="30">
-      <c r="A1109" s="7" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:1" ht="26.25">
-      <c r="A1110" s="18" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:1">
-      <c r="A1111" s="7" t="s">
-        <v>1253</v>
+    <row r="1128" spans="1:1" ht="25.5">
+      <c r="A1128" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" ht="25.5">
+      <c r="A1129" s="14" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" ht="25.5">
+      <c r="A1130" s="14" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1">
+      <c r="A1131" s="14" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" ht="25.5">
+      <c r="A1132" s="14" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1">
+      <c r="A1133" s="14" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" ht="25.5">
+      <c r="A1134" s="14" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" ht="25.5">
+      <c r="A1135" s="14" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" ht="25.5">
+      <c r="A1136" s="14" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" ht="25.5">
+      <c r="A1137" s="14" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" ht="51">
+      <c r="A1138" s="15" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" ht="25.5">
+      <c r="A1139" s="14" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" ht="38.25">
+      <c r="A1140" s="14" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" ht="25.5">
+      <c r="A1141" s="14" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" ht="25.5">
+      <c r="A1142" s="14" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" ht="38.25">
+      <c r="A1143" s="14" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" ht="25.5">
+      <c r="A1144" s="14" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1">
+      <c r="A1145" s="14" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1">
+      <c r="A1146" s="14" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1">
+      <c r="A1147" s="14" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" ht="25.5">
+      <c r="A1148" s="14" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" ht="25.5">
+      <c r="A1149" s="14" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" ht="38.25">
+      <c r="A1150" s="14" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" ht="38.25">
+      <c r="A1151" s="14" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" ht="25.5">
+      <c r="A1152" s="14" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1">
+      <c r="A1153" s="14" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" ht="25.5">
+      <c r="A1154" s="14" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" ht="38.25">
+      <c r="A1155" s="14" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1">
+      <c r="A1156" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" ht="25.5">
+      <c r="A1157" s="14" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" ht="25.5">
+      <c r="A1158" s="14" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" ht="25.5">
+      <c r="A1159" s="14" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" ht="25.5">
+      <c r="A1160" s="14" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" ht="38.25">
+      <c r="A1161" s="14" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" ht="25.5">
+      <c r="A1162" s="14" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1">
+      <c r="A1163" s="14" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" ht="25.5">
+      <c r="A1164" s="14" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1">
+      <c r="A1165" s="14" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1">
+      <c r="A1166" s="14" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" ht="25.5">
+      <c r="A1167" s="14" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1">
+      <c r="A1168" s="14" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1">
+      <c r="A1169" s="14" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" ht="25.5">
+      <c r="A1170" s="14" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1">
+      <c r="A1171" s="14" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1">
+      <c r="A1172" s="14" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1">
+      <c r="A1173" s="14" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" ht="25.5">
+      <c r="A1174" s="14" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" ht="25.5">
+      <c r="A1175" s="14" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1">
+      <c r="A1176" s="14" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1">
+      <c r="A1177" s="14" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" ht="25.5">
+      <c r="A1178" s="14" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" ht="25.5">
+      <c r="A1179" s="14" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1">
+      <c r="A1180" s="14" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" ht="25.5">
+      <c r="A1181" s="14" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1">
+      <c r="A1182" s="14" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" ht="25.5">
+      <c r="A1183" s="14" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" ht="25.5">
+      <c r="A1184" s="14" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" ht="25.5">
+      <c r="A1185" s="14" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1">
+      <c r="A1186" s="14" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" ht="51">
+      <c r="A1187" s="14" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1">
+      <c r="A1188" s="14" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" ht="25.5">
+      <c r="A1189" s="14" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" ht="25.5">
+      <c r="A1190" s="14" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1">
+      <c r="A1191" s="14" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" ht="25.5">
+      <c r="A1192" s="14" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1">
+      <c r="A1193" s="14" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1">
+      <c r="A1194" s="14" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1">
+      <c r="A1195" s="14" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" ht="38.25">
+      <c r="A1196" s="14" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" ht="25.5">
+      <c r="A1197" s="14" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1">
+      <c r="A1198" s="14" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" ht="25.5">
+      <c r="A1199" s="14" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" ht="25.5">
+      <c r="A1200" s="14" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" ht="25.5">
+      <c r="A1201" s="14" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" ht="25.5">
+      <c r="A1202" s="14" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" ht="38.25">
+      <c r="A1203" s="14" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" ht="38.25">
+      <c r="A1204" s="14" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1">
+      <c r="A1205" s="14" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" ht="25.5">
+      <c r="A1206" s="14" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1">
+      <c r="A1207" s="14" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" ht="25.5">
+      <c r="A1208" s="14" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" ht="25.5">
+      <c r="A1209" s="14" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1">
+      <c r="A1210" s="14" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" ht="25.5">
+      <c r="A1211" s="14" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" ht="25.5">
+      <c r="A1212" s="14" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" ht="25.5">
+      <c r="A1213" s="14" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1">
+      <c r="A1214" s="14" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1">
+      <c r="A1215" s="14" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1">
+      <c r="A1216" s="14" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" ht="25.5">
+      <c r="A1217" s="14" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1">
+      <c r="A1218" s="14" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1">
+      <c r="A1219" s="14" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" ht="25.5">
+      <c r="A1220" s="14" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1">
+      <c r="A1221" s="14" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1">
+      <c r="A1222" s="14" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1">
+      <c r="A1223" s="14" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1">
+      <c r="A1224" s="14" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" ht="38.25">
+      <c r="A1225" s="14" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" ht="25.5">
+      <c r="A1226" s="14" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1">
+      <c r="A1227" s="14" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" ht="25.5">
+      <c r="A1228" s="14" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1">
+      <c r="A1229" s="14" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1">
+      <c r="A1230" s="14" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1">
+      <c r="A1231" s="14" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1">
+      <c r="A1232" s="14" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1">
+      <c r="A1233" s="14" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1">
+      <c r="A1234" s="14" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1">
+      <c r="A1235" s="14" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1">
+      <c r="A1236" s="14" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1">
+      <c r="A1237" s="14" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1">
+      <c r="A1238" s="14" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1">
+      <c r="A1239" s="14" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" ht="38.25">
+      <c r="A1240" s="14" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" ht="25.5">
+      <c r="A1241" s="14" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" ht="38.25">
+      <c r="A1242" s="14" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" ht="25.5">
+      <c r="A1243" s="14" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" ht="25.5">
+      <c r="A1244" s="14" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" ht="38.25">
+      <c r="A1245" s="14" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" ht="38.25">
+      <c r="A1246" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" ht="25.5">
+      <c r="A1247" s="14" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1">
+      <c r="A1248" s="14" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" ht="25.5">
+      <c r="A1249" s="14" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" ht="25.5">
+      <c r="A1250" s="14" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1">
+      <c r="A1251" s="14" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" ht="38.25">
+      <c r="A1252" s="14" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1">
+      <c r="A1253" s="14" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1">
+      <c r="A1254" s="14" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1">
+      <c r="A1255" s="14" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1">
+      <c r="A1256" s="14" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" ht="38.25">
+      <c r="A1257" s="14" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" ht="25.5">
+      <c r="A1258" s="14" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" ht="25.5">
+      <c r="A1259" s="14" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1">
+      <c r="A1260" s="14" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1">
+      <c r="A1261" s="14" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" ht="25.5">
+      <c r="A1262" s="14" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1">
+      <c r="A1263" s="14" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" ht="38.25">
+      <c r="A1264" s="14" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" ht="25.5">
+      <c r="A1265" s="14" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1">
+      <c r="A1266" s="14" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1">
+      <c r="A1267" s="14" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" ht="25.5">
+      <c r="A1268" s="14" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" ht="25.5">
+      <c r="A1269" s="14" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" ht="25.5">
+      <c r="A1270" s="14" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" s="14" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" ht="25.5">
+      <c r="A1272" s="14" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" ht="25.5">
+      <c r="A1273" s="14" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1">
+      <c r="A1274" s="14" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" ht="25.5">
+      <c r="A1275" s="14" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" s="14" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" ht="25.5">
+      <c r="A1277" s="14" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1">
+      <c r="A1278" s="18" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" ht="25.5">
+      <c r="A1279" s="14" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" ht="25.5">
+      <c r="A1280" s="14" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" ht="25.5">
+      <c r="A1281" s="14" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1">
+      <c r="A1282" s="14" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" ht="25.5">
+      <c r="A1283" s="14" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1">
+      <c r="A1284" s="14" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1">
+      <c r="A1285" s="14" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1">
+      <c r="A1286" s="14" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" ht="25.5">
+      <c r="A1287" s="14" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" ht="25.5">
+      <c r="A1288" s="14" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1">
+      <c r="A1289" s="14" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1">
+      <c r="A1290" s="14" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1">
+      <c r="A1291" s="14" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1">
+      <c r="A1292" s="14" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" ht="51">
+      <c r="A1293" s="14" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" ht="25.5">
+      <c r="A1294" s="14" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" ht="25.5">
+      <c r="A1295" s="14" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1">
+      <c r="A1296" s="14" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" ht="25.5">
+      <c r="A1297" s="14" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1">
+      <c r="A1298" s="14" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" ht="25.5">
+      <c r="A1299" s="14" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" ht="25.5">
+      <c r="A1300" s="14" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" ht="38.25">
+      <c r="A1301" s="14" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" ht="25.5">
+      <c r="A1302" s="14" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" ht="25.5">
+      <c r="A1303" s="14" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1">
+      <c r="A1304" s="14" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" ht="25.5">
+      <c r="A1305" s="14" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" ht="51">
+      <c r="A1306" s="15" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" ht="25.5">
+      <c r="A1307" s="14" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" ht="25.5">
+      <c r="A1308" s="14" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" ht="25.5">
+      <c r="A1309" s="14" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" ht="25.5">
+      <c r="A1310" s="14" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" ht="25.5">
+      <c r="A1311" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1">
+      <c r="A1312" s="14" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" ht="38.25">
+      <c r="A1313" s="14" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1">
+      <c r="A1314" s="14" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1">
+      <c r="A1315" s="14" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" ht="38.25">
+      <c r="A1316" s="14" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" ht="25.5">
+      <c r="A1317" s="14" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1">
+      <c r="A1318" s="14" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" ht="25.5">
+      <c r="A1319" s="14" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" ht="51">
+      <c r="A1320" s="14" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" ht="25.5">
+      <c r="A1321" s="14" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" ht="25.5">
+      <c r="A1322" s="14" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" ht="38.25">
+      <c r="A1323" s="14" t="s">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>

--- a/History and customs of Jopadhola.xlsx
+++ b/History and customs of Jopadhola.xlsx
@@ -18,9 +18,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1466">
-  <si>
-    <t xml:space="preserve">WACH MA CHAKO </t>
-  </si>
   <si>
     <t xml:space="preserve">Aketho kitabo me i kompyuta to awiro go ma thin thin. </t>
   </si>
@@ -4460,6 +4457,9 @@
   </si>
   <si>
     <t xml:space="preserve">     Mati me i kuro tundo chieko mwenge ma kasiki.</t>
+  </si>
+  <si>
+    <t>county Team ma West Budama, District Commissioner, Bukedi, Community Development Officer, Mbale, kod Education Officer, Bukedi, ma jo yeyere kod wach ma goyo kitawo me i chapa kod wodho woko ri ji (printing and publishing).</t>
   </si>
 </sst>
 </file>
@@ -4538,7 +4538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4578,6 +4578,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4876,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1453" workbookViewId="0">
+      <selection activeCell="E1459" sqref="E1459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4888,7330 +4891,7330 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="15" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="45">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="30">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="30">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="60">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="60">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="45">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="30">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="45">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="30">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="30">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="30">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="30">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="60">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="60">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="30">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="30">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="45">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="45">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="30">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="45">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="45">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="30">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="45">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="45">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="30">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="30">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="45">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="45">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="60">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="30">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="45">
       <c r="A62" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="30">
       <c r="A63" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="30">
       <c r="A64" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="45">
       <c r="A65" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="30">
       <c r="A73" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="30">
       <c r="A74" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="30">
       <c r="A75" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="30">
       <c r="A76" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="30">
       <c r="A77" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="30">
       <c r="A78" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="45">
       <c r="A80" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="30">
       <c r="A82" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="30">
       <c r="A83" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="45">
       <c r="A84" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="45">
       <c r="A87" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="30">
       <c r="A88" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="45">
       <c r="A89" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="30">
       <c r="A90" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="30">
       <c r="A92" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="30">
       <c r="A93" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="30">
       <c r="A94" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="30">
       <c r="A95" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="30">
       <c r="A96" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="45">
       <c r="A97" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="30">
       <c r="A98" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="30">
       <c r="A100" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="30">
       <c r="A101" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="30">
       <c r="A105" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="45">
       <c r="A107" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="60">
       <c r="A108" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="45">
       <c r="A110" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="45">
       <c r="A111" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="30">
       <c r="A113" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="30">
       <c r="A114" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="45">
       <c r="A115" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="30">
       <c r="A116" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="45">
       <c r="A117" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="30">
       <c r="A118" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="30">
       <c r="A119" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="30">
       <c r="A120" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="45">
       <c r="A122" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="30">
       <c r="A123" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="30">
       <c r="A124" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="30">
       <c r="A125" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="45">
       <c r="A126" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="30">
       <c r="A127" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="30">
       <c r="A128" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="45">
       <c r="A129" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="30">
       <c r="A130" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="30">
       <c r="A131" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="30">
       <c r="A132" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="30">
       <c r="A133" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="30">
       <c r="A134" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="30">
       <c r="A135" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="30">
       <c r="A136" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="30">
       <c r="A137" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="30">
       <c r="A139" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="30">
       <c r="A141" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="38.25">
       <c r="A145" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="25.5">
       <c r="A146" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="25.5">
       <c r="A147" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="25.5">
       <c r="A149" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="25.5">
       <c r="A150" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="25.5">
       <c r="A153" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="25.5">
       <c r="A154" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="25.5">
       <c r="A163" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="38.25">
       <c r="A168" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="25.5">
       <c r="A170" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="25.5">
       <c r="A172" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="25.5">
       <c r="A173" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="25.5">
       <c r="A174" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="25.5">
       <c r="A175" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="25.5">
       <c r="A176" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="25.5">
       <c r="A177" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="63.75">
       <c r="A178" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="25.5">
       <c r="A179" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="25.5">
       <c r="A181" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="38.25">
       <c r="A182" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="25.5">
       <c r="A186" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="25.5">
       <c r="A190" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="25.5">
       <c r="A191" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="25.5">
       <c r="A194" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="25.5">
       <c r="A195" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="25.5">
       <c r="A196" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="25.5">
       <c r="A200" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="25.5">
       <c r="A201" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="25.5">
       <c r="A202" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="25.5">
       <c r="A203" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="51">
       <c r="A207" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="25.5">
       <c r="A209" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="25.5">
       <c r="A210" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="38.25">
       <c r="A212" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="25.5">
       <c r="A214" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="25.5">
       <c r="A216" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="25.5">
       <c r="A219" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="25.5">
       <c r="A220" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="51">
       <c r="A221" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="25.5">
       <c r="A222" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="25.5">
       <c r="A224" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="25.5">
       <c r="A226" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="25.5">
       <c r="A229" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="25.5">
       <c r="A230" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="25.5">
       <c r="A232" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="38.25">
       <c r="A233" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="25.5">
       <c r="A234" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="25.5">
       <c r="A236" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="25.5">
       <c r="A237" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="38.25">
       <c r="A238" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="25.5">
       <c r="A239" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="51">
       <c r="A240" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="25.5">
       <c r="A241" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="25.5">
       <c r="A242" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="38.25">
       <c r="A243" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="25.5">
       <c r="A244" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="25.5">
       <c r="A249" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="25.5">
       <c r="A254" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="25.5">
       <c r="A255" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="25.5">
       <c r="A259" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="25.5">
       <c r="A261" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="25.5">
       <c r="A263" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="25.5">
       <c r="A264" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="38.25">
       <c r="A265" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="38.25">
       <c r="A268" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="51">
       <c r="A269" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="25.5">
       <c r="A270" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="25.5">
       <c r="A273" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="25.5">
       <c r="A275" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="25.5">
       <c r="A276" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="25.5">
       <c r="A277" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="38.25">
       <c r="A279" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="38.25">
       <c r="A280" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="25.5">
       <c r="A281" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="25.5">
       <c r="A282" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="25.5">
       <c r="A283" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="51">
       <c r="A285" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="25.5">
       <c r="A286" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="25.5">
       <c r="A287" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="25.5">
       <c r="A288" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="25.5">
       <c r="A289" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="25.5">
       <c r="A290" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="25.5">
       <c r="A292" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="25.5">
       <c r="A293" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="25.5">
       <c r="A295" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="38.25">
       <c r="A296" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="25.5">
       <c r="A297" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="25.5">
       <c r="A298" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="25.5">
       <c r="A301" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="25.5">
       <c r="A303" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="25.5">
       <c r="A305" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="25.5">
       <c r="A307" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="25.5">
       <c r="A311" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="25.5">
       <c r="A313" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="25.5">
       <c r="A322" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="25.5">
       <c r="A324" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="25.5">
       <c r="A325" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="38.25">
       <c r="A326" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="38.25">
       <c r="A328" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="25.5">
       <c r="A337" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="25.5">
       <c r="A346" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="25.5">
       <c r="A347" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="25.5">
       <c r="A351" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="25.5">
       <c r="A356" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="38.25">
       <c r="A360" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="25.5">
       <c r="A371" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="25.5">
       <c r="A382" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="25.5">
       <c r="A383" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="25.5">
       <c r="A395" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="25.5">
       <c r="A403" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="25.5">
       <c r="A407" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="25.5">
       <c r="A409" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="38.25">
       <c r="A410" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="25.5">
       <c r="A411" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="25.5">
       <c r="A428" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="25.5">
       <c r="A433" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="25.5">
       <c r="A434" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="25.5">
       <c r="A436" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="25.5">
       <c r="A440" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="25.5">
       <c r="A441" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="25.5">
       <c r="A442" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="25.5">
       <c r="A444" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="25.5">
       <c r="A446" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="25.5">
       <c r="A452" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="25.5">
       <c r="A460" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="25.5">
       <c r="A463" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="25.5">
       <c r="A465" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="38.25">
       <c r="A467" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="38.25">
       <c r="A470" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="25.5">
       <c r="A473" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="25.5">
       <c r="A475" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="25.5">
       <c r="A479" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="25.5">
       <c r="A480" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="25.5">
       <c r="A482" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="25.5">
       <c r="A483" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="25.5">
       <c r="A485" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="25.5">
       <c r="A490" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="25.5">
       <c r="A494" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="25.5">
       <c r="A496" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="25.5">
       <c r="A498" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="25.5">
       <c r="A501" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="25.5">
       <c r="A504" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="25.5">
       <c r="A505" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="25.5">
       <c r="A510" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="25.5">
       <c r="A512" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="25.5">
       <c r="A514" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="38.25">
       <c r="A515" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="528" spans="1:1" ht="25.5">
       <c r="A528" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="25.5">
       <c r="A529" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="25.5">
       <c r="A536" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="545" spans="1:1" ht="25.5">
       <c r="A545" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="550" spans="1:1" ht="25.5">
       <c r="A550" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="25.5">
       <c r="A552" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="553" spans="1:1" ht="25.5">
       <c r="A553" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="555" spans="1:1" ht="25.5">
       <c r="A555" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="557" spans="1:1" ht="25.5">
       <c r="A557" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="558" spans="1:1" ht="25.5">
       <c r="A558" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="559" spans="1:1" ht="25.5">
       <c r="A559" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="25.5">
       <c r="A560" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="568" spans="1:1" ht="25.5">
       <c r="A568" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="570" spans="1:1" ht="25.5">
       <c r="A570" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="571" spans="1:1" ht="38.25">
       <c r="A571" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="25.5">
       <c r="A574" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="581" spans="1:1" ht="25.5">
       <c r="A581" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="582" spans="1:1" ht="25.5">
       <c r="A582" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="25.5">
       <c r="A584" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="25.5">
       <c r="A590" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="51">
       <c r="A602" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="605" spans="1:1" ht="25.5">
       <c r="A605" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="606" spans="1:1" ht="38.25">
       <c r="A606" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="613" spans="1:1" ht="38.25">
       <c r="A613" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="623" spans="1:1" ht="25.5">
       <c r="A623" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="624" spans="1:1" ht="25.5">
       <c r="A624" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="629" spans="1:1" ht="25.5">
       <c r="A629" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="630" spans="1:1" ht="25.5">
       <c r="A630" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="631" spans="1:1" ht="25.5">
       <c r="A631" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="633" spans="1:1" ht="25.5">
       <c r="A633" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="634" spans="1:1" ht="25.5">
       <c r="A634" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="645" spans="1:1" ht="25.5">
       <c r="A645" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="653" spans="1:1" ht="25.5">
       <c r="A653" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="662" spans="1:1" ht="25.5">
       <c r="A662" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="666" spans="1:1" ht="25.5">
       <c r="A666" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="673" spans="1:1" ht="25.5">
       <c r="A673" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="678" spans="1:1" ht="25.5">
       <c r="A678" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="680" spans="1:1" ht="38.25">
       <c r="A680" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="681" spans="1:1" ht="38.25">
       <c r="A681" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="682" spans="1:1" ht="25.5">
       <c r="A682" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="683" spans="1:1" ht="25.5">
       <c r="A683" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="685" spans="1:1" ht="25.5">
       <c r="A685" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="686" spans="1:1" ht="25.5">
       <c r="A686" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="690" spans="1:1" ht="25.5">
       <c r="A690" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="691" spans="1:1" ht="25.5">
       <c r="A691" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="692" spans="1:1" ht="25.5">
       <c r="A692" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="694" spans="1:1" ht="25.5">
       <c r="A694" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="704" spans="1:1" ht="25.5">
       <c r="A704" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="705" spans="1:1" ht="25.5">
       <c r="A705" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="729" spans="1:1" ht="25.5">
       <c r="A729" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="730" spans="1:1" ht="38.25">
       <c r="A730" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="731" spans="1:1" ht="25.5">
       <c r="A731" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="744" spans="1:1" ht="25.5">
       <c r="A744" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="747" spans="1:1" ht="25.5">
       <c r="A747" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="748" spans="1:1" ht="38.25">
       <c r="A748" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="749" spans="1:1" ht="38.25">
       <c r="A749" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="754" spans="1:1" ht="25.5">
       <c r="A754" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="760" spans="1:1" ht="25.5">
       <c r="A760" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="762" spans="1:1" ht="25.5">
       <c r="A762" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="765" spans="1:1" ht="38.25">
       <c r="A765" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="766" spans="1:1" ht="25.5">
       <c r="A766" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="768" spans="1:1" ht="38.25">
       <c r="A768" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="770" spans="1:1" ht="25.5">
       <c r="A770" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="780" spans="1:1" ht="25.5">
       <c r="A780" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="781" spans="1:1" ht="25.5">
       <c r="A781" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="784" spans="1:1" ht="25.5">
       <c r="A784" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="788" spans="1:1" ht="25.5">
       <c r="A788" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="794" spans="1:1" ht="25.5">
       <c r="A794" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="803" spans="1:1" ht="25.5">
       <c r="A803" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="809" spans="1:1" ht="25.5">
       <c r="A809" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="816" spans="1:1" ht="25.5">
       <c r="A816" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="826" spans="1:1" ht="25.5">
       <c r="A826" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="835" spans="1:1" ht="25.5">
       <c r="A835" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="838" spans="1:1" ht="25.5">
       <c r="A838" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="840" spans="1:1" ht="25.5">
       <c r="A840" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="841" spans="1:1" ht="25.5">
       <c r="A841" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="849" spans="1:1" ht="25.5">
       <c r="A849" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="861" spans="1:1" ht="38.25">
       <c r="A861" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="10" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="863" spans="1:1" ht="25.5">
       <c r="A863" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="10" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="869" spans="1:1" ht="25.5">
       <c r="A869" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="870" spans="1:1" ht="25.5">
       <c r="A870" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="872" spans="1:1" ht="38.25">
       <c r="A872" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="876" spans="1:1" ht="25.5">
       <c r="A876" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" s="10" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="892" spans="1:1" ht="25.5">
       <c r="A892" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="903" spans="1:1" ht="25.5">
       <c r="A903" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="917" spans="1:1" ht="25.5">
       <c r="A917" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919" s="10" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="922" spans="1:1" ht="38.25">
       <c r="A922" s="10" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923" s="10" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" s="10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="941" spans="1:1" ht="25.5">
       <c r="A941" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="943" spans="1:1" ht="25.5">
       <c r="A943" s="10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="944" spans="1:1" ht="25.5">
       <c r="A944" s="10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947" s="10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="949" spans="1:1" ht="51">
       <c r="A949" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="952" spans="1:1" ht="25.5">
       <c r="A952" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955" s="10" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" s="10" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="957" spans="1:1" ht="25.5">
       <c r="A957" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="959" spans="1:1" ht="25.5">
       <c r="A959" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="961" spans="1:1" ht="25.5">
       <c r="A961" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="965" spans="1:1" ht="25.5">
       <c r="A965" s="11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="966" spans="1:1" ht="25.5">
       <c r="A966" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967" s="10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" s="10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="973" spans="1:1" ht="25.5">
       <c r="A973" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" s="10" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986" s="10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" s="10" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988" s="10" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" s="10" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993" s="10" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994" s="10" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="995" spans="1:1" ht="25.5">
       <c r="A995" s="10" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="996" spans="1:1" ht="25.5">
       <c r="A996" s="10" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="997" spans="1:1" ht="25.5">
       <c r="A997" s="10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998" s="10" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999" s="10" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000" s="10" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001" s="10" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" s="10" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003" s="10" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004" s="10" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005" s="10" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006" s="10" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009" s="10" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011" s="10" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1012" spans="1:1" ht="25.5">
       <c r="A1012" s="10" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013" s="10" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014" s="10" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015" s="10" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016" s="10" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017" s="10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018" s="10" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1019" spans="1:1" ht="25.5">
       <c r="A1019" s="10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020" s="10" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021" s="10" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023" s="10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024" s="10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025" s="10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027" s="10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028" s="10" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030" s="10" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031" s="10" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1032" spans="1:1" ht="25.5">
       <c r="A1032" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1034" spans="1:1" ht="38.25">
       <c r="A1034" s="10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1035" spans="1:1" ht="38.25">
       <c r="A1035" s="10" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1037" spans="1:1" ht="38.25">
       <c r="A1037" s="10" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038" s="10" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039" s="10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040" s="10" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041" s="10" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042" s="10" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043" s="10" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045" s="10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1047" spans="1:1" ht="38.25">
       <c r="A1047" s="10" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1048" spans="1:1" ht="25.5">
       <c r="A1048" s="10" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049" s="10" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1050" spans="1:1" ht="25.5">
       <c r="A1050" s="10" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051" s="10" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052" s="10" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1053" spans="1:1" ht="25.5">
       <c r="A1053" s="10" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054" s="10" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1055" spans="1:1" ht="25.5">
       <c r="A1055" s="10" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056" s="10" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1057" spans="1:1" ht="25.5">
       <c r="A1057" s="10" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058" s="10" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059" s="10" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060" s="10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061" s="10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062" s="10" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063" s="10" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064" s="10" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1065" spans="1:1" ht="25.5">
       <c r="A1065" s="10" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066" s="10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1068" spans="1:1" ht="25.5">
       <c r="A1068" s="10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1070" spans="1:1" ht="25.5">
       <c r="A1070" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073" s="10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1078" spans="1:1" ht="25.5">
       <c r="A1078" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084" s="10" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085" s="10" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1086" spans="1:1" ht="25.5">
       <c r="A1086" s="10" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087" s="10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088" s="10" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1089" spans="1:1" ht="25.5">
       <c r="A1089" s="10" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090" s="10" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091" s="10" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1092" spans="1:1" ht="51">
       <c r="A1092" s="10" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094" s="10" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095" s="10" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1097" spans="1:1" ht="25.5">
       <c r="A1097" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099" s="10" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100" s="10" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104" s="10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1105" spans="1:1" ht="25.5">
       <c r="A1105" s="10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1106" spans="1:1" ht="38.25">
       <c r="A1106" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1107" spans="1:1" ht="25.5">
       <c r="A1107" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1109" spans="1:1" ht="38.25">
       <c r="A1109" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1110" spans="1:1" ht="25.5">
       <c r="A1110" s="10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111" s="10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115" s="10" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118" s="10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1119" spans="1:1" ht="25.5">
       <c r="A1119" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120" s="10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1122" spans="1:1" ht="25.5">
       <c r="A1122" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123" s="10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1129" spans="1:1" ht="25.5">
       <c r="A1129" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1130" spans="1:1" ht="25.5">
       <c r="A1130" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1131" spans="1:1" ht="51">
       <c r="A1131" s="11" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1133" spans="1:1" ht="25.5">
       <c r="A1133" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134" s="10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1135" spans="1:1" ht="25.5">
       <c r="A1135" s="10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138" s="10" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1144" spans="1:1" ht="38.25">
       <c r="A1144" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1145" spans="1:1" ht="38.25">
       <c r="A1145" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1147" spans="1:1" ht="25.5">
       <c r="A1147" s="10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1148" spans="1:1" ht="25.5">
       <c r="A1148" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1149" spans="1:1" ht="25.5">
       <c r="A1149" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1152" spans="1:1" ht="25.5">
       <c r="A1152" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1153" spans="1:1" ht="25.5">
       <c r="A1153" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1154" spans="1:1" ht="25.5">
       <c r="A1154" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1157" spans="1:1" ht="25.5">
       <c r="A1157" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1160" spans="1:1" ht="38.25">
       <c r="A1160" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1162" spans="1:1" ht="25.5">
       <c r="A1162" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1165" spans="1:1" ht="38.25">
       <c r="A1165" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1167" spans="1:1" ht="25.5">
       <c r="A1167" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1169" spans="1:1" ht="25.5">
       <c r="A1169" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1171" spans="1:1" ht="25.5">
       <c r="A1171" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173" s="10" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174" s="10" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1177" spans="1:1" ht="25.5">
       <c r="A1177" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1178" spans="1:1" ht="25.5">
       <c r="A1178" s="10" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179" s="10" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1181" spans="1:1" ht="25.5">
       <c r="A1181" s="10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1182" spans="1:1" ht="25.5">
       <c r="A1182" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1183" spans="1:1" ht="25.5">
       <c r="A1183" s="10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1184" spans="1:1" ht="25.5">
       <c r="A1184" s="10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186" s="10" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1187" spans="1:1" ht="25.5">
       <c r="A1187" s="10" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1188" spans="1:1" ht="25.5">
       <c r="A1188" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1189" spans="1:1" ht="25.5">
       <c r="A1189" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1191" spans="1:1" ht="25.5">
       <c r="A1191" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1192" spans="1:1" ht="25.5">
       <c r="A1192" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1196" spans="1:1" ht="25.5">
       <c r="A1196" s="10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1197" spans="1:1" ht="25.5">
       <c r="A1197" s="10" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1198" spans="1:1" ht="25.5">
       <c r="A1198" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199" s="10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1201" spans="1:1" ht="25.5">
       <c r="A1201" s="10" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1202" spans="1:1" ht="25.5">
       <c r="A1202" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203" s="10" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205" s="10" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1206" spans="1:1" ht="25.5">
       <c r="A1206" s="10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1207" spans="1:1" ht="25.5">
       <c r="A1207" s="10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1209" spans="1:1" ht="25.5">
       <c r="A1209" s="10" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1210" spans="1:1" ht="25.5">
       <c r="A1210" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1211" spans="1:1" ht="25.5">
       <c r="A1211" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1212" spans="1:1" ht="25.5">
       <c r="A1212" s="10" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213" s="10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1214" spans="1:1" ht="25.5">
       <c r="A1214" s="10" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1215" spans="1:1" ht="38.25">
       <c r="A1215" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1216" spans="1:1" ht="25.5">
       <c r="A1216" s="10" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217" s="10" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218" s="10" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1219" spans="1:1" ht="25.5">
       <c r="A1219" s="10" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220" s="10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1221" spans="1:1" ht="38.25">
       <c r="A1221" s="10" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1222" spans="1:1" ht="25.5">
       <c r="A1222" s="10" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1223" spans="1:1" ht="25.5">
       <c r="A1223" s="10" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224" s="10" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1225" spans="1:1" ht="25.5">
       <c r="A1225" s="10" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226" s="10" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1227" spans="1:1" ht="25.5">
       <c r="A1227" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1228" spans="1:1" ht="25.5">
       <c r="A1228" s="10" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229" s="10" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1230" spans="1:1" ht="38.25">
       <c r="A1230" s="10" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232" s="10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233" s="10" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235" s="10" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1236" spans="1:1" ht="25.5">
       <c r="A1236" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238" s="10" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239" s="10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1240" spans="1:1" ht="25.5">
       <c r="A1240" s="10" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241" s="10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242" s="10" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243" s="10" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1244" spans="1:1" ht="25.5">
       <c r="A1244" s="10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1245" spans="1:1" ht="38.25">
       <c r="A1245" s="10" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1246" spans="1:1" ht="25.5">
       <c r="A1246" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1248" spans="1:1" ht="25.5">
       <c r="A1248" s="10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1250" spans="1:1" ht="25.5">
       <c r="A1250" s="10" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251" s="10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252" s="10" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253" s="10" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1254" spans="1:1" ht="25.5">
       <c r="A1254" s="10" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255" s="10" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1256" spans="1:1" ht="25.5">
       <c r="A1256" s="10" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1257" spans="1:1" ht="38.25">
       <c r="A1257" s="11" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258" s="10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259" s="10" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1261" spans="1:1" ht="25.5">
       <c r="A1261" s="10" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1262" spans="1:1" ht="25.5">
       <c r="A1262" s="10" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1263" spans="1:1" ht="25.5">
       <c r="A1263" s="10" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1264" spans="1:1" ht="25.5">
       <c r="A1264" s="10" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1265" spans="1:1" ht="25.5">
       <c r="A1265" s="10" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266" s="10" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267" s="10" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1268" spans="1:1" ht="25.5">
       <c r="A1268" s="10" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1269" spans="1:1" ht="25.5">
       <c r="A1269" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270" s="10" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271" s="10" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272" s="10" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273" s="10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274" s="10" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275" s="10" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1276" spans="1:1" ht="25.5">
       <c r="A1276" s="10" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277" s="10" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278" s="10" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279" s="10" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1280" spans="1:1" ht="51">
       <c r="A1280" s="11" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281" s="10" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1282" spans="1:1" ht="38.25">
       <c r="A1282" s="10" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1283" spans="1:1" ht="25.5">
       <c r="A1283" s="10" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1284" spans="1:1" ht="25.5">
       <c r="A1284" s="10" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1285" spans="1:1" ht="38.25">
       <c r="A1285" s="10" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1286" spans="1:1" ht="25.5">
       <c r="A1286" s="10" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287" s="10" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288" s="10" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289" s="10" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1290" spans="1:1" ht="25.5">
       <c r="A1290" s="10" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1291" spans="1:1" ht="25.5">
       <c r="A1291" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1292" spans="1:1" ht="38.25">
       <c r="A1292" s="10" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1293" spans="1:1" ht="25.5">
       <c r="A1293" s="10" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1294" spans="1:1" ht="25.5">
       <c r="A1294" s="10" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295" s="10" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1296" spans="1:1" ht="25.5">
       <c r="A1296" s="10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1297" spans="1:1" ht="25.5">
       <c r="A1297" s="10" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298" s="10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1299" spans="1:1" ht="25.5">
       <c r="A1299" s="10" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1300" spans="1:1" ht="25.5">
       <c r="A1300" s="10" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1301" spans="1:1" ht="25.5">
       <c r="A1301" s="10" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1302" spans="1:1" ht="25.5">
       <c r="A1302" s="10" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1303" spans="1:1" ht="25.5">
       <c r="A1303" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1304" spans="1:1" ht="25.5">
       <c r="A1304" s="10" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305" s="10" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1306" spans="1:1" ht="25.5">
       <c r="A1306" s="10" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307" s="10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308" s="10" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1309" spans="1:1" ht="25.5">
       <c r="A1309" s="10" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310" s="10" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311" s="10" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1312" spans="1:1" ht="25.5">
       <c r="A1312" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313" s="10" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314" s="10" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315" s="10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316" s="10" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1317" spans="1:1" ht="25.5">
       <c r="A1317" s="10" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318" s="10" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1320" spans="1:1" ht="25.5">
       <c r="A1320" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1321" spans="1:1" ht="25.5">
       <c r="A1321" s="10" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1323" spans="1:1" ht="25.5">
       <c r="A1323" s="10" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324" s="10" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1325" spans="1:1" ht="25.5">
       <c r="A1325" s="10" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1326" spans="1:1" ht="25.5">
       <c r="A1326" s="10" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327" s="10" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328" s="10" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1329" spans="1:1" ht="38.25">
       <c r="A1329" s="10" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330" s="10" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331" s="10" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332" s="10" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1334" spans="1:1" ht="25.5">
       <c r="A1334" s="10" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335" s="10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336" s="10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337" s="10" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1338" spans="1:1" ht="38.25">
       <c r="A1338" s="10" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339" s="10" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340" s="10" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1341" spans="1:1" ht="25.5">
       <c r="A1341" s="10" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1342" spans="1:1" ht="25.5">
       <c r="A1342" s="10" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343" s="10" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344" s="10" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1345" spans="1:1" ht="25.5">
       <c r="A1345" s="10" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1346" spans="1:1" ht="25.5">
       <c r="A1346" s="10" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347" s="10" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1348" spans="1:1" ht="25.5">
       <c r="A1348" s="10" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349" s="10" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350" s="10" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1351" spans="1:1" ht="25.5">
       <c r="A1351" s="10" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352" s="10" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1353" spans="1:1" ht="25.5">
       <c r="A1353" s="10" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1354" spans="1:1" ht="25.5">
       <c r="A1354" s="10" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355" s="10" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356" s="10" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357" s="10" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358" s="10" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1359" spans="1:1" ht="25.5">
       <c r="A1359" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1362" spans="1:1" ht="25.5">
       <c r="A1362" s="10" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363" s="10" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364" s="10" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365" s="10" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366" s="10" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1367" spans="1:1" ht="38.25">
       <c r="A1367" s="10" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1368" spans="1:1" ht="25.5">
       <c r="A1368" s="10" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369" s="10" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370" s="10" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371" s="10" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373" s="10" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374" s="10" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375" s="10" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376" s="10" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377" s="10" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378" s="10" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379" s="10" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380" s="10" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381" s="10" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1382" spans="1:1" ht="38.25">
       <c r="A1382" s="10" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1383" spans="1:1" ht="25.5">
       <c r="A1383" s="10" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1384" spans="1:1" ht="25.5">
       <c r="A1384" s="10" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1385" spans="1:1" ht="25.5">
       <c r="A1385" s="10" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1386" spans="1:1" ht="25.5">
       <c r="A1386" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1387" spans="1:1" ht="38.25">
       <c r="A1387" s="10" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1388" spans="1:1" ht="38.25">
       <c r="A1388" s="10" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389" s="10" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390" s="10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1391" spans="1:1" ht="25.5">
       <c r="A1391" s="10" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1392" spans="1:1" ht="25.5">
       <c r="A1392" s="10" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393" s="10" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1394" spans="1:1" ht="25.5">
       <c r="A1394" s="10" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395" s="10" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396" s="10" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397" s="10" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398" s="10" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1399" spans="1:1" ht="38.25">
       <c r="A1399" s="10" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1401" spans="1:1" ht="25.5">
       <c r="A1401" s="10" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402" s="10" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403" s="10" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1404" spans="1:1" ht="25.5">
       <c r="A1404" s="10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1406" spans="1:1" ht="25.5">
       <c r="A1406" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1407" spans="1:1" ht="25.5">
       <c r="A1407" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408" s="10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409" s="10" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1410" spans="1:1" ht="25.5">
       <c r="A1410" s="10" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1411" spans="1:1" ht="25.5">
       <c r="A1411" s="10" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1412" spans="1:1" ht="25.5">
       <c r="A1412" s="10" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413" s="10" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1414" spans="1:1" ht="25.5">
       <c r="A1414" s="10" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1415" spans="1:1" ht="25.5">
       <c r="A1415" s="10" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417" s="10" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418" s="10" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1419" spans="1:1" ht="25.5">
       <c r="A1419" s="10" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420" s="14" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421" s="10" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422" s="10" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1423" spans="1:1" ht="25.5">
       <c r="A1423" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424" s="10" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1425" spans="1:1" ht="25.5">
       <c r="A1425" s="10" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426" s="10" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427" s="10" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428" s="10" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429" s="10" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1430" spans="1:1" ht="25.5">
       <c r="A1430" s="10" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431" s="10" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433" s="10" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434" s="10" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1435" spans="1:1" ht="38.25">
       <c r="A1435" s="10" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436" s="10" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438" s="10" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1439" spans="1:1" ht="25.5">
       <c r="A1439" s="10" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1441" spans="1:1" ht="25.5">
       <c r="A1441" s="10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1442" spans="1:1" ht="25.5">
       <c r="A1442" s="10" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1443" spans="1:1" ht="38.25">
       <c r="A1443" s="10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1444" spans="1:1" ht="25.5">
       <c r="A1444" s="10" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1445" spans="1:1" ht="25.5">
       <c r="A1445" s="10" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446" s="10" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1447" spans="1:1" ht="25.5">
       <c r="A1447" s="10" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1448" spans="1:1" ht="51">
       <c r="A1448" s="11" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1449" spans="1:1" ht="25.5">
       <c r="A1449" s="10" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1450" spans="1:1" ht="25.5">
       <c r="A1450" s="10" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1451" spans="1:1" ht="25.5">
       <c r="A1451" s="10" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1452" spans="1:1" ht="25.5">
       <c r="A1452" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1453" spans="1:1" ht="25.5">
       <c r="A1453" s="10" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1455" spans="1:1" ht="38.25">
       <c r="A1455" s="10" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456" s="10" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457" s="10" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1458" spans="1:1" ht="25.5">
       <c r="A1458" s="10" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1459" spans="1:1" ht="25.5">
       <c r="A1459" s="10" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460" s="10" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1461" spans="1:1" ht="25.5">
       <c r="A1461" s="10" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1462" spans="1:1" ht="38.25">
       <c r="A1462" s="10" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1463" spans="1:1" ht="25.5">
       <c r="A1463" s="10" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1464" spans="1:1" ht="25.5">
       <c r="A1464" s="10" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1465" spans="1:1" ht="38.25">
       <c r="A1465" s="10" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
